--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -2,19 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
+    <sheet name="Matriz" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="PCEntradasN1" sheetId="4" r:id="rId3"/>
+    <sheet name="PCEntradasN2" sheetId="5" r:id="rId4"/>
+    <sheet name="PCSaídasN1" sheetId="6" r:id="rId5"/>
+    <sheet name="PCSaídasN2" sheetId="7" r:id="rId6"/>
+    <sheet name="RegistroEntradas" sheetId="8" r:id="rId7"/>
+    <sheet name="RegistroSaídas" sheetId="9" r:id="rId8"/>
+    <sheet name="FluxoCaixaConsolidado" sheetId="10" r:id="rId9"/>
+    <sheet name="DetalhaReceita" sheetId="11" r:id="rId10"/>
+    <sheet name="DetalhaDespesa" sheetId="12" r:id="rId11"/>
+    <sheet name="ContasPagar" sheetId="13" r:id="rId12"/>
+    <sheet name="ContasReceber" sheetId="14" r:id="rId13"/>
+    <sheet name="ContasReceberVencidas" sheetId="15" r:id="rId14"/>
+    <sheet name="DashBoardFinanceiroAtual" sheetId="16" r:id="rId15"/>
+    <sheet name="DashBoardFinanceiroMensal" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -33,12 +48,58 @@
   <si>
     <t>Nome do resposável</t>
   </si>
+  <si>
+    <t>TÍTULO</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE ENTRADA - Nível 1</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE ENTRADA - Nível 2</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE SAÍDA - Nível 2</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE SAÍDA - Nível 1</t>
+  </si>
+  <si>
+    <t>REGISTRO DAS ENTRADAS DE CAIXA</t>
+  </si>
+  <si>
+    <t>REGISTRO DAS SAÍDAS DE CAIXA</t>
+  </si>
+  <si>
+    <t>FLUXO DE CAIXA E RESULTADO MENSAL
+REGIMES DE CAIXA E DE COMPETÊNCIA</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DE RECEITA</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DE DESPESA</t>
+  </si>
+  <si>
+    <t>CONTAS A PAGAR</t>
+  </si>
+  <si>
+    <t>CONTAS A RECEBER</t>
+  </si>
+  <si>
+    <t>CONTAS A RECEBER VENCIDAS</t>
+  </si>
+  <si>
+    <t>DASHBOARD FINANCEIRO - POSIÇÃO ATUAL</t>
+  </si>
+  <si>
+    <t>DASHBOARD FINANCEIRO - POSIÇÃO MENSAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,8 +123,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +151,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -95,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -105,12 +180,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3399FF"/>
+      <color rgb="FF66CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -400,7 +485,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Retângulo 6"/>
+        <xdr:cNvPr id="7" name="Retângulo 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -412,9 +499,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -470,7 +555,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Retângulo 8"/>
+        <xdr:cNvPr id="9" name="Retângulo 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -482,9 +569,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -540,7 +625,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Retângulo 9"/>
+        <xdr:cNvPr id="10" name="Retângulo 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -552,9 +639,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -610,7 +695,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Retângulo 10"/>
+        <xdr:cNvPr id="11" name="Retângulo 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -622,9 +709,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -680,7 +765,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Retângulo 11"/>
+        <xdr:cNvPr id="12" name="Retângulo 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -692,9 +779,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -749,7 +834,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Retângulo 12"/>
+        <xdr:cNvPr id="13" name="Retângulo 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -761,9 +848,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -819,7 +904,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Retângulo 13"/>
+        <xdr:cNvPr id="14" name="Retângulo 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -831,9 +918,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -889,7 +974,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Retângulo 14"/>
+        <xdr:cNvPr id="15" name="Retângulo 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -901,9 +988,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -959,7 +1044,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Retângulo 15"/>
+        <xdr:cNvPr id="16" name="Retângulo 15">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -971,9 +1058,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1029,7 +1114,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Retângulo 16"/>
+        <xdr:cNvPr id="17" name="Retângulo 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1041,9 +1128,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1099,7 +1184,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Retângulo 17"/>
+        <xdr:cNvPr id="18" name="Retângulo 17">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1111,9 +1198,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1169,7 +1254,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Retângulo 18"/>
+        <xdr:cNvPr id="19" name="Retângulo 18">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1181,9 +1268,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1239,7 +1324,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Retângulo 20"/>
+        <xdr:cNvPr id="21" name="Retângulo 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1251,9 +1338,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1309,7 +1394,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Retângulo 23"/>
+        <xdr:cNvPr id="24" name="Retângulo 23">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1321,9 +1408,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="3399FF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1385,7 +1470,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1406,6 +1491,1054 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Retângulo 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="1200149" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3399FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>INÍCIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1698,11 +2831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N17"/>
+  <sheetPr codeName="Plan1"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1780,4 +2912,1074 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan10"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan11"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan12"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan13"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan14"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan15"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan16"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan2"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan3"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan4"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan5"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan6"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan7"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan8"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan9"/>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -94,12 +94,33 @@
   <si>
     <t>DASHBOARD FINANCEIRO - POSIÇÃO MENSAL</t>
   </si>
+  <si>
+    <t>PLANO DE CONTAS DE ENTRADA NÍVEL 1</t>
+  </si>
+  <si>
+    <t>Nível 1</t>
+  </si>
+  <si>
+    <t>Empréstimos de curto prazo</t>
+  </si>
+  <si>
+    <t>Financiamentos de longo prazo</t>
+  </si>
+  <si>
+    <t>Receitas Financeiras</t>
+  </si>
+  <si>
+    <t>Venda de ativos</t>
+  </si>
+  <si>
+    <t>Vendas de mercadorias</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +146,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
@@ -132,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -181,14 +216,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -2542,6 +2590,16 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B4:B9"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Nível 1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2834,7 +2892,7 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3489,7 +3547,10 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3534,13 +3595,65 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3552,6 +3665,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,15 @@
     <sheet name="DashBoardFinanceiroAtual" sheetId="16" r:id="rId15"/>
     <sheet name="DashBoardFinanceiroMensal" sheetId="17" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="PCEntradasN1_Nível_1">TbPCEntradasN1[Nível 1]</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -115,6 +118,36 @@
   <si>
     <t>Vendas de mercadorias</t>
   </si>
+  <si>
+    <t>PLANO DE CONTAS DE ENTRADAS NÍVEL 2</t>
+  </si>
+  <si>
+    <t>Nível 2</t>
+  </si>
+  <si>
+    <t>Empréstimos capital de giro</t>
+  </si>
+  <si>
+    <t>Juros sobre aplicações</t>
+  </si>
+  <si>
+    <t>Mobiliário próprio</t>
+  </si>
+  <si>
+    <t>Eletrodomésticos</t>
+  </si>
+  <si>
+    <t>Informática</t>
+  </si>
+  <si>
+    <t>Livros</t>
+  </si>
+  <si>
+    <t>Móveis</t>
+  </si>
+  <si>
+    <t>Som e imagem</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -201,11 +234,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -216,18 +290,25 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -235,6 +316,37 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2597,6 +2709,17 @@
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C12" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2">
+  <autoFilter ref="B4:C12"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Nível 1"/>
+    <tableColumn id="2" name="Nível 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3547,9 +3670,9 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3719,7 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5"/>
@@ -3613,7 +3736,7 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5"/>
@@ -3676,13 +3799,17 @@
   <sheetPr codeName="Plan4"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
@@ -3721,24 +3848,125 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B12">
+      <formula1>PCEntradasN1_Nível_1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4053,13 +4281,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
   <definedNames>
     <definedName name="PCEntradasN1_Nível_1">TbPCEntradasN1[Nível 1]</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -147,6 +147,27 @@
   </si>
   <si>
     <t>Som e imagem</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE SAÍDA NÍVEL 1</t>
+  </si>
+  <si>
+    <t>Compra de mercadorias</t>
+  </si>
+  <si>
+    <t>Despesas administrativas</t>
+  </si>
+  <si>
+    <t>Despesas comerciais</t>
+  </si>
+  <si>
+    <t>Despesas financeiras</t>
+  </si>
+  <si>
+    <t>Imposto de renda</t>
+  </si>
+  <si>
+    <t>Impostos sobre as vendas</t>
   </si>
 </sst>
 </file>
@@ -279,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -304,11 +325,46 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2705,7 +2761,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -2715,11 +2771,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C12" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C12" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4">
   <autoFilter ref="B4:C12"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
     <tableColumn id="2" name="Nível 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+  <autoFilter ref="B4:B10"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Nível 1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3799,9 +3865,9 @@
   <sheetPr codeName="Plan4"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,7 +4041,10 @@
   <sheetPr codeName="Plan5"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4020,14 +4089,70 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4038,6 +4163,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
   </sheets>
   <definedNames>
     <definedName name="PCEntradasN1_Nível_1">TbPCEntradasN1[Nível 1]</definedName>
+    <definedName name="PCSaídasN1_Nível_1">TbPCSaídasN1[Nível 1]</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -168,6 +169,30 @@
   </si>
   <si>
     <t>Impostos sobre as vendas</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE SAÍDA NÍVEL 2</t>
+  </si>
+  <si>
+    <t>Vestuário</t>
+  </si>
+  <si>
+    <t>Comunicação - internet e telefonia</t>
+  </si>
+  <si>
+    <t>Energia elétrica</t>
+  </si>
+  <si>
+    <t>Encargos sobre os salários dos vendedores</t>
+  </si>
+  <si>
+    <t>Salários dos vendedores</t>
+  </si>
+  <si>
+    <t>Juros sobre empréstimos</t>
+  </si>
+  <si>
+    <t>IR sobre o lucro presumido</t>
   </si>
 </sst>
 </file>
@@ -318,6 +343,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,23 +353,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -350,12 +377,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -364,6 +385,14 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2761,7 +2790,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -2771,7 +2800,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C12" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C12" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5">
   <autoFilter ref="B4:C12"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -2786,6 +2815,17 @@
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B4:C15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Nível 1"/>
+    <tableColumn id="2" name="Nível 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3867,7 +3907,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,10 +3955,10 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -3932,10 +3972,10 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="5"/>
@@ -4041,9 +4081,9 @@
   <sheetPr codeName="Plan5"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,7 +4147,7 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5"/>
@@ -4174,13 +4214,17 @@
   <sheetPr codeName="Plan6"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
+    <col min="4" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
@@ -4219,24 +4263,146 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B15">
+      <formula1>PCSaídasN1_Nível_1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -193,12 +193,48 @@
   </si>
   <si>
     <t>IR sobre o lucro presumido</t>
+  </si>
+  <si>
+    <t>Data do Caixa Realizado</t>
+  </si>
+  <si>
+    <t>Data da Competência</t>
+  </si>
+  <si>
+    <t>Data do Caixa Previsto</t>
+  </si>
+  <si>
+    <t>Conta Nível 1</t>
+  </si>
+  <si>
+    <t>Conta Nível 2</t>
+  </si>
+  <si>
+    <t>Histórico</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>NF001</t>
+  </si>
+  <si>
+    <t>NF773</t>
+  </si>
+  <si>
+    <t>NF2639</t>
+  </si>
+  <si>
+    <t>NF-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -340,27 +376,86 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -393,22 +488,6 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -427,11 +506,12 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2790,7 +2870,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -2800,7 +2880,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C12" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C12" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="B4:C12"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -2811,7 +2891,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -2821,11 +2901,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B4:C15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
     <tableColumn id="2" name="Nível 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:H7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B3:H7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="4"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="3"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="0"/>
+    <tableColumn id="4" name="Conta Nível 1"/>
+    <tableColumn id="5" name="Conta Nível 2"/>
+    <tableColumn id="6" name="Histórico"/>
+    <tableColumn id="7" name="Valor" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3955,10 +4051,10 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -3972,10 +4068,10 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="5"/>
@@ -4130,7 +4226,7 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="5"/>
@@ -4147,7 +4243,7 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5"/>
@@ -4214,7 +4310,7 @@
   <sheetPr codeName="Plan6"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -4264,10 +4360,10 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -4411,69 +4507,184 @@
   <sheetPr codeName="Plan7"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
+    <col min="10" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+    <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="2:8" s="21" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13">
+        <v>43146</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43146</v>
+      </c>
+      <c r="D4" s="13">
+        <v>43146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
+        <v>43530</v>
+      </c>
+      <c r="C5" s="13">
+        <v>43466</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43496</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="16">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>43467</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43467</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43467</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>43535</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43467</v>
+      </c>
+      <c r="D7" s="13">
+        <v>43497</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7">
+      <formula1>PCEntradasN1_Nível_1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4575,13 +4786,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -26,6 +26,8 @@
   </sheets>
   <definedNames>
     <definedName name="PCEntradasN1_Nível_1">TbPCEntradasN1[Nível 1]</definedName>
+    <definedName name="PCEntradasN2_Nível_1">TbPCEntradasN2[Nível 1]</definedName>
+    <definedName name="PCEntradasN2_Nível_2">TbPCEntradasN2[Nível 2]</definedName>
     <definedName name="PCSaídasN1_Nível_1">TbPCSaídasN1[Nível 1]</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -226,6 +228,9 @@
   </si>
   <si>
     <t>NF-16</t>
+  </si>
+  <si>
+    <t>Geral</t>
   </si>
 </sst>
 </file>
@@ -421,6 +426,37 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -472,37 +508,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2880,8 +2885,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C12" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
-  <autoFilter ref="B4:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="B4:C13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
     <tableColumn id="2" name="Nível 2"/>
@@ -2891,7 +2896,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -2901,7 +2906,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B4:C15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -2912,16 +2917,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:H7" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:H7" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B3:H7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="4"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="3"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="0"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="6"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="5"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="2"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="2"/>
+    <tableColumn id="7" name="Valor" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4003,7 +4008,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:N4"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,7 +4155,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4160,7 +4172,7 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B13">
       <formula1>PCEntradasN1_Nível_1</formula1>
     </dataValidation>
   </dataValidations>
@@ -4312,7 +4324,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4509,7 +4521,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4655,7 +4667,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
@@ -4675,9 +4687,12 @@
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7">
       <formula1>PCEntradasN1_Nível_1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7">
+      <formula1>OFFSET(PCEntradasN2_Nível_2,MATCH(E4,PCEntradasN2_Nível_1,0)-1,0,COUNTIF(PCEntradasN2_Nível_1,E4))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>Geral</t>
+  </si>
+  <si>
+    <t>NF1234</t>
+  </si>
+  <si>
+    <t>NF2187</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -313,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -362,11 +371,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -420,11 +438,70 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -2875,7 +2952,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -2885,7 +2962,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
   <autoFilter ref="B4:C13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -2896,7 +2973,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -2906,7 +2983,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="B4:C15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -2917,16 +2994,32 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:H7" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:H7" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B3:H7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="6"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="5"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="2"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="13"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="12"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="9"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="4"/>
+    <tableColumn id="7" name="Valor" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:H7" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B3:H7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="3"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="2"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="1"/>
+    <tableColumn id="4" name="Conta Nível 1"/>
+    <tableColumn id="5" name="Conta Nível 2"/>
+    <tableColumn id="6" name="Histórico"/>
+    <tableColumn id="7" name="Valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4191,7 +4284,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B10"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,9 +4612,9 @@
   <sheetPr codeName="Plan7"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4708,18 +4801,26 @@
   <sheetPr codeName="Plan8"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4728,17 +4829,11 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4746,31 +4841,143 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="3" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13">
+        <v>43147</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43147</v>
+      </c>
+      <c r="D4" s="13">
+        <v>43147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
+        <v>43531</v>
+      </c>
+      <c r="C5" s="13">
+        <v>43466</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43496</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>43496</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43466</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43496</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="16">
+        <v>4615.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>43496</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43466</v>
+      </c>
+      <c r="D7" s="13">
+        <v>43496</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="16">
+        <v>15384</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7">
+      <formula1>PCSaídasN1_Nível_1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -29,13 +29,15 @@
     <definedName name="PCEntradasN2_Nível_1">TbPCEntradasN2[Nível 1]</definedName>
     <definedName name="PCEntradasN2_Nível_2">TbPCEntradasN2[Nível 2]</definedName>
     <definedName name="PCSaídasN1_Nível_1">TbPCSaídasN1[Nível 1]</definedName>
+    <definedName name="PCSaídasN2_Nível_1">TbPCSaídasN2[Nível 1]</definedName>
+    <definedName name="PCSaídasN2_Nível_2">TbPCSaídasN2[Nível 2]</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -2983,8 +2985,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="B4:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="B4:C16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
     <tableColumn id="2" name="Nível 2"/>
@@ -4417,7 +4419,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4588,14 +4590,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B16">
       <formula1>PCSaídasN1_Nível_1</formula1>
     </dataValidation>
   </dataValidations>
@@ -4803,7 +4812,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4968,9 +4977,12 @@
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7">
       <formula1>PCSaídasN1_Nível_1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7">
+      <formula1>OFFSET(PCSaídasN2_Nível_2,MATCH(E4,PCSaídasN2_Nível_1,0)-1,0,COUNTIF(PCSaídasN2_Nível_1,E4))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="538">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -1574,16 +1574,95 @@
   </si>
   <si>
     <t>NF4931</t>
+  </si>
+  <si>
+    <t>ANO &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>FLUXO DE CAIXA - REGIME DE CAIXA (Realizado)</t>
+  </si>
+  <si>
+    <t>ESPECIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>SAÍDA</t>
+  </si>
+  <si>
+    <t>SALDO FINAL</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEV</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEZ</t>
+  </si>
+  <si>
+    <t>ENTRADAS</t>
+  </si>
+  <si>
+    <t>SALDO INICIAL</t>
+  </si>
+  <si>
+    <t>FLUXO DE CAIXA - REGIME DE COMPETÊNCIA (Contábil)</t>
+  </si>
+  <si>
+    <t>RESULTADO MENSAL - REGIME DE COMPETÊNCIA</t>
+  </si>
+  <si>
+    <t>TOTAL DE ENTRADAS</t>
+  </si>
+  <si>
+    <t>TOTAL DE SAÍDAS</t>
+  </si>
+  <si>
+    <t>LUCRO</t>
+  </si>
+  <si>
+    <t>PREJUÍZO</t>
+  </si>
+  <si>
+    <t>ACUMULADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,8 +1702,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1655,8 +1758,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1714,11 +1823,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1780,6 +2021,63 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11353,7 +11651,7 @@
   <sheetPr codeName="Plan8"/>
   <dimension ref="A1:O232"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -16705,15 +17003,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan9"/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
@@ -16752,21 +17052,402 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" s="28">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
     <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
+    </row>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
+    </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
+    </row>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+    </row>
+    <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
+    </row>
+    <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
+    </row>
+    <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="35"/>
+    </row>
+    <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="540">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -1652,6 +1652,12 @@
   </si>
   <si>
     <t>ACUMULADO</t>
+  </si>
+  <si>
+    <t>Mês Caixa</t>
+  </si>
+  <si>
+    <t>Ano Caixa</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +1965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2079,11 +2085,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -4584,7 +4614,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -4594,7 +4624,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19">
   <autoFilter ref="B4:C13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -4605,7 +4635,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -4615,7 +4645,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="B4:C16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -4626,32 +4656,50 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:H234" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:H234"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="10"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="9"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:J234" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="B3:J234">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2017" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="14"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="13"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="12"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="7"/>
+    <tableColumn id="7" name="Valor" dataDxfId="11"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="3">
+      <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="2">
+      <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:H232" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B3:H232"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="3"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="2"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:J232" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B3:J232"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="7"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="6"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="5"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="0"/>
+    <tableColumn id="7" name="Valor" dataDxfId="4"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="1">
+      <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="0">
+      <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6251,12 +6299,12 @@
   <sheetPr codeName="Plan7"/>
   <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="13" customWidth="1"/>
@@ -6266,12 +6314,12 @@
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
     <col min="7" max="7" width="51.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
@@ -6284,7 +6332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -6293,7 +6341,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="2:8" s="17" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="17" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
@@ -6315,8 +6363,14 @@
       <c r="H3" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>42994</v>
       </c>
@@ -6338,8 +6392,16 @@
       <c r="H4" s="16">
         <v>1133</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>42985</v>
       </c>
@@ -6361,8 +6423,16 @@
       <c r="H5" s="16">
         <v>164</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>43007</v>
       </c>
@@ -6384,8 +6454,16 @@
       <c r="H6" s="16">
         <v>2937</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>43020</v>
       </c>
@@ -6407,8 +6485,16 @@
       <c r="H7" s="16">
         <v>807</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>43014</v>
       </c>
@@ -6430,8 +6516,16 @@
       <c r="H8" s="16">
         <v>2612</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>43054</v>
       </c>
@@ -6453,8 +6547,16 @@
       <c r="H9" s="16">
         <v>2483</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>43087</v>
       </c>
@@ -6476,8 +6578,16 @@
       <c r="H10" s="16">
         <v>4387</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>43004</v>
       </c>
@@ -6499,8 +6609,16 @@
       <c r="H11" s="16">
         <v>4268</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>43015</v>
       </c>
@@ -6522,8 +6640,16 @@
       <c r="H12" s="16">
         <v>3761</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>70</v>
       </c>
@@ -6545,8 +6671,16 @@
       <c r="H13" s="16">
         <v>4983</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>42997</v>
       </c>
@@ -6568,8 +6702,16 @@
       <c r="H14" s="16">
         <v>2502</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>43002</v>
       </c>
@@ -6591,8 +6733,16 @@
       <c r="H15" s="16">
         <v>2337</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>43001</v>
       </c>
@@ -6614,8 +6764,16 @@
       <c r="H16" s="16">
         <v>3125</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>43056</v>
       </c>
@@ -6637,8 +6795,16 @@
       <c r="H17" s="16">
         <v>1201</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>43018</v>
       </c>
@@ -6660,8 +6826,16 @@
       <c r="H18" s="16">
         <v>4380</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>43019</v>
       </c>
@@ -6683,8 +6857,16 @@
       <c r="H19" s="16">
         <v>919</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>43076</v>
       </c>
@@ -6706,8 +6888,16 @@
       <c r="H20" s="16">
         <v>4590</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>43052</v>
       </c>
@@ -6729,8 +6919,16 @@
       <c r="H21" s="16">
         <v>1958</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>43043</v>
       </c>
@@ -6752,8 +6950,16 @@
       <c r="H22" s="16">
         <v>1171</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>43060</v>
       </c>
@@ -6775,8 +6981,16 @@
       <c r="H23" s="16">
         <v>2587</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>70</v>
       </c>
@@ -6798,8 +7012,16 @@
       <c r="H24" s="16">
         <v>3425</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>43113</v>
       </c>
@@ -6821,8 +7043,16 @@
       <c r="H25" s="16">
         <v>4454</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>43030</v>
       </c>
@@ -6844,8 +7074,16 @@
       <c r="H26" s="16">
         <v>2134</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>43032</v>
       </c>
@@ -6867,8 +7105,16 @@
       <c r="H27" s="16">
         <v>257</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>43122</v>
       </c>
@@ -6890,8 +7136,16 @@
       <c r="H28" s="16">
         <v>2019</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43034</v>
       </c>
@@ -6913,8 +7167,16 @@
       <c r="H29" s="16">
         <v>3696</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>43052</v>
       </c>
@@ -6936,8 +7198,16 @@
       <c r="H30" s="16">
         <v>4446</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>70</v>
       </c>
@@ -6959,8 +7229,16 @@
       <c r="H31" s="16">
         <v>1445</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>43117</v>
       </c>
@@ -6982,8 +7260,16 @@
       <c r="H32" s="16">
         <v>3559</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>43047</v>
       </c>
@@ -7005,8 +7291,16 @@
       <c r="H33" s="16">
         <v>547</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>43077</v>
       </c>
@@ -7028,8 +7322,16 @@
       <c r="H34" s="16">
         <v>1221</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>43101</v>
       </c>
@@ -7051,8 +7353,16 @@
       <c r="H35" s="16">
         <v>4108</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>43055</v>
       </c>
@@ -7074,8 +7384,16 @@
       <c r="H36" s="16">
         <v>3714</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J36">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>70</v>
       </c>
@@ -7097,8 +7415,16 @@
       <c r="H37" s="16">
         <v>4843</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>43090</v>
       </c>
@@ -7120,8 +7446,16 @@
       <c r="H38" s="16">
         <v>4831</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>43059</v>
       </c>
@@ -7143,8 +7477,16 @@
       <c r="H39" s="16">
         <v>2072</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J39">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>43122</v>
       </c>
@@ -7166,8 +7508,16 @@
       <c r="H40" s="16">
         <v>3992</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>43114</v>
       </c>
@@ -7189,8 +7539,16 @@
       <c r="H41" s="16">
         <v>1284</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>43073</v>
       </c>
@@ -7212,8 +7570,16 @@
       <c r="H42" s="16">
         <v>4073</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>43073</v>
       </c>
@@ -7235,8 +7601,16 @@
       <c r="H43" s="16">
         <v>3008</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>43103</v>
       </c>
@@ -7258,8 +7632,16 @@
       <c r="H44" s="16">
         <v>1267</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>43103</v>
       </c>
@@ -7281,8 +7663,16 @@
       <c r="H45" s="16">
         <v>284</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>43086</v>
       </c>
@@ -7304,8 +7694,16 @@
       <c r="H46" s="16">
         <v>2046</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>43122</v>
       </c>
@@ -7327,8 +7725,16 @@
       <c r="H47" s="16">
         <v>3880</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>43123</v>
       </c>
@@ -7350,8 +7756,16 @@
       <c r="H48" s="16">
         <v>3149</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>43125</v>
       </c>
@@ -7373,8 +7787,16 @@
       <c r="H49" s="16">
         <v>668</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>43089</v>
       </c>
@@ -7396,8 +7818,16 @@
       <c r="H50" s="16">
         <v>3721</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J50">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>43133</v>
       </c>
@@ -7419,8 +7849,16 @@
       <c r="H51" s="16">
         <v>3114</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>43182</v>
       </c>
@@ -7442,8 +7880,16 @@
       <c r="H52" s="16">
         <v>1436</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>43101</v>
       </c>
@@ -7465,8 +7911,16 @@
       <c r="H53" s="16">
         <v>3192</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <v>43144</v>
       </c>
@@ -7488,8 +7942,16 @@
       <c r="H54" s="16">
         <v>2687</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>70</v>
       </c>
@@ -7511,8 +7973,16 @@
       <c r="H55" s="16">
         <v>1561</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>43155</v>
       </c>
@@ -7534,8 +8004,16 @@
       <c r="H56" s="16">
         <v>1573</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13">
         <v>43117</v>
       </c>
@@ -7557,8 +8035,16 @@
       <c r="H57" s="16">
         <v>1364</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>43166</v>
       </c>
@@ -7580,8 +8066,16 @@
       <c r="H58" s="16">
         <v>783</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="13">
         <v>43145</v>
       </c>
@@ -7603,8 +8097,16 @@
       <c r="H59" s="16">
         <v>3928</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>43142</v>
       </c>
@@ -7626,8 +8128,16 @@
       <c r="H60" s="16">
         <v>3843</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <v>43206</v>
       </c>
@@ -7649,8 +8159,16 @@
       <c r="H61" s="16">
         <v>1864</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>43137</v>
       </c>
@@ -7672,8 +8190,16 @@
       <c r="H62" s="16">
         <v>1184</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <v>43161</v>
       </c>
@@ -7695,8 +8221,16 @@
       <c r="H63" s="16">
         <v>4055</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>43178</v>
       </c>
@@ -7718,8 +8252,16 @@
       <c r="H64" s="16">
         <v>427</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>43138</v>
       </c>
@@ -7741,8 +8283,16 @@
       <c r="H65" s="16">
         <v>460</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>70</v>
       </c>
@@ -7764,8 +8314,16 @@
       <c r="H66" s="16">
         <v>964</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <v>43145</v>
       </c>
@@ -7787,8 +8345,16 @@
       <c r="H67" s="16">
         <v>3412</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>43146</v>
       </c>
@@ -7810,8 +8376,16 @@
       <c r="H68" s="16">
         <v>3095</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <v>43193</v>
       </c>
@@ -7833,8 +8407,16 @@
       <c r="H69" s="16">
         <v>1532</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <v>43193</v>
       </c>
@@ -7856,8 +8438,16 @@
       <c r="H70" s="16">
         <v>3726</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <v>43154</v>
       </c>
@@ -7879,8 +8469,16 @@
       <c r="H71" s="16">
         <v>4322</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>70</v>
       </c>
@@ -7902,8 +8500,16 @@
       <c r="H72" s="16">
         <v>3998</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <v>43246</v>
       </c>
@@ -7925,8 +8531,16 @@
       <c r="H73" s="16">
         <v>3252</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <v>43169</v>
       </c>
@@ -7948,8 +8562,16 @@
       <c r="H74" s="16">
         <v>3701</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>70</v>
       </c>
@@ -7971,8 +8593,16 @@
       <c r="H75" s="16">
         <v>1977</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>43287</v>
       </c>
@@ -7994,8 +8624,16 @@
       <c r="H76" s="16">
         <v>1217</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <v>43203</v>
       </c>
@@ -8017,8 +8655,16 @@
       <c r="H77" s="16">
         <v>1660</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>43169</v>
       </c>
@@ -8040,8 +8686,16 @@
       <c r="H78" s="16">
         <v>837</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>43274</v>
       </c>
@@ -8063,8 +8717,16 @@
       <c r="H79" s="16">
         <v>1838</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J79">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>43176</v>
       </c>
@@ -8086,8 +8748,16 @@
       <c r="H80" s="16">
         <v>4471</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <v>43177</v>
       </c>
@@ -8109,8 +8779,16 @@
       <c r="H81" s="16">
         <v>3540</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>43225</v>
       </c>
@@ -8132,8 +8810,16 @@
       <c r="H82" s="16">
         <v>4606</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <v>43199</v>
       </c>
@@ -8155,8 +8841,16 @@
       <c r="H83" s="16">
         <v>2388</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>43187</v>
       </c>
@@ -8178,8 +8872,16 @@
       <c r="H84" s="16">
         <v>2303</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <v>43257</v>
       </c>
@@ -8201,8 +8903,16 @@
       <c r="H85" s="16">
         <v>1662</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <v>43214</v>
       </c>
@@ -8224,8 +8934,16 @@
       <c r="H86" s="16">
         <v>3241</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <v>43306</v>
       </c>
@@ -8247,8 +8965,16 @@
       <c r="H87" s="16">
         <v>4017</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J87">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <v>43193</v>
       </c>
@@ -8270,8 +8996,16 @@
       <c r="H88" s="16">
         <v>3586</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <v>43196</v>
       </c>
@@ -8293,8 +9027,16 @@
       <c r="H89" s="16">
         <v>4467</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="13">
         <v>43251</v>
       </c>
@@ -8316,8 +9058,16 @@
       <c r="H90" s="16">
         <v>4262</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J90">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
         <v>70</v>
       </c>
@@ -8339,8 +9089,16 @@
       <c r="H91" s="16">
         <v>2593</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="13">
         <v>43224</v>
       </c>
@@ -8362,8 +9120,16 @@
       <c r="H92" s="16">
         <v>1885</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="13">
         <v>43295</v>
       </c>
@@ -8385,8 +9151,16 @@
       <c r="H93" s="16">
         <v>2224</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J93">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="13">
         <v>43234</v>
       </c>
@@ -8408,8 +9182,16 @@
       <c r="H94" s="16">
         <v>3223</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J94">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="13">
         <v>43216</v>
       </c>
@@ -8431,8 +9213,16 @@
       <c r="H95" s="16">
         <v>3446</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J95">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="13">
         <v>43226</v>
       </c>
@@ -8454,8 +9244,16 @@
       <c r="H96" s="16">
         <v>4540</v>
       </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="13">
         <v>43283</v>
       </c>
@@ -8477,8 +9275,16 @@
       <c r="H97" s="16">
         <v>3862</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J97">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="13">
         <v>43311</v>
       </c>
@@ -8500,8 +9306,16 @@
       <c r="H98" s="16">
         <v>611</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J98">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="13">
         <v>43233</v>
       </c>
@@ -8523,8 +9337,16 @@
       <c r="H99" s="16">
         <v>1486</v>
       </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="13">
         <v>43252</v>
       </c>
@@ -8546,8 +9368,16 @@
       <c r="H100" s="16">
         <v>4850</v>
       </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J100">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="13">
         <v>43275</v>
       </c>
@@ -8569,8 +9399,16 @@
       <c r="H101" s="16">
         <v>3878</v>
       </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="13">
         <v>43275</v>
       </c>
@@ -8592,8 +9430,16 @@
       <c r="H102" s="16">
         <v>976</v>
       </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J102">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="13">
         <v>43265</v>
       </c>
@@ -8615,8 +9461,16 @@
       <c r="H103" s="16">
         <v>3346</v>
       </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J103">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13">
         <v>43340</v>
       </c>
@@ -8638,8 +9492,16 @@
       <c r="H104" s="16">
         <v>443</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J104">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="13">
         <v>43255</v>
       </c>
@@ -8661,8 +9523,16 @@
       <c r="H105" s="16">
         <v>2781</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J105">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="13">
         <v>43267</v>
       </c>
@@ -8684,8 +9554,16 @@
       <c r="H106" s="16">
         <v>1875</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J106">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="13">
         <v>43259</v>
       </c>
@@ -8707,8 +9585,16 @@
       <c r="H107" s="16">
         <v>3134</v>
       </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J107">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="13">
         <v>43276</v>
       </c>
@@ -8730,8 +9616,16 @@
       <c r="H108" s="16">
         <v>2114</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J108">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="13">
         <v>43320</v>
       </c>
@@ -8753,8 +9647,16 @@
       <c r="H109" s="16">
         <v>4961</v>
       </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J109">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="13">
         <v>43303</v>
       </c>
@@ -8776,8 +9678,16 @@
       <c r="H110" s="16">
         <v>909</v>
       </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J110">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="13">
         <v>43293</v>
       </c>
@@ -8799,8 +9709,16 @@
       <c r="H111" s="16">
         <v>2197</v>
       </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="13">
         <v>43268</v>
       </c>
@@ -8822,8 +9740,16 @@
       <c r="H112" s="16">
         <v>3045</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J112">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="13">
         <v>43326</v>
       </c>
@@ -8845,8 +9771,16 @@
       <c r="H113" s="16">
         <v>460</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J113">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="13">
         <v>43313</v>
       </c>
@@ -8868,8 +9802,16 @@
       <c r="H114" s="16">
         <v>770</v>
       </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J114">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="13">
         <v>43317</v>
       </c>
@@ -8891,8 +9833,16 @@
       <c r="H115" s="16">
         <v>3646</v>
       </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J115">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="13">
         <v>43328</v>
       </c>
@@ -8914,8 +9864,16 @@
       <c r="H116" s="16">
         <v>2376</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J116">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="13">
         <v>43398</v>
       </c>
@@ -8937,8 +9895,16 @@
       <c r="H117" s="16">
         <v>3940</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J117">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="13">
         <v>43343</v>
       </c>
@@ -8960,8 +9926,16 @@
       <c r="H118" s="16">
         <v>1732</v>
       </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J118">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="13">
         <v>43316</v>
       </c>
@@ -8983,8 +9957,16 @@
       <c r="H119" s="16">
         <v>1306</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J119">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="13">
         <v>43336</v>
       </c>
@@ -9006,8 +9988,16 @@
       <c r="H120" s="16">
         <v>3954</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J120">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="13">
         <v>43323</v>
       </c>
@@ -9029,8 +10019,16 @@
       <c r="H121" s="16">
         <v>4090</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J121">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="13">
         <v>43311</v>
       </c>
@@ -9052,8 +10050,16 @@
       <c r="H122" s="16">
         <v>2713</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J122">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="13">
         <v>43302</v>
       </c>
@@ -9075,8 +10081,16 @@
       <c r="H123" s="16">
         <v>3482</v>
       </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J123">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="13" t="s">
         <v>70</v>
       </c>
@@ -9098,8 +10112,16 @@
       <c r="H124" s="16">
         <v>2071</v>
       </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
         <v>70</v>
       </c>
@@ -9121,8 +10143,16 @@
       <c r="H125" s="16">
         <v>4258</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="13">
         <v>43350</v>
       </c>
@@ -9144,8 +10174,16 @@
       <c r="H126" s="16">
         <v>4383</v>
       </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J126">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="13" t="s">
         <v>70</v>
       </c>
@@ -9167,8 +10205,16 @@
       <c r="H127" s="16">
         <v>1369</v>
       </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="13">
         <v>43409</v>
       </c>
@@ -9190,8 +10236,16 @@
       <c r="H128" s="16">
         <v>331</v>
       </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J128">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="13">
         <v>43368</v>
       </c>
@@ -9213,8 +10267,16 @@
       <c r="H129" s="16">
         <v>3031</v>
       </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J129">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="13">
         <v>43341</v>
       </c>
@@ -9236,8 +10298,16 @@
       <c r="H130" s="16">
         <v>1200</v>
       </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J130">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="13">
         <v>43323</v>
       </c>
@@ -9259,8 +10329,16 @@
       <c r="H131" s="16">
         <v>405</v>
       </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J131">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="13">
         <v>43360</v>
       </c>
@@ -9282,8 +10360,16 @@
       <c r="H132" s="16">
         <v>3080</v>
       </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J132">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="13">
         <v>43329</v>
       </c>
@@ -9305,8 +10391,16 @@
       <c r="H133" s="16">
         <v>2137</v>
       </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J133">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="13">
         <v>43336</v>
       </c>
@@ -9328,8 +10422,16 @@
       <c r="H134" s="16">
         <v>4287</v>
       </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J134">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="13">
         <v>43475</v>
       </c>
@@ -9351,8 +10453,16 @@
       <c r="H135" s="16">
         <v>4857</v>
       </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="13">
         <v>43393</v>
       </c>
@@ -9374,8 +10484,16 @@
       <c r="H136" s="16">
         <v>507</v>
       </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J136">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="13">
         <v>43405</v>
       </c>
@@ -9397,8 +10515,16 @@
       <c r="H137" s="16">
         <v>2467</v>
       </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J137">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="13">
         <v>43370</v>
       </c>
@@ -9420,8 +10546,16 @@
       <c r="H138" s="16">
         <v>4253</v>
       </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J138">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="13">
         <v>43350</v>
       </c>
@@ -9443,8 +10577,16 @@
       <c r="H139" s="16">
         <v>2391</v>
       </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J139">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="13">
         <v>43365</v>
       </c>
@@ -9466,8 +10608,16 @@
       <c r="H140" s="16">
         <v>3669</v>
       </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J140">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="13">
         <v>43383</v>
       </c>
@@ -9489,8 +10639,16 @@
       <c r="H141" s="16">
         <v>1207</v>
       </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J141">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="13">
         <v>43412</v>
       </c>
@@ -9512,8 +10670,16 @@
       <c r="H142" s="16">
         <v>2539</v>
       </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J142">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="13">
         <v>43374</v>
       </c>
@@ -9535,8 +10701,16 @@
       <c r="H143" s="16">
         <v>2895</v>
       </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J143">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="13">
         <v>43422</v>
       </c>
@@ -9558,8 +10732,16 @@
       <c r="H144" s="16">
         <v>2106</v>
       </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J144">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="13">
         <v>43405</v>
       </c>
@@ -9581,8 +10763,16 @@
       <c r="H145" s="16">
         <v>3742</v>
       </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J145">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="13">
         <v>43369</v>
       </c>
@@ -9604,8 +10794,16 @@
       <c r="H146" s="16">
         <v>3222</v>
       </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J146">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="13">
         <v>43392</v>
       </c>
@@ -9627,8 +10825,16 @@
       <c r="H147" s="16">
         <v>673</v>
       </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J147">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="13">
         <v>43399</v>
       </c>
@@ -9650,8 +10856,16 @@
       <c r="H148" s="16">
         <v>4922</v>
       </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J148">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="13">
         <v>43432</v>
       </c>
@@ -9673,8 +10887,16 @@
       <c r="H149" s="16">
         <v>1688</v>
       </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J149">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="13">
         <v>43382</v>
       </c>
@@ -9696,8 +10918,16 @@
       <c r="H150" s="16">
         <v>979</v>
       </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J150">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="13">
         <v>43400</v>
       </c>
@@ -9719,8 +10949,16 @@
       <c r="H151" s="16">
         <v>3744</v>
       </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J151">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="13" t="s">
         <v>70</v>
       </c>
@@ -9742,8 +10980,16 @@
       <c r="H152" s="16">
         <v>4061</v>
       </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="13">
         <v>43435</v>
       </c>
@@ -9765,8 +11011,16 @@
       <c r="H153" s="16">
         <v>4404</v>
       </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J153">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="13">
         <v>43424</v>
       </c>
@@ -9788,8 +11042,16 @@
       <c r="H154" s="16">
         <v>2429</v>
       </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J154">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="13">
         <v>43398</v>
       </c>
@@ -9811,8 +11073,16 @@
       <c r="H155" s="16">
         <v>2713</v>
       </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J155">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="13" t="s">
         <v>70</v>
       </c>
@@ -9834,8 +11104,16 @@
       <c r="H156" s="16">
         <v>3787</v>
       </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="13">
         <v>43442</v>
       </c>
@@ -9857,8 +11135,16 @@
       <c r="H157" s="16">
         <v>1820</v>
       </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J157">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="13">
         <v>43431</v>
       </c>
@@ -9880,8 +11166,16 @@
       <c r="H158" s="16">
         <v>4135</v>
       </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J158">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="13">
         <v>43421</v>
       </c>
@@ -9903,8 +11197,16 @@
       <c r="H159" s="16">
         <v>3902</v>
       </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J159">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="13">
         <v>43418</v>
       </c>
@@ -9926,8 +11228,16 @@
       <c r="H160" s="16">
         <v>4319</v>
       </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J160">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="13">
         <v>43537</v>
       </c>
@@ -9949,8 +11259,16 @@
       <c r="H161" s="16">
         <v>3068</v>
       </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J161">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="13">
         <v>43425</v>
       </c>
@@ -9972,8 +11290,16 @@
       <c r="H162" s="16">
         <v>1880</v>
       </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J162">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="13">
         <v>43465</v>
       </c>
@@ -9995,8 +11321,16 @@
       <c r="H163" s="16">
         <v>1414</v>
       </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J163">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="13">
         <v>43457</v>
       </c>
@@ -10018,8 +11352,16 @@
       <c r="H164" s="16">
         <v>919</v>
       </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J164">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="13">
         <v>43431</v>
       </c>
@@ -10041,8 +11383,16 @@
       <c r="H165" s="16">
         <v>4801</v>
       </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J165">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="13">
         <v>43434</v>
       </c>
@@ -10064,8 +11414,16 @@
       <c r="H166" s="16">
         <v>4639</v>
       </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J166">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="13" t="s">
         <v>70</v>
       </c>
@@ -10087,8 +11445,16 @@
       <c r="H167" s="16">
         <v>1209</v>
       </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="13">
         <v>43560</v>
       </c>
@@ -10110,8 +11476,16 @@
       <c r="H168" s="16">
         <v>483</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="13">
         <v>43503</v>
       </c>
@@ -10133,8 +11507,16 @@
       <c r="H169" s="16">
         <v>373</v>
       </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="13">
         <v>43459</v>
       </c>
@@ -10156,8 +11538,16 @@
       <c r="H170" s="16">
         <v>2088</v>
       </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J170">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="13">
         <v>43497</v>
       </c>
@@ -10179,8 +11569,16 @@
       <c r="H171" s="16">
         <v>1168</v>
       </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="13">
         <v>43457</v>
       </c>
@@ -10202,8 +11600,16 @@
       <c r="H172" s="16">
         <v>4429</v>
       </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J172">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13">
         <v>43519</v>
       </c>
@@ -10225,8 +11631,16 @@
       <c r="H173" s="16">
         <v>4955</v>
       </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13">
         <v>43483</v>
       </c>
@@ -10248,8 +11662,16 @@
       <c r="H174" s="16">
         <v>3201</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="13">
         <v>43511</v>
       </c>
@@ -10271,8 +11693,16 @@
       <c r="H175" s="16">
         <v>3007</v>
       </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="13">
         <v>43473</v>
       </c>
@@ -10294,8 +11724,16 @@
       <c r="H176" s="16">
         <v>900</v>
       </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="13">
         <v>43478</v>
       </c>
@@ -10317,8 +11755,16 @@
       <c r="H177" s="16">
         <v>2970</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="13">
         <v>43538</v>
       </c>
@@ -10340,8 +11786,16 @@
       <c r="H178" s="16">
         <v>4993</v>
       </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J178">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="13">
         <v>43485</v>
       </c>
@@ -10363,8 +11817,16 @@
       <c r="H179" s="16">
         <v>1664</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="13" t="s">
         <v>70</v>
       </c>
@@ -10386,8 +11848,16 @@
       <c r="H180" s="16">
         <v>1815</v>
       </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="13">
         <v>43505</v>
       </c>
@@ -10409,8 +11879,16 @@
       <c r="H181" s="16">
         <v>3752</v>
       </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="13" t="s">
         <v>70</v>
       </c>
@@ -10432,8 +11910,16 @@
       <c r="H182" s="16">
         <v>177</v>
       </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="13">
         <v>43494</v>
       </c>
@@ -10455,8 +11941,16 @@
       <c r="H183" s="16">
         <v>3619</v>
       </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="13">
         <v>43535</v>
       </c>
@@ -10478,8 +11972,16 @@
       <c r="H184" s="16">
         <v>4030</v>
       </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J184">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="13">
         <v>43512</v>
       </c>
@@ -10501,8 +12003,16 @@
       <c r="H185" s="16">
         <v>4157</v>
       </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="13">
         <v>43532</v>
       </c>
@@ -10524,8 +12034,16 @@
       <c r="H186" s="16">
         <v>1417</v>
       </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J186">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="13">
         <v>43540</v>
       </c>
@@ -10547,8 +12065,16 @@
       <c r="H187" s="16">
         <v>1117</v>
       </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J187">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="13">
         <v>43541</v>
       </c>
@@ -10570,8 +12096,16 @@
       <c r="H188" s="16">
         <v>4461</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J188">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="13">
         <v>43549</v>
       </c>
@@ -10593,8 +12127,16 @@
       <c r="H189" s="16">
         <v>3732</v>
       </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J189">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="13">
         <v>43509</v>
       </c>
@@ -10616,8 +12158,16 @@
       <c r="H190" s="16">
         <v>2024</v>
       </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="13">
         <v>43512</v>
       </c>
@@ -10639,8 +12189,16 @@
       <c r="H191" s="16">
         <v>928</v>
       </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="13">
         <v>43533</v>
       </c>
@@ -10662,8 +12220,16 @@
       <c r="H192" s="16">
         <v>3557</v>
       </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J192">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="13">
         <v>43540</v>
       </c>
@@ -10685,8 +12251,16 @@
       <c r="H193" s="16">
         <v>741</v>
       </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J193">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="13">
         <v>43548</v>
       </c>
@@ -10708,8 +12282,16 @@
       <c r="H194" s="16">
         <v>850</v>
       </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J194">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="13">
         <v>43522</v>
       </c>
@@ -10731,8 +12313,16 @@
       <c r="H195" s="16">
         <v>4741</v>
       </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="13">
         <v>43525</v>
       </c>
@@ -10754,8 +12344,16 @@
       <c r="H196" s="16">
         <v>471</v>
       </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J196">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="13">
         <v>43527</v>
       </c>
@@ -10777,8 +12375,16 @@
       <c r="H197" s="16">
         <v>517</v>
       </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J197">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="13">
         <v>43563</v>
       </c>
@@ -10800,8 +12406,16 @@
       <c r="H198" s="16">
         <v>3034</v>
       </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J198">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="13">
         <v>43578</v>
       </c>
@@ -10823,8 +12437,16 @@
       <c r="H199" s="16">
         <v>3172</v>
       </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J199">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="13">
         <v>43543</v>
       </c>
@@ -10846,8 +12468,16 @@
       <c r="H200" s="16">
         <v>2069</v>
       </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J200">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="13">
         <v>43545</v>
       </c>
@@ -10869,8 +12499,16 @@
       <c r="H201" s="16">
         <v>3849</v>
       </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J201">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="13" t="s">
         <v>70</v>
       </c>
@@ -10892,8 +12530,16 @@
       <c r="H202" s="16">
         <v>4141</v>
       </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="13">
         <v>43643</v>
       </c>
@@ -10915,8 +12561,16 @@
       <c r="H203" s="16">
         <v>1348</v>
       </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J203">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="13">
         <v>43558</v>
       </c>
@@ -10938,8 +12592,16 @@
       <c r="H204" s="16">
         <v>1738</v>
       </c>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J204">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="13">
         <v>43561</v>
       </c>
@@ -10961,8 +12623,16 @@
       <c r="H205" s="16">
         <v>732</v>
       </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J205">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="13">
         <v>43625</v>
       </c>
@@ -10984,8 +12654,16 @@
       <c r="H206" s="16">
         <v>373</v>
       </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J206">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="13">
         <v>43609</v>
       </c>
@@ -11007,8 +12685,16 @@
       <c r="H207" s="16">
         <v>609</v>
       </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J207">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="13">
         <v>43615</v>
       </c>
@@ -11030,8 +12716,16 @@
       <c r="H208" s="16">
         <v>2883</v>
       </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J208">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="13">
         <v>43569</v>
       </c>
@@ -11053,8 +12747,16 @@
       <c r="H209" s="16">
         <v>4651</v>
       </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J209">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="13" t="s">
         <v>70</v>
       </c>
@@ -11076,8 +12778,16 @@
       <c r="H210" s="16">
         <v>4797</v>
       </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="13">
         <v>43598</v>
       </c>
@@ -11099,8 +12809,16 @@
       <c r="H211" s="16">
         <v>1620</v>
       </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J211">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="13">
         <v>43683</v>
       </c>
@@ -11122,8 +12840,16 @@
       <c r="H212" s="16">
         <v>245</v>
       </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J212">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="13">
         <v>43595</v>
       </c>
@@ -11145,8 +12871,16 @@
       <c r="H213" s="16">
         <v>2091</v>
       </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J213">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="13">
         <v>43594</v>
       </c>
@@ -11168,8 +12902,16 @@
       <c r="H214" s="16">
         <v>3200</v>
       </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J214">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="13">
         <v>43587</v>
       </c>
@@ -11191,8 +12933,16 @@
       <c r="H215" s="16">
         <v>583</v>
       </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J215">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="13">
         <v>43626</v>
       </c>
@@ -11214,8 +12964,16 @@
       <c r="H216" s="16">
         <v>4505</v>
       </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J216">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="13">
         <v>43592</v>
       </c>
@@ -11237,8 +12995,16 @@
       <c r="H217" s="16">
         <v>343</v>
       </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J217">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="13">
         <v>43603</v>
       </c>
@@ -11260,8 +13026,16 @@
       <c r="H218" s="16">
         <v>4510</v>
       </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J218">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="13">
         <v>43597</v>
       </c>
@@ -11283,8 +13057,16 @@
       <c r="H219" s="16">
         <v>667</v>
       </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J219">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="13">
         <v>43631</v>
       </c>
@@ -11306,8 +13088,16 @@
       <c r="H220" s="16">
         <v>1006</v>
       </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J220">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="13">
         <v>43635</v>
       </c>
@@ -11329,8 +13119,16 @@
       <c r="H221" s="16">
         <v>1071</v>
       </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J221">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="13">
         <v>43630</v>
       </c>
@@ -11352,8 +13150,16 @@
       <c r="H222" s="16">
         <v>2194</v>
       </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J222">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="13" t="s">
         <v>70</v>
       </c>
@@ -11375,8 +13181,16 @@
       <c r="H223" s="16">
         <v>2531</v>
       </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="13">
         <v>43655</v>
       </c>
@@ -11398,8 +13212,16 @@
       <c r="H224" s="16">
         <v>657</v>
       </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J224">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="13" t="s">
         <v>70</v>
       </c>
@@ -11421,8 +13243,16 @@
       <c r="H225" s="16">
         <v>4535</v>
       </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="13">
         <v>43641</v>
       </c>
@@ -11444,8 +13274,16 @@
       <c r="H226" s="16">
         <v>1848</v>
       </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J226">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="13">
         <v>43649</v>
       </c>
@@ -11467,8 +13305,16 @@
       <c r="H227" s="16">
         <v>191</v>
       </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J227">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="13">
         <v>43743</v>
       </c>
@@ -11490,8 +13336,16 @@
       <c r="H228" s="16">
         <v>508</v>
       </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J228">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="13" t="s">
         <v>70</v>
       </c>
@@ -11513,8 +13367,16 @@
       <c r="H229" s="16">
         <v>1482</v>
       </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="13">
         <v>43647</v>
       </c>
@@ -11536,8 +13398,16 @@
       <c r="H230" s="16">
         <v>555</v>
       </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J230">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="13">
         <v>43687</v>
       </c>
@@ -11559,8 +13429,16 @@
       <c r="H231" s="16">
         <v>1906</v>
       </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J231">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="13">
         <v>43702</v>
       </c>
@@ -11582,8 +13460,16 @@
       <c r="H232" s="16">
         <v>450</v>
       </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J232">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="13">
         <v>43710</v>
       </c>
@@ -11605,8 +13491,16 @@
       <c r="H233" s="16">
         <v>1479</v>
       </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J233">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="13">
         <v>43647</v>
       </c>
@@ -11627,6 +13521,14 @@
       </c>
       <c r="H234" s="16">
         <v>3446</v>
+      </c>
+      <c r="I234">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J234">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -11651,12 +13553,12 @@
   <sheetPr codeName="Plan8"/>
   <dimension ref="A1:O232"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -11666,12 +13568,11 @@
     <col min="6" max="6" width="42.28515625" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="9" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -11684,7 +13585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -11693,7 +13594,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>53</v>
       </c>
@@ -11715,8 +13616,14 @@
       <c r="H3" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>43015</v>
       </c>
@@ -11738,8 +13645,16 @@
       <c r="H4" s="16">
         <v>4021</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>42995</v>
       </c>
@@ -11761,8 +13676,16 @@
       <c r="H5" s="16">
         <v>651</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>42983</v>
       </c>
@@ -11784,8 +13707,16 @@
       <c r="H6" s="16">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>43004</v>
       </c>
@@ -11807,8 +13738,16 @@
       <c r="H7" s="16">
         <v>803</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>43002</v>
       </c>
@@ -11830,8 +13769,16 @@
       <c r="H8" s="16">
         <v>4460</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>42980</v>
       </c>
@@ -11853,8 +13800,16 @@
       <c r="H9" s="16">
         <v>299</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>43014</v>
       </c>
@@ -11876,8 +13831,16 @@
       <c r="H10" s="16">
         <v>618</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>42990</v>
       </c>
@@ -11899,8 +13862,16 @@
       <c r="H11" s="16">
         <v>2505</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>42987</v>
       </c>
@@ -11922,8 +13893,16 @@
       <c r="H12" s="16">
         <v>817</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>70</v>
       </c>
@@ -11945,8 +13924,16 @@
       <c r="H13" s="16">
         <v>1565</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>70</v>
       </c>
@@ -11968,8 +13955,16 @@
       <c r="H14" s="16">
         <v>1357</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>42991</v>
       </c>
@@ -11991,8 +13986,16 @@
       <c r="H15" s="16">
         <v>4739</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>42992</v>
       </c>
@@ -12014,8 +14017,16 @@
       <c r="H16" s="16">
         <v>4675</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>43004</v>
       </c>
@@ -12037,8 +14048,16 @@
       <c r="H17" s="16">
         <v>1797</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>43043</v>
       </c>
@@ -12060,8 +14079,16 @@
       <c r="H18" s="16">
         <v>888</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>70</v>
       </c>
@@ -12083,8 +14110,16 @@
       <c r="H19" s="16">
         <v>2784</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>43010</v>
       </c>
@@ -12106,8 +14141,16 @@
       <c r="H20" s="16">
         <v>707</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>43042</v>
       </c>
@@ -12129,8 +14172,16 @@
       <c r="H21" s="16">
         <v>229</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>43009</v>
       </c>
@@ -12152,8 +14203,16 @@
       <c r="H22" s="16">
         <v>2894</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>43030</v>
       </c>
@@ -12175,8 +14234,16 @@
       <c r="H23" s="16">
         <v>4516</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>43031</v>
       </c>
@@ -12198,8 +14265,16 @@
       <c r="H24" s="16">
         <v>885</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>43046</v>
       </c>
@@ -12221,8 +14296,16 @@
       <c r="H25" s="16">
         <v>1509</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>43022</v>
       </c>
@@ -12244,8 +14327,16 @@
       <c r="H26" s="16">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>43031</v>
       </c>
@@ -12267,8 +14358,16 @@
       <c r="H27" s="16">
         <v>1311</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>43026</v>
       </c>
@@ -12290,8 +14389,16 @@
       <c r="H28" s="16">
         <v>4182</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43065</v>
       </c>
@@ -12313,8 +14420,16 @@
       <c r="H29" s="16">
         <v>339</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>43071</v>
       </c>
@@ -12336,8 +14451,16 @@
       <c r="H30" s="16">
         <v>1788</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>43089</v>
       </c>
@@ -12359,8 +14482,16 @@
       <c r="H31" s="16">
         <v>1171</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J31">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>43044</v>
       </c>
@@ -12382,8 +14513,16 @@
       <c r="H32" s="16">
         <v>4059</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>43047</v>
       </c>
@@ -12405,8 +14544,16 @@
       <c r="H33" s="16">
         <v>4919</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>43087</v>
       </c>
@@ -12428,8 +14575,16 @@
       <c r="H34" s="16">
         <v>3224</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>43095</v>
       </c>
@@ -12451,8 +14606,16 @@
       <c r="H35" s="16">
         <v>3725</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>43056</v>
       </c>
@@ -12474,8 +14637,16 @@
       <c r="H36" s="16">
         <v>312</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J36">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>43112</v>
       </c>
@@ -12497,8 +14668,16 @@
       <c r="H37" s="16">
         <v>4773</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>43101</v>
       </c>
@@ -12520,8 +14699,16 @@
       <c r="H38" s="16">
         <v>228</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>43061</v>
       </c>
@@ -12543,8 +14730,16 @@
       <c r="H39" s="16">
         <v>450</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J39">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>43103</v>
       </c>
@@ -12566,8 +14761,16 @@
       <c r="H40" s="16">
         <v>1155</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>43070</v>
       </c>
@@ -12589,8 +14792,16 @@
       <c r="H41" s="16">
         <v>1967</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>43096</v>
       </c>
@@ -12612,8 +14823,16 @@
       <c r="H42" s="16">
         <v>2741</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>43125</v>
       </c>
@@ -12635,8 +14854,16 @@
       <c r="H43" s="16">
         <v>1130</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>43075</v>
       </c>
@@ -12658,8 +14885,16 @@
       <c r="H44" s="16">
         <v>4835</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>43077</v>
       </c>
@@ -12681,8 +14916,16 @@
       <c r="H45" s="16">
         <v>1411</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>43099</v>
       </c>
@@ -12704,8 +14947,16 @@
       <c r="H46" s="16">
         <v>457</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>70</v>
       </c>
@@ -12727,8 +14978,16 @@
       <c r="H47" s="16">
         <v>2623</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>43098</v>
       </c>
@@ -12750,8 +15009,16 @@
       <c r="H48" s="16">
         <v>3440</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>43111</v>
       </c>
@@ -12773,8 +15040,16 @@
       <c r="H49" s="16">
         <v>3993</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>43151</v>
       </c>
@@ -12796,8 +15071,16 @@
       <c r="H50" s="16">
         <v>3273</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>43094</v>
       </c>
@@ -12819,8 +15102,16 @@
       <c r="H51" s="16">
         <v>4494</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>43124</v>
       </c>
@@ -12842,8 +15133,16 @@
       <c r="H52" s="16">
         <v>2511</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>43098</v>
       </c>
@@ -12865,8 +15164,16 @@
       <c r="H53" s="16">
         <v>2015</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>70</v>
       </c>
@@ -12888,8 +15195,16 @@
       <c r="H54" s="16">
         <v>3413</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="13">
         <v>43108</v>
       </c>
@@ -12911,8 +15226,16 @@
       <c r="H55" s="16">
         <v>4087</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>43117</v>
       </c>
@@ -12934,8 +15257,16 @@
       <c r="H56" s="16">
         <v>2441</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>70</v>
       </c>
@@ -12957,8 +15288,16 @@
       <c r="H57" s="16">
         <v>3598</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>43110</v>
       </c>
@@ -12980,8 +15319,16 @@
       <c r="H58" s="16">
         <v>4895</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>70</v>
       </c>
@@ -13003,8 +15350,16 @@
       <c r="H59" s="16">
         <v>971</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>43137</v>
       </c>
@@ -13026,8 +15381,16 @@
       <c r="H60" s="16">
         <v>556</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <v>43144</v>
       </c>
@@ -13049,8 +15412,16 @@
       <c r="H61" s="16">
         <v>1977</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>43116</v>
       </c>
@@ -13072,8 +15443,16 @@
       <c r="H62" s="16">
         <v>2951</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <v>43133</v>
       </c>
@@ -13095,8 +15474,16 @@
       <c r="H63" s="16">
         <v>2535</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>43141</v>
       </c>
@@ -13118,8 +15505,16 @@
       <c r="H64" s="16">
         <v>3057</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>43140</v>
       </c>
@@ -13141,8 +15536,16 @@
       <c r="H65" s="16">
         <v>3152</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>70</v>
       </c>
@@ -13164,8 +15567,16 @@
       <c r="H66" s="16">
         <v>2247</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <v>43178</v>
       </c>
@@ -13187,8 +15598,16 @@
       <c r="H67" s="16">
         <v>2456</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>43215</v>
       </c>
@@ -13210,8 +15629,16 @@
       <c r="H68" s="16">
         <v>3801</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <v>43131</v>
       </c>
@@ -13233,8 +15660,16 @@
       <c r="H69" s="16">
         <v>3049</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
         <v>70</v>
       </c>
@@ -13256,8 +15691,16 @@
       <c r="H70" s="16">
         <v>3255</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <v>43136</v>
       </c>
@@ -13279,8 +15722,16 @@
       <c r="H71" s="16">
         <v>2074</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <v>43137</v>
       </c>
@@ -13302,8 +15753,16 @@
       <c r="H72" s="16">
         <v>3606</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <v>43177</v>
       </c>
@@ -13325,8 +15784,16 @@
       <c r="H73" s="16">
         <v>4867</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <v>43175</v>
       </c>
@@ -13348,8 +15815,16 @@
       <c r="H74" s="16">
         <v>702</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="13">
         <v>43150</v>
       </c>
@@ -13371,8 +15846,16 @@
       <c r="H75" s="16">
         <v>2801</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>43219</v>
       </c>
@@ -13394,8 +15877,16 @@
       <c r="H76" s="16">
         <v>4438</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <v>43198</v>
       </c>
@@ -13417,8 +15908,16 @@
       <c r="H77" s="16">
         <v>3835</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>43160</v>
       </c>
@@ -13440,8 +15939,16 @@
       <c r="H78" s="16">
         <v>3893</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>43163</v>
       </c>
@@ -13463,8 +15970,16 @@
       <c r="H79" s="16">
         <v>1970</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>43219</v>
       </c>
@@ -13486,8 +16001,16 @@
       <c r="H80" s="16">
         <v>729</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <v>43188</v>
       </c>
@@ -13509,8 +16032,16 @@
       <c r="H81" s="16">
         <v>474</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>43168</v>
       </c>
@@ -13532,8 +16063,16 @@
       <c r="H82" s="16">
         <v>3164</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <v>43173</v>
       </c>
@@ -13555,8 +16094,16 @@
       <c r="H83" s="16">
         <v>3113</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>43201</v>
       </c>
@@ -13578,8 +16125,16 @@
       <c r="H84" s="16">
         <v>789</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <v>43272</v>
       </c>
@@ -13601,8 +16156,16 @@
       <c r="H85" s="16">
         <v>3521</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <v>43187</v>
       </c>
@@ -13624,8 +16187,16 @@
       <c r="H86" s="16">
         <v>4947</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <v>43184</v>
       </c>
@@ -13647,8 +16218,16 @@
       <c r="H87" s="16">
         <v>1527</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <v>43234</v>
       </c>
@@ -13670,8 +16249,16 @@
       <c r="H88" s="16">
         <v>764</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J88">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <v>43202</v>
       </c>
@@ -13693,8 +16280,16 @@
       <c r="H89" s="16">
         <v>2463</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="13">
         <v>43195</v>
       </c>
@@ -13716,8 +16311,16 @@
       <c r="H90" s="16">
         <v>2111</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="13">
         <v>43196</v>
       </c>
@@ -13739,8 +16342,16 @@
       <c r="H91" s="16">
         <v>1144</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="13">
         <v>43240</v>
       </c>
@@ -13762,8 +16373,16 @@
       <c r="H92" s="16">
         <v>597</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="13">
         <v>43206</v>
       </c>
@@ -13785,8 +16404,16 @@
       <c r="H93" s="16">
         <v>3445</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J93">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="13" t="s">
         <v>70</v>
       </c>
@@ -13808,8 +16435,16 @@
       <c r="H94" s="16">
         <v>1996</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="13">
         <v>43218</v>
       </c>
@@ -13831,8 +16466,16 @@
       <c r="H95" s="16">
         <v>1254</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J95">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="13">
         <v>43223</v>
       </c>
@@ -13854,8 +16497,16 @@
       <c r="H96" s="16">
         <v>905</v>
       </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="13" t="s">
         <v>70</v>
       </c>
@@ -13877,8 +16528,16 @@
       <c r="H97" s="16">
         <v>2975</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="13" t="s">
         <v>70</v>
       </c>
@@ -13900,8 +16559,16 @@
       <c r="H98" s="16">
         <v>4807</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="13">
         <v>43264</v>
       </c>
@@ -13923,8 +16590,16 @@
       <c r="H99" s="16">
         <v>1882</v>
       </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J99">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="13">
         <v>43278</v>
       </c>
@@ -13946,8 +16621,16 @@
       <c r="H100" s="16">
         <v>3932</v>
       </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J100">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="13">
         <v>43238</v>
       </c>
@@ -13969,8 +16652,16 @@
       <c r="H101" s="16">
         <v>701</v>
       </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
         <v>70</v>
       </c>
@@ -13992,8 +16683,16 @@
       <c r="H102" s="16">
         <v>2651</v>
       </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="13">
         <v>43282</v>
       </c>
@@ -14015,8 +16714,16 @@
       <c r="H103" s="16">
         <v>3792</v>
       </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J103">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="13">
         <v>43306</v>
       </c>
@@ -14038,8 +16745,16 @@
       <c r="H104" s="16">
         <v>611</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J104">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="13">
         <v>43292</v>
       </c>
@@ -14061,8 +16776,16 @@
       <c r="H105" s="16">
         <v>3431</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J105">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="13" t="s">
         <v>70</v>
       </c>
@@ -14084,8 +16807,16 @@
       <c r="H106" s="16">
         <v>3670</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="13">
         <v>43259</v>
       </c>
@@ -14107,8 +16838,16 @@
       <c r="H107" s="16">
         <v>4320</v>
       </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J107">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="13">
         <v>43256</v>
       </c>
@@ -14130,8 +16869,16 @@
       <c r="H108" s="16">
         <v>1809</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J108">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="13">
         <v>43306</v>
       </c>
@@ -14153,8 +16900,16 @@
       <c r="H109" s="16">
         <v>667</v>
       </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J109">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="13">
         <v>43262</v>
       </c>
@@ -14176,8 +16931,16 @@
       <c r="H110" s="16">
         <v>1613</v>
       </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J110">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="13">
         <v>43309</v>
       </c>
@@ -14199,8 +16962,16 @@
       <c r="H111" s="16">
         <v>3756</v>
       </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="13">
         <v>43271</v>
       </c>
@@ -14222,8 +16993,16 @@
       <c r="H112" s="16">
         <v>3672</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J112">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
         <v>70</v>
       </c>
@@ -14245,8 +17024,16 @@
       <c r="H113" s="16">
         <v>658</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="13">
         <v>43336</v>
       </c>
@@ -14268,8 +17055,16 @@
       <c r="H114" s="16">
         <v>4762</v>
       </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J114">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="13">
         <v>43290</v>
       </c>
@@ -14291,8 +17086,16 @@
       <c r="H115" s="16">
         <v>2186</v>
       </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J115">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="13" t="s">
         <v>70</v>
       </c>
@@ -14314,8 +17117,16 @@
       <c r="H116" s="16">
         <v>3411</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="13">
         <v>43305</v>
       </c>
@@ -14337,8 +17148,16 @@
       <c r="H117" s="16">
         <v>2524</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="13">
         <v>43313</v>
       </c>
@@ -14360,8 +17179,16 @@
       <c r="H118" s="16">
         <v>1709</v>
       </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J118">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="13">
         <v>43296</v>
       </c>
@@ -14383,8 +17210,16 @@
       <c r="H119" s="16">
         <v>3181</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J119">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="13">
         <v>43350</v>
       </c>
@@ -14406,8 +17241,16 @@
       <c r="H120" s="16">
         <v>1108</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J120">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
         <v>70</v>
       </c>
@@ -14429,8 +17272,16 @@
       <c r="H121" s="16">
         <v>2777</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="13">
         <v>43357</v>
       </c>
@@ -14452,8 +17303,16 @@
       <c r="H122" s="16">
         <v>3793</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J122">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="13">
         <v>43324</v>
       </c>
@@ -14475,8 +17334,16 @@
       <c r="H123" s="16">
         <v>4217</v>
       </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J123">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="13">
         <v>43309</v>
       </c>
@@ -14498,8 +17365,16 @@
       <c r="H124" s="16">
         <v>4850</v>
       </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J124">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="13">
         <v>43311</v>
       </c>
@@ -14521,8 +17396,16 @@
       <c r="H125" s="16">
         <v>4309</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J125">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="13">
         <v>43314</v>
       </c>
@@ -14544,8 +17427,16 @@
       <c r="H126" s="16">
         <v>4462</v>
       </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J126">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="13">
         <v>43375</v>
       </c>
@@ -14567,8 +17458,16 @@
       <c r="H127" s="16">
         <v>4947</v>
       </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J127">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="13">
         <v>43368</v>
       </c>
@@ -14590,8 +17489,16 @@
       <c r="H128" s="16">
         <v>902</v>
       </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J128">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="13">
         <v>43366</v>
       </c>
@@ -14613,8 +17520,16 @@
       <c r="H129" s="16">
         <v>432</v>
       </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J129">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="13">
         <v>43356</v>
       </c>
@@ -14636,8 +17551,16 @@
       <c r="H130" s="16">
         <v>4084</v>
       </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J130">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="13">
         <v>43359</v>
       </c>
@@ -14659,8 +17582,16 @@
       <c r="H131" s="16">
         <v>1054</v>
       </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J131">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="13">
         <v>43352</v>
       </c>
@@ -14682,8 +17613,16 @@
       <c r="H132" s="16">
         <v>4608</v>
       </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J132">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="13">
         <v>43340</v>
       </c>
@@ -14705,8 +17644,16 @@
       <c r="H133" s="16">
         <v>1238</v>
       </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>8</v>
+      </c>
+      <c r="J133">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="13">
         <v>43370</v>
       </c>
@@ -14728,8 +17675,16 @@
       <c r="H134" s="16">
         <v>1342</v>
       </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>9</v>
+      </c>
+      <c r="J134">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="13">
         <v>43402</v>
       </c>
@@ -14751,8 +17706,16 @@
       <c r="H135" s="16">
         <v>2936</v>
       </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J135">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="13">
         <v>43381</v>
       </c>
@@ -14774,8 +17737,16 @@
       <c r="H136" s="16">
         <v>875</v>
       </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J136">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="13" t="s">
         <v>70</v>
       </c>
@@ -14797,8 +17768,16 @@
       <c r="H137" s="16">
         <v>159</v>
       </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="13" t="s">
         <v>70</v>
       </c>
@@ -14820,8 +17799,16 @@
       <c r="H138" s="16">
         <v>2933</v>
       </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="13">
         <v>43405</v>
       </c>
@@ -14843,8 +17830,16 @@
       <c r="H139" s="16">
         <v>4944</v>
       </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J139">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="13">
         <v>43377</v>
       </c>
@@ -14866,8 +17861,16 @@
       <c r="H140" s="16">
         <v>4173</v>
       </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J140">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="13">
         <v>43375</v>
       </c>
@@ -14889,8 +17892,16 @@
       <c r="H141" s="16">
         <v>2065</v>
       </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J141">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="13">
         <v>43422</v>
       </c>
@@ -14912,8 +17923,16 @@
       <c r="H142" s="16">
         <v>521</v>
       </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J142">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="13" t="s">
         <v>70</v>
       </c>
@@ -14935,8 +17954,16 @@
       <c r="H143" s="16">
         <v>819</v>
       </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="13">
         <v>43377</v>
       </c>
@@ -14958,8 +17985,16 @@
       <c r="H144" s="16">
         <v>1260</v>
       </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J144">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="13">
         <v>43389</v>
       </c>
@@ -14981,8 +18016,16 @@
       <c r="H145" s="16">
         <v>2998</v>
       </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J145">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="13">
         <v>43468</v>
       </c>
@@ -15004,8 +18047,16 @@
       <c r="H146" s="16">
         <v>4287</v>
       </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="13">
         <v>43448</v>
       </c>
@@ -15027,8 +18078,16 @@
       <c r="H147" s="16">
         <v>2015</v>
       </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J147">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="13">
         <v>43449</v>
       </c>
@@ -15050,8 +18109,16 @@
       <c r="H148" s="16">
         <v>3369</v>
       </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J148">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="13">
         <v>43394</v>
       </c>
@@ -15073,8 +18140,16 @@
       <c r="H149" s="16">
         <v>4851</v>
       </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J149">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="13">
         <v>43449</v>
       </c>
@@ -15096,8 +18171,16 @@
       <c r="H150" s="16">
         <v>2178</v>
       </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J150">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="13">
         <v>43424</v>
       </c>
@@ -15119,8 +18202,16 @@
       <c r="H151" s="16">
         <v>4052</v>
       </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J151">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="13">
         <v>43403</v>
       </c>
@@ -15142,8 +18233,16 @@
       <c r="H152" s="16">
         <v>2864</v>
       </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>10</v>
+      </c>
+      <c r="J152">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="13">
         <v>43461</v>
       </c>
@@ -15165,8 +18264,16 @@
       <c r="H153" s="16">
         <v>2425</v>
       </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J153">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="13">
         <v>43466</v>
       </c>
@@ -15188,8 +18295,16 @@
       <c r="H154" s="16">
         <v>1542</v>
       </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="13">
         <v>43446</v>
       </c>
@@ -15211,8 +18326,16 @@
       <c r="H155" s="16">
         <v>1736</v>
       </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J155">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="13">
         <v>43485</v>
       </c>
@@ -15234,8 +18357,16 @@
       <c r="H156" s="16">
         <v>1628</v>
       </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="13" t="s">
         <v>70</v>
       </c>
@@ -15257,8 +18388,16 @@
       <c r="H157" s="16">
         <v>3853</v>
       </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="13">
         <v>43451</v>
       </c>
@@ -15280,8 +18419,16 @@
       <c r="H158" s="16">
         <v>883</v>
       </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J158">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="13">
         <v>43431</v>
       </c>
@@ -15303,8 +18450,16 @@
       <c r="H159" s="16">
         <v>976</v>
       </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J159">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="13">
         <v>43424</v>
       </c>
@@ -15326,8 +18481,16 @@
       <c r="H160" s="16">
         <v>2663</v>
       </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J160">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="13">
         <v>43430</v>
       </c>
@@ -15349,8 +18512,16 @@
       <c r="H161" s="16">
         <v>4888</v>
       </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J161">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="13">
         <v>43433</v>
       </c>
@@ -15372,8 +18543,16 @@
       <c r="H162" s="16">
         <v>2030</v>
       </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>11</v>
+      </c>
+      <c r="J162">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="13">
         <v>43485</v>
       </c>
@@ -15395,8 +18574,16 @@
       <c r="H163" s="16">
         <v>2117</v>
       </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="13">
         <v>43494</v>
       </c>
@@ -15418,8 +18605,16 @@
       <c r="H164" s="16">
         <v>1236</v>
       </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="13">
         <v>43465</v>
       </c>
@@ -15441,8 +18636,16 @@
       <c r="H165" s="16">
         <v>426</v>
       </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J165">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="13">
         <v>43444</v>
       </c>
@@ -15464,8 +18667,16 @@
       <c r="H166" s="16">
         <v>3956</v>
       </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J166">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="13" t="s">
         <v>70</v>
       </c>
@@ -15487,8 +18698,16 @@
       <c r="H167" s="16">
         <v>3042</v>
       </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="13">
         <v>43449</v>
       </c>
@@ -15510,8 +18729,16 @@
       <c r="H168" s="16">
         <v>1434</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>12</v>
+      </c>
+      <c r="J168">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="13">
         <v>43487</v>
       </c>
@@ -15533,8 +18760,16 @@
       <c r="H169" s="16">
         <v>1782</v>
       </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="13">
         <v>43514</v>
       </c>
@@ -15556,8 +18791,16 @@
       <c r="H170" s="16">
         <v>365</v>
       </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="13">
         <v>43491</v>
       </c>
@@ -15579,8 +18822,16 @@
       <c r="H171" s="16">
         <v>2757</v>
       </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="13">
         <v>43515</v>
       </c>
@@ -15602,8 +18853,16 @@
       <c r="H172" s="16">
         <v>2112</v>
       </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J172">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="13">
         <v>43467</v>
       </c>
@@ -15625,8 +18884,16 @@
       <c r="H173" s="16">
         <v>2190</v>
       </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="13">
         <v>43485</v>
       </c>
@@ -15648,8 +18915,16 @@
       <c r="H174" s="16">
         <v>2998</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="13">
         <v>43501</v>
       </c>
@@ -15671,8 +18946,16 @@
       <c r="H175" s="16">
         <v>3808</v>
       </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" s="13">
         <v>43569</v>
       </c>
@@ -15694,8 +18977,16 @@
       <c r="H176" s="16">
         <v>4928</v>
       </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J176">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" s="13">
         <v>43482</v>
       </c>
@@ -15717,8 +19008,16 @@
       <c r="H177" s="16">
         <v>4179</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" s="13">
         <v>43499</v>
       </c>
@@ -15740,8 +19039,16 @@
       <c r="H178" s="16">
         <v>4896</v>
       </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" s="13">
         <v>43487</v>
       </c>
@@ -15763,8 +19070,16 @@
       <c r="H179" s="16">
         <v>4092</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" s="13">
         <v>43492</v>
       </c>
@@ -15786,8 +19101,16 @@
       <c r="H180" s="16">
         <v>2956</v>
       </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B181" s="13" t="s">
         <v>70</v>
       </c>
@@ -15809,8 +19132,16 @@
       <c r="H181" s="16">
         <v>533</v>
       </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" s="13">
         <v>43520</v>
       </c>
@@ -15832,8 +19163,16 @@
       <c r="H182" s="16">
         <v>3519</v>
       </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" s="13">
         <v>43499</v>
       </c>
@@ -15855,8 +19194,16 @@
       <c r="H183" s="16">
         <v>757</v>
       </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B184" s="13" t="s">
         <v>70</v>
       </c>
@@ -15878,8 +19225,16 @@
       <c r="H184" s="16">
         <v>2688</v>
       </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" s="13">
         <v>43505</v>
       </c>
@@ -15901,8 +19256,16 @@
       <c r="H185" s="16">
         <v>340</v>
       </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" s="13">
         <v>43508</v>
       </c>
@@ -15924,8 +19287,16 @@
       <c r="H186" s="16">
         <v>4204</v>
       </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" s="13">
         <v>43555</v>
       </c>
@@ -15947,8 +19318,16 @@
       <c r="H187" s="16">
         <v>3695</v>
       </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J187">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" s="13">
         <v>43517</v>
       </c>
@@ -15970,8 +19349,16 @@
       <c r="H188" s="16">
         <v>4148</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" s="13" t="s">
         <v>70</v>
       </c>
@@ -15993,8 +19380,16 @@
       <c r="H189" s="16">
         <v>4303</v>
       </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B190" s="13">
         <v>43531</v>
       </c>
@@ -16016,8 +19411,16 @@
       <c r="H190" s="16">
         <v>2674</v>
       </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J190">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B191" s="13">
         <v>43569</v>
       </c>
@@ -16039,8 +19442,16 @@
       <c r="H191" s="16">
         <v>1720</v>
       </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J191">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B192" s="13">
         <v>43567</v>
       </c>
@@ -16062,8 +19473,16 @@
       <c r="H192" s="16">
         <v>1854</v>
       </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J192">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="13">
         <v>43532</v>
       </c>
@@ -16085,8 +19504,16 @@
       <c r="H193" s="16">
         <v>2568</v>
       </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J193">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="13" t="s">
         <v>70</v>
       </c>
@@ -16108,8 +19535,16 @@
       <c r="H194" s="16">
         <v>3690</v>
       </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="13">
         <v>43570</v>
       </c>
@@ -16131,8 +19566,16 @@
       <c r="H195" s="16">
         <v>3746</v>
       </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J195">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="13">
         <v>43536</v>
       </c>
@@ -16154,8 +19597,16 @@
       <c r="H196" s="16">
         <v>4360</v>
       </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J196">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="13">
         <v>43576</v>
       </c>
@@ -16177,8 +19628,16 @@
       <c r="H197" s="16">
         <v>1753</v>
       </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J197">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="13">
         <v>43543</v>
       </c>
@@ -16200,8 +19659,16 @@
       <c r="H198" s="16">
         <v>1421</v>
       </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J198">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="13">
         <v>43543</v>
       </c>
@@ -16223,8 +19690,16 @@
       <c r="H199" s="16">
         <v>3565</v>
       </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J199">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" s="13">
         <v>43586</v>
       </c>
@@ -16246,8 +19721,16 @@
       <c r="H200" s="16">
         <v>1961</v>
       </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J200">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" s="13">
         <v>43551</v>
       </c>
@@ -16269,8 +19752,16 @@
       <c r="H201" s="16">
         <v>4854</v>
       </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>3</v>
+      </c>
+      <c r="J201">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B202" s="13">
         <v>43557</v>
       </c>
@@ -16292,8 +19783,16 @@
       <c r="H202" s="16">
         <v>3453</v>
       </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J202">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" s="13">
         <v>43560</v>
       </c>
@@ -16315,8 +19814,16 @@
       <c r="H203" s="16">
         <v>3341</v>
       </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J203">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" s="13" t="s">
         <v>70</v>
       </c>
@@ -16338,8 +19845,16 @@
       <c r="H204" s="16">
         <v>2707</v>
       </c>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B205" s="13">
         <v>43647</v>
       </c>
@@ -16361,8 +19876,16 @@
       <c r="H205" s="16">
         <v>1582</v>
       </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J205">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B206" s="13">
         <v>43578</v>
       </c>
@@ -16384,8 +19907,16 @@
       <c r="H206" s="16">
         <v>3889</v>
       </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J206">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" s="13">
         <v>43584</v>
       </c>
@@ -16407,8 +19938,16 @@
       <c r="H207" s="16">
         <v>2303</v>
       </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J207">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" s="13">
         <v>43572</v>
       </c>
@@ -16430,8 +19969,16 @@
       <c r="H208" s="16">
         <v>802</v>
       </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>4</v>
+      </c>
+      <c r="J208">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B209" s="13" t="s">
         <v>70</v>
       </c>
@@ -16453,8 +20000,16 @@
       <c r="H209" s="16">
         <v>4513</v>
       </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210" s="13">
         <v>43586</v>
       </c>
@@ -16476,8 +20031,16 @@
       <c r="H210" s="16">
         <v>3908</v>
       </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J210">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B211" s="13">
         <v>43661</v>
       </c>
@@ -16499,8 +20062,16 @@
       <c r="H211" s="16">
         <v>156</v>
       </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J211">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B212" s="13">
         <v>43622</v>
       </c>
@@ -16522,8 +20093,16 @@
       <c r="H212" s="16">
         <v>457</v>
       </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J212">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B213" s="13">
         <v>43624</v>
       </c>
@@ -16545,8 +20124,16 @@
       <c r="H213" s="16">
         <v>3536</v>
       </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J213">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B214" s="13">
         <v>43595</v>
       </c>
@@ -16568,8 +20155,16 @@
       <c r="H214" s="16">
         <v>1809</v>
       </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J214">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B215" s="13">
         <v>43613</v>
       </c>
@@ -16591,8 +20186,16 @@
       <c r="H215" s="16">
         <v>4172</v>
       </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J215">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B216" s="13">
         <v>43623</v>
       </c>
@@ -16614,8 +20217,16 @@
       <c r="H216" s="16">
         <v>3827</v>
       </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J216">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B217" s="13">
         <v>43645</v>
       </c>
@@ -16637,8 +20248,16 @@
       <c r="H217" s="16">
         <v>1700</v>
       </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J217">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B218" s="13">
         <v>43614</v>
       </c>
@@ -16660,8 +20279,16 @@
       <c r="H218" s="16">
         <v>2090</v>
       </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J218">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B219" s="13">
         <v>43598</v>
       </c>
@@ -16683,8 +20310,16 @@
       <c r="H219" s="16">
         <v>3230</v>
       </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J219">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B220" s="13">
         <v>43601</v>
       </c>
@@ -16706,8 +20341,16 @@
       <c r="H220" s="16">
         <v>4030</v>
       </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J220">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B221" s="13">
         <v>43604</v>
       </c>
@@ -16729,8 +20372,16 @@
       <c r="H221" s="16">
         <v>1367</v>
       </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J221">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B222" s="13">
         <v>43626</v>
       </c>
@@ -16752,8 +20403,16 @@
       <c r="H222" s="16">
         <v>3945</v>
       </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J222">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B223" s="13">
         <v>43610</v>
       </c>
@@ -16775,8 +20434,16 @@
       <c r="H223" s="16">
         <v>4518</v>
       </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>5</v>
+      </c>
+      <c r="J223">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B224" s="13" t="s">
         <v>70</v>
       </c>
@@ -16798,8 +20465,16 @@
       <c r="H224" s="16">
         <v>3086</v>
       </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B225" s="13">
         <v>43628</v>
       </c>
@@ -16821,8 +20496,16 @@
       <c r="H225" s="16">
         <v>297</v>
       </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J225">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B226" s="13">
         <v>43639</v>
       </c>
@@ -16844,8 +20527,16 @@
       <c r="H226" s="16">
         <v>3226</v>
       </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J226">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B227" s="13">
         <v>43625</v>
       </c>
@@ -16867,8 +20558,16 @@
       <c r="H227" s="16">
         <v>2338</v>
       </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J227">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B228" s="13">
         <v>43664</v>
       </c>
@@ -16890,8 +20589,16 @@
       <c r="H228" s="16">
         <v>3773</v>
       </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J228">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B229" s="13" t="s">
         <v>70</v>
       </c>
@@ -16913,8 +20620,16 @@
       <c r="H229" s="16">
         <v>2759</v>
       </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B230" s="13">
         <v>43637</v>
       </c>
@@ -16936,8 +20651,16 @@
       <c r="H230" s="16">
         <v>1425</v>
       </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J230">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B231" s="13">
         <v>43639</v>
       </c>
@@ -16959,8 +20682,16 @@
       <c r="H231" s="16">
         <v>332</v>
       </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>6</v>
+      </c>
+      <c r="J231">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B232" s="13">
         <v>43653</v>
       </c>
@@ -16981,6 +20712,14 @@
       </c>
       <c r="H232" s="16">
         <v>2819</v>
+      </c>
+      <c r="I232">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>7</v>
+      </c>
+      <c r="J232">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</f>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -17005,8 +20744,8 @@
   <sheetPr codeName="Plan9"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17057,7 +20796,7 @@
         <v>512</v>
       </c>
       <c r="C3" s="28">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -17086,7 +20825,44 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+    </row>
     <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>513</v>
@@ -17137,69 +20913,213 @@
       <c r="B8" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="35"/>
+      <c r="C8" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"&lt;"&amp;C3,TbRegistroEntradas[Ano Caixa],"&lt;&gt;0")-SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],"&lt;"&amp;C3,TbRegistroSaídas[Ano Caixa],"&lt;&gt;0")</f>
+        <v>-1041</v>
+      </c>
+      <c r="D8" s="47">
+        <f>C11</f>
+        <v>966</v>
+      </c>
+      <c r="E8" s="47">
+        <f t="shared" ref="E8:N8" si="0">D11</f>
+        <v>5553</v>
+      </c>
+      <c r="F8" s="47">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="G8" s="47">
+        <f t="shared" si="0"/>
+        <v>1894</v>
+      </c>
+      <c r="H8" s="47">
+        <f t="shared" si="0"/>
+        <v>22181</v>
+      </c>
+      <c r="I8" s="47">
+        <f t="shared" si="0"/>
+        <v>30931</v>
+      </c>
+      <c r="J8" s="47">
+        <f t="shared" si="0"/>
+        <v>22856</v>
+      </c>
+      <c r="K8" s="47">
+        <f t="shared" si="0"/>
+        <v>38235</v>
+      </c>
+      <c r="L8" s="47">
+        <f t="shared" si="0"/>
+        <v>44941</v>
+      </c>
+      <c r="M8" s="47">
+        <f t="shared" si="0"/>
+        <v>39552</v>
+      </c>
+      <c r="N8" s="48">
+        <f t="shared" si="0"/>
+        <v>58456</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43" t="s">
         <v>529</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
+      <c r="C9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],C5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>33220</v>
+      </c>
+      <c r="D9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],D5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>27618</v>
+      </c>
+      <c r="E9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],E5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>21553</v>
+      </c>
+      <c r="F9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],F5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>25910</v>
+      </c>
+      <c r="G9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],G5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>23254</v>
+      </c>
+      <c r="H9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],H5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>29499</v>
+      </c>
+      <c r="I9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],I5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>21232</v>
+      </c>
+      <c r="J9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],J5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>31767</v>
+      </c>
+      <c r="K9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],K5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>24029</v>
+      </c>
+      <c r="L9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],L5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>21580</v>
+      </c>
+      <c r="M9" s="47">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],M5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>38978</v>
+      </c>
+      <c r="N9" s="48">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],N5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
+        <v>15074</v>
+      </c>
     </row>
     <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43" t="s">
         <v>515</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
+      <c r="C10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],C5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>31213</v>
+      </c>
+      <c r="D10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],D5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>23031</v>
+      </c>
+      <c r="E10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],E5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>27113</v>
+      </c>
+      <c r="F10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],F5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>24009</v>
+      </c>
+      <c r="G10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],G5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>2967</v>
+      </c>
+      <c r="H10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],H5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>20749</v>
+      </c>
+      <c r="I10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],I5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>29307</v>
+      </c>
+      <c r="J10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],J5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>16388</v>
+      </c>
+      <c r="K10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],K5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>17323</v>
+      </c>
+      <c r="L10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],L5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>26969</v>
+      </c>
+      <c r="M10" s="47">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],M5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>20074</v>
+      </c>
+      <c r="N10" s="48">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],N5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
+        <v>18422</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
+      <c r="C11" s="49">
+        <f>C8+C9-C10</f>
+        <v>966</v>
+      </c>
+      <c r="D11" s="49">
+        <f t="shared" ref="D11:N11" si="1">D8+D9-D10</f>
+        <v>5553</v>
+      </c>
+      <c r="E11" s="49">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="F11" s="49">
+        <f t="shared" si="1"/>
+        <v>1894</v>
+      </c>
+      <c r="G11" s="49">
+        <f t="shared" si="1"/>
+        <v>22181</v>
+      </c>
+      <c r="H11" s="49">
+        <f t="shared" si="1"/>
+        <v>30931</v>
+      </c>
+      <c r="I11" s="49">
+        <f t="shared" si="1"/>
+        <v>22856</v>
+      </c>
+      <c r="J11" s="49">
+        <f t="shared" si="1"/>
+        <v>38235</v>
+      </c>
+      <c r="K11" s="49">
+        <f t="shared" si="1"/>
+        <v>44941</v>
+      </c>
+      <c r="L11" s="49">
+        <f t="shared" si="1"/>
+        <v>39552</v>
+      </c>
+      <c r="M11" s="49">
+        <f t="shared" si="1"/>
+        <v>58456</v>
+      </c>
+      <c r="N11" s="50">
+        <f t="shared" si="1"/>
+        <v>55108</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,29 @@
     <definedName name="PCSaídasN1_Nível_1">TbPCSaídasN1[Nível 1]</definedName>
     <definedName name="PCSaídasN2_Nível_1">TbPCSaídasN2[Nível 1]</definedName>
     <definedName name="PCSaídasN2_Nível_2">TbPCSaídasN2[Nível 2]</definedName>
+    <definedName name="SegmentaçãodeDados_Ano_Competência">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Mês_Competência">#N/A</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId17"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId18"/>
+        <x14:slicerCache r:id="rId19"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="546">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -1664,6 +1680,18 @@
   </si>
   <si>
     <t>Ano Competência</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Soma de Valor</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +2006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2028,18 +2056,6 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2098,6 +2114,26 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2108,39 +2144,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2190,6 +2193,39 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3645,6 +3681,152 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Mês Competência"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Mês Competência"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3638549" y="561976"/>
+              <a:ext cx="2790825" cy="914399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer. Os slicers podem ser usados, no mínimo, no Excel 2010.
+Caso a forma tenha sido modificada em uma versão anterior do Excel, ou a pasta de trabalho tenha sido salva no Excel 2003 ou
+anterior, o slicer não poderá ser usado.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Ano Competência"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ano Competência"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1619250" y="571500"/>
+              <a:ext cx="1828800" cy="904875"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer. Os slicers podem ser usados, no mínimo, no Excel 2010.
+Caso a forma tenha sido modificada em uma versão anterior do Excel, ou a pasta de trabalho tenha sido salva no Excel 2003 ou
+anterior, o slicer não poderá ser usado.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4626,6 +4808,3276 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43944.480715625003" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="231">
+  <cacheSource type="worksheet">
+    <worksheetSource name="TbRegistroEntradas"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Data do Caixa Realizado" numFmtId="14">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2017-09-07T00:00:00" maxDate="2019-10-06T00:00:00"/>
+    </cacheField>
+    <cacheField name="Data da Competência" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-08-10T00:00:00" maxDate="2019-06-30T00:00:00"/>
+    </cacheField>
+    <cacheField name="Data do Caixa Previsto" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-08-25T00:00:00" maxDate="2019-08-11T00:00:00"/>
+    </cacheField>
+    <cacheField name="Conta Nível 1" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Vendas de mercadorias"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Conta Nível 2" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Informática"/>
+        <s v="Móveis"/>
+        <s v="Som e imagem"/>
+        <s v="Eletrodomésticos"/>
+        <s v="Livros"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Histórico" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Valor" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="164" maxValue="4993"/>
+    </cacheField>
+    <cacheField name="Mês Caixa" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Ano Caixa" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2019"/>
+    </cacheField>
+    <cacheField name="Mês Competência" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ano Competência" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2017" maxValue="2019" count="3">
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="231">
+  <r>
+    <d v="2017-09-16T00:00:00"/>
+    <d v="2017-08-10T00:00:00"/>
+    <d v="2017-08-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF7238"/>
+    <n v="1133"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-07T00:00:00"/>
+    <d v="2017-08-13T00:00:00"/>
+    <d v="2017-09-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9147"/>
+    <n v="164"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-29T00:00:00"/>
+    <d v="2017-08-17T00:00:00"/>
+    <d v="2017-09-23T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8005"/>
+    <n v="2937"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-12T00:00:00"/>
+    <d v="2017-08-22T00:00:00"/>
+    <d v="2017-10-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5493"/>
+    <n v="807"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-06T00:00:00"/>
+    <d v="2017-08-25T00:00:00"/>
+    <d v="2017-10-06T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF7946"/>
+    <n v="2612"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-15T00:00:00"/>
+    <d v="2017-08-27T00:00:00"/>
+    <d v="2017-10-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8598"/>
+    <n v="2483"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-18T00:00:00"/>
+    <d v="2017-09-01T00:00:00"/>
+    <d v="2017-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF1535"/>
+    <n v="4387"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-26T00:00:00"/>
+    <d v="2017-09-02T00:00:00"/>
+    <d v="2017-09-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4333"/>
+    <n v="4268"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-07T00:00:00"/>
+    <d v="2017-09-06T00:00:00"/>
+    <d v="2017-10-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8091"/>
+    <n v="3761"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2017-09-10T00:00:00"/>
+    <d v="2017-10-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2421"/>
+    <n v="4983"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-19T00:00:00"/>
+    <d v="2017-09-12T00:00:00"/>
+    <d v="2017-09-19T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF9787"/>
+    <n v="2502"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-24T00:00:00"/>
+    <d v="2017-09-16T00:00:00"/>
+    <d v="2017-09-24T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8674"/>
+    <n v="2337"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-23T00:00:00"/>
+    <d v="2017-09-23T00:00:00"/>
+    <d v="2017-09-23T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF5880"/>
+    <n v="3125"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-17T00:00:00"/>
+    <d v="2017-09-26T00:00:00"/>
+    <d v="2017-11-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2763"/>
+    <n v="1201"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-10T00:00:00"/>
+    <d v="2017-09-27T00:00:00"/>
+    <d v="2017-10-10T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3303"/>
+    <n v="4380"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-11T00:00:00"/>
+    <d v="2017-09-30T00:00:00"/>
+    <d v="2017-10-11T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF3966"/>
+    <n v="919"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-07T00:00:00"/>
+    <d v="2017-10-04T00:00:00"/>
+    <d v="2017-10-17T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF6107"/>
+    <n v="4590"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-13T00:00:00"/>
+    <d v="2017-10-07T00:00:00"/>
+    <d v="2017-11-13T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF4832"/>
+    <n v="1958"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-04T00:00:00"/>
+    <d v="2017-10-09T00:00:00"/>
+    <d v="2017-11-04T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF5012"/>
+    <n v="1171"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-21T00:00:00"/>
+    <d v="2017-10-11T00:00:00"/>
+    <d v="2017-11-21T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7669"/>
+    <n v="2587"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2017-10-15T00:00:00"/>
+    <d v="2017-11-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7663"/>
+    <n v="3425"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-13T00:00:00"/>
+    <d v="2017-10-18T00:00:00"/>
+    <d v="2017-10-18T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF4063"/>
+    <n v="4454"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-22T00:00:00"/>
+    <d v="2017-10-22T00:00:00"/>
+    <d v="2017-10-22T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4290"/>
+    <n v="2134"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-24T00:00:00"/>
+    <d v="2017-10-24T00:00:00"/>
+    <d v="2017-10-24T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF7319"/>
+    <n v="257"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-22T00:00:00"/>
+    <d v="2017-10-24T00:00:00"/>
+    <d v="2017-11-29T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7020"/>
+    <n v="2019"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-26T00:00:00"/>
+    <d v="2017-10-26T00:00:00"/>
+    <d v="2017-10-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7221"/>
+    <n v="3696"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-13T00:00:00"/>
+    <d v="2017-10-30T00:00:00"/>
+    <d v="2017-11-13T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF5004"/>
+    <n v="4446"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2017-11-01T00:00:00"/>
+    <d v="2017-11-18T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF8690"/>
+    <n v="1445"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-17T00:00:00"/>
+    <d v="2017-11-04T00:00:00"/>
+    <d v="2017-11-29T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3424"/>
+    <n v="3559"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-08T00:00:00"/>
+    <d v="2017-11-08T00:00:00"/>
+    <d v="2017-11-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5808"/>
+    <n v="547"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-08T00:00:00"/>
+    <d v="2017-11-12T00:00:00"/>
+    <d v="2017-11-12T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2852"/>
+    <n v="1221"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-01T00:00:00"/>
+    <d v="2017-11-14T00:00:00"/>
+    <d v="2018-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF2347"/>
+    <n v="4108"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-16T00:00:00"/>
+    <d v="2017-11-16T00:00:00"/>
+    <d v="2017-11-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7848"/>
+    <n v="3714"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2017-11-18T00:00:00"/>
+    <d v="2018-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF4449"/>
+    <n v="4843"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-21T00:00:00"/>
+    <d v="2017-11-19T00:00:00"/>
+    <d v="2017-12-21T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF7540"/>
+    <n v="4831"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-20T00:00:00"/>
+    <d v="2017-11-20T00:00:00"/>
+    <d v="2017-11-20T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7741"/>
+    <n v="2072"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-22T00:00:00"/>
+    <d v="2017-11-24T00:00:00"/>
+    <d v="2018-01-22T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF6190"/>
+    <n v="3992"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-14T00:00:00"/>
+    <d v="2017-11-29T00:00:00"/>
+    <d v="2017-11-29T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF4129"/>
+    <n v="1284"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-04T00:00:00"/>
+    <d v="2017-12-04T00:00:00"/>
+    <d v="2017-12-04T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF6811"/>
+    <n v="4073"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-04T00:00:00"/>
+    <d v="2017-12-04T00:00:00"/>
+    <d v="2017-12-04T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF1550"/>
+    <n v="3008"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-03T00:00:00"/>
+    <d v="2017-12-11T00:00:00"/>
+    <d v="2017-12-11T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF7213"/>
+    <n v="1267"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-03T00:00:00"/>
+    <d v="2017-12-13T00:00:00"/>
+    <d v="2018-01-03T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF8396"/>
+    <n v="284"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-17T00:00:00"/>
+    <d v="2017-12-14T00:00:00"/>
+    <d v="2017-12-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2432"/>
+    <n v="2046"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-22T00:00:00"/>
+    <d v="2017-12-16T00:00:00"/>
+    <d v="2018-01-22T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4722"/>
+    <n v="3880"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-23T00:00:00"/>
+    <d v="2017-12-17T00:00:00"/>
+    <d v="2018-01-23T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8944"/>
+    <n v="3149"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-25T00:00:00"/>
+    <d v="2017-12-19T00:00:00"/>
+    <d v="2018-01-25T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2816"/>
+    <n v="668"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-20T00:00:00"/>
+    <d v="2017-12-20T00:00:00"/>
+    <d v="2017-12-20T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF6358"/>
+    <n v="3721"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-02-02T00:00:00"/>
+    <d v="2017-12-22T00:00:00"/>
+    <d v="2018-02-02T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8459"/>
+    <n v="3114"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-23T00:00:00"/>
+    <d v="2017-12-26T00:00:00"/>
+    <d v="2017-12-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5737"/>
+    <n v="1436"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-01T00:00:00"/>
+    <d v="2017-12-30T00:00:00"/>
+    <d v="2018-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8895"/>
+    <n v="3192"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-02-13T00:00:00"/>
+    <d v="2017-12-31T00:00:00"/>
+    <d v="2018-02-13T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF2196"/>
+    <n v="2687"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-01-03T00:00:00"/>
+    <d v="2018-02-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1631"/>
+    <n v="1561"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-24T00:00:00"/>
+    <d v="2018-01-09T00:00:00"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9340"/>
+    <n v="1573"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-01-17T00:00:00"/>
+    <d v="2018-01-17T00:00:00"/>
+    <d v="2018-01-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6851"/>
+    <n v="1364"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-07T00:00:00"/>
+    <d v="2018-01-21T00:00:00"/>
+    <d v="2018-03-07T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF3336"/>
+    <n v="783"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-14T00:00:00"/>
+    <d v="2018-01-22T00:00:00"/>
+    <d v="2018-02-14T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF7526"/>
+    <n v="3928"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-11T00:00:00"/>
+    <d v="2018-01-24T00:00:00"/>
+    <d v="2018-02-11T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3023"/>
+    <n v="3843"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-16T00:00:00"/>
+    <d v="2018-01-25T00:00:00"/>
+    <d v="2018-01-29T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF7934"/>
+    <n v="1864"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-06T00:00:00"/>
+    <d v="2018-01-28T00:00:00"/>
+    <d v="2018-01-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7720"/>
+    <n v="1184"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-02T00:00:00"/>
+    <d v="2018-01-29T00:00:00"/>
+    <d v="2018-03-02T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2719"/>
+    <n v="4055"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-19T00:00:00"/>
+    <d v="2018-01-30T00:00:00"/>
+    <d v="2018-03-19T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3036"/>
+    <n v="427"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-07T00:00:00"/>
+    <d v="2018-02-02T00:00:00"/>
+    <d v="2018-02-07T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4604"/>
+    <n v="460"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-02-05T00:00:00"/>
+    <d v="2018-03-31T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF2493"/>
+    <n v="964"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-14T00:00:00"/>
+    <d v="2018-02-09T00:00:00"/>
+    <d v="2018-02-14T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5788"/>
+    <n v="3412"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-15T00:00:00"/>
+    <d v="2018-02-11T00:00:00"/>
+    <d v="2018-02-15T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF9580"/>
+    <n v="3095"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-03T00:00:00"/>
+    <d v="2018-02-17T00:00:00"/>
+    <d v="2018-04-03T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4061"/>
+    <n v="1532"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-03T00:00:00"/>
+    <d v="2018-02-20T00:00:00"/>
+    <d v="2018-04-03T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF6503"/>
+    <n v="3726"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-23T00:00:00"/>
+    <d v="2018-02-23T00:00:00"/>
+    <d v="2018-02-23T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6701"/>
+    <n v="4322"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-02-25T00:00:00"/>
+    <d v="2018-04-15T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8891"/>
+    <n v="3998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-26T00:00:00"/>
+    <d v="2018-02-27T00:00:00"/>
+    <d v="2018-03-29T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF2640"/>
+    <n v="3252"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-10T00:00:00"/>
+    <d v="2018-03-01T00:00:00"/>
+    <d v="2018-03-10T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF8852"/>
+    <n v="3701"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-03-03T00:00:00"/>
+    <d v="2018-04-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF7869"/>
+    <n v="1977"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-06T00:00:00"/>
+    <d v="2018-03-04T00:00:00"/>
+    <d v="2018-04-21T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4994"/>
+    <n v="1217"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-13T00:00:00"/>
+    <d v="2018-03-07T00:00:00"/>
+    <d v="2018-04-13T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF5720"/>
+    <n v="1660"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-10T00:00:00"/>
+    <d v="2018-03-10T00:00:00"/>
+    <d v="2018-03-10T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF6393"/>
+    <n v="837"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-23T00:00:00"/>
+    <d v="2018-03-12T00:00:00"/>
+    <d v="2018-04-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9057"/>
+    <n v="1838"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-17T00:00:00"/>
+    <d v="2018-03-17T00:00:00"/>
+    <d v="2018-03-17T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF7365"/>
+    <n v="4471"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-18T00:00:00"/>
+    <d v="2018-03-18T00:00:00"/>
+    <d v="2018-03-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4559"/>
+    <n v="3540"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-05T00:00:00"/>
+    <d v="2018-03-21T00:00:00"/>
+    <d v="2018-03-21T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7119"/>
+    <n v="4606"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-09T00:00:00"/>
+    <d v="2018-03-23T00:00:00"/>
+    <d v="2018-04-09T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF2814"/>
+    <n v="2388"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-28T00:00:00"/>
+    <d v="2018-03-25T00:00:00"/>
+    <d v="2018-03-28T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF5963"/>
+    <n v="2303"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-06T00:00:00"/>
+    <d v="2018-03-28T00:00:00"/>
+    <d v="2018-04-15T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF3293"/>
+    <n v="1662"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-24T00:00:00"/>
+    <d v="2018-03-30T00:00:00"/>
+    <d v="2018-03-30T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8254"/>
+    <n v="3241"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-25T00:00:00"/>
+    <d v="2018-03-31T00:00:00"/>
+    <d v="2018-05-08T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF4303"/>
+    <n v="4017"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-03T00:00:00"/>
+    <d v="2018-04-03T00:00:00"/>
+    <d v="2018-04-03T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2605"/>
+    <n v="3586"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-06T00:00:00"/>
+    <d v="2018-04-06T00:00:00"/>
+    <d v="2018-04-06T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8043"/>
+    <n v="4467"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-31T00:00:00"/>
+    <d v="2018-04-09T00:00:00"/>
+    <d v="2018-05-31T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6697"/>
+    <n v="4262"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-04-11T00:00:00"/>
+    <d v="2018-06-09T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5208"/>
+    <n v="2593"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-04T00:00:00"/>
+    <d v="2018-04-14T00:00:00"/>
+    <d v="2018-05-04T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2907"/>
+    <n v="1885"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-14T00:00:00"/>
+    <d v="2018-04-19T00:00:00"/>
+    <d v="2018-04-19T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9381"/>
+    <n v="2224"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-14T00:00:00"/>
+    <d v="2018-04-23T00:00:00"/>
+    <d v="2018-05-14T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3247"/>
+    <n v="3223"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-26T00:00:00"/>
+    <d v="2018-04-26T00:00:00"/>
+    <d v="2018-04-26T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4377"/>
+    <n v="3446"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-06T00:00:00"/>
+    <d v="2018-04-30T00:00:00"/>
+    <d v="2018-04-30T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2988"/>
+    <n v="4540"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-02T00:00:00"/>
+    <d v="2018-05-08T00:00:00"/>
+    <d v="2018-07-02T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF4912"/>
+    <n v="3862"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-30T00:00:00"/>
+    <d v="2018-05-11T00:00:00"/>
+    <d v="2018-06-28T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7104"/>
+    <n v="611"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-13T00:00:00"/>
+    <d v="2018-05-13T00:00:00"/>
+    <d v="2018-05-13T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF6700"/>
+    <n v="1486"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-01T00:00:00"/>
+    <d v="2018-05-21T00:00:00"/>
+    <d v="2018-06-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7947"/>
+    <n v="4850"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-24T00:00:00"/>
+    <d v="2018-05-24T00:00:00"/>
+    <d v="2018-06-24T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF7741"/>
+    <n v="3878"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-24T00:00:00"/>
+    <d v="2018-05-29T00:00:00"/>
+    <d v="2018-06-24T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3255"/>
+    <n v="976"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-14T00:00:00"/>
+    <d v="2018-05-30T00:00:00"/>
+    <d v="2018-06-14T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF7106"/>
+    <n v="3346"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-28T00:00:00"/>
+    <d v="2018-06-03T00:00:00"/>
+    <d v="2018-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF1835"/>
+    <n v="443"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-04T00:00:00"/>
+    <d v="2018-06-04T00:00:00"/>
+    <d v="2018-06-04T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7322"/>
+    <n v="2781"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-16T00:00:00"/>
+    <d v="2018-06-05T00:00:00"/>
+    <d v="2018-06-16T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3899"/>
+    <n v="1875"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-08T00:00:00"/>
+    <d v="2018-06-08T00:00:00"/>
+    <d v="2018-06-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5496"/>
+    <n v="3134"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-25T00:00:00"/>
+    <d v="2018-06-10T00:00:00"/>
+    <d v="2018-06-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4824"/>
+    <n v="2114"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-08T00:00:00"/>
+    <d v="2018-06-13T00:00:00"/>
+    <d v="2018-08-08T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF2022"/>
+    <n v="4961"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-22T00:00:00"/>
+    <d v="2018-06-14T00:00:00"/>
+    <d v="2018-07-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8075"/>
+    <n v="909"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-12T00:00:00"/>
+    <d v="2018-06-15T00:00:00"/>
+    <d v="2018-07-12T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1137"/>
+    <n v="2197"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-17T00:00:00"/>
+    <d v="2018-06-17T00:00:00"/>
+    <d v="2018-06-17T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF3353"/>
+    <n v="3045"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-14T00:00:00"/>
+    <d v="2018-06-21T00:00:00"/>
+    <d v="2018-07-28T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5074"/>
+    <n v="460"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-01T00:00:00"/>
+    <d v="2018-06-24T00:00:00"/>
+    <d v="2018-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1725"/>
+    <n v="770"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-05T00:00:00"/>
+    <d v="2018-06-25T00:00:00"/>
+    <d v="2018-08-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5560"/>
+    <n v="3646"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-16T00:00:00"/>
+    <d v="2018-06-29T00:00:00"/>
+    <d v="2018-08-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2674"/>
+    <n v="2376"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-25T00:00:00"/>
+    <d v="2018-07-03T00:00:00"/>
+    <d v="2018-07-29T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2175"/>
+    <n v="3940"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-31T00:00:00"/>
+    <d v="2018-07-04T00:00:00"/>
+    <d v="2018-08-31T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3338"/>
+    <n v="1732"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-04T00:00:00"/>
+    <d v="2018-07-05T00:00:00"/>
+    <d v="2018-08-04T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7689"/>
+    <n v="1306"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-24T00:00:00"/>
+    <d v="2018-07-07T00:00:00"/>
+    <d v="2018-08-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF5938"/>
+    <n v="3954"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-11T00:00:00"/>
+    <d v="2018-07-11T00:00:00"/>
+    <d v="2018-08-11T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF9391"/>
+    <n v="4090"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-30T00:00:00"/>
+    <d v="2018-07-12T00:00:00"/>
+    <d v="2018-07-30T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF6298"/>
+    <n v="2713"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-21T00:00:00"/>
+    <d v="2018-07-16T00:00:00"/>
+    <d v="2018-07-21T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7941"/>
+    <n v="3482"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-07-18T00:00:00"/>
+    <d v="2018-09-03T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3604"/>
+    <n v="2071"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-07-23T00:00:00"/>
+    <d v="2018-07-23T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF4605"/>
+    <n v="4258"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-07T00:00:00"/>
+    <d v="2018-07-25T00:00:00"/>
+    <d v="2018-09-07T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF1759"/>
+    <n v="4383"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-07-29T00:00:00"/>
+    <d v="2018-07-29T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2800"/>
+    <n v="1369"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-05T00:00:00"/>
+    <d v="2018-08-03T00:00:00"/>
+    <d v="2018-09-14T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7248"/>
+    <n v="331"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-25T00:00:00"/>
+    <d v="2018-08-06T00:00:00"/>
+    <d v="2018-08-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5280"/>
+    <n v="3031"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-29T00:00:00"/>
+    <d v="2018-08-09T00:00:00"/>
+    <d v="2018-08-29T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF2968"/>
+    <n v="1200"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-11T00:00:00"/>
+    <d v="2018-08-11T00:00:00"/>
+    <d v="2018-08-11T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4862"/>
+    <n v="405"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-17T00:00:00"/>
+    <d v="2018-08-14T00:00:00"/>
+    <d v="2018-09-17T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF2988"/>
+    <n v="3080"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-17T00:00:00"/>
+    <d v="2018-08-17T00:00:00"/>
+    <d v="2018-08-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6224"/>
+    <n v="2137"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-24T00:00:00"/>
+    <d v="2018-08-24T00:00:00"/>
+    <d v="2018-08-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF6974"/>
+    <n v="4287"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-10T00:00:00"/>
+    <d v="2018-08-26T00:00:00"/>
+    <d v="2018-10-22T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF3171"/>
+    <n v="4857"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-20T00:00:00"/>
+    <d v="2018-08-30T00:00:00"/>
+    <d v="2018-10-20T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9089"/>
+    <n v="507"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-01T00:00:00"/>
+    <d v="2018-08-31T00:00:00"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF9607"/>
+    <n v="2467"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-27T00:00:00"/>
+    <d v="2018-09-01T00:00:00"/>
+    <d v="2018-09-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6643"/>
+    <n v="4253"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-07T00:00:00"/>
+    <d v="2018-09-07T00:00:00"/>
+    <d v="2018-09-07T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF3939"/>
+    <n v="2391"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-22T00:00:00"/>
+    <d v="2018-09-09T00:00:00"/>
+    <d v="2018-09-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3599"/>
+    <n v="3669"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <d v="2018-09-12T00:00:00"/>
+    <d v="2018-10-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9914"/>
+    <n v="1207"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-08T00:00:00"/>
+    <d v="2018-09-18T00:00:00"/>
+    <d v="2018-11-08T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF5492"/>
+    <n v="2539"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-01T00:00:00"/>
+    <d v="2018-09-20T00:00:00"/>
+    <d v="2018-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7516"/>
+    <n v="2895"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-18T00:00:00"/>
+    <d v="2018-09-21T00:00:00"/>
+    <d v="2018-09-21T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8652"/>
+    <n v="2106"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-01T00:00:00"/>
+    <d v="2018-09-23T00:00:00"/>
+    <d v="2018-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4809"/>
+    <n v="3742"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-26T00:00:00"/>
+    <d v="2018-09-26T00:00:00"/>
+    <d v="2018-09-26T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF5491"/>
+    <n v="3222"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-19T00:00:00"/>
+    <d v="2018-10-01T00:00:00"/>
+    <d v="2018-10-19T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7862"/>
+    <n v="673"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-26T00:00:00"/>
+    <d v="2018-10-05T00:00:00"/>
+    <d v="2018-10-26T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3137"/>
+    <n v="4922"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-28T00:00:00"/>
+    <d v="2018-10-09T00:00:00"/>
+    <d v="2018-11-28T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF2705"/>
+    <n v="1688"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <d v="2018-10-09T00:00:00"/>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF9537"/>
+    <n v="979"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-27T00:00:00"/>
+    <d v="2018-10-14T00:00:00"/>
+    <d v="2018-10-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1700"/>
+    <n v="3744"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-10-16T00:00:00"/>
+    <d v="2018-12-04T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF9052"/>
+    <n v="4061"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-01T00:00:00"/>
+    <d v="2018-10-21T00:00:00"/>
+    <d v="2018-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF9827"/>
+    <n v="4404"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-20T00:00:00"/>
+    <d v="2018-10-25T00:00:00"/>
+    <d v="2018-11-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4056"/>
+    <n v="2429"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-25T00:00:00"/>
+    <d v="2018-10-25T00:00:00"/>
+    <d v="2018-10-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4381"/>
+    <n v="2713"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-10-30T00:00:00"/>
+    <d v="2018-10-30T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5374"/>
+    <n v="3787"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-08T00:00:00"/>
+    <d v="2018-11-04T00:00:00"/>
+    <d v="2018-12-08T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4782"/>
+    <n v="1820"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-27T00:00:00"/>
+    <d v="2018-11-08T00:00:00"/>
+    <d v="2018-11-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9770"/>
+    <n v="4135"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-17T00:00:00"/>
+    <d v="2018-11-11T00:00:00"/>
+    <d v="2018-11-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3186"/>
+    <n v="3902"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-14T00:00:00"/>
+    <d v="2018-11-14T00:00:00"/>
+    <d v="2018-11-14T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7423"/>
+    <n v="4319"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-03-13T00:00:00"/>
+    <d v="2018-11-17T00:00:00"/>
+    <d v="2018-12-30T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3114"/>
+    <n v="3068"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-21T00:00:00"/>
+    <d v="2018-11-21T00:00:00"/>
+    <d v="2018-11-21T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1359"/>
+    <n v="1880"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-31T00:00:00"/>
+    <d v="2018-11-23T00:00:00"/>
+    <d v="2018-12-31T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5107"/>
+    <n v="1414"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-23T00:00:00"/>
+    <d v="2018-11-26T00:00:00"/>
+    <d v="2018-12-13T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF4367"/>
+    <n v="919"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-27T00:00:00"/>
+    <d v="2018-11-27T00:00:00"/>
+    <d v="2018-11-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8386"/>
+    <n v="4801"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-30T00:00:00"/>
+    <d v="2018-11-30T00:00:00"/>
+    <d v="2018-11-30T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5922"/>
+    <n v="4639"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-12-06T00:00:00"/>
+    <d v="2019-01-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9970"/>
+    <n v="1209"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-04-05T00:00:00"/>
+    <d v="2018-12-10T00:00:00"/>
+    <d v="2019-01-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1938"/>
+    <n v="483"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-02-07T00:00:00"/>
+    <d v="2018-12-17T00:00:00"/>
+    <d v="2019-01-04T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7772"/>
+    <n v="373"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-25T00:00:00"/>
+    <d v="2018-12-20T00:00:00"/>
+    <d v="2018-12-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF9932"/>
+    <n v="2088"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-12-21T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF2970"/>
+    <n v="1168"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-23T00:00:00"/>
+    <d v="2018-12-23T00:00:00"/>
+    <d v="2018-12-23T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF4423"/>
+    <n v="4429"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-02-23T00:00:00"/>
+    <d v="2018-12-28T00:00:00"/>
+    <d v="2019-02-23T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9682"/>
+    <n v="4955"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-18T00:00:00"/>
+    <d v="2018-12-31T00:00:00"/>
+    <d v="2019-01-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7840"/>
+    <n v="3201"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-02-15T00:00:00"/>
+    <d v="2019-01-04T00:00:00"/>
+    <d v="2019-02-15T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4946"/>
+    <n v="3007"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF6806"/>
+    <n v="900"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-13T00:00:00"/>
+    <d v="2019-01-13T00:00:00"/>
+    <d v="2019-01-13T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3882"/>
+    <n v="2970"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-14T00:00:00"/>
+    <d v="2019-01-17T00:00:00"/>
+    <d v="2019-03-14T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF1850"/>
+    <n v="4993"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-20T00:00:00"/>
+    <d v="2019-01-20T00:00:00"/>
+    <d v="2019-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF7979"/>
+    <n v="1664"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-01-21T00:00:00"/>
+    <d v="2019-02-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1547"/>
+    <n v="1815"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-09T00:00:00"/>
+    <d v="2019-01-23T00:00:00"/>
+    <d v="2019-02-09T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF2309"/>
+    <n v="3752"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-01-27T00:00:00"/>
+    <d v="2019-02-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5791"/>
+    <n v="177"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-29T00:00:00"/>
+    <d v="2019-01-29T00:00:00"/>
+    <d v="2019-01-29T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2982"/>
+    <n v="3619"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-11T00:00:00"/>
+    <d v="2019-02-02T00:00:00"/>
+    <d v="2019-03-10T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF1796"/>
+    <n v="4030"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-16T00:00:00"/>
+    <d v="2019-02-05T00:00:00"/>
+    <d v="2019-02-16T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF2396"/>
+    <n v="4157"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-08T00:00:00"/>
+    <d v="2019-02-06T00:00:00"/>
+    <d v="2019-03-08T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8281"/>
+    <n v="1417"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-16T00:00:00"/>
+    <d v="2019-02-09T00:00:00"/>
+    <d v="2019-03-16T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF3155"/>
+    <n v="1117"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-17T00:00:00"/>
+    <d v="2019-02-10T00:00:00"/>
+    <d v="2019-03-17T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF4849"/>
+    <n v="4461"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-25T00:00:00"/>
+    <d v="2019-02-12T00:00:00"/>
+    <d v="2019-02-12T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4647"/>
+    <n v="3732"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-13T00:00:00"/>
+    <d v="2019-02-13T00:00:00"/>
+    <d v="2019-02-13T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF9056"/>
+    <n v="2024"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-16T00:00:00"/>
+    <d v="2019-02-16T00:00:00"/>
+    <d v="2019-02-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4097"/>
+    <n v="928"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-09T00:00:00"/>
+    <d v="2019-02-17T00:00:00"/>
+    <d v="2019-02-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9792"/>
+    <n v="3557"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-16T00:00:00"/>
+    <d v="2019-02-18T00:00:00"/>
+    <d v="2019-03-16T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1943"/>
+    <n v="741"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-24T00:00:00"/>
+    <d v="2019-02-21T00:00:00"/>
+    <d v="2019-03-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5598"/>
+    <n v="850"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-26T00:00:00"/>
+    <d v="2019-02-26T00:00:00"/>
+    <d v="2019-02-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8881"/>
+    <n v="4741"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-03-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3500"/>
+    <n v="471"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-03T00:00:00"/>
+    <d v="2019-03-03T00:00:00"/>
+    <d v="2019-03-03T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3489"/>
+    <n v="517"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-08T00:00:00"/>
+    <d v="2019-03-10T00:00:00"/>
+    <d v="2019-04-08T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8682"/>
+    <n v="3034"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-23T00:00:00"/>
+    <d v="2019-03-13T00:00:00"/>
+    <d v="2019-04-23T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8525"/>
+    <n v="3172"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-19T00:00:00"/>
+    <d v="2019-03-19T00:00:00"/>
+    <d v="2019-03-19T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF2006"/>
+    <n v="2069"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-21T00:00:00"/>
+    <d v="2019-03-21T00:00:00"/>
+    <d v="2019-03-21T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7648"/>
+    <n v="3849"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-03-27T00:00:00"/>
+    <d v="2019-05-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF6770"/>
+    <n v="4141"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-27T00:00:00"/>
+    <d v="2019-03-28T00:00:00"/>
+    <d v="2019-05-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF2352"/>
+    <n v="1348"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-03T00:00:00"/>
+    <d v="2019-04-03T00:00:00"/>
+    <d v="2019-04-03T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4686"/>
+    <n v="1738"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-06T00:00:00"/>
+    <d v="2019-04-06T00:00:00"/>
+    <d v="2019-04-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9108"/>
+    <n v="732"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-09T00:00:00"/>
+    <d v="2019-04-07T00:00:00"/>
+    <d v="2019-05-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1934"/>
+    <n v="373"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-24T00:00:00"/>
+    <d v="2019-04-09T00:00:00"/>
+    <d v="2019-05-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF5748"/>
+    <n v="609"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-30T00:00:00"/>
+    <d v="2019-04-12T00:00:00"/>
+    <d v="2019-05-30T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3443"/>
+    <n v="2883"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-14T00:00:00"/>
+    <d v="2019-04-14T00:00:00"/>
+    <d v="2019-04-14T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4433"/>
+    <n v="4651"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-04-18T00:00:00"/>
+    <d v="2019-04-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF7700"/>
+    <n v="4797"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-13T00:00:00"/>
+    <d v="2019-04-20T00:00:00"/>
+    <d v="2019-05-13T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF8475"/>
+    <n v="1620"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-08-06T00:00:00"/>
+    <d v="2019-04-27T00:00:00"/>
+    <d v="2019-06-09T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF3694"/>
+    <n v="245"/>
+    <n v="8"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-10T00:00:00"/>
+    <d v="2019-04-29T00:00:00"/>
+    <d v="2019-05-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5571"/>
+    <n v="2091"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-09T00:00:00"/>
+    <d v="2019-04-30T00:00:00"/>
+    <d v="2019-05-09T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7836"/>
+    <n v="3200"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-02T00:00:00"/>
+    <d v="2019-05-02T00:00:00"/>
+    <d v="2019-05-02T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF7705"/>
+    <n v="583"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-10T00:00:00"/>
+    <d v="2019-05-05T00:00:00"/>
+    <d v="2019-06-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1629"/>
+    <n v="4505"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-07T00:00:00"/>
+    <d v="2019-05-07T00:00:00"/>
+    <d v="2019-05-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4027"/>
+    <n v="343"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-18T00:00:00"/>
+    <d v="2019-05-08T00:00:00"/>
+    <d v="2019-05-18T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF7582"/>
+    <n v="4510"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-12T00:00:00"/>
+    <d v="2019-05-12T00:00:00"/>
+    <d v="2019-05-12T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7868"/>
+    <n v="667"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-15T00:00:00"/>
+    <d v="2019-05-15T00:00:00"/>
+    <d v="2019-06-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6154"/>
+    <n v="1006"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-19T00:00:00"/>
+    <d v="2019-05-19T00:00:00"/>
+    <d v="2019-06-19T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5531"/>
+    <n v="1071"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-14T00:00:00"/>
+    <d v="2019-05-24T00:00:00"/>
+    <d v="2019-06-14T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF9744"/>
+    <n v="2194"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-05-26T00:00:00"/>
+    <d v="2019-05-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1516"/>
+    <n v="2531"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-07-09T00:00:00"/>
+    <d v="2019-05-29T00:00:00"/>
+    <d v="2019-07-09T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF2007"/>
+    <n v="657"/>
+    <n v="7"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-05-30T00:00:00"/>
+    <d v="2019-07-02T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF9904"/>
+    <n v="4535"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-25T00:00:00"/>
+    <d v="2019-06-04T00:00:00"/>
+    <d v="2019-06-25T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8631"/>
+    <n v="1848"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-07-03T00:00:00"/>
+    <d v="2019-06-09T00:00:00"/>
+    <d v="2019-06-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5098"/>
+    <n v="191"/>
+    <n v="7"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-10-05T00:00:00"/>
+    <d v="2019-06-13T00:00:00"/>
+    <d v="2019-07-22T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF8169"/>
+    <n v="508"/>
+    <n v="10"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-06-15T00:00:00"/>
+    <d v="2019-06-15T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4469"/>
+    <n v="1482"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-07-01T00:00:00"/>
+    <d v="2019-06-16T00:00:00"/>
+    <d v="2019-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF6729"/>
+    <n v="555"/>
+    <n v="7"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-08-10T00:00:00"/>
+    <d v="2019-06-20T00:00:00"/>
+    <d v="2019-08-10T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3586"/>
+    <n v="1906"/>
+    <n v="8"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-08-25T00:00:00"/>
+    <d v="2019-06-25T00:00:00"/>
+    <d v="2019-06-29T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF9837"/>
+    <n v="450"/>
+    <n v="8"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-09-02T00:00:00"/>
+    <d v="2019-06-28T00:00:00"/>
+    <d v="2019-07-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6344"/>
+    <n v="1479"/>
+    <n v="9"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-07-01T00:00:00"/>
+    <d v="2019-06-29T00:00:00"/>
+    <d v="2019-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3701"/>
+    <n v="3446"/>
+    <n v="7"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaReceita" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B6:O14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="13">
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Mês_Competência" sourceName="Mês Competência">
+  <pivotTables>
+    <pivotTable tabId="11" name="TdDetalhaReceita"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="12">
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Ano_Competência" sourceName="Ano Competência">
+  <pivotTables>
+    <pivotTable tabId="11" name="TdDetalhaReceita"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="0"/>
+        <i x="1" s="1"/>
+        <i x="2"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Mês Competência" cache="SegmentaçãodeDados_Mês_Competência" caption="Mês Competência" columnCount="6" rowHeight="241300"/>
+  <slicer name="Ano Competência" cache="SegmentaçãodeDados_Ano_Competência" caption="Ano Competência" columnCount="2" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B4:B9"/>
@@ -4669,26 +8121,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:L234" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:L234" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B3:L234"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="9"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="8"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="7"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="18"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="17"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="16"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="6"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="5">
+    <tableColumn id="7" name="Valor" dataDxfId="15"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="14">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="4">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="13">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês Competência" dataDxfId="3">
+    <tableColumn id="10" name="Mês Competência" dataDxfId="12">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano Competência" dataDxfId="2">
+    <tableColumn id="11" name="Ano Competência" dataDxfId="11">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4697,20 +8149,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:L232" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:L232" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B3:L232"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="16"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="15"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="14"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="7"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="6"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="5"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="13"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="12">
+    <tableColumn id="7" name="Valor" dataDxfId="4"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="3">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="11">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="2">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Mês Competência" dataDxfId="1">
@@ -5099,18 +8551,17 @@
   <sheetPr codeName="Plan10"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5125,11 +8576,12 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5143,25 +8595,371 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="48">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="50">
+        <v>20582</v>
+      </c>
+      <c r="D8" s="50">
+        <v>24761</v>
+      </c>
+      <c r="E8" s="50">
+        <v>37458</v>
+      </c>
+      <c r="F8" s="50">
+        <v>30226</v>
+      </c>
+      <c r="G8" s="50">
+        <v>19009</v>
+      </c>
+      <c r="H8" s="50">
+        <v>28711</v>
+      </c>
+      <c r="I8" s="50">
+        <v>33298</v>
+      </c>
+      <c r="J8" s="50">
+        <v>22302</v>
+      </c>
+      <c r="K8" s="50">
+        <v>26024</v>
+      </c>
+      <c r="L8" s="50">
+        <v>29400</v>
+      </c>
+      <c r="M8" s="50">
+        <v>30897</v>
+      </c>
+      <c r="N8" s="50">
+        <v>17906</v>
+      </c>
+      <c r="O8" s="50">
+        <v>320574</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="50">
+        <v>1864</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50">
+        <v>4800</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50">
+        <v>6340</v>
+      </c>
+      <c r="H9" s="50">
+        <v>6836</v>
+      </c>
+      <c r="I9" s="50">
+        <v>2713</v>
+      </c>
+      <c r="J9" s="50">
+        <v>3080</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50">
+        <v>4922</v>
+      </c>
+      <c r="M9" s="50">
+        <v>919</v>
+      </c>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50">
+        <v>31474</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="50">
+        <v>3843</v>
+      </c>
+      <c r="D10" s="50">
+        <v>10345</v>
+      </c>
+      <c r="E10" s="50">
+        <v>5629</v>
+      </c>
+      <c r="F10" s="50">
+        <v>4467</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50">
+        <v>2114</v>
+      </c>
+      <c r="I10" s="50">
+        <v>8337</v>
+      </c>
+      <c r="J10" s="50">
+        <v>4072</v>
+      </c>
+      <c r="K10" s="50">
+        <v>5761</v>
+      </c>
+      <c r="L10" s="50">
+        <v>7117</v>
+      </c>
+      <c r="M10" s="50">
+        <v>3068</v>
+      </c>
+      <c r="N10" s="50">
+        <v>2088</v>
+      </c>
+      <c r="O10" s="50">
+        <v>56841</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50">
+        <v>5718</v>
+      </c>
+      <c r="E11" s="50">
+        <v>4918</v>
+      </c>
+      <c r="F11" s="50">
+        <v>3446</v>
+      </c>
+      <c r="G11" s="50">
+        <v>611</v>
+      </c>
+      <c r="H11" s="50">
+        <v>3224</v>
+      </c>
+      <c r="I11" s="50">
+        <v>1306</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50">
+        <v>6637</v>
+      </c>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50">
+        <v>1820</v>
+      </c>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50">
+        <v>27680</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="50">
+        <v>10164</v>
+      </c>
+      <c r="D12" s="50">
+        <v>7734</v>
+      </c>
+      <c r="E12" s="50">
+        <v>9984</v>
+      </c>
+      <c r="F12" s="50">
+        <v>22313</v>
+      </c>
+      <c r="G12" s="50">
+        <v>4850</v>
+      </c>
+      <c r="H12" s="50">
+        <v>12262</v>
+      </c>
+      <c r="I12" s="50">
+        <v>12594</v>
+      </c>
+      <c r="J12" s="50">
+        <v>6006</v>
+      </c>
+      <c r="K12" s="50">
+        <v>11235</v>
+      </c>
+      <c r="L12" s="50">
+        <v>10633</v>
+      </c>
+      <c r="M12" s="50">
+        <v>20451</v>
+      </c>
+      <c r="N12" s="50">
+        <v>9738</v>
+      </c>
+      <c r="O12" s="50">
+        <v>137964</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="50">
+        <v>4711</v>
+      </c>
+      <c r="D13" s="50">
+        <v>964</v>
+      </c>
+      <c r="E13" s="50">
+        <v>12127</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50">
+        <v>7208</v>
+      </c>
+      <c r="H13" s="50">
+        <v>4275</v>
+      </c>
+      <c r="I13" s="50">
+        <v>8348</v>
+      </c>
+      <c r="J13" s="50">
+        <v>9144</v>
+      </c>
+      <c r="K13" s="50">
+        <v>2391</v>
+      </c>
+      <c r="L13" s="50">
+        <v>6728</v>
+      </c>
+      <c r="M13" s="50">
+        <v>4639</v>
+      </c>
+      <c r="N13" s="50">
+        <v>6080</v>
+      </c>
+      <c r="O13" s="50">
+        <v>66615</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C14" s="50">
+        <v>20582</v>
+      </c>
+      <c r="D14" s="50">
+        <v>24761</v>
+      </c>
+      <c r="E14" s="50">
+        <v>37458</v>
+      </c>
+      <c r="F14" s="50">
+        <v>30226</v>
+      </c>
+      <c r="G14" s="50">
+        <v>19009</v>
+      </c>
+      <c r="H14" s="50">
+        <v>28711</v>
+      </c>
+      <c r="I14" s="50">
+        <v>33298</v>
+      </c>
+      <c r="J14" s="50">
+        <v>22302</v>
+      </c>
+      <c r="K14" s="50">
+        <v>26024</v>
+      </c>
+      <c r="L14" s="50">
+        <v>29400</v>
+      </c>
+      <c r="M14" s="50">
+        <v>30897</v>
+      </c>
+      <c r="N14" s="50">
+        <v>17906</v>
+      </c>
+      <c r="O14" s="50">
+        <v>320574</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5848,10 +9646,10 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -6164,10 +9962,10 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -6316,11 +10114,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan7"/>
-  <dimension ref="A1:O234"/>
+  <dimension ref="B1:L234"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15426,7 +19224,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan8"/>
-  <dimension ref="A1:O232"/>
+  <dimension ref="B1:L232"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -24459,7 +28257,7 @@
   <sheetPr codeName="Plan9"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -24483,13 +28281,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -24507,10 +28305,10 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="24">
         <v>2018</v>
       </c>
       <c r="D3" s="5"/>
@@ -24579,830 +28377,830 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="28" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"&lt;"&amp;$C$3,TbRegistroEntradas[Ano Caixa],"&lt;&gt;0")-SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],"&lt;"&amp;$C$3,TbRegistroSaídas[Ano Caixa],"&lt;&gt;0")</f>
         <v>-1041</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="35">
         <f>C11</f>
         <v>966</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <f t="shared" ref="E8:N8" si="0">D11</f>
         <v>5553</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="35">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>1894</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="35">
         <f t="shared" si="0"/>
         <v>22181</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="35">
         <f t="shared" si="0"/>
         <v>30931</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="35">
         <f t="shared" si="0"/>
         <v>22856</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="35">
         <f t="shared" si="0"/>
         <v>38235</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="35">
         <f t="shared" si="0"/>
         <v>44941</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="35">
         <f t="shared" si="0"/>
         <v>39552</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="36">
         <f t="shared" si="0"/>
         <v>58456</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],C5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>33220</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],D5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>27618</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],E5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>21553</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],F5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>25910</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],G5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>23254</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],H5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>29499</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],I5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>21232</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],J5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>31767</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],K5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>24029</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],L5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>21580</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],M5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>38978</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="36">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],N5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
         <v>15074</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>515</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],C5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>31213</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],D5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>23031</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],E5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>27113</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],F5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>24009</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],G5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>2967</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],H5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>20749</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],I5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>29307</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],J5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>16388</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],K5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>17323</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],L5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>26969</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],M5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>20074</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="36">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],N5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
         <v>18422</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="37">
         <f>C8+C9-C10</f>
         <v>966</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="37">
         <f t="shared" ref="D11:N11" si="1">D8+D9-D10</f>
         <v>5553</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="37">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="37">
         <f t="shared" si="1"/>
         <v>1894</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="37">
         <f t="shared" si="1"/>
         <v>22181</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="37">
         <f t="shared" si="1"/>
         <v>30931</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="37">
         <f t="shared" si="1"/>
         <v>22856</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="37">
         <f t="shared" si="1"/>
         <v>38235</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="37">
         <f t="shared" si="1"/>
         <v>44941</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="37">
         <f t="shared" si="1"/>
         <v>39552</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="37">
         <f t="shared" si="1"/>
         <v>58456</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="38">
         <f t="shared" si="1"/>
         <v>55108</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="30" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="28" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Competência],"&lt;"&amp;$C$3,TbRegistroEntradas[Ano Competência],"&lt;&gt;0")-SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Competência],"&lt;"&amp;$C$3,TbRegistroSaídas[Ano Competência],"&lt;&gt;0")</f>
         <v>23943</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="35">
         <f>C18</f>
         <v>2752</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="35">
         <f t="shared" ref="E15:N15" si="2">D18</f>
         <v>1935</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="35">
         <f t="shared" si="2"/>
         <v>15266</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="35">
         <f t="shared" si="2"/>
         <v>30813</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="35">
         <f t="shared" si="2"/>
         <v>25040</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="35">
         <f t="shared" si="2"/>
         <v>28824</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="35">
         <f t="shared" si="2"/>
         <v>28057</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="35">
         <f t="shared" si="2"/>
         <v>28632</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="35">
         <f t="shared" si="2"/>
         <v>34708</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="35">
         <f t="shared" si="2"/>
         <v>35415</v>
       </c>
-      <c r="N15" s="40">
+      <c r="N15" s="36">
         <f t="shared" si="2"/>
         <v>43688</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],C5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>20582</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],D5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>24761</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],E5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>37458</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],F5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>30226</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],G5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>19009</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],H5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>28711</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],I5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>33298</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],J5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>22302</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],K5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>26024</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],L5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>29400</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],M5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>30897</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],N5,TbRegistroEntradas[Ano Competência],$C$3)</f>
         <v>17906</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>515</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],C5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>41773</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],D5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>25578</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],E5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>24127</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],F5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>14679</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],G5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>24782</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],H5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>24927</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],I5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>34065</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],J5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>21727</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],K5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>19948</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],L5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>28693</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],M5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>22624</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="36">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],N5,TbRegistroSaídas[Ano Competência],$C$3)</f>
         <v>19227</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="37">
         <f>C15+C16-C17</f>
         <v>2752</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="37">
         <f t="shared" ref="D18:N18" si="3">D15+D16-D17</f>
         <v>1935</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="37">
         <f t="shared" si="3"/>
         <v>15266</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="37">
         <f t="shared" si="3"/>
         <v>30813</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="37">
         <f t="shared" si="3"/>
         <v>25040</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="37">
         <f t="shared" si="3"/>
         <v>28824</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="37">
         <f t="shared" si="3"/>
         <v>28057</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="37">
         <f t="shared" si="3"/>
         <v>28632</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="37">
         <f t="shared" si="3"/>
         <v>34708</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="37">
         <f t="shared" si="3"/>
         <v>35415</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="37">
         <f t="shared" si="3"/>
         <v>43688</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="38">
         <f t="shared" si="3"/>
         <v>42367</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="30" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="N21" s="32" t="s">
+      <c r="N21" s="28" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="35">
         <f>C16</f>
         <v>20582</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="35">
         <f t="shared" ref="D22:N22" si="4">D16</f>
         <v>24761</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="35">
         <f t="shared" si="4"/>
         <v>37458</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="35">
         <f t="shared" si="4"/>
         <v>30226</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="35">
         <f t="shared" si="4"/>
         <v>19009</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="35">
         <f t="shared" si="4"/>
         <v>28711</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="35">
         <f t="shared" si="4"/>
         <v>33298</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="35">
         <f t="shared" si="4"/>
         <v>22302</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="35">
         <f t="shared" si="4"/>
         <v>26024</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="35">
         <f t="shared" si="4"/>
         <v>29400</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="35">
         <f t="shared" si="4"/>
         <v>30897</v>
       </c>
-      <c r="N22" s="40">
+      <c r="N22" s="36">
         <f t="shared" si="4"/>
         <v>17906</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="35">
         <f>C17</f>
         <v>41773</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="35">
         <f t="shared" ref="D23:N23" si="5">D17</f>
         <v>25578</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="35">
         <f t="shared" si="5"/>
         <v>24127</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="35">
         <f t="shared" si="5"/>
         <v>14679</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="35">
         <f t="shared" si="5"/>
         <v>24782</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="35">
         <f t="shared" si="5"/>
         <v>24927</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="35">
         <f t="shared" si="5"/>
         <v>34065</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="35">
         <f t="shared" si="5"/>
         <v>21727</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="35">
         <f t="shared" si="5"/>
         <v>19948</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="35">
         <f t="shared" si="5"/>
         <v>28693</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="35">
         <f t="shared" si="5"/>
         <v>22624</v>
       </c>
-      <c r="N23" s="40">
+      <c r="N23" s="36">
         <f t="shared" si="5"/>
         <v>19227</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="32" t="s">
         <v>535</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="39">
         <f>IF(C22-C23&gt;0,C22-C23,0)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="39">
         <f t="shared" ref="D24:N24" si="6">IF(D22-D23&gt;0,D22-D23,0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="39">
         <f t="shared" si="6"/>
         <v>13331</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="39">
         <f t="shared" si="6"/>
         <v>15547</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="39">
         <f t="shared" si="6"/>
         <v>3784</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="39">
         <f t="shared" si="6"/>
         <v>575</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="39">
         <f t="shared" si="6"/>
         <v>6076</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="39">
         <f t="shared" si="6"/>
         <v>707</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="39">
         <f t="shared" si="6"/>
         <v>8273</v>
       </c>
-      <c r="N24" s="44">
+      <c r="N24" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="41">
         <f>IF(C22-C23&lt;0,C22-C23,0)</f>
         <v>-21191</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="41">
         <f t="shared" ref="D25:N25" si="7">IF(D22-D23&lt;0,D22-D23,0)</f>
         <v>-817</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="41">
         <f t="shared" si="7"/>
         <v>-5773</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="41">
         <f t="shared" si="7"/>
         <v>-767</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="42">
         <f t="shared" si="7"/>
         <v>-1321</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="41">
         <f>C22-C23</f>
         <v>-21191</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="41">
         <f>C26+(D22-D23)</f>
         <v>-22008</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="41">
         <f t="shared" ref="E26:N26" si="8">D26+(E22-E23)</f>
         <v>-8677</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="41">
         <f t="shared" si="8"/>
         <v>6870</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="41">
         <f t="shared" si="8"/>
         <v>1097</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="41">
         <f t="shared" si="8"/>
         <v>4881</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="41">
         <f t="shared" si="8"/>
         <v>4114</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="41">
         <f t="shared" si="8"/>
         <v>4689</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="41">
         <f t="shared" si="8"/>
         <v>10765</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="41">
         <f t="shared" si="8"/>
         <v>11472</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="41">
         <f t="shared" si="8"/>
         <v>19745</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="42">
         <f t="shared" si="8"/>
         <v>18424</v>
       </c>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -32,17 +32,22 @@
     <definedName name="PCSaídasN2_Nível_1">TbPCSaídasN2[Nível 1]</definedName>
     <definedName name="PCSaídasN2_Nível_2">TbPCSaídasN2[Nível 2]</definedName>
     <definedName name="SegmentaçãodeDados_Ano_Competência">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Ano_Competência1">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Mês_Competência">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Mês_Competência1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="5" r:id="rId17"/>
+    <pivotCache cacheId="11" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId18"/>
         <x14:slicerCache r:id="rId19"/>
+        <x14:slicerCache r:id="rId20"/>
+        <x14:slicerCache r:id="rId21"/>
+        <x14:slicerCache r:id="rId22"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="546">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -3897,6 +3902,152 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Mês Competência 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Mês Competência 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3771900" y="552450"/>
+              <a:ext cx="2143125" cy="981075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer. Os slicers podem ser usados, no mínimo, no Excel 2010.
+Caso a forma tenha sido modificada em uma versão anterior do Excel, ou a pasta de trabalho tenha sido salva no Excel 2003 ou
+anterior, o slicer não poderá ser usado.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Ano Competência 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ano Competência 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1495425" y="552450"/>
+              <a:ext cx="2143125" cy="981075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer. Os slicers podem ser usados, no mínimo, no Excel 2010.
+Caso a forma tenha sido modificada em uma versão anterior do Excel, ou a pasta de trabalho tenha sido salva no Excel 2003 ou
+anterior, o slicer não poderá ser usado.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4881,6 +5032,79 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43944.492473148151" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="229">
+  <cacheSource type="worksheet">
+    <worksheetSource name="TbRegistroSaídas"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Data do Caixa Realizado" numFmtId="14">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2017-09-02T00:00:00" maxDate="2019-07-19T00:00:00"/>
+    </cacheField>
+    <cacheField name="Data da Competência" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-08-10T00:00:00" maxDate="2019-07-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="Data do Caixa Previsto" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-09-02T00:00:00" maxDate="2019-08-10T00:00:00"/>
+    </cacheField>
+    <cacheField name="Conta Nível 1" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Compra de mercadorias"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Conta Nível 2" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Som e imagem"/>
+        <s v="Vestuário"/>
+        <s v="Informática"/>
+        <s v="Livros"/>
+        <s v="Eletrodomésticos"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Histórico" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Valor" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="131" maxValue="4947"/>
+    </cacheField>
+    <cacheField name="Mês Caixa" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Ano Caixa" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2019"/>
+    </cacheField>
+    <cacheField name="Mês Competência" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ano Competência" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2017" maxValue="2019" count="3">
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="2"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="231">
   <r>
@@ -7881,6 +8105,2988 @@
     <x v="1"/>
     <s v="NF3701"/>
     <n v="3446"/>
+    <n v="7"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="229">
+  <r>
+    <d v="2017-10-07T00:00:00"/>
+    <d v="2017-08-10T00:00:00"/>
+    <d v="2017-10-07T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4400"/>
+    <n v="4021"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-17T00:00:00"/>
+    <d v="2017-08-13T00:00:00"/>
+    <d v="2017-09-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5356"/>
+    <n v="651"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-05T00:00:00"/>
+    <d v="2017-08-18T00:00:00"/>
+    <d v="2017-09-05T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF1847"/>
+    <n v="131"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-26T00:00:00"/>
+    <d v="2017-08-23T00:00:00"/>
+    <d v="2017-09-26T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF7011"/>
+    <n v="803"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-24T00:00:00"/>
+    <d v="2017-08-24T00:00:00"/>
+    <d v="2017-09-24T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7746"/>
+    <n v="4460"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-02T00:00:00"/>
+    <d v="2017-08-25T00:00:00"/>
+    <d v="2017-09-02T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1507"/>
+    <n v="299"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-06T00:00:00"/>
+    <d v="2017-08-29T00:00:00"/>
+    <d v="2017-10-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5445"/>
+    <n v="618"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-12T00:00:00"/>
+    <d v="2017-09-01T00:00:00"/>
+    <d v="2017-09-02T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7526"/>
+    <n v="2505"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-09T00:00:00"/>
+    <d v="2017-09-04T00:00:00"/>
+    <d v="2017-09-09T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF7559"/>
+    <n v="817"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2017-09-06T00:00:00"/>
+    <d v="2017-09-06T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF9357"/>
+    <n v="1565"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2017-09-12T00:00:00"/>
+    <d v="2017-10-12T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3898"/>
+    <n v="1357"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-13T00:00:00"/>
+    <d v="2017-09-13T00:00:00"/>
+    <d v="2017-09-13T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF7275"/>
+    <n v="4739"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-14T00:00:00"/>
+    <d v="2017-09-14T00:00:00"/>
+    <d v="2017-09-14T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF9591"/>
+    <n v="4675"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-09-26T00:00:00"/>
+    <d v="2017-09-19T00:00:00"/>
+    <d v="2017-09-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3104"/>
+    <n v="1797"/>
+    <n v="9"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-04T00:00:00"/>
+    <d v="2017-09-24T00:00:00"/>
+    <d v="2017-11-04T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3440"/>
+    <n v="888"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2017-09-25T00:00:00"/>
+    <d v="2017-10-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9195"/>
+    <n v="2784"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-02T00:00:00"/>
+    <d v="2017-09-25T00:00:00"/>
+    <d v="2017-10-02T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1821"/>
+    <n v="707"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-03T00:00:00"/>
+    <d v="2017-09-28T00:00:00"/>
+    <d v="2017-11-03T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5625"/>
+    <n v="229"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-01T00:00:00"/>
+    <d v="2017-10-01T00:00:00"/>
+    <d v="2017-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7471"/>
+    <n v="2894"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-22T00:00:00"/>
+    <d v="2017-10-04T00:00:00"/>
+    <d v="2017-10-22T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF9225"/>
+    <n v="4516"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-23T00:00:00"/>
+    <d v="2017-10-06T00:00:00"/>
+    <d v="2017-10-23T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3883"/>
+    <n v="885"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-07T00:00:00"/>
+    <d v="2017-10-09T00:00:00"/>
+    <d v="2017-11-07T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF9408"/>
+    <n v="1509"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-14T00:00:00"/>
+    <d v="2017-10-14T00:00:00"/>
+    <d v="2017-10-14T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1517"/>
+    <n v="145"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-23T00:00:00"/>
+    <d v="2017-10-16T00:00:00"/>
+    <d v="2017-10-23T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8626"/>
+    <n v="1311"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-10-18T00:00:00"/>
+    <d v="2017-10-18T00:00:00"/>
+    <d v="2017-10-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4936"/>
+    <n v="4182"/>
+    <n v="10"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-26T00:00:00"/>
+    <d v="2017-10-24T00:00:00"/>
+    <d v="2017-10-29T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF7062"/>
+    <n v="339"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-02T00:00:00"/>
+    <d v="2017-10-29T00:00:00"/>
+    <d v="2017-11-29T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF3172"/>
+    <n v="1788"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-20T00:00:00"/>
+    <d v="2017-11-03T00:00:00"/>
+    <d v="2017-12-20T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF5821"/>
+    <n v="1171"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-05T00:00:00"/>
+    <d v="2017-11-05T00:00:00"/>
+    <d v="2017-11-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8137"/>
+    <n v="4059"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-08T00:00:00"/>
+    <d v="2017-11-08T00:00:00"/>
+    <d v="2017-11-08T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8083"/>
+    <n v="4919"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-18T00:00:00"/>
+    <d v="2017-11-12T00:00:00"/>
+    <d v="2017-12-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9597"/>
+    <n v="3224"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-26T00:00:00"/>
+    <d v="2017-11-15T00:00:00"/>
+    <d v="2017-12-26T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF2065"/>
+    <n v="3725"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-17T00:00:00"/>
+    <d v="2017-11-17T00:00:00"/>
+    <d v="2017-11-17T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3192"/>
+    <n v="312"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-12T00:00:00"/>
+    <d v="2017-11-18T00:00:00"/>
+    <d v="2018-01-12T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1977"/>
+    <n v="4773"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-01T00:00:00"/>
+    <d v="2017-11-19T00:00:00"/>
+    <d v="2017-11-19T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3208"/>
+    <n v="228"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-11-22T00:00:00"/>
+    <d v="2017-11-22T00:00:00"/>
+    <d v="2017-11-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9545"/>
+    <n v="450"/>
+    <n v="11"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-03T00:00:00"/>
+    <d v="2017-11-23T00:00:00"/>
+    <d v="2018-01-03T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3100"/>
+    <n v="1155"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-01T00:00:00"/>
+    <d v="2017-11-30T00:00:00"/>
+    <d v="2017-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7746"/>
+    <n v="1967"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-27T00:00:00"/>
+    <d v="2017-12-01T00:00:00"/>
+    <d v="2017-12-27T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF1179"/>
+    <n v="2741"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-25T00:00:00"/>
+    <d v="2017-12-02T00:00:00"/>
+    <d v="2018-01-25T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF3829"/>
+    <n v="1130"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-06T00:00:00"/>
+    <d v="2017-12-06T00:00:00"/>
+    <d v="2017-12-06T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF6865"/>
+    <n v="4835"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-08T00:00:00"/>
+    <d v="2017-12-08T00:00:00"/>
+    <d v="2017-12-08T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4400"/>
+    <n v="1411"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-30T00:00:00"/>
+    <d v="2017-12-10T00:00:00"/>
+    <d v="2017-12-30T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9617"/>
+    <n v="457"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2017-12-15T00:00:00"/>
+    <d v="2018-02-11T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5659"/>
+    <n v="2623"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-29T00:00:00"/>
+    <d v="2017-12-17T00:00:00"/>
+    <d v="2017-12-29T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF6102"/>
+    <n v="3440"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-11T00:00:00"/>
+    <d v="2017-12-20T00:00:00"/>
+    <d v="2018-01-11T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8162"/>
+    <n v="3993"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-02-20T00:00:00"/>
+    <d v="2017-12-21T00:00:00"/>
+    <d v="2018-02-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4573"/>
+    <n v="3273"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-25T00:00:00"/>
+    <d v="2017-12-25T00:00:00"/>
+    <d v="2017-12-25T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF8503"/>
+    <n v="4494"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-24T00:00:00"/>
+    <d v="2017-12-27T00:00:00"/>
+    <d v="2018-01-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3380"/>
+    <n v="2511"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2017-12-29T00:00:00"/>
+    <d v="2017-12-29T00:00:00"/>
+    <d v="2017-12-29T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF6566"/>
+    <n v="2015"/>
+    <n v="12"/>
+    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2017-12-31T00:00:00"/>
+    <d v="2018-02-20T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF5838"/>
+    <n v="3413"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-08T00:00:00"/>
+    <d v="2018-01-03T00:00:00"/>
+    <d v="2018-01-08T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF1174"/>
+    <n v="4087"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-01-17T00:00:00"/>
+    <d v="2018-01-06T00:00:00"/>
+    <d v="2018-01-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2942"/>
+    <n v="2441"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-01-09T00:00:00"/>
+    <d v="2018-01-09T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF8563"/>
+    <n v="3598"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-01-10T00:00:00"/>
+    <d v="2018-01-10T00:00:00"/>
+    <d v="2018-01-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8237"/>
+    <n v="4895"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-01-12T00:00:00"/>
+    <d v="2018-01-12T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4859"/>
+    <n v="971"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-06T00:00:00"/>
+    <d v="2018-01-13T00:00:00"/>
+    <d v="2018-02-06T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF1529"/>
+    <n v="556"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-13T00:00:00"/>
+    <d v="2018-01-14T00:00:00"/>
+    <d v="2018-02-13T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF6931"/>
+    <n v="1977"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-01-16T00:00:00"/>
+    <d v="2018-01-16T00:00:00"/>
+    <d v="2018-01-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7559"/>
+    <n v="2951"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-02T00:00:00"/>
+    <d v="2018-01-20T00:00:00"/>
+    <d v="2018-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9620"/>
+    <n v="2535"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-10T00:00:00"/>
+    <d v="2018-01-21T00:00:00"/>
+    <d v="2018-02-10T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4547"/>
+    <n v="3057"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-09T00:00:00"/>
+    <d v="2018-01-23T00:00:00"/>
+    <d v="2018-02-09T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF6004"/>
+    <n v="3152"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-01-25T00:00:00"/>
+    <d v="2018-01-25T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3415"/>
+    <n v="2247"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-19T00:00:00"/>
+    <d v="2018-01-27T00:00:00"/>
+    <d v="2018-01-27T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1603"/>
+    <n v="2456"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-25T00:00:00"/>
+    <d v="2018-01-29T00:00:00"/>
+    <d v="2018-01-29T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8784"/>
+    <n v="3801"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-01-31T00:00:00"/>
+    <d v="2018-01-31T00:00:00"/>
+    <d v="2018-01-31T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF1826"/>
+    <n v="3049"/>
+    <n v="1"/>
+    <n v="2018"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-02-04T00:00:00"/>
+    <d v="2018-02-04T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7390"/>
+    <n v="3255"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-05T00:00:00"/>
+    <d v="2018-02-05T00:00:00"/>
+    <d v="2018-02-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7009"/>
+    <n v="2074"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-06T00:00:00"/>
+    <d v="2018-02-06T00:00:00"/>
+    <d v="2018-02-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7629"/>
+    <n v="3606"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-18T00:00:00"/>
+    <d v="2018-02-07T00:00:00"/>
+    <d v="2018-03-18T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF2748"/>
+    <n v="4867"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-16T00:00:00"/>
+    <d v="2018-02-09T00:00:00"/>
+    <d v="2018-03-16T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF5961"/>
+    <n v="702"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-19T00:00:00"/>
+    <d v="2018-02-14T00:00:00"/>
+    <d v="2018-02-19T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF7680"/>
+    <n v="2801"/>
+    <n v="2"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-29T00:00:00"/>
+    <d v="2018-02-15T00:00:00"/>
+    <d v="2018-03-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9629"/>
+    <n v="4438"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-08T00:00:00"/>
+    <d v="2018-02-20T00:00:00"/>
+    <d v="2018-04-08T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5978"/>
+    <n v="3835"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-01T00:00:00"/>
+    <d v="2018-03-01T00:00:00"/>
+    <d v="2018-03-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5651"/>
+    <n v="3893"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-04T00:00:00"/>
+    <d v="2018-03-04T00:00:00"/>
+    <d v="2018-03-04T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7772"/>
+    <n v="1970"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-29T00:00:00"/>
+    <d v="2018-03-05T00:00:00"/>
+    <d v="2018-04-29T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF5401"/>
+    <n v="729"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-29T00:00:00"/>
+    <d v="2018-03-07T00:00:00"/>
+    <d v="2018-03-29T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF9115"/>
+    <n v="474"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-09T00:00:00"/>
+    <d v="2018-03-09T00:00:00"/>
+    <d v="2018-03-09T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF4115"/>
+    <n v="3164"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-14T00:00:00"/>
+    <d v="2018-03-14T00:00:00"/>
+    <d v="2018-03-14T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5683"/>
+    <n v="3113"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-11T00:00:00"/>
+    <d v="2018-03-17T00:00:00"/>
+    <d v="2018-04-11T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7027"/>
+    <n v="789"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-21T00:00:00"/>
+    <d v="2018-03-21T00:00:00"/>
+    <d v="2018-04-01T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7168"/>
+    <n v="3521"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-28T00:00:00"/>
+    <d v="2018-03-24T00:00:00"/>
+    <d v="2018-03-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4972"/>
+    <n v="4947"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-25T00:00:00"/>
+    <d v="2018-03-25T00:00:00"/>
+    <d v="2018-03-25T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7283"/>
+    <n v="1527"/>
+    <n v="3"/>
+    <n v="2018"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-14T00:00:00"/>
+    <d v="2018-04-01T00:00:00"/>
+    <d v="2018-05-14T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF6320"/>
+    <n v="764"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-12T00:00:00"/>
+    <d v="2018-04-03T00:00:00"/>
+    <d v="2018-04-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF7850"/>
+    <n v="2463"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-05T00:00:00"/>
+    <d v="2018-04-05T00:00:00"/>
+    <d v="2018-04-05T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF2420"/>
+    <n v="2111"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-06T00:00:00"/>
+    <d v="2018-04-06T00:00:00"/>
+    <d v="2018-04-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6764"/>
+    <n v="1144"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-20T00:00:00"/>
+    <d v="2018-04-10T00:00:00"/>
+    <d v="2018-05-20T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF6382"/>
+    <n v="597"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-16T00:00:00"/>
+    <d v="2018-04-16T00:00:00"/>
+    <d v="2018-04-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8079"/>
+    <n v="3445"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-04-22T00:00:00"/>
+    <d v="2018-05-02T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF2434"/>
+    <n v="1996"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-04-28T00:00:00"/>
+    <d v="2018-04-28T00:00:00"/>
+    <d v="2018-04-28T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3230"/>
+    <n v="1254"/>
+    <n v="4"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-03T00:00:00"/>
+    <d v="2018-04-29T00:00:00"/>
+    <d v="2018-05-03T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF8847"/>
+    <n v="905"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-05-02T00:00:00"/>
+    <d v="2018-05-31T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF8053"/>
+    <n v="2975"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-05-03T00:00:00"/>
+    <d v="2018-05-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2454"/>
+    <n v="4807"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-13T00:00:00"/>
+    <d v="2018-05-10T00:00:00"/>
+    <d v="2018-06-13T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF8252"/>
+    <n v="1882"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-27T00:00:00"/>
+    <d v="2018-05-15T00:00:00"/>
+    <d v="2018-06-27T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF6573"/>
+    <n v="3932"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-18T00:00:00"/>
+    <d v="2018-05-18T00:00:00"/>
+    <d v="2018-05-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8780"/>
+    <n v="701"/>
+    <n v="5"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-05-19T00:00:00"/>
+    <d v="2018-06-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6166"/>
+    <n v="2651"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-01T00:00:00"/>
+    <d v="2018-05-26T00:00:00"/>
+    <d v="2018-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8437"/>
+    <n v="3792"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-25T00:00:00"/>
+    <d v="2018-05-28T00:00:00"/>
+    <d v="2018-07-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF6635"/>
+    <n v="611"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-11T00:00:00"/>
+    <d v="2018-05-31T00:00:00"/>
+    <d v="2018-07-11T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF8734"/>
+    <n v="3431"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-06-02T00:00:00"/>
+    <d v="2018-06-02T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4208"/>
+    <n v="3670"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-08T00:00:00"/>
+    <d v="2018-06-04T00:00:00"/>
+    <d v="2018-06-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4923"/>
+    <n v="4320"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-05T00:00:00"/>
+    <d v="2018-06-05T00:00:00"/>
+    <d v="2018-06-05T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF6782"/>
+    <n v="1809"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-25T00:00:00"/>
+    <d v="2018-06-07T00:00:00"/>
+    <d v="2018-07-25T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6280"/>
+    <n v="667"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-11T00:00:00"/>
+    <d v="2018-06-11T00:00:00"/>
+    <d v="2018-06-11T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7827"/>
+    <n v="1613"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-28T00:00:00"/>
+    <d v="2018-06-17T00:00:00"/>
+    <d v="2018-07-28T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF5357"/>
+    <n v="3756"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-06-20T00:00:00"/>
+    <d v="2018-06-20T00:00:00"/>
+    <d v="2018-06-20T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF8188"/>
+    <n v="3672"/>
+    <n v="6"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-06-26T00:00:00"/>
+    <d v="2018-07-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4640"/>
+    <n v="658"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-24T00:00:00"/>
+    <d v="2018-06-29T00:00:00"/>
+    <d v="2018-08-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF2293"/>
+    <n v="4762"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-09T00:00:00"/>
+    <d v="2018-07-02T00:00:00"/>
+    <d v="2018-07-09T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF2933"/>
+    <n v="2186"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-07-03T00:00:00"/>
+    <d v="2018-07-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF4384"/>
+    <n v="3411"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-24T00:00:00"/>
+    <d v="2018-07-08T00:00:00"/>
+    <d v="2018-07-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF8316"/>
+    <n v="2524"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-01T00:00:00"/>
+    <d v="2018-07-10T00:00:00"/>
+    <d v="2018-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF1506"/>
+    <n v="1709"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-15T00:00:00"/>
+    <d v="2018-07-15T00:00:00"/>
+    <d v="2018-07-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4913"/>
+    <n v="3181"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-07T00:00:00"/>
+    <d v="2018-07-16T00:00:00"/>
+    <d v="2018-07-16T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF8526"/>
+    <n v="1108"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-07-17T00:00:00"/>
+    <d v="2018-07-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9873"/>
+    <n v="2777"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-14T00:00:00"/>
+    <d v="2018-07-19T00:00:00"/>
+    <d v="2018-09-14T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF9870"/>
+    <n v="3793"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-12T00:00:00"/>
+    <d v="2018-07-21T00:00:00"/>
+    <d v="2018-08-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5563"/>
+    <n v="4217"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-28T00:00:00"/>
+    <d v="2018-07-28T00:00:00"/>
+    <d v="2018-07-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5510"/>
+    <n v="4850"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-07-30T00:00:00"/>
+    <d v="2018-07-30T00:00:00"/>
+    <d v="2018-07-30T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1440"/>
+    <n v="4309"/>
+    <n v="7"/>
+    <n v="2018"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-02T00:00:00"/>
+    <d v="2018-08-01T00:00:00"/>
+    <d v="2018-08-02T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF2709"/>
+    <n v="4462"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-02T00:00:00"/>
+    <d v="2018-08-07T00:00:00"/>
+    <d v="2018-10-02T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF9886"/>
+    <n v="4947"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-25T00:00:00"/>
+    <d v="2018-08-10T00:00:00"/>
+    <d v="2018-09-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF6993"/>
+    <n v="902"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-23T00:00:00"/>
+    <d v="2018-08-12T00:00:00"/>
+    <d v="2018-09-23T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF9126"/>
+    <n v="432"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-13T00:00:00"/>
+    <d v="2018-08-15T00:00:00"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF3531"/>
+    <n v="4084"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-16T00:00:00"/>
+    <d v="2018-08-22T00:00:00"/>
+    <d v="2018-09-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6599"/>
+    <n v="1054"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-09T00:00:00"/>
+    <d v="2018-08-23T00:00:00"/>
+    <d v="2018-09-09T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF9323"/>
+    <n v="4608"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-08-28T00:00:00"/>
+    <d v="2018-08-28T00:00:00"/>
+    <d v="2018-08-28T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3529"/>
+    <n v="1238"/>
+    <n v="8"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-09-27T00:00:00"/>
+    <d v="2018-09-03T00:00:00"/>
+    <d v="2018-09-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5824"/>
+    <n v="1342"/>
+    <n v="9"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-29T00:00:00"/>
+    <d v="2018-09-07T00:00:00"/>
+    <d v="2018-10-29T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF3860"/>
+    <n v="2936"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-08T00:00:00"/>
+    <d v="2018-09-08T00:00:00"/>
+    <d v="2018-10-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7260"/>
+    <n v="875"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-09-10T00:00:00"/>
+    <d v="2018-09-10T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF2238"/>
+    <n v="159"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-09-15T00:00:00"/>
+    <d v="2018-09-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7342"/>
+    <n v="2933"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-01T00:00:00"/>
+    <d v="2018-09-15T00:00:00"/>
+    <d v="2018-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8517"/>
+    <n v="4944"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-04T00:00:00"/>
+    <d v="2018-09-19T00:00:00"/>
+    <d v="2018-10-04T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF9366"/>
+    <n v="4173"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-02T00:00:00"/>
+    <d v="2018-09-24T00:00:00"/>
+    <d v="2018-10-02T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF4973"/>
+    <n v="2065"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-18T00:00:00"/>
+    <d v="2018-09-28T00:00:00"/>
+    <d v="2018-11-18T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1111"/>
+    <n v="521"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-10-01T00:00:00"/>
+    <d v="2018-11-13T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF8344"/>
+    <n v="819"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-04T00:00:00"/>
+    <d v="2018-10-04T00:00:00"/>
+    <d v="2018-10-04T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8750"/>
+    <n v="1260"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-16T00:00:00"/>
+    <d v="2018-10-10T00:00:00"/>
+    <d v="2018-10-16T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7616"/>
+    <n v="2998"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-03T00:00:00"/>
+    <d v="2018-10-12T00:00:00"/>
+    <d v="2018-10-31T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF3536"/>
+    <n v="4287"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-14T00:00:00"/>
+    <d v="2018-10-14T00:00:00"/>
+    <d v="2018-10-14T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF9376"/>
+    <n v="2015"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-15T00:00:00"/>
+    <d v="2018-10-20T00:00:00"/>
+    <d v="2018-12-15T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF1222"/>
+    <n v="3369"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-21T00:00:00"/>
+    <d v="2018-10-21T00:00:00"/>
+    <d v="2018-10-21T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3914"/>
+    <n v="4851"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-15T00:00:00"/>
+    <d v="2018-10-25T00:00:00"/>
+    <d v="2018-12-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7447"/>
+    <n v="2178"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-20T00:00:00"/>
+    <d v="2018-10-27T00:00:00"/>
+    <d v="2018-11-20T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF5088"/>
+    <n v="4052"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-10-30T00:00:00"/>
+    <d v="2018-10-30T00:00:00"/>
+    <d v="2018-10-30T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7858"/>
+    <n v="2864"/>
+    <n v="10"/>
+    <n v="2018"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-27T00:00:00"/>
+    <d v="2018-11-01T00:00:00"/>
+    <d v="2018-12-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7692"/>
+    <n v="2425"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-01T00:00:00"/>
+    <d v="2018-11-03T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7390"/>
+    <n v="1542"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-12T00:00:00"/>
+    <d v="2018-11-08T00:00:00"/>
+    <d v="2018-12-12T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6262"/>
+    <n v="1736"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-20T00:00:00"/>
+    <d v="2018-11-11T00:00:00"/>
+    <d v="2019-01-09T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF9573"/>
+    <n v="1628"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-11-13T00:00:00"/>
+    <d v="2018-11-13T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8087"/>
+    <n v="3853"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-17T00:00:00"/>
+    <d v="2018-11-17T00:00:00"/>
+    <d v="2018-12-17T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5909"/>
+    <n v="883"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-27T00:00:00"/>
+    <d v="2018-11-17T00:00:00"/>
+    <d v="2018-11-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4172"/>
+    <n v="976"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-20T00:00:00"/>
+    <d v="2018-11-20T00:00:00"/>
+    <d v="2018-11-20T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF8957"/>
+    <n v="2663"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-26T00:00:00"/>
+    <d v="2018-11-26T00:00:00"/>
+    <d v="2018-11-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2981"/>
+    <n v="4888"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-11-29T00:00:00"/>
+    <d v="2018-11-29T00:00:00"/>
+    <d v="2018-11-29T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5104"/>
+    <n v="2030"/>
+    <n v="11"/>
+    <n v="2018"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-20T00:00:00"/>
+    <d v="2018-12-02T00:00:00"/>
+    <d v="2019-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3942"/>
+    <n v="2117"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-29T00:00:00"/>
+    <d v="2018-12-04T00:00:00"/>
+    <d v="2019-01-29T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6376"/>
+    <n v="1236"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-31T00:00:00"/>
+    <d v="2018-12-09T00:00:00"/>
+    <d v="2018-12-31T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7518"/>
+    <n v="426"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-10T00:00:00"/>
+    <d v="2018-12-10T00:00:00"/>
+    <d v="2018-12-10T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF5359"/>
+    <n v="3956"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2018-12-14T00:00:00"/>
+    <d v="2019-01-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5153"/>
+    <n v="3042"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-12-15T00:00:00"/>
+    <d v="2018-12-15T00:00:00"/>
+    <d v="2018-12-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3127"/>
+    <n v="1434"/>
+    <n v="12"/>
+    <n v="2018"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-22T00:00:00"/>
+    <d v="2018-12-18T00:00:00"/>
+    <d v="2019-01-22T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF7641"/>
+    <n v="1782"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-02-18T00:00:00"/>
+    <d v="2018-12-25T00:00:00"/>
+    <d v="2019-02-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2758"/>
+    <n v="365"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-26T00:00:00"/>
+    <d v="2018-12-27T00:00:00"/>
+    <d v="2019-01-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9279"/>
+    <n v="2757"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-02-19T00:00:00"/>
+    <d v="2018-12-30T00:00:00"/>
+    <d v="2019-02-19T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF2386"/>
+    <n v="2112"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-02T00:00:00"/>
+    <d v="2019-01-02T00:00:00"/>
+    <d v="2019-01-02T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF6751"/>
+    <n v="2190"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-20T00:00:00"/>
+    <d v="2019-01-04T00:00:00"/>
+    <d v="2019-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9460"/>
+    <n v="2998"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-05T00:00:00"/>
+    <d v="2019-01-11T00:00:00"/>
+    <d v="2019-02-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5556"/>
+    <n v="3808"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-14T00:00:00"/>
+    <d v="2019-01-14T00:00:00"/>
+    <d v="2019-01-30T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4918"/>
+    <n v="4928"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-17T00:00:00"/>
+    <d v="2019-01-17T00:00:00"/>
+    <d v="2019-01-17T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF1763"/>
+    <n v="4179"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-03T00:00:00"/>
+    <d v="2019-01-19T00:00:00"/>
+    <d v="2019-02-03T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF2024"/>
+    <n v="4896"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-22T00:00:00"/>
+    <d v="2019-01-22T00:00:00"/>
+    <d v="2019-01-22T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8079"/>
+    <n v="4092"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-27T00:00:00"/>
+    <d v="2019-01-27T00:00:00"/>
+    <d v="2019-01-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6383"/>
+    <n v="2956"/>
+    <n v="1"/>
+    <n v="2019"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-01-31T00:00:00"/>
+    <d v="2019-02-13T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3919"/>
+    <n v="533"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-24T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2019-02-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1390"/>
+    <n v="3519"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-03T00:00:00"/>
+    <d v="2019-02-03T00:00:00"/>
+    <d v="2019-02-03T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF2500"/>
+    <n v="757"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-02-07T00:00:00"/>
+    <d v="2019-02-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2427"/>
+    <n v="2688"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-09T00:00:00"/>
+    <d v="2019-02-09T00:00:00"/>
+    <d v="2019-02-09T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF4680"/>
+    <n v="340"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-12T00:00:00"/>
+    <d v="2019-02-10T00:00:00"/>
+    <d v="2019-02-12T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF7019"/>
+    <n v="4204"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-31T00:00:00"/>
+    <d v="2019-02-12T00:00:00"/>
+    <d v="2019-03-31T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF4961"/>
+    <n v="3695"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-02-21T00:00:00"/>
+    <d v="2019-02-21T00:00:00"/>
+    <d v="2019-02-21T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4608"/>
+    <n v="4148"/>
+    <n v="2"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-02-25T00:00:00"/>
+    <d v="2019-02-25T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1913"/>
+    <n v="4303"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-07T00:00:00"/>
+    <d v="2019-02-27T00:00:00"/>
+    <d v="2019-03-07T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF5844"/>
+    <n v="2674"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-14T00:00:00"/>
+    <d v="2019-03-02T00:00:00"/>
+    <d v="2019-04-14T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF7813"/>
+    <n v="1720"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-12T00:00:00"/>
+    <d v="2019-03-06T00:00:00"/>
+    <d v="2019-04-12T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF6780"/>
+    <n v="1854"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-08T00:00:00"/>
+    <d v="2019-03-08T00:00:00"/>
+    <d v="2019-03-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9599"/>
+    <n v="2568"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-03-08T00:00:00"/>
+    <d v="2019-04-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8659"/>
+    <n v="3690"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-15T00:00:00"/>
+    <d v="2019-03-10T00:00:00"/>
+    <d v="2019-04-15T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4652"/>
+    <n v="3746"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-12T00:00:00"/>
+    <d v="2019-03-12T00:00:00"/>
+    <d v="2019-03-12T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF3068"/>
+    <n v="4360"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-21T00:00:00"/>
+    <d v="2019-03-13T00:00:00"/>
+    <d v="2019-04-21T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF7141"/>
+    <n v="1753"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-19T00:00:00"/>
+    <d v="2019-03-16T00:00:00"/>
+    <d v="2019-03-19T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF3366"/>
+    <n v="1421"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-19T00:00:00"/>
+    <d v="2019-03-19T00:00:00"/>
+    <d v="2019-03-19T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8853"/>
+    <n v="3565"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-01T00:00:00"/>
+    <d v="2019-03-22T00:00:00"/>
+    <d v="2019-05-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7681"/>
+    <n v="1961"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-03-27T00:00:00"/>
+    <d v="2019-03-27T00:00:00"/>
+    <d v="2019-03-27T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF1441"/>
+    <n v="4854"/>
+    <n v="3"/>
+    <n v="2019"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-02T00:00:00"/>
+    <d v="2019-04-02T00:00:00"/>
+    <d v="2019-04-02T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF9964"/>
+    <n v="3453"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-05T00:00:00"/>
+    <d v="2019-04-03T00:00:00"/>
+    <d v="2019-04-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF9101"/>
+    <n v="3341"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-04-06T00:00:00"/>
+    <d v="2019-05-20T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="NF3185"/>
+    <n v="2707"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-07-01T00:00:00"/>
+    <d v="2019-04-08T00:00:00"/>
+    <d v="2019-05-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2836"/>
+    <n v="1582"/>
+    <n v="7"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-23T00:00:00"/>
+    <d v="2019-04-10T00:00:00"/>
+    <d v="2019-04-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7779"/>
+    <n v="3889"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-29T00:00:00"/>
+    <d v="2019-04-14T00:00:00"/>
+    <d v="2019-04-29T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF5919"/>
+    <n v="2303"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-04-17T00:00:00"/>
+    <d v="2019-04-17T00:00:00"/>
+    <d v="2019-04-17T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1620"/>
+    <n v="802"/>
+    <n v="4"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-04-19T00:00:00"/>
+    <d v="2019-05-04T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF3801"/>
+    <n v="4513"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-01T00:00:00"/>
+    <d v="2019-04-21T00:00:00"/>
+    <d v="2019-05-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF8086"/>
+    <n v="3908"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-07-15T00:00:00"/>
+    <d v="2019-04-25T00:00:00"/>
+    <d v="2019-06-19T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4964"/>
+    <n v="156"/>
+    <n v="7"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-06T00:00:00"/>
+    <d v="2019-04-27T00:00:00"/>
+    <d v="2019-06-06T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF6112"/>
+    <n v="457"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-08T00:00:00"/>
+    <d v="2019-05-03T00:00:00"/>
+    <d v="2019-06-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF2333"/>
+    <n v="3536"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-10T00:00:00"/>
+    <d v="2019-05-05T00:00:00"/>
+    <d v="2019-05-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF7121"/>
+    <n v="1809"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-28T00:00:00"/>
+    <d v="2019-05-06T00:00:00"/>
+    <d v="2019-05-28T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF8208"/>
+    <n v="4172"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-07T00:00:00"/>
+    <d v="2019-05-07T00:00:00"/>
+    <d v="2019-06-07T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1320"/>
+    <n v="3827"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-29T00:00:00"/>
+    <d v="2019-05-09T00:00:00"/>
+    <d v="2019-06-29T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF9162"/>
+    <n v="1700"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-29T00:00:00"/>
+    <d v="2019-05-10T00:00:00"/>
+    <d v="2019-05-29T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF1497"/>
+    <n v="2090"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-13T00:00:00"/>
+    <d v="2019-05-13T00:00:00"/>
+    <d v="2019-05-13T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF8398"/>
+    <n v="3230"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-16T00:00:00"/>
+    <d v="2019-05-16T00:00:00"/>
+    <d v="2019-05-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1274"/>
+    <n v="4030"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-19T00:00:00"/>
+    <d v="2019-05-19T00:00:00"/>
+    <d v="2019-05-19T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF1599"/>
+    <n v="1367"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-10T00:00:00"/>
+    <d v="2019-05-22T00:00:00"/>
+    <d v="2019-06-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF6880"/>
+    <n v="3945"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-05-25T00:00:00"/>
+    <d v="2019-05-25T00:00:00"/>
+    <d v="2019-05-25T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="NF3246"/>
+    <n v="4518"/>
+    <n v="5"/>
+    <n v="2019"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-05-29T00:00:00"/>
+    <d v="2019-06-29T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4547"/>
+    <n v="3086"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-12T00:00:00"/>
+    <d v="2019-06-03T00:00:00"/>
+    <d v="2019-06-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="NF5900"/>
+    <n v="297"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-23T00:00:00"/>
+    <d v="2019-06-07T00:00:00"/>
+    <d v="2019-06-23T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF2566"/>
+    <n v="3226"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-09T00:00:00"/>
+    <d v="2019-06-09T00:00:00"/>
+    <d v="2019-06-09T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF1823"/>
+    <n v="2338"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-07-18T00:00:00"/>
+    <d v="2019-06-16T00:00:00"/>
+    <d v="2019-07-18T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF9109"/>
+    <n v="3773"/>
+    <n v="7"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=""/>
+    <d v="2019-06-19T00:00:00"/>
+    <d v="2019-08-09T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF4812"/>
+    <n v="2759"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-21T00:00:00"/>
+    <d v="2019-06-21T00:00:00"/>
+    <d v="2019-06-21T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF9082"/>
+    <n v="1425"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-06-23T00:00:00"/>
+    <d v="2019-06-23T00:00:00"/>
+    <d v="2019-06-23T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NF3611"/>
+    <n v="332"/>
+    <n v="6"/>
+    <n v="2019"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-07-07T00:00:00"/>
+    <d v="2019-06-30T00:00:00"/>
+    <d v="2019-07-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="NF4931"/>
+    <n v="2819"/>
     <n v="7"/>
     <n v="2019"/>
     <x v="10"/>
@@ -7909,6 +11115,145 @@
         <item x="4"/>
         <item x="1"/>
         <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="13">
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaDespesa" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B6:O14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8071,10 +11416,60 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Mês_Competência1" sourceName="Mês Competência">
+  <pivotTables>
+    <pivotTable tabId="12" name="TdDetalhaDespesa"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="12">
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Ano_Competência1" sourceName="Ano Competência">
+  <pivotTables>
+    <pivotTable tabId="12" name="TdDetalhaDespesa"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="3">
+        <i x="0"/>
+        <i x="1" s="1"/>
+        <i x="2"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Mês Competência" cache="SegmentaçãodeDados_Mês_Competência" caption="Mês Competência" columnCount="6" rowHeight="241300"/>
   <slicer name="Ano Competência" cache="SegmentaçãodeDados_Ano_Competência" caption="Ano Competência" columnCount="2" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Mês Competência 1" cache="SegmentaçãodeDados_Mês_Competência1" caption="Mês Competência" columnCount="6" rowHeight="241300"/>
+  <slicer name="Ano Competência 1" cache="SegmentaçãodeDados_Ano_Competência1" caption="Ano Competência" columnCount="2" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -8551,7 +11946,7 @@
   <sheetPr codeName="Plan10"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -8968,18 +12363,19 @@
   <sheetPr codeName="Plan11"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="15" width="11.7109375" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8994,11 +12390,12 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -9012,25 +12409,371 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="48">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="50">
+        <v>41773</v>
+      </c>
+      <c r="D8" s="50">
+        <v>25578</v>
+      </c>
+      <c r="E8" s="50">
+        <v>24127</v>
+      </c>
+      <c r="F8" s="50">
+        <v>14679</v>
+      </c>
+      <c r="G8" s="50">
+        <v>24782</v>
+      </c>
+      <c r="H8" s="50">
+        <v>24927</v>
+      </c>
+      <c r="I8" s="50">
+        <v>34065</v>
+      </c>
+      <c r="J8" s="50">
+        <v>21727</v>
+      </c>
+      <c r="K8" s="50">
+        <v>19948</v>
+      </c>
+      <c r="L8" s="50">
+        <v>28693</v>
+      </c>
+      <c r="M8" s="50">
+        <v>22624</v>
+      </c>
+      <c r="N8" s="50">
+        <v>19227</v>
+      </c>
+      <c r="O8" s="50">
+        <v>302150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="50">
+        <v>3057</v>
+      </c>
+      <c r="D9" s="50">
+        <v>3255</v>
+      </c>
+      <c r="E9" s="50">
+        <v>5837</v>
+      </c>
+      <c r="F9" s="50">
+        <v>2760</v>
+      </c>
+      <c r="G9" s="50">
+        <v>1882</v>
+      </c>
+      <c r="H9" s="50">
+        <v>1613</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50">
+        <v>9987</v>
+      </c>
+      <c r="K9" s="50">
+        <v>5001</v>
+      </c>
+      <c r="L9" s="50">
+        <v>10149</v>
+      </c>
+      <c r="M9" s="50">
+        <v>1542</v>
+      </c>
+      <c r="N9" s="50">
+        <v>3956</v>
+      </c>
+      <c r="O9" s="50">
+        <v>49039</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="50">
+        <v>6054</v>
+      </c>
+      <c r="D10" s="50">
+        <v>8702</v>
+      </c>
+      <c r="E10" s="50">
+        <v>474</v>
+      </c>
+      <c r="F10" s="50">
+        <v>2463</v>
+      </c>
+      <c r="G10" s="50">
+        <v>6406</v>
+      </c>
+      <c r="H10" s="50">
+        <v>10243</v>
+      </c>
+      <c r="I10" s="50">
+        <v>14461</v>
+      </c>
+      <c r="J10" s="50">
+        <v>4084</v>
+      </c>
+      <c r="K10" s="50">
+        <v>521</v>
+      </c>
+      <c r="L10" s="50">
+        <v>819</v>
+      </c>
+      <c r="M10" s="50">
+        <v>7204</v>
+      </c>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50">
+        <v>61431</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="50">
+        <v>2247</v>
+      </c>
+      <c r="D11" s="50">
+        <v>3503</v>
+      </c>
+      <c r="E11" s="50">
+        <v>3893</v>
+      </c>
+      <c r="F11" s="50">
+        <v>4867</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50">
+        <v>1108</v>
+      </c>
+      <c r="J11" s="50">
+        <v>4462</v>
+      </c>
+      <c r="K11" s="50">
+        <v>159</v>
+      </c>
+      <c r="L11" s="50">
+        <v>9436</v>
+      </c>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50">
+        <v>29675</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="50">
+        <v>12821</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50">
+        <v>4543</v>
+      </c>
+      <c r="H12" s="50">
+        <v>3756</v>
+      </c>
+      <c r="I12" s="50">
+        <v>7688</v>
+      </c>
+      <c r="J12" s="50">
+        <v>2140</v>
+      </c>
+      <c r="K12" s="50">
+        <v>4173</v>
+      </c>
+      <c r="L12" s="50">
+        <v>1260</v>
+      </c>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50">
+        <v>3894</v>
+      </c>
+      <c r="O12" s="50">
+        <v>40275</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="50">
+        <v>17594</v>
+      </c>
+      <c r="D13" s="50">
+        <v>10118</v>
+      </c>
+      <c r="E13" s="50">
+        <v>13923</v>
+      </c>
+      <c r="F13" s="50">
+        <v>4589</v>
+      </c>
+      <c r="G13" s="50">
+        <v>11951</v>
+      </c>
+      <c r="H13" s="50">
+        <v>9315</v>
+      </c>
+      <c r="I13" s="50">
+        <v>10808</v>
+      </c>
+      <c r="J13" s="50">
+        <v>1054</v>
+      </c>
+      <c r="K13" s="50">
+        <v>10094</v>
+      </c>
+      <c r="L13" s="50">
+        <v>7029</v>
+      </c>
+      <c r="M13" s="50">
+        <v>13878</v>
+      </c>
+      <c r="N13" s="50">
+        <v>11377</v>
+      </c>
+      <c r="O13" s="50">
+        <v>121730</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C14" s="50">
+        <v>41773</v>
+      </c>
+      <c r="D14" s="50">
+        <v>25578</v>
+      </c>
+      <c r="E14" s="50">
+        <v>24127</v>
+      </c>
+      <c r="F14" s="50">
+        <v>14679</v>
+      </c>
+      <c r="G14" s="50">
+        <v>24782</v>
+      </c>
+      <c r="H14" s="50">
+        <v>24927</v>
+      </c>
+      <c r="I14" s="50">
+        <v>34065</v>
+      </c>
+      <c r="J14" s="50">
+        <v>21727</v>
+      </c>
+      <c r="K14" s="50">
+        <v>19948</v>
+      </c>
+      <c r="L14" s="50">
+        <v>28693</v>
+      </c>
+      <c r="M14" s="50">
+        <v>22624</v>
+      </c>
+      <c r="N14" s="50">
+        <v>19227</v>
+      </c>
+      <c r="O14" s="50">
+        <v>302150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19228,7 +22971,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,15 @@
     <definedName name="PCSaídasN2_Nível_2">TbPCSaídasN2[Nível 2]</definedName>
     <definedName name="SegmentaçãodeDados_Ano_Competência">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Ano_Competência1">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Ano_Previsto">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Mês_Competência">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Mês_Competência1">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Mês_Previsto">#N/A</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId17"/>
-    <pivotCache cacheId="11" r:id="rId18"/>
+    <pivotCache cacheId="24" r:id="rId17"/>
+    <pivotCache cacheId="37" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -48,6 +50,8 @@
         <x14:slicerCache r:id="rId20"/>
         <x14:slicerCache r:id="rId21"/>
         <x14:slicerCache r:id="rId22"/>
+        <x14:slicerCache r:id="rId23"/>
+        <x14:slicerCache r:id="rId24"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="549">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -1697,6 +1701,15 @@
   </si>
   <si>
     <t>Soma de Valor</t>
+  </si>
+  <si>
+    <t>Mês Previsto</t>
+  </si>
+  <si>
+    <t>Ano Previsto</t>
+  </si>
+  <si>
+    <t>0 Total</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2138,12 +2151,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -4118,6 +4138,152 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1362074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Mês Previsto"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Mês Previsto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1495424" y="552450"/>
+              <a:ext cx="2228851" cy="933450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer. Os slicers podem ser usados, no mínimo, no Excel 2010.
+Caso a forma tenha sido modificada em uma versão anterior do Excel, ou a pasta de trabalho tenha sido salva no Excel 2003 ou
+anterior, o slicer não poderá ser usado.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Ano Previsto"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ano Previsto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3829049" y="552450"/>
+              <a:ext cx="2228851" cy="933450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer. Os slicers podem ser usados, no mínimo, no Excel 2010.
+Caso a forma tenha sido modificada em uma versão anterior do Excel, ou a pasta de trabalho tenha sido salva no Excel 2003 ou
+anterior, o slicer não poderá ser usado.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4960,7 +5126,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43944.480715625003" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="231">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43944.506276273147" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="231">
   <cacheSource type="worksheet">
     <worksheetSource name="TbRegistroEntradas"/>
   </cacheSource>
@@ -5033,11 +5199,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43944.492473148151" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="229">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43944.512582175928" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="229">
   <cacheSource type="worksheet">
     <worksheetSource name="TbRegistroSaídas"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="13">
     <cacheField name="Data do Caixa Realizado" numFmtId="14">
       <sharedItems containsDate="1" containsMixedTypes="1" minDate="2017-09-02T00:00:00" maxDate="2019-07-19T00:00:00"/>
     </cacheField>
@@ -5068,10 +5234,29 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="131" maxValue="4947"/>
     </cacheField>
     <cacheField name="Mês Caixa" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="12" count="13">
+        <n v="10"/>
+        <n v="9"/>
+        <n v="0"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="6"/>
+        <n v="5"/>
+        <n v="7"/>
+        <n v="8"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Ano Caixa" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2019"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2019" count="4">
+        <n v="2017"/>
+        <n v="0"/>
+        <n v="2018"/>
+        <n v="2019"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Mês Competência" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
@@ -5096,6 +5281,29 @@
         <n v="2019"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Mês Previsto" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="10"/>
+        <n v="9"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ano Previsto" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2017" maxValue="2019" count="3">
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -8123,8 +8331,10 @@
     <x v="0"/>
     <s v="NF4400"/>
     <n v="4021"/>
-    <n v="10"/>
-    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -8136,9 +8346,11 @@
     <x v="1"/>
     <s v="NF5356"/>
     <n v="651"/>
-    <n v="9"/>
-    <n v="2017"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -8149,9 +8361,11 @@
     <x v="0"/>
     <s v="NF1847"/>
     <n v="131"/>
-    <n v="9"/>
-    <n v="2017"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -8162,9 +8376,11 @@
     <x v="0"/>
     <s v="NF7011"/>
     <n v="803"/>
-    <n v="9"/>
-    <n v="2017"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -8175,9 +8391,11 @@
     <x v="1"/>
     <s v="NF7746"/>
     <n v="4460"/>
-    <n v="9"/>
-    <n v="2017"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -8188,9 +8406,11 @@
     <x v="2"/>
     <s v="NF1507"/>
     <n v="299"/>
-    <n v="9"/>
-    <n v="2017"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -8201,8 +8421,10 @@
     <x v="1"/>
     <s v="NF5445"/>
     <n v="618"/>
-    <n v="10"/>
-    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -8214,8 +8436,10 @@
     <x v="1"/>
     <s v="NF7526"/>
     <n v="2505"/>
-    <n v="9"/>
-    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -8227,8 +8451,10 @@
     <x v="0"/>
     <s v="NF7559"/>
     <n v="817"/>
-    <n v="9"/>
-    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -8240,8 +8466,10 @@
     <x v="2"/>
     <s v="NF9357"/>
     <n v="1565"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -8253,9 +8481,11 @@
     <x v="3"/>
     <s v="NF3898"/>
     <n v="1357"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8266,8 +8496,10 @@
     <x v="3"/>
     <s v="NF7275"/>
     <n v="4739"/>
-    <n v="9"/>
-    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -8279,8 +8511,10 @@
     <x v="0"/>
     <s v="NF9591"/>
     <n v="4675"/>
-    <n v="9"/>
-    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -8292,8 +8526,10 @@
     <x v="1"/>
     <s v="NF3104"/>
     <n v="1797"/>
-    <n v="9"/>
-    <n v="2017"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -8305,9 +8541,11 @@
     <x v="3"/>
     <s v="NF3440"/>
     <n v="888"/>
-    <n v="11"/>
-    <n v="2017"/>
-    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -8318,9 +8556,11 @@
     <x v="1"/>
     <s v="NF9195"/>
     <n v="2784"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8331,9 +8571,11 @@
     <x v="2"/>
     <s v="NF1821"/>
     <n v="707"/>
-    <n v="10"/>
-    <n v="2017"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8344,9 +8586,11 @@
     <x v="2"/>
     <s v="NF5625"/>
     <n v="229"/>
-    <n v="11"/>
-    <n v="2017"/>
-    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -8357,9 +8601,11 @@
     <x v="1"/>
     <s v="NF7471"/>
     <n v="2894"/>
-    <n v="10"/>
-    <n v="2017"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8370,9 +8616,11 @@
     <x v="3"/>
     <s v="NF9225"/>
     <n v="4516"/>
-    <n v="10"/>
-    <n v="2017"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8383,9 +8631,11 @@
     <x v="3"/>
     <s v="NF3883"/>
     <n v="885"/>
-    <n v="10"/>
-    <n v="2017"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8396,8 +8646,10 @@
     <x v="4"/>
     <s v="NF9408"/>
     <n v="1509"/>
-    <n v="11"/>
-    <n v="2017"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -8409,9 +8661,11 @@
     <x v="1"/>
     <s v="NF1517"/>
     <n v="145"/>
-    <n v="10"/>
-    <n v="2017"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8422,9 +8676,11 @@
     <x v="1"/>
     <s v="NF8626"/>
     <n v="1311"/>
-    <n v="10"/>
-    <n v="2017"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8435,9 +8691,11 @@
     <x v="1"/>
     <s v="NF4936"/>
     <n v="4182"/>
-    <n v="10"/>
-    <n v="2017"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8448,9 +8706,11 @@
     <x v="2"/>
     <s v="NF7062"/>
     <n v="339"/>
-    <n v="11"/>
-    <n v="2017"/>
-    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8461,8 +8721,10 @@
     <x v="4"/>
     <s v="NF3172"/>
     <n v="1788"/>
-    <n v="12"/>
-    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -8474,8 +8736,10 @@
     <x v="3"/>
     <s v="NF5821"/>
     <n v="1171"/>
-    <n v="12"/>
-    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
   </r>
@@ -8487,9 +8751,11 @@
     <x v="1"/>
     <s v="NF8137"/>
     <n v="4059"/>
-    <n v="11"/>
-    <n v="2017"/>
     <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -8500,9 +8766,11 @@
     <x v="0"/>
     <s v="NF8083"/>
     <n v="4919"/>
-    <n v="11"/>
-    <n v="2017"/>
     <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -8513,8 +8781,10 @@
     <x v="1"/>
     <s v="NF9597"/>
     <n v="3224"/>
-    <n v="12"/>
-    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
   </r>
@@ -8526,8 +8796,10 @@
     <x v="3"/>
     <s v="NF2065"/>
     <n v="3725"/>
-    <n v="12"/>
-    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
   </r>
@@ -8539,9 +8811,11 @@
     <x v="3"/>
     <s v="NF3192"/>
     <n v="312"/>
-    <n v="11"/>
-    <n v="2017"/>
     <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -8552,10 +8826,12 @@
     <x v="1"/>
     <s v="NF1977"/>
     <n v="4773"/>
-    <n v="1"/>
-    <n v="2018"/>
+    <x v="5"/>
+    <x v="2"/>
     <x v="3"/>
     <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2018-01-01T00:00:00"/>
@@ -8565,9 +8841,11 @@
     <x v="0"/>
     <s v="NF3208"/>
     <n v="228"/>
-    <n v="1"/>
-    <n v="2018"/>
+    <x v="5"/>
+    <x v="2"/>
     <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -8578,9 +8856,11 @@
     <x v="1"/>
     <s v="NF9545"/>
     <n v="450"/>
-    <n v="11"/>
-    <n v="2017"/>
     <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -8591,10 +8871,12 @@
     <x v="1"/>
     <s v="NF3100"/>
     <n v="1155"/>
-    <n v="1"/>
-    <n v="2018"/>
+    <x v="5"/>
+    <x v="2"/>
     <x v="3"/>
     <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2017-12-01T00:00:00"/>
@@ -8604,8 +8886,10 @@
     <x v="1"/>
     <s v="NF7746"/>
     <n v="1967"/>
-    <n v="12"/>
-    <n v="2017"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
   </r>
@@ -8617,9 +8901,11 @@
     <x v="4"/>
     <s v="NF1179"/>
     <n v="2741"/>
-    <n v="12"/>
-    <n v="2017"/>
     <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
@@ -8630,10 +8916,12 @@
     <x v="2"/>
     <s v="NF3829"/>
     <n v="1130"/>
-    <n v="1"/>
-    <n v="2018"/>
+    <x v="5"/>
+    <x v="2"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2017-12-06T00:00:00"/>
@@ -8643,9 +8931,11 @@
     <x v="3"/>
     <s v="NF6865"/>
     <n v="4835"/>
-    <n v="12"/>
-    <n v="2017"/>
     <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
@@ -8656,9 +8946,11 @@
     <x v="4"/>
     <s v="NF4400"/>
     <n v="1411"/>
-    <n v="12"/>
-    <n v="2017"/>
     <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
@@ -8669,9 +8961,11 @@
     <x v="1"/>
     <s v="NF9617"/>
     <n v="457"/>
-    <n v="12"/>
-    <n v="2017"/>
     <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
@@ -8682,10 +8976,12 @@
     <x v="2"/>
     <s v="NF5659"/>
     <n v="2623"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2017-12-29T00:00:00"/>
@@ -8695,9 +8991,11 @@
     <x v="4"/>
     <s v="NF6102"/>
     <n v="3440"/>
-    <n v="12"/>
-    <n v="2017"/>
     <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
@@ -8708,10 +9006,12 @@
     <x v="1"/>
     <s v="NF8162"/>
     <n v="3993"/>
-    <n v="1"/>
-    <n v="2018"/>
+    <x v="5"/>
+    <x v="2"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2018-02-20T00:00:00"/>
@@ -8721,10 +9021,12 @@
     <x v="1"/>
     <s v="NF4573"/>
     <n v="3273"/>
-    <n v="2"/>
-    <n v="2018"/>
+    <x v="6"/>
+    <x v="2"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2017-12-25T00:00:00"/>
@@ -8734,9 +9036,11 @@
     <x v="4"/>
     <s v="NF8503"/>
     <n v="4494"/>
-    <n v="12"/>
-    <n v="2017"/>
     <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
@@ -8747,10 +9051,12 @@
     <x v="0"/>
     <s v="NF3380"/>
     <n v="2511"/>
-    <n v="1"/>
-    <n v="2018"/>
+    <x v="5"/>
+    <x v="2"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2017-12-29T00:00:00"/>
@@ -8760,9 +9066,11 @@
     <x v="2"/>
     <s v="NF6566"/>
     <n v="2015"/>
-    <n v="12"/>
-    <n v="2017"/>
     <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
@@ -8773,10 +9081,12 @@
     <x v="3"/>
     <s v="NF5838"/>
     <n v="3413"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2018-01-08T00:00:00"/>
@@ -8786,9 +9096,11 @@
     <x v="0"/>
     <s v="NF1174"/>
     <n v="4087"/>
-    <n v="1"/>
-    <n v="2018"/>
     <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8799,9 +9111,11 @@
     <x v="1"/>
     <s v="NF2942"/>
     <n v="2441"/>
-    <n v="1"/>
-    <n v="2018"/>
     <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8812,9 +9126,11 @@
     <x v="2"/>
     <s v="NF8563"/>
     <n v="3598"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8825,9 +9141,11 @@
     <x v="1"/>
     <s v="NF8237"/>
     <n v="4895"/>
-    <n v="1"/>
-    <n v="2018"/>
     <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8838,9 +9156,11 @@
     <x v="1"/>
     <s v="NF4859"/>
     <n v="971"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8851,8 +9171,10 @@
     <x v="0"/>
     <s v="NF1529"/>
     <n v="556"/>
-    <n v="2"/>
-    <n v="2018"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="5"/>
     <x v="1"/>
   </r>
@@ -8864,8 +9186,10 @@
     <x v="0"/>
     <s v="NF6931"/>
     <n v="1977"/>
-    <n v="2"/>
-    <n v="2018"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="5"/>
     <x v="1"/>
   </r>
@@ -8877,9 +9201,11 @@
     <x v="1"/>
     <s v="NF7559"/>
     <n v="2951"/>
-    <n v="1"/>
-    <n v="2018"/>
     <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8890,9 +9216,11 @@
     <x v="1"/>
     <s v="NF9620"/>
     <n v="2535"/>
-    <n v="2"/>
-    <n v="2018"/>
+    <x v="6"/>
+    <x v="2"/>
     <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8903,8 +9231,10 @@
     <x v="4"/>
     <s v="NF4547"/>
     <n v="3057"/>
-    <n v="2"/>
-    <n v="2018"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="5"/>
     <x v="1"/>
   </r>
@@ -8916,8 +9246,10 @@
     <x v="0"/>
     <s v="NF6004"/>
     <n v="3152"/>
-    <n v="2"/>
-    <n v="2018"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="5"/>
     <x v="1"/>
   </r>
@@ -8929,9 +9261,11 @@
     <x v="3"/>
     <s v="NF3415"/>
     <n v="2247"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8942,9 +9276,11 @@
     <x v="2"/>
     <s v="NF1603"/>
     <n v="2456"/>
-    <n v="3"/>
-    <n v="2018"/>
+    <x v="7"/>
+    <x v="2"/>
     <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8955,9 +9291,11 @@
     <x v="1"/>
     <s v="NF8784"/>
     <n v="3801"/>
-    <n v="4"/>
-    <n v="2018"/>
+    <x v="8"/>
+    <x v="2"/>
     <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8968,9 +9306,11 @@
     <x v="0"/>
     <s v="NF1826"/>
     <n v="3049"/>
-    <n v="1"/>
-    <n v="2018"/>
     <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -8981,9 +9321,11 @@
     <x v="4"/>
     <s v="NF7390"/>
     <n v="3255"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
     <x v="1"/>
   </r>
   <r>
@@ -8994,9 +9336,11 @@
     <x v="1"/>
     <s v="NF7009"/>
     <n v="2074"/>
-    <n v="2"/>
-    <n v="2018"/>
     <x v="6"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
     <x v="1"/>
   </r>
   <r>
@@ -9007,9 +9351,11 @@
     <x v="1"/>
     <s v="NF7629"/>
     <n v="3606"/>
-    <n v="2"/>
-    <n v="2018"/>
     <x v="6"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
     <x v="1"/>
   </r>
   <r>
@@ -9020,8 +9366,10 @@
     <x v="2"/>
     <s v="NF2748"/>
     <n v="4867"/>
-    <n v="3"/>
-    <n v="2018"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
     <x v="6"/>
     <x v="1"/>
   </r>
@@ -9033,8 +9381,10 @@
     <x v="3"/>
     <s v="NF5961"/>
     <n v="702"/>
-    <n v="3"/>
-    <n v="2018"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
     <x v="6"/>
     <x v="1"/>
   </r>
@@ -9046,9 +9396,11 @@
     <x v="3"/>
     <s v="NF7680"/>
     <n v="2801"/>
-    <n v="2"/>
-    <n v="2018"/>
     <x v="6"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
     <x v="1"/>
   </r>
   <r>
@@ -9059,8 +9411,10 @@
     <x v="1"/>
     <s v="NF9629"/>
     <n v="4438"/>
-    <n v="4"/>
-    <n v="2018"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
     <x v="6"/>
     <x v="1"/>
   </r>
@@ -9072,9 +9426,11 @@
     <x v="2"/>
     <s v="NF5978"/>
     <n v="3835"/>
-    <n v="4"/>
-    <n v="2018"/>
+    <x v="8"/>
+    <x v="2"/>
     <x v="6"/>
+    <x v="1"/>
+    <x v="7"/>
     <x v="1"/>
   </r>
   <r>
@@ -9085,9 +9441,11 @@
     <x v="1"/>
     <s v="NF5651"/>
     <n v="3893"/>
-    <n v="3"/>
-    <n v="2018"/>
     <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="1"/>
   </r>
   <r>
@@ -9098,9 +9456,11 @@
     <x v="1"/>
     <s v="NF7772"/>
     <n v="1970"/>
-    <n v="3"/>
-    <n v="2018"/>
     <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="1"/>
   </r>
   <r>
@@ -9111,8 +9471,10 @@
     <x v="3"/>
     <s v="NF5401"/>
     <n v="729"/>
-    <n v="4"/>
-    <n v="2018"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
     <x v="7"/>
     <x v="1"/>
   </r>
@@ -9124,9 +9486,11 @@
     <x v="2"/>
     <s v="NF9115"/>
     <n v="474"/>
-    <n v="3"/>
-    <n v="2018"/>
     <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="1"/>
   </r>
   <r>
@@ -9137,9 +9501,11 @@
     <x v="3"/>
     <s v="NF4115"/>
     <n v="3164"/>
-    <n v="3"/>
-    <n v="2018"/>
     <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="1"/>
   </r>
   <r>
@@ -9150,9 +9516,11 @@
     <x v="1"/>
     <s v="NF5683"/>
     <n v="3113"/>
-    <n v="3"/>
-    <n v="2018"/>
     <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="1"/>
   </r>
   <r>
@@ -9163,8 +9531,10 @@
     <x v="4"/>
     <s v="NF7027"/>
     <n v="789"/>
-    <n v="4"/>
-    <n v="2018"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
     <x v="7"/>
     <x v="1"/>
   </r>
@@ -9176,8 +9546,10 @@
     <x v="4"/>
     <s v="NF7168"/>
     <n v="3521"/>
-    <n v="6"/>
-    <n v="2018"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
     <x v="7"/>
     <x v="1"/>
   </r>
@@ -9189,9 +9561,11 @@
     <x v="1"/>
     <s v="NF4972"/>
     <n v="4947"/>
-    <n v="3"/>
-    <n v="2018"/>
     <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="1"/>
   </r>
   <r>
@@ -9202,9 +9576,11 @@
     <x v="4"/>
     <s v="NF7283"/>
     <n v="1527"/>
-    <n v="3"/>
-    <n v="2018"/>
     <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="1"/>
   </r>
   <r>
@@ -9215,8 +9591,10 @@
     <x v="4"/>
     <s v="NF6320"/>
     <n v="764"/>
-    <n v="5"/>
-    <n v="2018"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="1"/>
   </r>
@@ -9228,9 +9606,11 @@
     <x v="2"/>
     <s v="NF7850"/>
     <n v="2463"/>
-    <n v="4"/>
-    <n v="2018"/>
     <x v="8"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
     <x v="1"/>
   </r>
   <r>
@@ -9241,9 +9621,11 @@
     <x v="3"/>
     <s v="NF2420"/>
     <n v="2111"/>
-    <n v="4"/>
-    <n v="2018"/>
     <x v="8"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
     <x v="1"/>
   </r>
   <r>
@@ -9254,9 +9636,11 @@
     <x v="1"/>
     <s v="NF6764"/>
     <n v="1144"/>
-    <n v="4"/>
-    <n v="2018"/>
     <x v="8"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
     <x v="1"/>
   </r>
   <r>
@@ -9267,8 +9651,10 @@
     <x v="3"/>
     <s v="NF6382"/>
     <n v="597"/>
-    <n v="5"/>
-    <n v="2018"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="1"/>
   </r>
@@ -9280,9 +9666,11 @@
     <x v="1"/>
     <s v="NF8079"/>
     <n v="3445"/>
-    <n v="4"/>
-    <n v="2018"/>
     <x v="8"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
     <x v="1"/>
   </r>
   <r>
@@ -9293,8 +9681,10 @@
     <x v="4"/>
     <s v="NF2434"/>
     <n v="1996"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="1"/>
   </r>
@@ -9306,9 +9696,11 @@
     <x v="3"/>
     <s v="NF3230"/>
     <n v="1254"/>
-    <n v="4"/>
-    <n v="2018"/>
     <x v="8"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
     <x v="1"/>
   </r>
   <r>
@@ -9319,8 +9711,10 @@
     <x v="3"/>
     <s v="NF8847"/>
     <n v="905"/>
-    <n v="5"/>
-    <n v="2018"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="1"/>
   </r>
@@ -9332,9 +9726,11 @@
     <x v="2"/>
     <s v="NF8053"/>
     <n v="2975"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
     <x v="1"/>
   </r>
   <r>
@@ -9345,9 +9741,11 @@
     <x v="1"/>
     <s v="NF2454"/>
     <n v="4807"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
     <x v="1"/>
   </r>
   <r>
@@ -9358,8 +9756,10 @@
     <x v="4"/>
     <s v="NF8252"/>
     <n v="1882"/>
-    <n v="6"/>
-    <n v="2018"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="1"/>
   </r>
@@ -9371,8 +9771,10 @@
     <x v="0"/>
     <s v="NF6573"/>
     <n v="3932"/>
-    <n v="6"/>
-    <n v="2018"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="1"/>
   </r>
@@ -9384,9 +9786,11 @@
     <x v="1"/>
     <s v="NF8780"/>
     <n v="701"/>
-    <n v="5"/>
-    <n v="2018"/>
+    <x v="10"/>
+    <x v="2"/>
     <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
     <x v="1"/>
   </r>
   <r>
@@ -9397,8 +9801,10 @@
     <x v="1"/>
     <s v="NF6166"/>
     <n v="2651"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="1"/>
   </r>
@@ -9410,9 +9816,11 @@
     <x v="1"/>
     <s v="NF8437"/>
     <n v="3792"/>
-    <n v="7"/>
-    <n v="2018"/>
+    <x v="11"/>
+    <x v="2"/>
     <x v="9"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9423,9 +9831,11 @@
     <x v="0"/>
     <s v="NF6635"/>
     <n v="611"/>
-    <n v="7"/>
-    <n v="2018"/>
+    <x v="11"/>
+    <x v="2"/>
     <x v="9"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9436,9 +9846,11 @@
     <x v="2"/>
     <s v="NF8734"/>
     <n v="3431"/>
-    <n v="7"/>
-    <n v="2018"/>
+    <x v="11"/>
+    <x v="2"/>
     <x v="9"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9449,9 +9861,11 @@
     <x v="1"/>
     <s v="NF4208"/>
     <n v="3670"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
     <x v="1"/>
   </r>
   <r>
@@ -9462,9 +9876,11 @@
     <x v="1"/>
     <s v="NF4923"/>
     <n v="4320"/>
-    <n v="6"/>
-    <n v="2018"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
     <x v="1"/>
   </r>
   <r>
@@ -9475,9 +9891,11 @@
     <x v="2"/>
     <s v="NF6782"/>
     <n v="1809"/>
-    <n v="6"/>
-    <n v="2018"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
     <x v="1"/>
   </r>
   <r>
@@ -9488,8 +9906,10 @@
     <x v="1"/>
     <s v="NF6280"/>
     <n v="667"/>
-    <n v="7"/>
-    <n v="2018"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
     <x v="10"/>
     <x v="1"/>
   </r>
@@ -9501,9 +9921,11 @@
     <x v="4"/>
     <s v="NF7827"/>
     <n v="1613"/>
-    <n v="6"/>
-    <n v="2018"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
     <x v="1"/>
   </r>
   <r>
@@ -9514,8 +9936,10 @@
     <x v="0"/>
     <s v="NF5357"/>
     <n v="3756"/>
-    <n v="7"/>
-    <n v="2018"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
     <x v="10"/>
     <x v="1"/>
   </r>
@@ -9527,9 +9951,11 @@
     <x v="2"/>
     <s v="NF8188"/>
     <n v="3672"/>
-    <n v="6"/>
-    <n v="2018"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
     <x v="1"/>
   </r>
   <r>
@@ -9540,8 +9966,10 @@
     <x v="1"/>
     <s v="NF4640"/>
     <n v="658"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
     <x v="10"/>
     <x v="1"/>
   </r>
@@ -9553,9 +9981,11 @@
     <x v="2"/>
     <s v="NF2293"/>
     <n v="4762"/>
-    <n v="8"/>
-    <n v="2018"/>
+    <x v="12"/>
+    <x v="2"/>
     <x v="10"/>
+    <x v="1"/>
+    <x v="11"/>
     <x v="1"/>
   </r>
   <r>
@@ -9566,9 +9996,11 @@
     <x v="0"/>
     <s v="NF2933"/>
     <n v="2186"/>
-    <n v="7"/>
-    <n v="2018"/>
     <x v="11"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9579,9 +10011,11 @@
     <x v="2"/>
     <s v="NF4384"/>
     <n v="3411"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9592,9 +10026,11 @@
     <x v="2"/>
     <s v="NF8316"/>
     <n v="2524"/>
-    <n v="7"/>
-    <n v="2018"/>
     <x v="11"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9605,8 +10041,10 @@
     <x v="0"/>
     <s v="NF1506"/>
     <n v="1709"/>
-    <n v="8"/>
-    <n v="2018"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
     <x v="11"/>
     <x v="1"/>
   </r>
@@ -9618,9 +10056,11 @@
     <x v="1"/>
     <s v="NF4913"/>
     <n v="3181"/>
-    <n v="7"/>
-    <n v="2018"/>
     <x v="11"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9631,9 +10071,11 @@
     <x v="3"/>
     <s v="NF8526"/>
     <n v="1108"/>
-    <n v="9"/>
-    <n v="2018"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9644,9 +10086,11 @@
     <x v="1"/>
     <s v="NF9873"/>
     <n v="2777"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9657,9 +10101,11 @@
     <x v="0"/>
     <s v="NF9870"/>
     <n v="3793"/>
-    <n v="9"/>
-    <n v="2018"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -9670,8 +10116,10 @@
     <x v="2"/>
     <s v="NF5563"/>
     <n v="4217"/>
-    <n v="8"/>
-    <n v="2018"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
     <x v="11"/>
     <x v="1"/>
   </r>
@@ -9683,9 +10131,11 @@
     <x v="1"/>
     <s v="NF5510"/>
     <n v="4850"/>
-    <n v="7"/>
-    <n v="2018"/>
     <x v="11"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9696,9 +10146,11 @@
     <x v="2"/>
     <s v="NF1440"/>
     <n v="4309"/>
-    <n v="7"/>
-    <n v="2018"/>
     <x v="11"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
   <r>
@@ -9709,9 +10161,11 @@
     <x v="3"/>
     <s v="NF2709"/>
     <n v="4462"/>
-    <n v="8"/>
-    <n v="2018"/>
-    <x v="0"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
     <x v="1"/>
   </r>
   <r>
@@ -9722,8 +10176,10 @@
     <x v="4"/>
     <s v="NF9886"/>
     <n v="4947"/>
-    <n v="10"/>
-    <n v="2018"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
   </r>
@@ -9735,9 +10191,11 @@
     <x v="0"/>
     <s v="NF6993"/>
     <n v="902"/>
-    <n v="9"/>
-    <n v="2018"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -9748,9 +10206,11 @@
     <x v="4"/>
     <s v="NF9126"/>
     <n v="432"/>
-    <n v="9"/>
-    <n v="2018"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -9761,9 +10221,11 @@
     <x v="2"/>
     <s v="NF3531"/>
     <n v="4084"/>
-    <n v="9"/>
-    <n v="2018"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -9774,9 +10236,11 @@
     <x v="1"/>
     <s v="NF6599"/>
     <n v="1054"/>
-    <n v="9"/>
-    <n v="2018"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -9787,9 +10251,11 @@
     <x v="4"/>
     <s v="NF9323"/>
     <n v="4608"/>
-    <n v="9"/>
-    <n v="2018"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -9800,9 +10266,11 @@
     <x v="0"/>
     <s v="NF3529"/>
     <n v="1238"/>
-    <n v="8"/>
-    <n v="2018"/>
-    <x v="0"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
     <x v="1"/>
   </r>
   <r>
@@ -9813,8 +10281,10 @@
     <x v="1"/>
     <s v="NF5824"/>
     <n v="1342"/>
-    <n v="9"/>
-    <n v="2018"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -9826,9 +10296,11 @@
     <x v="4"/>
     <s v="NF3860"/>
     <n v="2936"/>
-    <n v="10"/>
-    <n v="2018"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -9839,9 +10311,11 @@
     <x v="1"/>
     <s v="NF7260"/>
     <n v="875"/>
-    <n v="10"/>
-    <n v="2018"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -9852,8 +10326,10 @@
     <x v="3"/>
     <s v="NF2238"/>
     <n v="159"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -9865,8 +10341,10 @@
     <x v="1"/>
     <s v="NF7342"/>
     <n v="2933"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -9878,9 +10356,11 @@
     <x v="1"/>
     <s v="NF8517"/>
     <n v="4944"/>
-    <n v="11"/>
-    <n v="2018"/>
-    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -9891,9 +10371,11 @@
     <x v="0"/>
     <s v="NF9366"/>
     <n v="4173"/>
-    <n v="10"/>
-    <n v="2018"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -9904,9 +10386,11 @@
     <x v="4"/>
     <s v="NF4973"/>
     <n v="2065"/>
-    <n v="10"/>
-    <n v="2018"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -9917,9 +10401,11 @@
     <x v="2"/>
     <s v="NF1111"/>
     <n v="521"/>
-    <n v="11"/>
-    <n v="2018"/>
-    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -9930,8 +10416,10 @@
     <x v="2"/>
     <s v="NF8344"/>
     <n v="819"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="2"/>
     <x v="1"/>
   </r>
@@ -9943,9 +10431,11 @@
     <x v="0"/>
     <s v="NF8750"/>
     <n v="1260"/>
-    <n v="10"/>
-    <n v="2018"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -9956,9 +10446,11 @@
     <x v="4"/>
     <s v="NF7616"/>
     <n v="2998"/>
-    <n v="10"/>
-    <n v="2018"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -9969,9 +10461,11 @@
     <x v="4"/>
     <s v="NF3536"/>
     <n v="4287"/>
-    <n v="1"/>
-    <n v="2019"/>
-    <x v="2"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -9982,9 +10476,11 @@
     <x v="3"/>
     <s v="NF9376"/>
     <n v="2015"/>
-    <n v="12"/>
-    <n v="2018"/>
-    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -9995,9 +10491,11 @@
     <x v="3"/>
     <s v="NF1222"/>
     <n v="3369"/>
-    <n v="12"/>
-    <n v="2018"/>
-    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
@@ -10008,9 +10506,11 @@
     <x v="1"/>
     <s v="NF3914"/>
     <n v="4851"/>
-    <n v="10"/>
-    <n v="2018"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -10021,9 +10521,11 @@
     <x v="1"/>
     <s v="NF7447"/>
     <n v="2178"/>
-    <n v="12"/>
-    <n v="2018"/>
-    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
@@ -10034,8 +10536,10 @@
     <x v="3"/>
     <s v="NF5088"/>
     <n v="4052"/>
-    <n v="11"/>
-    <n v="2018"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="2"/>
     <x v="1"/>
   </r>
@@ -10047,9 +10551,11 @@
     <x v="4"/>
     <s v="NF7858"/>
     <n v="2864"/>
-    <n v="10"/>
-    <n v="2018"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -10060,8 +10566,10 @@
     <x v="1"/>
     <s v="NF7692"/>
     <n v="2425"/>
-    <n v="12"/>
-    <n v="2018"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="1"/>
   </r>
@@ -10073,10 +10581,12 @@
     <x v="4"/>
     <s v="NF7390"/>
     <n v="1542"/>
-    <n v="1"/>
-    <n v="2019"/>
+    <x v="5"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2018-12-12T00:00:00"/>
@@ -10086,8 +10596,10 @@
     <x v="1"/>
     <s v="NF6262"/>
     <n v="1736"/>
-    <n v="12"/>
-    <n v="2018"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="1"/>
   </r>
@@ -10099,10 +10611,12 @@
     <x v="2"/>
     <s v="NF9573"/>
     <n v="1628"/>
-    <n v="1"/>
-    <n v="2019"/>
+    <x v="5"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <s v=""/>
@@ -10112,9 +10626,11 @@
     <x v="1"/>
     <s v="NF8087"/>
     <n v="3853"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -10125,8 +10641,10 @@
     <x v="2"/>
     <s v="NF5909"/>
     <n v="883"/>
-    <n v="12"/>
-    <n v="2018"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="1"/>
   </r>
@@ -10138,9 +10656,11 @@
     <x v="1"/>
     <s v="NF4172"/>
     <n v="976"/>
-    <n v="11"/>
-    <n v="2018"/>
     <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -10151,9 +10671,11 @@
     <x v="2"/>
     <s v="NF8957"/>
     <n v="2663"/>
-    <n v="11"/>
-    <n v="2018"/>
     <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -10164,9 +10686,11 @@
     <x v="1"/>
     <s v="NF2981"/>
     <n v="4888"/>
-    <n v="11"/>
-    <n v="2018"/>
     <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -10177,9 +10701,11 @@
     <x v="2"/>
     <s v="NF5104"/>
     <n v="2030"/>
-    <n v="11"/>
-    <n v="2018"/>
     <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -10190,10 +10716,12 @@
     <x v="1"/>
     <s v="NF3942"/>
     <n v="2117"/>
-    <n v="1"/>
-    <n v="2019"/>
+    <x v="5"/>
+    <x v="3"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2019-01-29T00:00:00"/>
@@ -10203,10 +10731,12 @@
     <x v="1"/>
     <s v="NF6376"/>
     <n v="1236"/>
-    <n v="1"/>
-    <n v="2019"/>
+    <x v="5"/>
+    <x v="3"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2018-12-31T00:00:00"/>
@@ -10216,9 +10746,11 @@
     <x v="1"/>
     <s v="NF7518"/>
     <n v="426"/>
-    <n v="12"/>
-    <n v="2018"/>
     <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
@@ -10229,9 +10761,11 @@
     <x v="4"/>
     <s v="NF5359"/>
     <n v="3956"/>
-    <n v="12"/>
-    <n v="2018"/>
     <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
@@ -10242,10 +10776,12 @@
     <x v="1"/>
     <s v="NF5153"/>
     <n v="3042"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2018-12-15T00:00:00"/>
@@ -10255,9 +10791,11 @@
     <x v="1"/>
     <s v="NF3127"/>
     <n v="1434"/>
-    <n v="12"/>
-    <n v="2018"/>
     <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
@@ -10268,10 +10806,12 @@
     <x v="0"/>
     <s v="NF7641"/>
     <n v="1782"/>
-    <n v="1"/>
-    <n v="2019"/>
+    <x v="5"/>
+    <x v="3"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2019-02-18T00:00:00"/>
@@ -10281,10 +10821,12 @@
     <x v="1"/>
     <s v="NF2758"/>
     <n v="365"/>
-    <n v="2"/>
-    <n v="2019"/>
+    <x v="6"/>
+    <x v="3"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2019-01-26T00:00:00"/>
@@ -10294,10 +10836,12 @@
     <x v="1"/>
     <s v="NF9279"/>
     <n v="2757"/>
-    <n v="1"/>
-    <n v="2019"/>
+    <x v="5"/>
+    <x v="3"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2019-02-19T00:00:00"/>
@@ -10307,10 +10851,12 @@
     <x v="0"/>
     <s v="NF2386"/>
     <n v="2112"/>
-    <n v="2"/>
-    <n v="2019"/>
+    <x v="6"/>
+    <x v="3"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2019-01-02T00:00:00"/>
@@ -10320,9 +10866,11 @@
     <x v="0"/>
     <s v="NF6751"/>
     <n v="2190"/>
-    <n v="1"/>
-    <n v="2019"/>
     <x v="5"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
@@ -10333,9 +10881,11 @@
     <x v="1"/>
     <s v="NF9460"/>
     <n v="2998"/>
-    <n v="1"/>
-    <n v="2019"/>
     <x v="5"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
@@ -10346,8 +10896,10 @@
     <x v="1"/>
     <s v="NF5556"/>
     <n v="3808"/>
-    <n v="2"/>
-    <n v="2019"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="2"/>
   </r>
@@ -10359,9 +10911,11 @@
     <x v="1"/>
     <s v="NF4918"/>
     <n v="4928"/>
-    <n v="4"/>
-    <n v="2019"/>
+    <x v="8"/>
+    <x v="3"/>
     <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
@@ -10372,9 +10926,11 @@
     <x v="0"/>
     <s v="NF1763"/>
     <n v="4179"/>
-    <n v="1"/>
-    <n v="2019"/>
     <x v="5"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
@@ -10385,8 +10941,10 @@
     <x v="4"/>
     <s v="NF2024"/>
     <n v="4896"/>
-    <n v="2"/>
-    <n v="2019"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="2"/>
   </r>
@@ -10398,9 +10956,11 @@
     <x v="0"/>
     <s v="NF8079"/>
     <n v="4092"/>
-    <n v="1"/>
-    <n v="2019"/>
     <x v="5"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
@@ -10411,9 +10971,11 @@
     <x v="1"/>
     <s v="NF6383"/>
     <n v="2956"/>
-    <n v="1"/>
-    <n v="2019"/>
     <x v="5"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
@@ -10424,8 +10986,10 @@
     <x v="0"/>
     <s v="NF3919"/>
     <n v="533"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="2"/>
   </r>
@@ -10437,9 +11001,11 @@
     <x v="2"/>
     <s v="NF1390"/>
     <n v="3519"/>
-    <n v="2"/>
-    <n v="2019"/>
     <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
     <x v="2"/>
   </r>
   <r>
@@ -10450,9 +11016,11 @@
     <x v="4"/>
     <s v="NF2500"/>
     <n v="757"/>
-    <n v="2"/>
-    <n v="2019"/>
     <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
     <x v="2"/>
   </r>
   <r>
@@ -10463,9 +11031,11 @@
     <x v="1"/>
     <s v="NF2427"/>
     <n v="2688"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
     <x v="2"/>
   </r>
   <r>
@@ -10476,9 +11046,11 @@
     <x v="3"/>
     <s v="NF4680"/>
     <n v="340"/>
-    <n v="2"/>
-    <n v="2019"/>
     <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
     <x v="2"/>
   </r>
   <r>
@@ -10489,9 +11061,11 @@
     <x v="3"/>
     <s v="NF7019"/>
     <n v="4204"/>
-    <n v="2"/>
-    <n v="2019"/>
     <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
     <x v="2"/>
   </r>
   <r>
@@ -10502,8 +11076,10 @@
     <x v="2"/>
     <s v="NF4961"/>
     <n v="3695"/>
-    <n v="3"/>
-    <n v="2019"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="2"/>
   </r>
@@ -10515,9 +11091,11 @@
     <x v="0"/>
     <s v="NF4608"/>
     <n v="4148"/>
-    <n v="2"/>
-    <n v="2019"/>
     <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
     <x v="2"/>
   </r>
   <r>
@@ -10528,9 +11106,11 @@
     <x v="1"/>
     <s v="NF1913"/>
     <n v="4303"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
     <x v="2"/>
   </r>
   <r>
@@ -10541,8 +11121,10 @@
     <x v="3"/>
     <s v="NF5844"/>
     <n v="2674"/>
-    <n v="3"/>
-    <n v="2019"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="2"/>
   </r>
@@ -10554,8 +11136,10 @@
     <x v="4"/>
     <s v="NF7813"/>
     <n v="1720"/>
-    <n v="4"/>
-    <n v="2019"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
     <x v="7"/>
     <x v="2"/>
   </r>
@@ -10567,8 +11151,10 @@
     <x v="4"/>
     <s v="NF6780"/>
     <n v="1854"/>
-    <n v="4"/>
-    <n v="2019"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
     <x v="7"/>
     <x v="2"/>
   </r>
@@ -10580,9 +11166,11 @@
     <x v="1"/>
     <s v="NF9599"/>
     <n v="2568"/>
-    <n v="3"/>
-    <n v="2019"/>
     <x v="7"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="6"/>
     <x v="2"/>
   </r>
   <r>
@@ -10593,8 +11181,10 @@
     <x v="1"/>
     <s v="NF8659"/>
     <n v="3690"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
     <x v="7"/>
     <x v="2"/>
   </r>
@@ -10606,8 +11196,10 @@
     <x v="0"/>
     <s v="NF4652"/>
     <n v="3746"/>
-    <n v="4"/>
-    <n v="2019"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
     <x v="7"/>
     <x v="2"/>
   </r>
@@ -10619,9 +11211,11 @@
     <x v="4"/>
     <s v="NF3068"/>
     <n v="4360"/>
-    <n v="3"/>
-    <n v="2019"/>
     <x v="7"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="6"/>
     <x v="2"/>
   </r>
   <r>
@@ -10632,8 +11226,10 @@
     <x v="0"/>
     <s v="NF7141"/>
     <n v="1753"/>
-    <n v="4"/>
-    <n v="2019"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
     <x v="7"/>
     <x v="2"/>
   </r>
@@ -10645,9 +11241,11 @@
     <x v="4"/>
     <s v="NF3366"/>
     <n v="1421"/>
-    <n v="3"/>
-    <n v="2019"/>
     <x v="7"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="6"/>
     <x v="2"/>
   </r>
   <r>
@@ -10658,9 +11256,11 @@
     <x v="0"/>
     <s v="NF8853"/>
     <n v="3565"/>
-    <n v="3"/>
-    <n v="2019"/>
     <x v="7"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="6"/>
     <x v="2"/>
   </r>
   <r>
@@ -10671,9 +11271,11 @@
     <x v="1"/>
     <s v="NF7681"/>
     <n v="1961"/>
-    <n v="5"/>
-    <n v="2019"/>
+    <x v="10"/>
+    <x v="3"/>
     <x v="7"/>
+    <x v="2"/>
+    <x v="8"/>
     <x v="2"/>
   </r>
   <r>
@@ -10684,9 +11286,11 @@
     <x v="3"/>
     <s v="NF1441"/>
     <n v="4854"/>
-    <n v="3"/>
-    <n v="2019"/>
     <x v="7"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="6"/>
     <x v="2"/>
   </r>
   <r>
@@ -10697,9 +11301,11 @@
     <x v="4"/>
     <s v="NF9964"/>
     <n v="3453"/>
-    <n v="4"/>
-    <n v="2019"/>
     <x v="8"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="7"/>
     <x v="2"/>
   </r>
   <r>
@@ -10710,9 +11316,11 @@
     <x v="1"/>
     <s v="NF9101"/>
     <n v="3341"/>
-    <n v="4"/>
-    <n v="2019"/>
     <x v="8"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="7"/>
     <x v="2"/>
   </r>
   <r>
@@ -10723,8 +11331,10 @@
     <x v="3"/>
     <s v="NF3185"/>
     <n v="2707"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="2"/>
   </r>
@@ -10736,8 +11346,10 @@
     <x v="1"/>
     <s v="NF2836"/>
     <n v="1582"/>
-    <n v="7"/>
-    <n v="2019"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="2"/>
   </r>
@@ -10749,9 +11361,11 @@
     <x v="1"/>
     <s v="NF7779"/>
     <n v="3889"/>
-    <n v="4"/>
-    <n v="2019"/>
     <x v="8"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="7"/>
     <x v="2"/>
   </r>
   <r>
@@ -10762,9 +11376,11 @@
     <x v="1"/>
     <s v="NF5919"/>
     <n v="2303"/>
-    <n v="4"/>
-    <n v="2019"/>
     <x v="8"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="7"/>
     <x v="2"/>
   </r>
   <r>
@@ -10775,9 +11391,11 @@
     <x v="2"/>
     <s v="NF1620"/>
     <n v="802"/>
-    <n v="4"/>
-    <n v="2019"/>
     <x v="8"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="7"/>
     <x v="2"/>
   </r>
   <r>
@@ -10788,8 +11406,10 @@
     <x v="1"/>
     <s v="NF3801"/>
     <n v="4513"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="2"/>
   </r>
@@ -10801,8 +11421,10 @@
     <x v="1"/>
     <s v="NF8086"/>
     <n v="3908"/>
-    <n v="5"/>
-    <n v="2019"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="2"/>
   </r>
@@ -10814,9 +11436,11 @@
     <x v="1"/>
     <s v="NF4964"/>
     <n v="156"/>
-    <n v="7"/>
-    <n v="2019"/>
+    <x v="11"/>
+    <x v="3"/>
     <x v="8"/>
+    <x v="2"/>
+    <x v="9"/>
     <x v="2"/>
   </r>
   <r>
@@ -10827,9 +11451,11 @@
     <x v="2"/>
     <s v="NF6112"/>
     <n v="457"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
     <x v="8"/>
+    <x v="2"/>
+    <x v="9"/>
     <x v="2"/>
   </r>
   <r>
@@ -10840,8 +11466,10 @@
     <x v="1"/>
     <s v="NF2333"/>
     <n v="3536"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="9"/>
     <x v="2"/>
   </r>
@@ -10853,9 +11481,11 @@
     <x v="1"/>
     <s v="NF7121"/>
     <n v="1809"/>
-    <n v="5"/>
-    <n v="2019"/>
+    <x v="10"/>
+    <x v="3"/>
     <x v="9"/>
+    <x v="2"/>
+    <x v="8"/>
     <x v="2"/>
   </r>
   <r>
@@ -10866,9 +11496,11 @@
     <x v="2"/>
     <s v="NF8208"/>
     <n v="4172"/>
-    <n v="5"/>
-    <n v="2019"/>
+    <x v="10"/>
+    <x v="3"/>
     <x v="9"/>
+    <x v="2"/>
+    <x v="8"/>
     <x v="2"/>
   </r>
   <r>
@@ -10879,8 +11511,10 @@
     <x v="2"/>
     <s v="NF1320"/>
     <n v="3827"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="9"/>
     <x v="2"/>
   </r>
@@ -10892,8 +11526,10 @@
     <x v="2"/>
     <s v="NF9162"/>
     <n v="1700"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="9"/>
     <x v="2"/>
   </r>
@@ -10905,9 +11541,11 @@
     <x v="2"/>
     <s v="NF1497"/>
     <n v="2090"/>
-    <n v="5"/>
-    <n v="2019"/>
+    <x v="10"/>
+    <x v="3"/>
     <x v="9"/>
+    <x v="2"/>
+    <x v="8"/>
     <x v="2"/>
   </r>
   <r>
@@ -10918,9 +11556,11 @@
     <x v="0"/>
     <s v="NF8398"/>
     <n v="3230"/>
-    <n v="5"/>
-    <n v="2019"/>
+    <x v="10"/>
+    <x v="3"/>
     <x v="9"/>
+    <x v="2"/>
+    <x v="8"/>
     <x v="2"/>
   </r>
   <r>
@@ -10931,9 +11571,11 @@
     <x v="1"/>
     <s v="NF1274"/>
     <n v="4030"/>
-    <n v="5"/>
-    <n v="2019"/>
+    <x v="10"/>
+    <x v="3"/>
     <x v="9"/>
+    <x v="2"/>
+    <x v="8"/>
     <x v="2"/>
   </r>
   <r>
@@ -10944,9 +11586,11 @@
     <x v="0"/>
     <s v="NF1599"/>
     <n v="1367"/>
-    <n v="5"/>
-    <n v="2019"/>
+    <x v="10"/>
+    <x v="3"/>
     <x v="9"/>
+    <x v="2"/>
+    <x v="8"/>
     <x v="2"/>
   </r>
   <r>
@@ -10957,8 +11601,10 @@
     <x v="1"/>
     <s v="NF6880"/>
     <n v="3945"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="9"/>
     <x v="2"/>
   </r>
@@ -10970,9 +11616,11 @@
     <x v="4"/>
     <s v="NF3246"/>
     <n v="4518"/>
-    <n v="5"/>
-    <n v="2019"/>
+    <x v="10"/>
+    <x v="3"/>
     <x v="9"/>
+    <x v="2"/>
+    <x v="8"/>
     <x v="2"/>
   </r>
   <r>
@@ -10983,8 +11631,10 @@
     <x v="1"/>
     <s v="NF4547"/>
     <n v="3086"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="9"/>
     <x v="2"/>
   </r>
@@ -10996,9 +11646,11 @@
     <x v="2"/>
     <s v="NF5900"/>
     <n v="297"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
     <x v="10"/>
+    <x v="2"/>
+    <x v="9"/>
     <x v="2"/>
   </r>
   <r>
@@ -11009,9 +11661,11 @@
     <x v="0"/>
     <s v="NF2566"/>
     <n v="3226"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
     <x v="10"/>
+    <x v="2"/>
+    <x v="9"/>
     <x v="2"/>
   </r>
   <r>
@@ -11022,9 +11676,11 @@
     <x v="1"/>
     <s v="NF1823"/>
     <n v="2338"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
     <x v="10"/>
+    <x v="2"/>
+    <x v="9"/>
     <x v="2"/>
   </r>
   <r>
@@ -11035,8 +11691,10 @@
     <x v="0"/>
     <s v="NF9109"/>
     <n v="3773"/>
-    <n v="7"/>
-    <n v="2019"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="2"/>
     <x v="10"/>
     <x v="2"/>
   </r>
@@ -11048,9 +11706,11 @@
     <x v="0"/>
     <s v="NF4812"/>
     <n v="2759"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="10"/>
+    <x v="2"/>
+    <x v="11"/>
     <x v="2"/>
   </r>
   <r>
@@ -11061,9 +11721,11 @@
     <x v="0"/>
     <s v="NF9082"/>
     <n v="1425"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
     <x v="10"/>
+    <x v="2"/>
+    <x v="9"/>
     <x v="2"/>
   </r>
   <r>
@@ -11074,9 +11736,11 @@
     <x v="0"/>
     <s v="NF3611"/>
     <n v="332"/>
-    <n v="6"/>
-    <n v="2019"/>
+    <x v="9"/>
+    <x v="3"/>
     <x v="10"/>
+    <x v="2"/>
+    <x v="9"/>
     <x v="2"/>
   </r>
   <r>
@@ -11087,8 +11751,10 @@
     <x v="1"/>
     <s v="NF4931"/>
     <n v="2819"/>
-    <n v="7"/>
-    <n v="2019"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="2"/>
     <x v="10"/>
     <x v="2"/>
   </r>
@@ -11096,7 +11762,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaReceita" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaReceita" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:O14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -11235,9 +11901,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaDespesa" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaDespesa" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:O14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
+  <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -11286,6 +11952,8 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="3"/>
@@ -11360,6 +12028,154 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdContasPagar" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B6:J14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="14">
+        <item x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="10"/>
+        <item h="1" x="9"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="7"/>
+    <field x="11"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="12" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="4"/>
@@ -11459,6 +12275,49 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Mês_Previsto" sourceName="Mês Previsto">
+  <pivotTables>
+    <pivotTable tabId="13" name="TdContasPagar"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="12">
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache6.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Ano_Previsto" sourceName="Ano Previsto">
+  <pivotTables>
+    <pivotTable tabId="13" name="TdContasPagar"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="3">
+        <i x="0"/>
+        <i x="1" s="1"/>
+        <i x="2"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Mês Competência" cache="SegmentaçãodeDados_Mês_Competência" caption="Mês Competência" columnCount="6" rowHeight="241300"/>
@@ -11473,8 +12332,15 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Mês Previsto" cache="SegmentaçãodeDados_Mês_Previsto" caption="Mês Previsto" columnCount="6" rowHeight="241300"/>
+  <slicer name="Ano Previsto" cache="SegmentaçãodeDados_Ano_Previsto" caption="Ano Previsto" columnCount="2" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -11484,7 +12350,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25">
   <autoFilter ref="B4:C13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -11495,7 +12361,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -11505,7 +12371,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="B4:C16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -11516,26 +12382,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:L234" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:L234" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B3:L234"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="18"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="17"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="16"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="20"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="19"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="18"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="15"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="14">
+    <tableColumn id="7" name="Valor" dataDxfId="17"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="16">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="13">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="15">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês Competência" dataDxfId="12">
+    <tableColumn id="10" name="Mês Competência" dataDxfId="14">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano Competência" dataDxfId="11">
+    <tableColumn id="11" name="Ano Competência" dataDxfId="13">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11544,27 +12410,42 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:L232" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B3:L232"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="7"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="6"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:N232" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B3:N232">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <dateGroupItem year="2018" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="9"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="8"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="7"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="4"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="3">
+    <tableColumn id="7" name="Valor" dataDxfId="6"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="5">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="2">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="4">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês Competência" dataDxfId="1">
+    <tableColumn id="10" name="Mês Competência" dataDxfId="3">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano Competência" dataDxfId="0">
+    <tableColumn id="11" name="Ano Competência" dataDxfId="2">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Mês Previsto" dataDxfId="1">
+      <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="0">
+      <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12058,43 +12939,43 @@
       <c r="B8" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="51">
         <v>20582</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="51">
         <v>24761</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="51">
         <v>37458</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="51">
         <v>30226</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="51">
         <v>19009</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="51">
         <v>28711</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="51">
         <v>33298</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="51">
         <v>22302</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="51">
         <v>26024</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="51">
         <v>29400</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="51">
         <v>30897</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="51">
         <v>17906</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="51">
         <v>320574</v>
       </c>
     </row>
@@ -12102,35 +12983,35 @@
       <c r="B9" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="51">
         <v>1864</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51">
         <v>4800</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51">
         <v>6340</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="51">
         <v>6836</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="51">
         <v>2713</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="51">
         <v>3080</v>
       </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50">
+      <c r="K9" s="51"/>
+      <c r="L9" s="51">
         <v>4922</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="51">
         <v>919</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50">
+      <c r="N9" s="51"/>
+      <c r="O9" s="51">
         <v>31474</v>
       </c>
     </row>
@@ -12138,41 +13019,41 @@
       <c r="B10" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="51">
         <v>3843</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="51">
         <v>10345</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="51">
         <v>5629</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="51">
         <v>4467</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50">
+      <c r="G10" s="51"/>
+      <c r="H10" s="51">
         <v>2114</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="51">
         <v>8337</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="51">
         <v>4072</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="51">
         <v>5761</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="51">
         <v>7117</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="51">
         <v>3068</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="51">
         <v>2088</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="51">
         <v>56841</v>
       </c>
     </row>
@@ -12180,35 +13061,35 @@
       <c r="B11" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51">
         <v>5718</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="51">
         <v>4918</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="51">
         <v>3446</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="51">
         <v>611</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="51">
         <v>3224</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="51">
         <v>1306</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50">
+      <c r="J11" s="51"/>
+      <c r="K11" s="51">
         <v>6637</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50">
+      <c r="L11" s="51"/>
+      <c r="M11" s="51">
         <v>1820</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50">
+      <c r="N11" s="51"/>
+      <c r="O11" s="51">
         <v>27680</v>
       </c>
     </row>
@@ -12216,43 +13097,43 @@
       <c r="B12" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="51">
         <v>10164</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="51">
         <v>7734</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="51">
         <v>9984</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="51">
         <v>22313</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="51">
         <v>4850</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="51">
         <v>12262</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="51">
         <v>12594</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="51">
         <v>6006</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="51">
         <v>11235</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="51">
         <v>10633</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="51">
         <v>20451</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="51">
         <v>9738</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="51">
         <v>137964</v>
       </c>
     </row>
@@ -12260,41 +13141,41 @@
       <c r="B13" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="51">
         <v>4711</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="51">
         <v>964</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="51">
         <v>12127</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50">
+      <c r="F13" s="51"/>
+      <c r="G13" s="51">
         <v>7208</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="51">
         <v>4275</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="51">
         <v>8348</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="51">
         <v>9144</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="51">
         <v>2391</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="51">
         <v>6728</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="51">
         <v>4639</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="51">
         <v>6080</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="51">
         <v>66615</v>
       </c>
     </row>
@@ -12302,43 +13183,43 @@
       <c r="B14" s="48" t="s">
         <v>543</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="51">
         <v>20582</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="51">
         <v>24761</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="51">
         <v>37458</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="51">
         <v>30226</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="51">
         <v>19009</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="51">
         <v>28711</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="51">
         <v>33298</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="51">
         <v>22302</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="51">
         <v>26024</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="51">
         <v>29400</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="51">
         <v>30897</v>
       </c>
-      <c r="N14" s="50">
+      <c r="N14" s="51">
         <v>17906</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="51">
         <v>320574</v>
       </c>
     </row>
@@ -12363,7 +13244,7 @@
   <sheetPr codeName="Plan11"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -12477,43 +13358,43 @@
       <c r="B8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="51">
         <v>41773</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="51">
         <v>25578</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="51">
         <v>24127</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="51">
         <v>14679</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="51">
         <v>24782</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="51">
         <v>24927</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="51">
         <v>34065</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="51">
         <v>21727</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="51">
         <v>19948</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="51">
         <v>28693</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="51">
         <v>22624</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="51">
         <v>19227</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="51">
         <v>302150</v>
       </c>
     </row>
@@ -12521,41 +13402,41 @@
       <c r="B9" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="51">
         <v>3057</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="51">
         <v>3255</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="51">
         <v>5837</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="51">
         <v>2760</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="51">
         <v>1882</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="51">
         <v>1613</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51">
         <v>9987</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="51">
         <v>5001</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="51">
         <v>10149</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="51">
         <v>1542</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="51">
         <v>3956</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="51">
         <v>49039</v>
       </c>
     </row>
@@ -12563,41 +13444,41 @@
       <c r="B10" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="51">
         <v>6054</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="51">
         <v>8702</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="51">
         <v>474</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="51">
         <v>2463</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="51">
         <v>6406</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="51">
         <v>10243</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="51">
         <v>14461</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="51">
         <v>4084</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="51">
         <v>521</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="51">
         <v>819</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="51">
         <v>7204</v>
       </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50">
+      <c r="N10" s="51"/>
+      <c r="O10" s="51">
         <v>61431</v>
       </c>
     </row>
@@ -12605,35 +13486,35 @@
       <c r="B11" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="51">
         <v>2247</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="51">
         <v>3503</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="51">
         <v>3893</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="51">
         <v>4867</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50">
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51">
         <v>1108</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="51">
         <v>4462</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="51">
         <v>159</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="51">
         <v>9436</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50">
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51">
         <v>29675</v>
       </c>
     </row>
@@ -12641,35 +13522,35 @@
       <c r="B12" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="51">
         <v>12821</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51">
         <v>4543</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="51">
         <v>3756</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="51">
         <v>7688</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="51">
         <v>2140</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="51">
         <v>4173</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="51">
         <v>1260</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50">
+      <c r="M12" s="51"/>
+      <c r="N12" s="51">
         <v>3894</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="51">
         <v>40275</v>
       </c>
     </row>
@@ -12677,43 +13558,43 @@
       <c r="B13" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="51">
         <v>17594</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="51">
         <v>10118</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="51">
         <v>13923</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="51">
         <v>4589</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="51">
         <v>11951</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="51">
         <v>9315</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="51">
         <v>10808</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="51">
         <v>1054</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="51">
         <v>10094</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="51">
         <v>7029</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="51">
         <v>13878</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="51">
         <v>11377</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="51">
         <v>121730</v>
       </c>
     </row>
@@ -12721,43 +13602,43 @@
       <c r="B14" s="48" t="s">
         <v>543</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="51">
         <v>41773</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="51">
         <v>25578</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="51">
         <v>24127</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="51">
         <v>14679</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="51">
         <v>24782</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="51">
         <v>24927</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="51">
         <v>34065</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="51">
         <v>21727</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="51">
         <v>19948</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="51">
         <v>28693</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="51">
         <v>22624</v>
       </c>
-      <c r="N14" s="50">
+      <c r="N14" s="51">
         <v>19227</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="51">
         <v>302150</v>
       </c>
     </row>
@@ -12782,18 +13663,19 @@
   <sheetPr codeName="Plan12"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="15" width="11.7109375" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -12808,11 +13690,12 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -12826,25 +13709,223 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="48">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="51">
+        <v>6816</v>
+      </c>
+      <c r="D9" s="51">
+        <v>9291</v>
+      </c>
+      <c r="E9" s="51">
+        <v>9778</v>
+      </c>
+      <c r="F9" s="51">
+        <v>6321</v>
+      </c>
+      <c r="G9" s="51">
+        <v>6846</v>
+      </c>
+      <c r="H9" s="51">
+        <v>3092</v>
+      </c>
+      <c r="I9" s="51">
+        <v>4672</v>
+      </c>
+      <c r="J9" s="51">
+        <v>46816</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51">
+        <v>3255</v>
+      </c>
+      <c r="E10" s="51">
+        <v>1996</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="51">
+        <v>3598</v>
+      </c>
+      <c r="D11" s="51">
+        <v>2623</v>
+      </c>
+      <c r="E11" s="51">
+        <v>2975</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51">
+        <v>3411</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51">
+        <v>819</v>
+      </c>
+      <c r="J11" s="51">
+        <v>13426</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="51">
+        <v>2247</v>
+      </c>
+      <c r="D12" s="51">
+        <v>3413</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51">
+        <v>159</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="51">
+        <v>971</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51">
+        <v>4807</v>
+      </c>
+      <c r="F13" s="51">
+        <v>6321</v>
+      </c>
+      <c r="G13" s="51">
+        <v>3435</v>
+      </c>
+      <c r="H13" s="51">
+        <v>2933</v>
+      </c>
+      <c r="I13" s="51">
+        <v>3853</v>
+      </c>
+      <c r="J13" s="51">
+        <v>22320</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C14" s="51">
+        <v>6816</v>
+      </c>
+      <c r="D14" s="51">
+        <v>9291</v>
+      </c>
+      <c r="E14" s="51">
+        <v>9778</v>
+      </c>
+      <c r="F14" s="51">
+        <v>6321</v>
+      </c>
+      <c r="G14" s="51">
+        <v>6846</v>
+      </c>
+      <c r="H14" s="51">
+        <v>3092</v>
+      </c>
+      <c r="I14" s="51">
+        <v>4672</v>
+      </c>
+      <c r="J14" s="51">
+        <v>46816</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -22967,18 +24048,18 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan8"/>
-  <dimension ref="B1:L232"/>
+  <dimension ref="B1:N232"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47:H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="42.28515625" customWidth="1"/>
@@ -22987,10 +24068,12 @@
     <col min="9" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -23003,7 +24086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -23012,7 +24095,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>53</v>
       </c>
@@ -23046,8 +24129,14 @@
       <c r="L3" s="22" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>43015</v>
       </c>
@@ -23085,8 +24174,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N4" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>42995</v>
       </c>
@@ -23124,8 +24221,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N5" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>42983</v>
       </c>
@@ -23163,8 +24268,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N6" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>43004</v>
       </c>
@@ -23202,8 +24315,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N7" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>43002</v>
       </c>
@@ -23241,8 +24362,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N8" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>42980</v>
       </c>
@@ -23280,8 +24409,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N9" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>43014</v>
       </c>
@@ -23319,8 +24456,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N10" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>42990</v>
       </c>
@@ -23358,8 +24503,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N11" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>42987</v>
       </c>
@@ -23397,8 +24550,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N12" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>70</v>
       </c>
@@ -23436,8 +24597,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N13" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>70</v>
       </c>
@@ -23475,8 +24644,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N14" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>42991</v>
       </c>
@@ -23514,8 +24691,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N15" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>42992</v>
       </c>
@@ -23553,8 +24738,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N16" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>43004</v>
       </c>
@@ -23592,8 +24785,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N17" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>43043</v>
       </c>
@@ -23631,8 +24832,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N18" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>70</v>
       </c>
@@ -23670,8 +24879,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N19" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>43010</v>
       </c>
@@ -23709,8 +24926,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N20" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>43042</v>
       </c>
@@ -23748,8 +24973,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N21" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>43009</v>
       </c>
@@ -23787,8 +25020,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N22" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>43030</v>
       </c>
@@ -23826,8 +25067,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N23" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>43031</v>
       </c>
@@ -23865,8 +25114,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N24" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>43046</v>
       </c>
@@ -23904,8 +25161,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N25" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>43022</v>
       </c>
@@ -23943,8 +25208,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N26" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>43031</v>
       </c>
@@ -23982,8 +25255,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N27" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>43026</v>
       </c>
@@ -24021,8 +25302,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N28" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43065</v>
       </c>
@@ -24060,8 +25349,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N29" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>43071</v>
       </c>
@@ -24099,8 +25396,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N30" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>43089</v>
       </c>
@@ -24138,8 +25443,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N31" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>43044</v>
       </c>
@@ -24177,8 +25490,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N32" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>43047</v>
       </c>
@@ -24216,8 +25537,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N33" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>43087</v>
       </c>
@@ -24255,8 +25584,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N34" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>43095</v>
       </c>
@@ -24294,8 +25631,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N35" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>43056</v>
       </c>
@@ -24333,8 +25678,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N36" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>43112</v>
       </c>
@@ -24372,8 +25725,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>43101</v>
       </c>
@@ -24411,8 +25772,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N38" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>43061</v>
       </c>
@@ -24450,8 +25819,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N39" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>43103</v>
       </c>
@@ -24489,8 +25866,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N40" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>43070</v>
       </c>
@@ -24528,8 +25913,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N41" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>43096</v>
       </c>
@@ -24567,8 +25960,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N42" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>43125</v>
       </c>
@@ -24606,8 +26007,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>43075</v>
       </c>
@@ -24645,8 +26054,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N44" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>43077</v>
       </c>
@@ -24684,8 +26101,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N45" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>43099</v>
       </c>
@@ -24723,8 +26148,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N46" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>70</v>
       </c>
@@ -24762,8 +26195,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N47" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>43098</v>
       </c>
@@ -24801,8 +26242,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N48" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>43111</v>
       </c>
@@ -24840,8 +26289,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N49" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>43151</v>
       </c>
@@ -24879,8 +26336,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N50" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>43094</v>
       </c>
@@ -24918,8 +26383,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N51" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>43124</v>
       </c>
@@ -24957,8 +26430,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N52" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>43098</v>
       </c>
@@ -24996,8 +26477,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N53" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>70</v>
       </c>
@@ -25035,8 +26524,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N54" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="13">
         <v>43108</v>
       </c>
@@ -25074,8 +26571,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>43117</v>
       </c>
@@ -25113,8 +26618,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>70</v>
       </c>
@@ -25152,8 +26665,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N57" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>43110</v>
       </c>
@@ -25191,8 +26712,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N58" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>70</v>
       </c>
@@ -25230,8 +26759,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>43137</v>
       </c>
@@ -25269,8 +26806,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N60" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <v>43144</v>
       </c>
@@ -25308,8 +26853,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N61" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>43116</v>
       </c>
@@ -25347,8 +26900,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N62" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <v>43133</v>
       </c>
@@ -25386,8 +26947,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N63" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>43141</v>
       </c>
@@ -25425,8 +26994,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N64" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>43140</v>
       </c>
@@ -25464,8 +27041,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N65" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>70</v>
       </c>
@@ -25503,8 +27088,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N66" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <v>43178</v>
       </c>
@@ -25542,8 +27135,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N67" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>43215</v>
       </c>
@@ -25581,8 +27182,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N68" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <v>43131</v>
       </c>
@@ -25620,8 +27229,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
         <v>70</v>
       </c>
@@ -25659,8 +27276,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N70" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <v>43136</v>
       </c>
@@ -25698,8 +27323,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N71" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <v>43137</v>
       </c>
@@ -25737,8 +27370,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N72" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <v>43177</v>
       </c>
@@ -25776,8 +27417,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N73" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <v>43175</v>
       </c>
@@ -25815,8 +27464,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N74" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="13">
         <v>43150</v>
       </c>
@@ -25854,8 +27511,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N75" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>43219</v>
       </c>
@@ -25893,8 +27558,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N76" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <v>43198</v>
       </c>
@@ -25932,8 +27605,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N77" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>43160</v>
       </c>
@@ -25971,8 +27652,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N78" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>43163</v>
       </c>
@@ -26010,8 +27699,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N79" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>43219</v>
       </c>
@@ -26049,8 +27746,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N80" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <v>43188</v>
       </c>
@@ -26088,8 +27793,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N81" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>43168</v>
       </c>
@@ -26127,8 +27840,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N82" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <v>43173</v>
       </c>
@@ -26166,8 +27887,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N83" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>43201</v>
       </c>
@@ -26205,8 +27934,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N84" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <v>43272</v>
       </c>
@@ -26244,8 +27981,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N85" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <v>43187</v>
       </c>
@@ -26283,8 +28028,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N86" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <v>43184</v>
       </c>
@@ -26322,8 +28075,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N87" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <v>43234</v>
       </c>
@@ -26361,8 +28122,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N88" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <v>43202</v>
       </c>
@@ -26400,8 +28169,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N89" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="13">
         <v>43195</v>
       </c>
@@ -26439,8 +28216,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N90" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="13">
         <v>43196</v>
       </c>
@@ -26478,8 +28263,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N91" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="13">
         <v>43240</v>
       </c>
@@ -26517,8 +28310,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N92" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="13">
         <v>43206</v>
       </c>
@@ -26556,8 +28357,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N93" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="13" t="s">
         <v>70</v>
       </c>
@@ -26595,8 +28404,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N94" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="13">
         <v>43218</v>
       </c>
@@ -26634,8 +28451,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N95" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="13">
         <v>43223</v>
       </c>
@@ -26673,8 +28498,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N96" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="13" t="s">
         <v>70</v>
       </c>
@@ -26712,8 +28545,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N97" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="13" t="s">
         <v>70</v>
       </c>
@@ -26751,8 +28592,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N98" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="13">
         <v>43264</v>
       </c>
@@ -26790,8 +28639,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N99" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="13">
         <v>43278</v>
       </c>
@@ -26829,8 +28686,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N100" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="13">
         <v>43238</v>
       </c>
@@ -26868,8 +28733,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N101" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
         <v>70</v>
       </c>
@@ -26907,8 +28780,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N102" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="13">
         <v>43282</v>
       </c>
@@ -26946,8 +28827,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N103" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13">
         <v>43306</v>
       </c>
@@ -26985,8 +28874,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N104" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="13">
         <v>43292</v>
       </c>
@@ -27024,8 +28921,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N105" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="13" t="s">
         <v>70</v>
       </c>
@@ -27063,8 +28968,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N106" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="13">
         <v>43259</v>
       </c>
@@ -27102,8 +29015,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N107" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="13">
         <v>43256</v>
       </c>
@@ -27141,8 +29062,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N108" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="13">
         <v>43306</v>
       </c>
@@ -27180,8 +29109,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N109" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="13">
         <v>43262</v>
       </c>
@@ -27219,8 +29156,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N110" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="13">
         <v>43309</v>
       </c>
@@ -27258,8 +29203,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N111" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="13">
         <v>43271</v>
       </c>
@@ -27297,8 +29250,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N112" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
         <v>70</v>
       </c>
@@ -27336,8 +29297,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N113" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="13">
         <v>43336</v>
       </c>
@@ -27375,8 +29344,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>8</v>
+      </c>
+      <c r="N114" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="13">
         <v>43290</v>
       </c>
@@ -27414,8 +29391,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N115" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="13" t="s">
         <v>70</v>
       </c>
@@ -27453,8 +29438,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N116" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="13">
         <v>43305</v>
       </c>
@@ -27492,8 +29485,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N117" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="13">
         <v>43313</v>
       </c>
@@ -27531,8 +29532,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>8</v>
+      </c>
+      <c r="N118" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="13">
         <v>43296</v>
       </c>
@@ -27570,8 +29579,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N119" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="13">
         <v>43350</v>
       </c>
@@ -27609,8 +29626,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N120" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
         <v>70</v>
       </c>
@@ -27648,8 +29673,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N121" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="13">
         <v>43357</v>
       </c>
@@ -27687,8 +29720,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N122" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="13">
         <v>43324</v>
       </c>
@@ -27726,8 +29767,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>8</v>
+      </c>
+      <c r="N123" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="13">
         <v>43309</v>
       </c>
@@ -27765,8 +29814,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N124" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="13">
         <v>43311</v>
       </c>
@@ -27804,8 +29861,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N125" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="13">
         <v>43314</v>
       </c>
@@ -27843,8 +29908,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>8</v>
+      </c>
+      <c r="N126" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="13">
         <v>43375</v>
       </c>
@@ -27882,8 +29955,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N127" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="13">
         <v>43368</v>
       </c>
@@ -27921,8 +30002,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N128" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="13">
         <v>43366</v>
       </c>
@@ -27960,8 +30049,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M129" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N129" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="13">
         <v>43356</v>
       </c>
@@ -27999,8 +30096,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N130" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="13">
         <v>43359</v>
       </c>
@@ -28038,8 +30143,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N131" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="13">
         <v>43352</v>
       </c>
@@ -28077,8 +30190,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N132" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="13">
         <v>43340</v>
       </c>
@@ -28116,8 +30237,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>8</v>
+      </c>
+      <c r="N133" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="13">
         <v>43370</v>
       </c>
@@ -28155,8 +30284,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N134" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="13">
         <v>43402</v>
       </c>
@@ -28194,8 +30331,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N135" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="13">
         <v>43381</v>
       </c>
@@ -28233,8 +30378,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N136" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="13" t="s">
         <v>70</v>
       </c>
@@ -28272,8 +30425,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N137" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="13" t="s">
         <v>70</v>
       </c>
@@ -28311,8 +30472,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>9</v>
+      </c>
+      <c r="N138" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="13">
         <v>43405</v>
       </c>
@@ -28350,8 +30519,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N139" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="13">
         <v>43377</v>
       </c>
@@ -28389,8 +30566,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N140" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="13">
         <v>43375</v>
       </c>
@@ -28428,8 +30613,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M141" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N141" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="13">
         <v>43422</v>
       </c>
@@ -28467,8 +30660,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M142" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N142" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="13" t="s">
         <v>70</v>
       </c>
@@ -28506,8 +30707,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M143" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N143" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="13">
         <v>43377</v>
       </c>
@@ -28545,8 +30754,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M144" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N144" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="13">
         <v>43389</v>
       </c>
@@ -28584,8 +30801,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M145" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N145" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="13">
         <v>43468</v>
       </c>
@@ -28623,8 +30848,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M146" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N146" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="13">
         <v>43448</v>
       </c>
@@ -28662,8 +30895,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M147" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N147" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="13">
         <v>43449</v>
       </c>
@@ -28701,8 +30942,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N148" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="13">
         <v>43394</v>
       </c>
@@ -28740,8 +30989,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M149" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N149" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="13">
         <v>43449</v>
       </c>
@@ -28779,8 +31036,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M150" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N150" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="13">
         <v>43424</v>
       </c>
@@ -28818,8 +31083,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M151" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N151" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="13">
         <v>43403</v>
       </c>
@@ -28857,8 +31130,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M152" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>10</v>
+      </c>
+      <c r="N152" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="13">
         <v>43461</v>
       </c>
@@ -28896,8 +31177,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M153" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N153" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="13">
         <v>43466</v>
       </c>
@@ -28935,8 +31224,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M154" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N154" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="13">
         <v>43446</v>
       </c>
@@ -28974,8 +31271,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M155" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N155" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="13">
         <v>43485</v>
       </c>
@@ -29013,8 +31318,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M156" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N156" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="13" t="s">
         <v>70</v>
       </c>
@@ -29052,8 +31365,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M157" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N157" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="13">
         <v>43451</v>
       </c>
@@ -29091,8 +31412,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M158" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N158" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="13">
         <v>43431</v>
       </c>
@@ -29130,8 +31459,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M159" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N159" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="13">
         <v>43424</v>
       </c>
@@ -29169,8 +31506,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M160" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N160" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="13">
         <v>43430</v>
       </c>
@@ -29208,8 +31553,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M161" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N161" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="13">
         <v>43433</v>
       </c>
@@ -29247,8 +31600,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M162" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>11</v>
+      </c>
+      <c r="N162" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="13">
         <v>43485</v>
       </c>
@@ -29286,8 +31647,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M163" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N163" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="13">
         <v>43494</v>
       </c>
@@ -29325,8 +31694,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M164" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N164" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="13">
         <v>43465</v>
       </c>
@@ -29364,8 +31741,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M165" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N165" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="13">
         <v>43444</v>
       </c>
@@ -29403,8 +31788,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M166" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N166" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="13" t="s">
         <v>70</v>
       </c>
@@ -29442,8 +31835,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M167" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N167" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="13">
         <v>43449</v>
       </c>
@@ -29481,8 +31882,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M168" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>12</v>
+      </c>
+      <c r="N168" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="13">
         <v>43487</v>
       </c>
@@ -29520,8 +31929,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M169" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N169" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="13">
         <v>43514</v>
       </c>
@@ -29559,8 +31976,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M170" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N170" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="13">
         <v>43491</v>
       </c>
@@ -29598,8 +32023,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M171" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N171" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="13">
         <v>43515</v>
       </c>
@@ -29637,8 +32070,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M172" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N172" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13">
         <v>43467</v>
       </c>
@@ -29676,8 +32117,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M173" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N173" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13">
         <v>43485</v>
       </c>
@@ -29715,8 +32164,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M174" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N174" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="13">
         <v>43501</v>
       </c>
@@ -29754,8 +32211,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M175" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N175" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="13">
         <v>43569</v>
       </c>
@@ -29793,8 +32258,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M176" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N176" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="13">
         <v>43482</v>
       </c>
@@ -29832,8 +32305,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M177" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N177" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="13">
         <v>43499</v>
       </c>
@@ -29871,8 +32352,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M178" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N178" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="13">
         <v>43487</v>
       </c>
@@ -29910,8 +32399,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M179" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N179" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="13">
         <v>43492</v>
       </c>
@@ -29949,8 +32446,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M180" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N180" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="13" t="s">
         <v>70</v>
       </c>
@@ -29988,8 +32493,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M181" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N181" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="13">
         <v>43520</v>
       </c>
@@ -30027,8 +32540,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M182" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N182" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="13">
         <v>43499</v>
       </c>
@@ -30066,8 +32587,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M183" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N183" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="13" t="s">
         <v>70</v>
       </c>
@@ -30105,8 +32634,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M184" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N184" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="13">
         <v>43505</v>
       </c>
@@ -30144,8 +32681,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M185" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N185" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="13">
         <v>43508</v>
       </c>
@@ -30183,8 +32728,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M186" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N186" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="13">
         <v>43555</v>
       </c>
@@ -30222,8 +32775,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M187" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N187" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="13">
         <v>43517</v>
       </c>
@@ -30261,8 +32822,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M188" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N188" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="13" t="s">
         <v>70</v>
       </c>
@@ -30300,8 +32869,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M189" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2</v>
+      </c>
+      <c r="N189" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="13">
         <v>43531</v>
       </c>
@@ -30339,8 +32916,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M190" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N190" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="13">
         <v>43569</v>
       </c>
@@ -30378,8 +32963,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M191" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N191" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="13">
         <v>43567</v>
       </c>
@@ -30417,8 +33010,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M192" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N192" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="13">
         <v>43532</v>
       </c>
@@ -30456,8 +33057,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M193" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N193" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="13" t="s">
         <v>70</v>
       </c>
@@ -30495,8 +33104,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M194" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N194" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="13">
         <v>43570</v>
       </c>
@@ -30534,8 +33151,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M195" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N195" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="13">
         <v>43536</v>
       </c>
@@ -30573,8 +33198,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M196" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N196" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="13">
         <v>43576</v>
       </c>
@@ -30612,8 +33245,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M197" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N197" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="13">
         <v>43543</v>
       </c>
@@ -30651,8 +33292,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M198" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N198" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="13">
         <v>43543</v>
       </c>
@@ -30690,8 +33339,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M199" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N199" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="13">
         <v>43586</v>
       </c>
@@ -30729,8 +33386,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M200" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N200" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="13">
         <v>43551</v>
       </c>
@@ -30768,8 +33433,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M201" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>3</v>
+      </c>
+      <c r="N201" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="13">
         <v>43557</v>
       </c>
@@ -30807,8 +33480,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M202" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N202" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="13">
         <v>43560</v>
       </c>
@@ -30846,8 +33527,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M203" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N203" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="13" t="s">
         <v>70</v>
       </c>
@@ -30885,8 +33574,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M204" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N204" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="13">
         <v>43647</v>
       </c>
@@ -30924,8 +33621,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M205" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N205" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="13">
         <v>43578</v>
       </c>
@@ -30963,8 +33668,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M206" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N206" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="13">
         <v>43584</v>
       </c>
@@ -31002,8 +33715,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M207" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N207" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="13">
         <v>43572</v>
       </c>
@@ -31041,8 +33762,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M208" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>4</v>
+      </c>
+      <c r="N208" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="13" t="s">
         <v>70</v>
       </c>
@@ -31080,8 +33809,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M209" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N209" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="13">
         <v>43586</v>
       </c>
@@ -31119,8 +33856,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M210" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N210" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="13">
         <v>43661</v>
       </c>
@@ -31158,8 +33903,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M211" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N211" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="13">
         <v>43622</v>
       </c>
@@ -31197,8 +33950,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M212" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N212" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="13">
         <v>43624</v>
       </c>
@@ -31236,8 +33997,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M213" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N213" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="13">
         <v>43595</v>
       </c>
@@ -31275,8 +34044,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M214" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N214" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="13">
         <v>43613</v>
       </c>
@@ -31314,8 +34091,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M215" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N215" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="13">
         <v>43623</v>
       </c>
@@ -31353,8 +34138,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M216" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N216" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="13">
         <v>43645</v>
       </c>
@@ -31392,8 +34185,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M217" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N217" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="13">
         <v>43614</v>
       </c>
@@ -31431,8 +34232,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M218" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N218" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="13">
         <v>43598</v>
       </c>
@@ -31470,8 +34279,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M219" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N219" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="13">
         <v>43601</v>
       </c>
@@ -31509,8 +34326,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M220" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N220" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="13">
         <v>43604</v>
       </c>
@@ -31548,8 +34373,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M221" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N221" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="13">
         <v>43626</v>
       </c>
@@ -31587,8 +34420,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M222" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N222" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="13">
         <v>43610</v>
       </c>
@@ -31626,8 +34467,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M223" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>5</v>
+      </c>
+      <c r="N223" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="13" t="s">
         <v>70</v>
       </c>
@@ -31665,8 +34514,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M224" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N224" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="13">
         <v>43628</v>
       </c>
@@ -31704,8 +34561,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M225" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N225" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="13">
         <v>43639</v>
       </c>
@@ -31743,8 +34608,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M226" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N226" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="13">
         <v>43625</v>
       </c>
@@ -31782,8 +34655,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M227" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N227" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="13">
         <v>43664</v>
       </c>
@@ -31821,8 +34702,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M228" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N228" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="13" t="s">
         <v>70</v>
       </c>
@@ -31860,8 +34749,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M229" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>8</v>
+      </c>
+      <c r="N229" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="13">
         <v>43637</v>
       </c>
@@ -31899,8 +34796,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M230" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N230" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="13">
         <v>43639</v>
       </c>
@@ -31938,8 +34843,16 @@
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M231" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>6</v>
+      </c>
+      <c r="N231" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="13">
         <v>43653</v>
       </c>
@@ -31975,6 +34888,14 @@
       </c>
       <c r="L232">
         <f>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</f>
+        <v>2019</v>
+      </c>
+      <c r="M232" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
+        <v>7</v>
+      </c>
+      <c r="N232" s="50">
+        <f>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
     </row>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -22,25 +22,25 @@
     <sheet name="ContasReceber" sheetId="14" r:id="rId13"/>
     <sheet name="ContasReceberVencidas" sheetId="15" r:id="rId14"/>
     <sheet name="DashBoardFinanceiroAtual" sheetId="16" r:id="rId15"/>
-    <sheet name="DashBoardFinanceiroAnual" sheetId="18" r:id="rId16"/>
-    <sheet name="DashBoardFinanceiroAnualD" sheetId="19" r:id="rId17"/>
-    <sheet name="DashBoardFinanceiroAtualD" sheetId="20" r:id="rId18"/>
+    <sheet name="DashBoardFinanceiroAtualD" sheetId="20" r:id="rId16"/>
+    <sheet name="DashBoardFinanceiroAnual" sheetId="18" r:id="rId17"/>
+    <sheet name="DashBoardFinanceiroAnualD" sheetId="19" r:id="rId18"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
-    <definedName name="PCEntradasN1_Nível_1" localSheetId="15">TbPCEntradasN1[Nível 1]</definedName>
+    <definedName name="PCEntradasN1_Nível_1" localSheetId="16">TbPCEntradasN1[Nível 1]</definedName>
     <definedName name="PCEntradasN1_Nível_1">TbPCEntradasN1[Nível 1]</definedName>
-    <definedName name="PCEntradasN2_Nível_1" localSheetId="15">TbPCEntradasN2[Nível 1]</definedName>
+    <definedName name="PCEntradasN2_Nível_1" localSheetId="16">TbPCEntradasN2[Nível 1]</definedName>
     <definedName name="PCEntradasN2_Nível_1">TbPCEntradasN2[Nível 1]</definedName>
-    <definedName name="PCEntradasN2_Nível_2" localSheetId="15">TbPCEntradasN2[Nível 2]</definedName>
+    <definedName name="PCEntradasN2_Nível_2" localSheetId="16">TbPCEntradasN2[Nível 2]</definedName>
     <definedName name="PCEntradasN2_Nível_2">TbPCEntradasN2[Nível 2]</definedName>
-    <definedName name="PCSaídasN1_Nível_1" localSheetId="15">TbPCSaídasN1[Nível 1]</definedName>
+    <definedName name="PCSaídasN1_Nível_1" localSheetId="16">TbPCSaídasN1[Nível 1]</definedName>
     <definedName name="PCSaídasN1_Nível_1">TbPCSaídasN1[Nível 1]</definedName>
-    <definedName name="PCSaídasN2_Nível_1" localSheetId="15">TbPCSaídasN2[Nível 1]</definedName>
+    <definedName name="PCSaídasN2_Nível_1" localSheetId="16">TbPCSaídasN2[Nível 1]</definedName>
     <definedName name="PCSaídasN2_Nível_1">TbPCSaídasN2[Nível 1]</definedName>
-    <definedName name="PCSaídasN2_Nível_2" localSheetId="15">TbPCSaídasN2[Nível 2]</definedName>
+    <definedName name="PCSaídasN2_Nível_2" localSheetId="16">TbPCSaídasN2[Nível 2]</definedName>
     <definedName name="PCSaídasN2_Nível_2">TbPCSaídasN2[Nível 2]</definedName>
     <definedName name="SegmentaçãodeDados_Ano_Competência">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Ano_Competência1">#N/A</definedName>
@@ -2678,7 +2678,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3079,13 +3079,31 @@
     <xf numFmtId="14" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -14899,7 +14917,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -14909,7 +14927,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
   <autoFilter ref="B4:C13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -14920,7 +14938,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -14930,7 +14948,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="B4:C16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -14941,35 +14959,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:O234" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:O234" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="B3:O234"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="27"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="26"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="25"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="29"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="28"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="27"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="24"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="23">
+    <tableColumn id="7" name="Valor" dataDxfId="26"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="25">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="22">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="24">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês Competência" dataDxfId="21">
+    <tableColumn id="10" name="Mês Competência" dataDxfId="23">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano Competência" dataDxfId="20">
+    <tableColumn id="11" name="Ano Competência" dataDxfId="22">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês Previsto" dataDxfId="6">
+    <tableColumn id="12" name="Mês Previsto" dataDxfId="8">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="5">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="7">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Conta Vencida" dataDxfId="4">
+    <tableColumn id="14" name="Conta Vencida" dataDxfId="6">
       <calculatedColumnFormula>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não Vencida")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14978,41 +14996,32 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:N232" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="B3:N232">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <dateGroupItem year="2018" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:N232" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="B3:N232"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="16"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="15"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="14"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="18"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="17"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="16"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="13"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="12">
+    <tableColumn id="7" name="Valor" dataDxfId="15"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="14">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="11">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="13">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês Competência" dataDxfId="10">
+    <tableColumn id="10" name="Mês Competência" dataDxfId="12">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano Competência" dataDxfId="9">
+    <tableColumn id="11" name="Ano Competência" dataDxfId="11">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês Previsto" dataDxfId="8">
+    <tableColumn id="12" name="Mês Previsto" dataDxfId="10">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="7">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="9">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15310,9 +15319,7 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17382,7 +17389,7 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17397,9 +17404,842 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="112"/>
+      <c r="B1" s="113" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="114" t="s">
+        <v>565</v>
+      </c>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="114" t="s">
+        <v>566</v>
+      </c>
+      <c r="K3" s="115" t="s">
+        <v>567</v>
+      </c>
+      <c r="L3" s="116"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="112"/>
+      <c r="B4" s="115" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="118" t="s">
+        <v>569</v>
+      </c>
+      <c r="G4" s="119" t="s">
+        <v>570</v>
+      </c>
+      <c r="H4" s="118" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="112"/>
+      <c r="J4" s="120" t="str">
+        <f>[1]DashBoardFinanceiroAtual!K4</f>
+        <v>Livros</v>
+      </c>
+      <c r="K4" s="118" t="s">
+        <v>572</v>
+      </c>
+      <c r="L4" s="118" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="112"/>
+      <c r="B5" s="115" t="s">
+        <v>604</v>
+      </c>
+      <c r="C5" s="145"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="121">
+        <v>1</v>
+      </c>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="123" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112">
+        <v>2</v>
+      </c>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="115" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="112"/>
+      <c r="B7" s="114" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112">
+        <v>3</v>
+      </c>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="115" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="112"/>
+      <c r="B8" s="121" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112">
+        <v>4</v>
+      </c>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="115" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="112"/>
+      <c r="B9" s="112" t="s">
+        <v>579</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112">
+        <v>5</v>
+      </c>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="115" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="112" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112">
+        <v>6</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="115" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="112"/>
+      <c r="B11" s="127" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="128"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112">
+        <v>7</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="115" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112">
+        <v>8</v>
+      </c>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="115" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="112"/>
+      <c r="B13" s="129" t="s">
+        <v>586</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112">
+        <v>9</v>
+      </c>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="115" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="112"/>
+      <c r="B14" s="130" t="s">
+        <v>588</v>
+      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112">
+        <v>10</v>
+      </c>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="115" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="112"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112">
+        <v>11</v>
+      </c>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="115" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="127">
+        <v>12</v>
+      </c>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="133" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="112"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="112"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="112"/>
+      <c r="B20" s="114" t="s">
+        <v>592</v>
+      </c>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="112"/>
+      <c r="B21" s="118" t="s">
+        <v>593</v>
+      </c>
+      <c r="C21" s="119" t="s">
+        <v>594</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>595</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>554</v>
+      </c>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="112"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="112"/>
+      <c r="B25" s="114" t="s">
+        <v>596</v>
+      </c>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="114" t="s">
+        <v>597</v>
+      </c>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="112"/>
+      <c r="B26" s="118" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>598</v>
+      </c>
+      <c r="D26" s="119" t="s">
+        <v>562</v>
+      </c>
+      <c r="E26" s="119" t="s">
+        <v>599</v>
+      </c>
+      <c r="F26" s="112"/>
+      <c r="G26" s="118" t="s">
+        <v>593</v>
+      </c>
+      <c r="H26" s="119" t="s">
+        <v>598</v>
+      </c>
+      <c r="I26" s="119" t="s">
+        <v>562</v>
+      </c>
+      <c r="J26" s="119" t="s">
+        <v>599</v>
+      </c>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="112"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="112"/>
+      <c r="B30" s="114" t="s">
+        <v>600</v>
+      </c>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="114" t="s">
+        <v>601</v>
+      </c>
+      <c r="H30" s="138">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="112"/>
+      <c r="B31" s="139" t="s">
+        <v>593</v>
+      </c>
+      <c r="C31" s="123" t="s">
+        <v>579</v>
+      </c>
+      <c r="D31" s="123" t="s">
+        <v>581</v>
+      </c>
+      <c r="E31" s="123" t="s">
+        <v>602</v>
+      </c>
+      <c r="F31" s="112"/>
+      <c r="G31" s="118" t="s">
+        <v>569</v>
+      </c>
+      <c r="H31" s="140" t="str">
+        <f>[1]DashBoardFinanceiroAtual!K14</f>
+        <v>Vestuário</v>
+      </c>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="112"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112">
+        <v>1</v>
+      </c>
+      <c r="H32" s="124"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112">
+        <v>2</v>
+      </c>
+      <c r="H33" s="124"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="112"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112">
+        <v>3</v>
+      </c>
+      <c r="H34" s="124"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112">
+        <v>4</v>
+      </c>
+      <c r="H35" s="124"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="112"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112">
+        <v>5</v>
+      </c>
+      <c r="H36" s="124"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="112"/>
+      <c r="L36" s="112"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="112"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112">
+        <v>6</v>
+      </c>
+      <c r="H37" s="124"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="112"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112">
+        <v>7</v>
+      </c>
+      <c r="H38" s="124"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="112"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="112"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112">
+        <v>8</v>
+      </c>
+      <c r="H39" s="124"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="112"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112">
+        <v>9</v>
+      </c>
+      <c r="H40" s="124"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="112"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112">
+        <v>10</v>
+      </c>
+      <c r="H41" s="124"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="112"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112">
+        <v>11</v>
+      </c>
+      <c r="H42" s="124"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="112"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="127">
+        <v>12</v>
+      </c>
+      <c r="H43" s="124"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="112"/>
+      <c r="L43" s="112"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="112"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="118" t="s">
+        <v>554</v>
+      </c>
+      <c r="H44" s="144"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="112"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="112"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17479,8 +18319,9 @@
       <c r="K4" s="109"/>
     </row>
     <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56">
-        <v>1234</v>
+      <c r="B5" s="147">
+        <f>DashBoardFinanceiroAnualD!$C$11</f>
+        <v>21057</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="57"/>
@@ -17731,7 +18572,12 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17744,12 +18590,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17823,7 +18669,10 @@
       <c r="B4" s="115" t="s">
         <v>568</v>
       </c>
-      <c r="C4" s="117"/>
+      <c r="C4" s="146">
+        <f>DashBoardFinanceiroAnual!$K$2</f>
+        <v>2019</v>
+      </c>
       <c r="D4" s="112"/>
       <c r="E4" s="112"/>
       <c r="F4" s="118" t="s">
@@ -17908,7 +18757,10 @@
       <c r="B8" s="121" t="s">
         <v>577</v>
       </c>
-      <c r="C8" s="125"/>
+      <c r="C8" s="125">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"&lt;"&amp;$C$4,TbRegistroEntradas[Ano Caixa],"&lt;&gt;0")-SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],"&lt;"&amp;$C$4,TbRegistroSaídas[Ano Caixa],"&lt;&gt;0")</f>
+        <v>55108</v>
+      </c>
       <c r="D8" s="112"/>
       <c r="E8" s="112"/>
       <c r="F8" s="112">
@@ -17928,7 +18780,10 @@
       <c r="B9" s="112" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="126"/>
+      <c r="C9" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"="&amp;$C$4)</f>
+        <v>129286</v>
+      </c>
       <c r="D9" s="112"/>
       <c r="E9" s="112"/>
       <c r="F9" s="112">
@@ -17948,7 +18803,10 @@
       <c r="B10" s="112" t="s">
         <v>581</v>
       </c>
-      <c r="C10" s="126"/>
+      <c r="C10" s="126">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],"="&amp;$C$4)</f>
+        <v>163337</v>
+      </c>
       <c r="D10" s="112"/>
       <c r="E10" s="112"/>
       <c r="F10" s="112">
@@ -17968,7 +18826,10 @@
       <c r="B11" s="127" t="s">
         <v>583</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="128">
+        <f>C8+(C9-C10)</f>
+        <v>21057</v>
+      </c>
       <c r="D11" s="112"/>
       <c r="E11" s="112"/>
       <c r="F11" s="112">
@@ -18564,838 +19425,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="112"/>
-      <c r="B1" s="113" t="s">
-        <v>603</v>
-      </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="114" t="s">
-        <v>565</v>
-      </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="114" t="s">
-        <v>566</v>
-      </c>
-      <c r="K3" s="115" t="s">
-        <v>567</v>
-      </c>
-      <c r="L3" s="116"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="115" t="s">
-        <v>568</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="118" t="s">
-        <v>569</v>
-      </c>
-      <c r="G4" s="119" t="s">
-        <v>570</v>
-      </c>
-      <c r="H4" s="118" t="s">
-        <v>571</v>
-      </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="120" t="str">
-        <f>[1]DashBoardFinanceiroAtual!K4</f>
-        <v>Livros</v>
-      </c>
-      <c r="K4" s="118" t="s">
-        <v>572</v>
-      </c>
-      <c r="L4" s="118" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="115" t="s">
-        <v>604</v>
-      </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="121">
-        <v>1</v>
-      </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112">
-        <v>2</v>
-      </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="115" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
-      <c r="B7" s="114" t="s">
-        <v>575</v>
-      </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112">
-        <v>3</v>
-      </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="115" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="121" t="s">
-        <v>577</v>
-      </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112">
-        <v>4</v>
-      </c>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="115" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112">
-        <v>5</v>
-      </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="115" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112" t="s">
-        <v>581</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112">
-        <v>6</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="115" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="127" t="s">
-        <v>583</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112">
-        <v>7</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="115" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112">
-        <v>8</v>
-      </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="115" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="129" t="s">
-        <v>586</v>
-      </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112">
-        <v>9</v>
-      </c>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="115" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="130" t="s">
-        <v>588</v>
-      </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112">
-        <v>10</v>
-      </c>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="115" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112">
-        <v>11</v>
-      </c>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="115" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="127">
-        <v>12</v>
-      </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="133" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="114" t="s">
-        <v>592</v>
-      </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="118" t="s">
-        <v>593</v>
-      </c>
-      <c r="C21" s="119" t="s">
-        <v>594</v>
-      </c>
-      <c r="D21" s="119" t="s">
-        <v>595</v>
-      </c>
-      <c r="E21" s="119" t="s">
-        <v>554</v>
-      </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="114" t="s">
-        <v>596</v>
-      </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="114" t="s">
-        <v>597</v>
-      </c>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="118" t="s">
-        <v>593</v>
-      </c>
-      <c r="C26" s="119" t="s">
-        <v>598</v>
-      </c>
-      <c r="D26" s="119" t="s">
-        <v>562</v>
-      </c>
-      <c r="E26" s="119" t="s">
-        <v>599</v>
-      </c>
-      <c r="F26" s="112"/>
-      <c r="G26" s="118" t="s">
-        <v>593</v>
-      </c>
-      <c r="H26" s="119" t="s">
-        <v>598</v>
-      </c>
-      <c r="I26" s="119" t="s">
-        <v>562</v>
-      </c>
-      <c r="J26" s="119" t="s">
-        <v>599</v>
-      </c>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="114" t="s">
-        <v>600</v>
-      </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="114" t="s">
-        <v>601</v>
-      </c>
-      <c r="H30" s="138">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
-      <c r="B31" s="139" t="s">
-        <v>593</v>
-      </c>
-      <c r="C31" s="123" t="s">
-        <v>579</v>
-      </c>
-      <c r="D31" s="123" t="s">
-        <v>581</v>
-      </c>
-      <c r="E31" s="123" t="s">
-        <v>602</v>
-      </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="118" t="s">
-        <v>569</v>
-      </c>
-      <c r="H31" s="140" t="str">
-        <f>[1]DashBoardFinanceiroAtual!K14</f>
-        <v>Vestuário</v>
-      </c>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112">
-        <v>1</v>
-      </c>
-      <c r="H32" s="124"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112">
-        <v>2</v>
-      </c>
-      <c r="H33" s="124"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112">
-        <v>3</v>
-      </c>
-      <c r="H34" s="124"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="112"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112">
-        <v>4</v>
-      </c>
-      <c r="H35" s="124"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="112"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112">
-        <v>5</v>
-      </c>
-      <c r="H36" s="124"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112">
-        <v>6</v>
-      </c>
-      <c r="H37" s="124"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112">
-        <v>7</v>
-      </c>
-      <c r="H38" s="124"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112">
-        <v>8</v>
-      </c>
-      <c r="H39" s="124"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112">
-        <v>9</v>
-      </c>
-      <c r="H40" s="124"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112">
-        <v>10</v>
-      </c>
-      <c r="H41" s="124"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="112"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112">
-        <v>11</v>
-      </c>
-      <c r="H42" s="124"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="112"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="127">
-        <v>12</v>
-      </c>
-      <c r="H43" s="124"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="112"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="112"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="118" t="s">
-        <v>554</v>
-      </c>
-      <c r="H44" s="144"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="112"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20131,8 +20161,8 @@
   <dimension ref="B1:O234"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="3" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H135" sqref="H135:H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32022,9 +32052,9 @@
   <sheetPr codeName="Plan8"/>
   <dimension ref="B1:N232"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47:H157"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H232" sqref="H3:H232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32108,7 +32138,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>43015</v>
       </c>
@@ -32155,7 +32185,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>42995</v>
       </c>
@@ -32202,7 +32232,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>42983</v>
       </c>
@@ -32249,7 +32279,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>43004</v>
       </c>
@@ -32296,7 +32326,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>43002</v>
       </c>
@@ -32343,7 +32373,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>42980</v>
       </c>
@@ -32390,7 +32420,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>43014</v>
       </c>
@@ -32437,7 +32467,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>42990</v>
       </c>
@@ -32484,7 +32514,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>42987</v>
       </c>
@@ -32531,7 +32561,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>69</v>
       </c>
@@ -32578,7 +32608,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>69</v>
       </c>
@@ -32625,7 +32655,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>42991</v>
       </c>
@@ -32672,7 +32702,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>42992</v>
       </c>
@@ -32719,7 +32749,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>43004</v>
       </c>
@@ -32766,7 +32796,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>43043</v>
       </c>
@@ -32813,7 +32843,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>69</v>
       </c>
@@ -32860,7 +32890,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>43010</v>
       </c>
@@ -32907,7 +32937,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>43042</v>
       </c>
@@ -32954,7 +32984,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>43009</v>
       </c>
@@ -33001,7 +33031,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>43030</v>
       </c>
@@ -33048,7 +33078,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>43031</v>
       </c>
@@ -33095,7 +33125,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>43046</v>
       </c>
@@ -33142,7 +33172,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>43022</v>
       </c>
@@ -33189,7 +33219,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>43031</v>
       </c>
@@ -33236,7 +33266,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>43026</v>
       </c>
@@ -33283,7 +33313,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43065</v>
       </c>
@@ -33330,7 +33360,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>43071</v>
       </c>
@@ -33377,7 +33407,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>43089</v>
       </c>
@@ -33424,7 +33454,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>43044</v>
       </c>
@@ -33471,7 +33501,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>43047</v>
       </c>
@@ -33518,7 +33548,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>43087</v>
       </c>
@@ -33565,7 +33595,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>43095</v>
       </c>
@@ -33612,7 +33642,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>43056</v>
       </c>
@@ -33659,7 +33689,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>43112</v>
       </c>
@@ -33706,7 +33736,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>43101</v>
       </c>
@@ -33753,7 +33783,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>43061</v>
       </c>
@@ -33800,7 +33830,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>43103</v>
       </c>
@@ -33847,7 +33877,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>43070</v>
       </c>
@@ -33894,7 +33924,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>43096</v>
       </c>
@@ -33941,7 +33971,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>43125</v>
       </c>
@@ -33988,7 +34018,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>43075</v>
       </c>
@@ -34035,7 +34065,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>43077</v>
       </c>
@@ -34082,7 +34112,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>43099</v>
       </c>
@@ -34176,7 +34206,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>43098</v>
       </c>
@@ -34223,7 +34253,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>43111</v>
       </c>
@@ -34270,7 +34300,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>43151</v>
       </c>
@@ -34317,7 +34347,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>43094</v>
       </c>
@@ -34364,7 +34394,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>43124</v>
       </c>
@@ -34411,7 +34441,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>43098</v>
       </c>
@@ -34505,7 +34535,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="13">
         <v>43108</v>
       </c>
@@ -34552,7 +34582,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>43117</v>
       </c>
@@ -34646,7 +34676,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>43110</v>
       </c>
@@ -34740,7 +34770,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>43137</v>
       </c>
@@ -34787,7 +34817,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <v>43144</v>
       </c>
@@ -34834,7 +34864,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>43116</v>
       </c>
@@ -34881,7 +34911,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <v>43133</v>
       </c>
@@ -34928,7 +34958,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>43141</v>
       </c>
@@ -34975,7 +35005,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>43140</v>
       </c>
@@ -35069,7 +35099,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <v>43178</v>
       </c>
@@ -35116,7 +35146,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>43215</v>
       </c>
@@ -35163,7 +35193,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <v>43131</v>
       </c>
@@ -35257,7 +35287,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <v>43136</v>
       </c>
@@ -35304,7 +35334,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <v>43137</v>
       </c>
@@ -35351,7 +35381,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <v>43177</v>
       </c>
@@ -35398,7 +35428,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <v>43175</v>
       </c>
@@ -35445,7 +35475,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="13">
         <v>43150</v>
       </c>
@@ -35492,7 +35522,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>43219</v>
       </c>
@@ -35539,7 +35569,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <v>43198</v>
       </c>
@@ -35586,7 +35616,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="78" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>43160</v>
       </c>
@@ -35633,7 +35663,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>43163</v>
       </c>
@@ -35680,7 +35710,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>43219</v>
       </c>
@@ -35727,7 +35757,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <v>43188</v>
       </c>
@@ -35774,7 +35804,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>43168</v>
       </c>
@@ -35821,7 +35851,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <v>43173</v>
       </c>
@@ -35868,7 +35898,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="84" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>43201</v>
       </c>
@@ -35915,7 +35945,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="85" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <v>43272</v>
       </c>
@@ -35962,7 +35992,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="86" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <v>43187</v>
       </c>
@@ -36009,7 +36039,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="87" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <v>43184</v>
       </c>
@@ -36056,7 +36086,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="88" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <v>43234</v>
       </c>
@@ -36103,7 +36133,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="89" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <v>43202</v>
       </c>
@@ -36150,7 +36180,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="90" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="13">
         <v>43195</v>
       </c>
@@ -36197,7 +36227,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="91" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="13">
         <v>43196</v>
       </c>
@@ -36244,7 +36274,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="13">
         <v>43240</v>
       </c>
@@ -36291,7 +36321,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="93" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="13">
         <v>43206</v>
       </c>
@@ -36385,7 +36415,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="95" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="13">
         <v>43218</v>
       </c>
@@ -36432,7 +36462,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="96" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="13">
         <v>43223</v>
       </c>
@@ -36573,7 +36603,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="99" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="13">
         <v>43264</v>
       </c>
@@ -36620,7 +36650,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="100" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="13">
         <v>43278</v>
       </c>
@@ -36667,7 +36697,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="101" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="13">
         <v>43238</v>
       </c>
@@ -36761,7 +36791,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="103" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="13">
         <v>43282</v>
       </c>
@@ -36808,7 +36838,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="104" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="13">
         <v>43306</v>
       </c>
@@ -36855,7 +36885,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="105" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="13">
         <v>43292</v>
       </c>
@@ -36949,7 +36979,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="107" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="13">
         <v>43259</v>
       </c>
@@ -36996,7 +37026,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="108" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="13">
         <v>43256</v>
       </c>
@@ -37043,7 +37073,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="109" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="13">
         <v>43306</v>
       </c>
@@ -37090,7 +37120,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="110" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="13">
         <v>43262</v>
       </c>
@@ -37137,7 +37167,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="111" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="13">
         <v>43309</v>
       </c>
@@ -37184,7 +37214,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="112" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="13">
         <v>43271</v>
       </c>
@@ -37278,7 +37308,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="114" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="13">
         <v>43336</v>
       </c>
@@ -37325,7 +37355,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="115" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="13">
         <v>43290</v>
       </c>
@@ -37419,7 +37449,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="117" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="13">
         <v>43305</v>
       </c>
@@ -37466,7 +37496,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="118" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="13">
         <v>43313</v>
       </c>
@@ -37513,7 +37543,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="119" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="13">
         <v>43296</v>
       </c>
@@ -37560,7 +37590,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="120" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="13">
         <v>43350</v>
       </c>
@@ -37654,7 +37684,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="122" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="13">
         <v>43357</v>
       </c>
@@ -37701,7 +37731,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="123" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="13">
         <v>43324</v>
       </c>
@@ -37748,7 +37778,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="124" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="13">
         <v>43309</v>
       </c>
@@ -37795,7 +37825,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="125" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="13">
         <v>43311</v>
       </c>
@@ -37842,7 +37872,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="126" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="13">
         <v>43314</v>
       </c>
@@ -37889,7 +37919,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="127" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="13">
         <v>43375</v>
       </c>
@@ -37936,7 +37966,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="128" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="13">
         <v>43368</v>
       </c>
@@ -37983,7 +38013,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="129" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="13">
         <v>43366</v>
       </c>
@@ -38030,7 +38060,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="130" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="13">
         <v>43356</v>
       </c>
@@ -38077,7 +38107,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="131" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="13">
         <v>43359</v>
       </c>
@@ -38124,7 +38154,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="132" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="13">
         <v>43352</v>
       </c>
@@ -38171,7 +38201,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="133" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="13">
         <v>43340</v>
       </c>
@@ -38218,7 +38248,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="134" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="13">
         <v>43370</v>
       </c>
@@ -38265,7 +38295,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="135" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="13">
         <v>43402</v>
       </c>
@@ -38312,7 +38342,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="136" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="13">
         <v>43381</v>
       </c>
@@ -38453,7 +38483,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="139" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="13">
         <v>43405</v>
       </c>
@@ -38500,7 +38530,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="140" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="13">
         <v>43377</v>
       </c>
@@ -38547,7 +38577,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="141" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="13">
         <v>43375</v>
       </c>
@@ -38594,7 +38624,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="142" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="13">
         <v>43422</v>
       </c>
@@ -38688,7 +38718,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="144" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="13">
         <v>43377</v>
       </c>
@@ -38735,7 +38765,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="145" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="13">
         <v>43389</v>
       </c>
@@ -38782,7 +38812,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="146" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="13">
         <v>43468</v>
       </c>
@@ -38829,7 +38859,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="147" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="13">
         <v>43448</v>
       </c>
@@ -38876,7 +38906,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="148" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="13">
         <v>43449</v>
       </c>
@@ -38923,7 +38953,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="149" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="13">
         <v>43394</v>
       </c>
@@ -38970,7 +39000,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="150" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="13">
         <v>43449</v>
       </c>
@@ -39017,7 +39047,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="151" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="13">
         <v>43424</v>
       </c>
@@ -39064,7 +39094,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="152" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="13">
         <v>43403</v>
       </c>
@@ -39111,7 +39141,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="153" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="13">
         <v>43461</v>
       </c>
@@ -39158,7 +39188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="154" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="13">
         <v>43466</v>
       </c>
@@ -39205,7 +39235,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="155" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="13">
         <v>43446</v>
       </c>
@@ -39252,7 +39282,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="156" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="13">
         <v>43485</v>
       </c>
@@ -39346,7 +39376,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="158" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="13">
         <v>43451</v>
       </c>
@@ -39393,7 +39423,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="159" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="13">
         <v>43431</v>
       </c>
@@ -39440,7 +39470,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="160" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="13">
         <v>43424</v>
       </c>
@@ -39487,7 +39517,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="161" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="13">
         <v>43430</v>
       </c>
@@ -39534,7 +39564,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="162" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="13">
         <v>43433</v>
       </c>
@@ -39581,7 +39611,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="163" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="13">
         <v>43485</v>
       </c>
@@ -39628,7 +39658,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="164" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="13">
         <v>43494</v>
       </c>
@@ -39675,7 +39705,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="165" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="13">
         <v>43465</v>
       </c>
@@ -39722,7 +39752,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="166" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="13">
         <v>43444</v>
       </c>
@@ -39769,7 +39799,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="167" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="13" t="s">
         <v>69</v>
       </c>
@@ -39816,7 +39846,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="168" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="13">
         <v>43449</v>
       </c>
@@ -39863,7 +39893,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="169" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="13">
         <v>43487</v>
       </c>
@@ -39910,7 +39940,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="170" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="13">
         <v>43514</v>
       </c>
@@ -39957,7 +39987,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="171" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="13">
         <v>43491</v>
       </c>
@@ -40004,7 +40034,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="172" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="13">
         <v>43515</v>
       </c>
@@ -40051,7 +40081,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="173" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="13">
         <v>43467</v>
       </c>
@@ -40098,7 +40128,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="174" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="13">
         <v>43485</v>
       </c>
@@ -40145,7 +40175,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="175" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="13">
         <v>43501</v>
       </c>
@@ -40192,7 +40222,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="176" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="13">
         <v>43569</v>
       </c>
@@ -40239,7 +40269,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="177" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="13">
         <v>43482</v>
       </c>
@@ -40286,7 +40316,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="178" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="13">
         <v>43499</v>
       </c>
@@ -40333,7 +40363,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="179" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="13">
         <v>43487</v>
       </c>
@@ -40380,7 +40410,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="180" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="13">
         <v>43492</v>
       </c>
@@ -40427,7 +40457,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="181" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="13" t="s">
         <v>69</v>
       </c>
@@ -40474,7 +40504,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="182" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="13">
         <v>43520</v>
       </c>
@@ -40521,7 +40551,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="183" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="13">
         <v>43499</v>
       </c>
@@ -40568,7 +40598,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="184" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="13" t="s">
         <v>69</v>
       </c>
@@ -40615,7 +40645,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="185" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="13">
         <v>43505</v>
       </c>
@@ -40662,7 +40692,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="186" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="13">
         <v>43508</v>
       </c>
@@ -40709,7 +40739,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="187" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="13">
         <v>43555</v>
       </c>
@@ -40756,7 +40786,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="188" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="13">
         <v>43517</v>
       </c>
@@ -40803,7 +40833,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="189" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="13" t="s">
         <v>69</v>
       </c>
@@ -40850,7 +40880,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="190" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="13">
         <v>43531</v>
       </c>
@@ -40897,7 +40927,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="191" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="13">
         <v>43569</v>
       </c>
@@ -40944,7 +40974,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="192" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="13">
         <v>43567</v>
       </c>
@@ -40991,7 +41021,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="193" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="13">
         <v>43532</v>
       </c>
@@ -41038,7 +41068,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="194" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="13" t="s">
         <v>69</v>
       </c>
@@ -41085,7 +41115,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="195" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="13">
         <v>43570</v>
       </c>
@@ -41132,7 +41162,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="196" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="13">
         <v>43536</v>
       </c>
@@ -41179,7 +41209,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="197" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="13">
         <v>43576</v>
       </c>
@@ -41226,7 +41256,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="198" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="13">
         <v>43543</v>
       </c>
@@ -41273,7 +41303,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="199" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="13">
         <v>43543</v>
       </c>
@@ -41320,7 +41350,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="200" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="13">
         <v>43586</v>
       </c>
@@ -41367,7 +41397,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="201" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="13">
         <v>43551</v>
       </c>
@@ -41414,7 +41444,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="202" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="13">
         <v>43557</v>
       </c>
@@ -41461,7 +41491,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="203" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="13">
         <v>43560</v>
       </c>
@@ -41508,7 +41538,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="204" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="13" t="s">
         <v>69</v>
       </c>
@@ -41555,7 +41585,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="205" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="13">
         <v>43647</v>
       </c>
@@ -41602,7 +41632,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="206" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="13">
         <v>43578</v>
       </c>
@@ -41649,7 +41679,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="207" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="13">
         <v>43584</v>
       </c>
@@ -41696,7 +41726,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="208" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="13">
         <v>43572</v>
       </c>
@@ -41743,7 +41773,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="209" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="13" t="s">
         <v>69</v>
       </c>
@@ -41790,7 +41820,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="210" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="13">
         <v>43586</v>
       </c>
@@ -41837,7 +41867,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="211" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211" s="13">
         <v>43661</v>
       </c>
@@ -41884,7 +41914,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="212" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="13">
         <v>43622</v>
       </c>
@@ -41931,7 +41961,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="213" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="13">
         <v>43624</v>
       </c>
@@ -41978,7 +42008,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="214" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="13">
         <v>43595</v>
       </c>
@@ -42025,7 +42055,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="215" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215" s="13">
         <v>43613</v>
       </c>
@@ -42072,7 +42102,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="216" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="13">
         <v>43623</v>
       </c>
@@ -42119,7 +42149,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="217" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="13">
         <v>43645</v>
       </c>
@@ -42166,7 +42196,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="218" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="13">
         <v>43614</v>
       </c>
@@ -42213,7 +42243,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="219" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="13">
         <v>43598</v>
       </c>
@@ -42260,7 +42290,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="220" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="13">
         <v>43601</v>
       </c>
@@ -42307,7 +42337,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="221" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="13">
         <v>43604</v>
       </c>
@@ -42354,7 +42384,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="222" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="13">
         <v>43626</v>
       </c>
@@ -42401,7 +42431,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="223" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="13">
         <v>43610</v>
       </c>
@@ -42448,7 +42478,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="224" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="13" t="s">
         <v>69</v>
       </c>
@@ -42495,7 +42525,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="225" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225" s="13">
         <v>43628</v>
       </c>
@@ -42542,7 +42572,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="226" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" s="13">
         <v>43639</v>
       </c>
@@ -42589,7 +42619,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="227" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227" s="13">
         <v>43625</v>
       </c>
@@ -42636,7 +42666,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="228" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228" s="13">
         <v>43664</v>
       </c>
@@ -42683,7 +42713,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="229" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229" s="13" t="s">
         <v>69</v>
       </c>
@@ -42730,7 +42760,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="230" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" s="13">
         <v>43637</v>
       </c>
@@ -42777,7 +42807,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="231" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B231" s="13">
         <v>43639</v>
       </c>
@@ -42824,7 +42854,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="232" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232" s="13">
         <v>43653</v>
       </c>
@@ -42893,8 +42923,8 @@
   <sheetPr codeName="Plan9"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42945,7 +42975,7 @@
         <v>511</v>
       </c>
       <c r="C3" s="24">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -43064,51 +43094,51 @@
       </c>
       <c r="C8" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"&lt;"&amp;$C$3,TbRegistroEntradas[Ano Caixa],"&lt;&gt;0")-SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],"&lt;"&amp;$C$3,TbRegistroSaídas[Ano Caixa],"&lt;&gt;0")</f>
-        <v>-1041</v>
+        <v>55108</v>
       </c>
       <c r="D8" s="35">
         <f>C11</f>
-        <v>966</v>
+        <v>40555</v>
       </c>
       <c r="E8" s="35">
         <f t="shared" ref="E8:N8" si="0">D11</f>
-        <v>5553</v>
+        <v>41511</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>53246</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>1894</v>
+        <v>39267</v>
       </c>
       <c r="H8" s="35">
         <f t="shared" si="0"/>
-        <v>22181</v>
+        <v>28688</v>
       </c>
       <c r="I8" s="35">
         <f t="shared" si="0"/>
-        <v>30931</v>
+        <v>19950</v>
       </c>
       <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>22856</v>
+        <v>16469</v>
       </c>
       <c r="K8" s="35">
         <f t="shared" si="0"/>
-        <v>38235</v>
+        <v>19070</v>
       </c>
       <c r="L8" s="35">
         <f t="shared" si="0"/>
-        <v>44941</v>
+        <v>20549</v>
       </c>
       <c r="M8" s="35">
         <f t="shared" si="0"/>
-        <v>39552</v>
+        <v>21057</v>
       </c>
       <c r="N8" s="36">
         <f t="shared" si="0"/>
-        <v>58456</v>
+        <v>21057</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -43117,51 +43147,51 @@
       </c>
       <c r="C9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],C5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>33220</v>
+        <v>17211</v>
       </c>
       <c r="D9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],D5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>27618</v>
+        <v>25105</v>
       </c>
       <c r="E9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],E5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>21553</v>
+        <v>34872</v>
       </c>
       <c r="F9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],F5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>25910</v>
+        <v>13810</v>
       </c>
       <c r="G9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],G5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>23254</v>
+        <v>16506</v>
       </c>
       <c r="H9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],H5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>29499</v>
+        <v>12345</v>
       </c>
       <c r="I9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],I5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>21232</v>
+        <v>4849</v>
       </c>
       <c r="J9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],J5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>31767</v>
+        <v>2601</v>
       </c>
       <c r="K9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],K5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>24029</v>
+        <v>1479</v>
       </c>
       <c r="L9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],L5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>21580</v>
+        <v>508</v>
       </c>
       <c r="M9" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],M5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>38978</v>
+        <v>0</v>
       </c>
       <c r="N9" s="36">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Caixa],N5,TbRegistroEntradas[Ano Caixa],$C$3)</f>
-        <v>15074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -43170,51 +43200,51 @@
       </c>
       <c r="C10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],C5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>31213</v>
+        <v>31764</v>
       </c>
       <c r="D10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],D5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>23031</v>
+        <v>24149</v>
       </c>
       <c r="E10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],E5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>27113</v>
+        <v>23137</v>
       </c>
       <c r="F10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],F5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>24009</v>
+        <v>27789</v>
       </c>
       <c r="G10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],G5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>2967</v>
+        <v>27085</v>
       </c>
       <c r="H10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],H5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>20749</v>
+        <v>21083</v>
       </c>
       <c r="I10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],I5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>29307</v>
+        <v>8330</v>
       </c>
       <c r="J10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],J5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>16388</v>
+        <v>0</v>
       </c>
       <c r="K10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],K5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>17323</v>
+        <v>0</v>
       </c>
       <c r="L10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],L5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>26969</v>
+        <v>0</v>
       </c>
       <c r="M10" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],M5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>20074</v>
+        <v>0</v>
       </c>
       <c r="N10" s="36">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Caixa],N5,TbRegistroSaídas[Ano Caixa],$C$3)</f>
-        <v>18422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -43223,51 +43253,51 @@
       </c>
       <c r="C11" s="37">
         <f>C8+C9-C10</f>
-        <v>966</v>
+        <v>40555</v>
       </c>
       <c r="D11" s="37">
         <f t="shared" ref="D11:N11" si="1">D8+D9-D10</f>
-        <v>5553</v>
+        <v>41511</v>
       </c>
       <c r="E11" s="37">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>53246</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="1"/>
-        <v>1894</v>
+        <v>39267</v>
       </c>
       <c r="G11" s="37">
         <f t="shared" si="1"/>
-        <v>22181</v>
+        <v>28688</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" si="1"/>
-        <v>30931</v>
+        <v>19950</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" si="1"/>
-        <v>22856</v>
+        <v>16469</v>
       </c>
       <c r="J11" s="37">
         <f t="shared" si="1"/>
-        <v>38235</v>
+        <v>19070</v>
       </c>
       <c r="K11" s="37">
         <f t="shared" si="1"/>
-        <v>44941</v>
+        <v>20549</v>
       </c>
       <c r="L11" s="37">
         <f t="shared" si="1"/>
-        <v>39552</v>
+        <v>21057</v>
       </c>
       <c r="M11" s="37">
         <f t="shared" si="1"/>
-        <v>58456</v>
+        <v>21057</v>
       </c>
       <c r="N11" s="38">
         <f t="shared" si="1"/>
-        <v>55108</v>
+        <v>21057</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43323,51 +43353,51 @@
       </c>
       <c r="C15" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Competência],"&lt;"&amp;$C$3,TbRegistroEntradas[Ano Competência],"&lt;&gt;0")-SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Competência],"&lt;"&amp;$C$3,TbRegistroSaídas[Ano Competência],"&lt;&gt;0")</f>
-        <v>23943</v>
+        <v>42367</v>
       </c>
       <c r="D15" s="35">
         <f>C18</f>
-        <v>2752</v>
+        <v>34684</v>
       </c>
       <c r="E15" s="35">
         <f t="shared" ref="E15:N15" si="2">D18</f>
-        <v>1935</v>
+        <v>40111</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>15266</v>
+        <v>27220</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="2"/>
-        <v>30813</v>
+        <v>23048</v>
       </c>
       <c r="H15" s="35">
         <f t="shared" si="2"/>
-        <v>25040</v>
+        <v>8340</v>
       </c>
       <c r="I15" s="35">
         <f t="shared" si="2"/>
-        <v>28824</v>
+        <v>3236</v>
       </c>
       <c r="J15" s="35">
         <f t="shared" si="2"/>
-        <v>28057</v>
+        <v>3236</v>
       </c>
       <c r="K15" s="35">
         <f t="shared" si="2"/>
-        <v>28632</v>
+        <v>3236</v>
       </c>
       <c r="L15" s="35">
         <f t="shared" si="2"/>
-        <v>34708</v>
+        <v>3236</v>
       </c>
       <c r="M15" s="35">
         <f t="shared" si="2"/>
-        <v>35415</v>
+        <v>3236</v>
       </c>
       <c r="N15" s="36">
         <f t="shared" si="2"/>
-        <v>43688</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -43376,51 +43406,51 @@
       </c>
       <c r="C16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],C5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>20582</v>
+        <v>22897</v>
       </c>
       <c r="D16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],D5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>24761</v>
+        <v>31755</v>
       </c>
       <c r="E16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],E5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>37458</v>
+        <v>18601</v>
       </c>
       <c r="F16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],F5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>30226</v>
+        <v>22939</v>
       </c>
       <c r="G16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],G5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>19009</v>
+        <v>22602</v>
       </c>
       <c r="H16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],H5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>28711</v>
+        <v>11865</v>
       </c>
       <c r="I16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],I5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>33298</v>
+        <v>0</v>
       </c>
       <c r="J16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],J5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>22302</v>
+        <v>0</v>
       </c>
       <c r="K16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],K5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>26024</v>
+        <v>0</v>
       </c>
       <c r="L16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],L5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="M16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],M5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>30897</v>
+        <v>0</v>
       </c>
       <c r="N16" s="35">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Competência],N5,TbRegistroEntradas[Ano Competência],$C$3)</f>
-        <v>17906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -43429,51 +43459,51 @@
       </c>
       <c r="C17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],C5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>41773</v>
+        <v>30580</v>
       </c>
       <c r="D17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],D5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>25578</v>
+        <v>26328</v>
       </c>
       <c r="E17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],E5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>24127</v>
+        <v>31492</v>
       </c>
       <c r="F17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],F5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>14679</v>
+        <v>27111</v>
       </c>
       <c r="G17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],G5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>24782</v>
+        <v>37310</v>
       </c>
       <c r="H17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],H5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>24927</v>
+        <v>16969</v>
       </c>
       <c r="I17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],I5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>34065</v>
+        <v>0</v>
       </c>
       <c r="J17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],J5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>21727</v>
+        <v>0</v>
       </c>
       <c r="K17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],K5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>19948</v>
+        <v>0</v>
       </c>
       <c r="L17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],L5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>28693</v>
+        <v>0</v>
       </c>
       <c r="M17" s="35">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],M5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>22624</v>
+        <v>0</v>
       </c>
       <c r="N17" s="36">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Competência],N5,TbRegistroSaídas[Ano Competência],$C$3)</f>
-        <v>19227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -43482,51 +43512,51 @@
       </c>
       <c r="C18" s="37">
         <f>C15+C16-C17</f>
-        <v>2752</v>
+        <v>34684</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18:N18" si="3">D15+D16-D17</f>
-        <v>1935</v>
+        <v>40111</v>
       </c>
       <c r="E18" s="37">
         <f t="shared" si="3"/>
-        <v>15266</v>
+        <v>27220</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="3"/>
-        <v>30813</v>
+        <v>23048</v>
       </c>
       <c r="G18" s="37">
         <f t="shared" si="3"/>
-        <v>25040</v>
+        <v>8340</v>
       </c>
       <c r="H18" s="37">
         <f t="shared" si="3"/>
-        <v>28824</v>
+        <v>3236</v>
       </c>
       <c r="I18" s="37">
         <f t="shared" si="3"/>
-        <v>28057</v>
+        <v>3236</v>
       </c>
       <c r="J18" s="37">
         <f t="shared" si="3"/>
-        <v>28632</v>
+        <v>3236</v>
       </c>
       <c r="K18" s="37">
         <f t="shared" si="3"/>
-        <v>34708</v>
+        <v>3236</v>
       </c>
       <c r="L18" s="37">
         <f t="shared" si="3"/>
-        <v>35415</v>
+        <v>3236</v>
       </c>
       <c r="M18" s="37">
         <f t="shared" si="3"/>
-        <v>43688</v>
+        <v>3236</v>
       </c>
       <c r="N18" s="38">
         <f t="shared" si="3"/>
-        <v>42367</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43582,51 +43612,51 @@
       </c>
       <c r="C22" s="35">
         <f>C16</f>
-        <v>20582</v>
+        <v>22897</v>
       </c>
       <c r="D22" s="35">
         <f t="shared" ref="D22:N22" si="4">D16</f>
-        <v>24761</v>
+        <v>31755</v>
       </c>
       <c r="E22" s="35">
         <f t="shared" si="4"/>
-        <v>37458</v>
+        <v>18601</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="4"/>
-        <v>30226</v>
+        <v>22939</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
-        <v>19009</v>
+        <v>22602</v>
       </c>
       <c r="H22" s="35">
         <f t="shared" si="4"/>
-        <v>28711</v>
+        <v>11865</v>
       </c>
       <c r="I22" s="35">
         <f t="shared" si="4"/>
-        <v>33298</v>
+        <v>0</v>
       </c>
       <c r="J22" s="35">
         <f t="shared" si="4"/>
-        <v>22302</v>
+        <v>0</v>
       </c>
       <c r="K22" s="35">
         <f t="shared" si="4"/>
-        <v>26024</v>
+        <v>0</v>
       </c>
       <c r="L22" s="35">
         <f t="shared" si="4"/>
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="M22" s="35">
         <f t="shared" si="4"/>
-        <v>30897</v>
+        <v>0</v>
       </c>
       <c r="N22" s="36">
         <f t="shared" si="4"/>
-        <v>17906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -43635,51 +43665,51 @@
       </c>
       <c r="C23" s="35">
         <f>C17</f>
-        <v>41773</v>
+        <v>30580</v>
       </c>
       <c r="D23" s="35">
         <f t="shared" ref="D23:N23" si="5">D17</f>
-        <v>25578</v>
+        <v>26328</v>
       </c>
       <c r="E23" s="35">
         <f t="shared" si="5"/>
-        <v>24127</v>
+        <v>31492</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="5"/>
-        <v>14679</v>
+        <v>27111</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="5"/>
-        <v>24782</v>
+        <v>37310</v>
       </c>
       <c r="H23" s="35">
         <f t="shared" si="5"/>
-        <v>24927</v>
+        <v>16969</v>
       </c>
       <c r="I23" s="35">
         <f t="shared" si="5"/>
-        <v>34065</v>
+        <v>0</v>
       </c>
       <c r="J23" s="35">
         <f t="shared" si="5"/>
-        <v>21727</v>
+        <v>0</v>
       </c>
       <c r="K23" s="35">
         <f t="shared" si="5"/>
-        <v>19948</v>
+        <v>0</v>
       </c>
       <c r="L23" s="35">
         <f t="shared" si="5"/>
-        <v>28693</v>
+        <v>0</v>
       </c>
       <c r="M23" s="35">
         <f t="shared" si="5"/>
-        <v>22624</v>
+        <v>0</v>
       </c>
       <c r="N23" s="36">
         <f t="shared" si="5"/>
-        <v>19227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -43692,15 +43722,15 @@
       </c>
       <c r="D24" s="39">
         <f t="shared" ref="D24:N24" si="6">IF(D22-D23&gt;0,D22-D23,0)</f>
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="E24" s="39">
         <f t="shared" si="6"/>
-        <v>13331</v>
+        <v>0</v>
       </c>
       <c r="F24" s="39">
         <f t="shared" si="6"/>
-        <v>15547</v>
+        <v>0</v>
       </c>
       <c r="G24" s="39">
         <f t="shared" si="6"/>
@@ -43708,7 +43738,7 @@
       </c>
       <c r="H24" s="39">
         <f t="shared" si="6"/>
-        <v>3784</v>
+        <v>0</v>
       </c>
       <c r="I24" s="39">
         <f t="shared" si="6"/>
@@ -43716,19 +43746,19 @@
       </c>
       <c r="J24" s="39">
         <f t="shared" si="6"/>
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="K24" s="39">
         <f t="shared" si="6"/>
-        <v>6076</v>
+        <v>0</v>
       </c>
       <c r="L24" s="39">
         <f t="shared" si="6"/>
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="M24" s="39">
         <f t="shared" si="6"/>
-        <v>8273</v>
+        <v>0</v>
       </c>
       <c r="N24" s="40">
         <f t="shared" si="6"/>
@@ -43741,31 +43771,31 @@
       </c>
       <c r="C25" s="41">
         <f>IF(C22-C23&lt;0,C22-C23,0)</f>
-        <v>-21191</v>
+        <v>-7683</v>
       </c>
       <c r="D25" s="41">
         <f t="shared" ref="D25:N25" si="7">IF(D22-D23&lt;0,D22-D23,0)</f>
-        <v>-817</v>
+        <v>0</v>
       </c>
       <c r="E25" s="41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-12891</v>
       </c>
       <c r="F25" s="41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4172</v>
       </c>
       <c r="G25" s="41">
         <f t="shared" si="7"/>
-        <v>-5773</v>
+        <v>-14708</v>
       </c>
       <c r="H25" s="41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5104</v>
       </c>
       <c r="I25" s="41">
         <f t="shared" si="7"/>
-        <v>-767</v>
+        <v>0</v>
       </c>
       <c r="J25" s="41">
         <f t="shared" si="7"/>
@@ -43785,7 +43815,7 @@
       </c>
       <c r="N25" s="42">
         <f t="shared" si="7"/>
-        <v>-1321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -43794,51 +43824,51 @@
       </c>
       <c r="C26" s="41">
         <f>C22-C23</f>
-        <v>-21191</v>
+        <v>-7683</v>
       </c>
       <c r="D26" s="41">
         <f>C26+(D22-D23)</f>
-        <v>-22008</v>
+        <v>-2256</v>
       </c>
       <c r="E26" s="41">
         <f t="shared" ref="E26:N26" si="8">D26+(E22-E23)</f>
-        <v>-8677</v>
+        <v>-15147</v>
       </c>
       <c r="F26" s="41">
         <f t="shared" si="8"/>
-        <v>6870</v>
+        <v>-19319</v>
       </c>
       <c r="G26" s="41">
         <f t="shared" si="8"/>
-        <v>1097</v>
+        <v>-34027</v>
       </c>
       <c r="H26" s="41">
         <f t="shared" si="8"/>
-        <v>4881</v>
+        <v>-39131</v>
       </c>
       <c r="I26" s="41">
         <f t="shared" si="8"/>
-        <v>4114</v>
+        <v>-39131</v>
       </c>
       <c r="J26" s="41">
         <f t="shared" si="8"/>
-        <v>4689</v>
+        <v>-39131</v>
       </c>
       <c r="K26" s="41">
         <f t="shared" si="8"/>
-        <v>10765</v>
+        <v>-39131</v>
       </c>
       <c r="L26" s="41">
         <f t="shared" si="8"/>
-        <v>11472</v>
+        <v>-39131</v>
       </c>
       <c r="M26" s="41">
         <f t="shared" si="8"/>
-        <v>19745</v>
+        <v>-39131</v>
       </c>
       <c r="N26" s="42">
         <f t="shared" si="8"/>
-        <v>18424</v>
+        <v>-39131</v>
       </c>
     </row>
   </sheetData>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="605">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -2678,7 +2678,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3083,6 +3083,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14277,7 +14283,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdContasPagar" cacheId="75" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B6:J14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="B6:I13" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -14349,18 +14355,15 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x/>
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="4"/>
@@ -14373,7 +14376,7 @@
     <field x="7"/>
     <field x="11"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="7">
     <i>
       <x/>
       <x/>
@@ -14382,26 +14385,23 @@
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
       <x v="4"/>
     </i>
     <i r="1">
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
+      <x v="7"/>
     </i>
     <i t="default">
       <x/>
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="12" item="1" hier="-1"/>
+    <pageField fld="12" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="4"/>
@@ -14789,15 +14789,15 @@
       <items count="12">
         <i x="4" s="1"/>
         <i x="5" s="1"/>
+        <i x="7" s="1"/>
         <i x="8" s="1"/>
         <i x="9" s="1"/>
-        <i x="10" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="11" s="1"/>
         <i x="6" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
         <i x="3" s="1" nd="1"/>
       </items>
     </tabular>
@@ -14814,8 +14814,8 @@
     <tabular pivotCacheId="2">
       <items count="3">
         <i x="0"/>
-        <i x="1" s="1"/>
-        <i x="2"/>
+        <i x="1"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -16294,7 +16294,7 @@
         <v>546</v>
       </c>
       <c r="C4" s="48">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16310,7 +16310,7 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>547</v>
       </c>
     </row>
@@ -16325,19 +16325,16 @@
         <v>2</v>
       </c>
       <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
       <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16345,151 +16342,112 @@
         <v>38</v>
       </c>
       <c r="C9" s="51">
-        <v>6816</v>
+        <v>3042</v>
       </c>
       <c r="D9" s="51">
-        <v>9291</v>
+        <v>7524</v>
       </c>
       <c r="E9" s="51">
-        <v>9778</v>
+        <v>3690</v>
       </c>
       <c r="F9" s="51">
-        <v>6321</v>
+        <v>7220</v>
       </c>
       <c r="G9" s="51">
-        <v>6846</v>
+        <v>3086</v>
       </c>
       <c r="H9" s="51">
-        <v>3092</v>
+        <v>2759</v>
       </c>
       <c r="I9" s="51">
-        <v>4672</v>
-      </c>
-      <c r="J9" s="51">
-        <v>46816</v>
+        <v>27321</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="51">
-        <v>3255</v>
-      </c>
-      <c r="E10" s="51">
-        <v>1996</v>
-      </c>
-      <c r="F10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51">
+        <v>2707</v>
+      </c>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51">
-        <v>5251</v>
+      <c r="I10" s="51">
+        <v>2707</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="51">
-        <v>3598</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C11" s="51"/>
       <c r="D11" s="51">
-        <v>2623</v>
-      </c>
-      <c r="E11" s="51">
-        <v>2975</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="E11" s="51"/>
       <c r="F11" s="51"/>
-      <c r="G11" s="51">
-        <v>3411</v>
-      </c>
-      <c r="H11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
+        <v>2759</v>
+      </c>
       <c r="I11" s="51">
-        <v>819</v>
-      </c>
-      <c r="J11" s="51">
-        <v>13426</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" s="51">
-        <v>2247</v>
+        <v>3042</v>
       </c>
       <c r="D12" s="51">
-        <v>3413</v>
-      </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51">
-        <v>159</v>
-      </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51">
-        <v>5819</v>
+        <v>6991</v>
+      </c>
+      <c r="E12" s="51">
+        <v>3690</v>
+      </c>
+      <c r="F12" s="51">
+        <v>4513</v>
+      </c>
+      <c r="G12" s="51">
+        <v>3086</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51">
+        <v>21322</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
-        <v>45</v>
+      <c r="B13" s="48" t="s">
+        <v>542</v>
       </c>
       <c r="C13" s="51">
-        <v>971</v>
-      </c>
-      <c r="D13" s="51"/>
+        <v>3042</v>
+      </c>
+      <c r="D13" s="51">
+        <v>7524</v>
+      </c>
       <c r="E13" s="51">
-        <v>4807</v>
+        <v>3690</v>
       </c>
       <c r="F13" s="51">
-        <v>6321</v>
+        <v>7220</v>
       </c>
       <c r="G13" s="51">
-        <v>3435</v>
+        <v>3086</v>
       </c>
       <c r="H13" s="51">
-        <v>2933</v>
+        <v>2759</v>
       </c>
       <c r="I13" s="51">
-        <v>3853</v>
-      </c>
-      <c r="J13" s="51">
-        <v>22320</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
-        <v>542</v>
-      </c>
-      <c r="C14" s="51">
-        <v>6816</v>
-      </c>
-      <c r="D14" s="51">
-        <v>9291</v>
-      </c>
-      <c r="E14" s="51">
-        <v>9778</v>
-      </c>
-      <c r="F14" s="51">
-        <v>6321</v>
-      </c>
-      <c r="G14" s="51">
-        <v>6846</v>
-      </c>
-      <c r="H14" s="51">
-        <v>3092</v>
-      </c>
-      <c r="I14" s="51">
-        <v>4672</v>
-      </c>
-      <c r="J14" s="51">
-        <v>46816</v>
-      </c>
-    </row>
+        <v>27321</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18237,8 +18195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18362,8 +18320,9 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64">
-        <v>123</v>
+      <c r="B8" s="148">
+        <f>DashBoardFinanceiroAnualD!$D$13</f>
+        <v>27321</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="65"/>
@@ -18404,8 +18363,9 @@
       <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68">
-        <v>1234</v>
+      <c r="B11" s="149">
+        <f>DashBoardFinanceiroAnualD!$D$14</f>
+        <v>20687</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="65"/>
@@ -18594,8 +18554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18868,7 +18828,10 @@
         <v>586</v>
       </c>
       <c r="C13" s="129"/>
-      <c r="D13" s="125"/>
+      <c r="D13" s="125">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],"="&amp;$C$4)</f>
+        <v>27321</v>
+      </c>
       <c r="E13" s="112"/>
       <c r="F13" s="112">
         <v>9</v>
@@ -18888,7 +18851,10 @@
         <v>588</v>
       </c>
       <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
+      <c r="D14" s="131">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4)</f>
+        <v>20687</v>
+      </c>
       <c r="E14" s="112"/>
       <c r="F14" s="112">
         <v>10</v>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="606">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -1895,6 +1895,9 @@
   </si>
   <si>
     <t>HOJE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   J   F   M  A  M   J    J    A    S   O  N  D </t>
   </si>
 </sst>
 </file>
@@ -18195,8 +18198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18282,7 +18285,9 @@
         <v>21057</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="57"/>
+      <c r="D5" s="57" t="s">
+        <v>605</v>
+      </c>
       <c r="E5" s="53"/>
       <c r="F5" s="58"/>
       <c r="G5" s="59"/>
@@ -18547,6 +18552,44 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>DashBoardFinanceiroAnualD!H5:H16</xm:f>
+              <xm:sqref>D10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative theme="4"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
+          <x14:colorLast theme="4" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
+          <x14:colorLow theme="4" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>DashBoardFinanceiroAnualD!G5:G16</xm:f>
+              <xm:sqref>D7</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18554,8 +18597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18665,8 +18708,14 @@
       <c r="F5" s="121">
         <v>1</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
+      <c r="G5" s="122">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F5,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>3042</v>
+      </c>
+      <c r="H5" s="122">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F5,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>1209</v>
+      </c>
       <c r="I5" s="112"/>
       <c r="J5" s="122"/>
       <c r="K5" s="122"/>
@@ -18683,8 +18732,14 @@
       <c r="F6" s="112">
         <v>2</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
+      <c r="G6" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F6,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>7524</v>
+      </c>
+      <c r="H6" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F6,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>1992</v>
+      </c>
       <c r="I6" s="112"/>
       <c r="J6" s="124"/>
       <c r="K6" s="124"/>
@@ -18703,8 +18758,14 @@
       <c r="F7" s="112">
         <v>3</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
+      <c r="G7" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F7,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F7,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
       <c r="I7" s="112"/>
       <c r="J7" s="124"/>
       <c r="K7" s="124"/>
@@ -18726,8 +18787,14 @@
       <c r="F8" s="112">
         <v>4</v>
       </c>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
+      <c r="G8" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F8,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>3690</v>
+      </c>
+      <c r="H8" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F8,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>4797</v>
+      </c>
       <c r="I8" s="112"/>
       <c r="J8" s="124"/>
       <c r="K8" s="124"/>
@@ -18749,8 +18816,14 @@
       <c r="F9" s="112">
         <v>5</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
+      <c r="G9" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F9,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>7220</v>
+      </c>
+      <c r="H9" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F9,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>6672</v>
+      </c>
       <c r="I9" s="112"/>
       <c r="J9" s="124"/>
       <c r="K9" s="124"/>
@@ -18772,8 +18845,14 @@
       <c r="F10" s="112">
         <v>6</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
+      <c r="G10" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F10,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>3086</v>
+      </c>
+      <c r="H10" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F10,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>1482</v>
+      </c>
       <c r="I10" s="112"/>
       <c r="J10" s="124"/>
       <c r="K10" s="124"/>
@@ -18795,8 +18874,14 @@
       <c r="F11" s="112">
         <v>7</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
+      <c r="G11" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F11,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F11,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>4535</v>
+      </c>
       <c r="I11" s="112"/>
       <c r="J11" s="124"/>
       <c r="K11" s="124"/>
@@ -18813,8 +18898,14 @@
       <c r="F12" s="112">
         <v>8</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
+      <c r="G12" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F12,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>2759</v>
+      </c>
+      <c r="H12" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F12,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
       <c r="I12" s="112"/>
       <c r="J12" s="124"/>
       <c r="K12" s="124"/>
@@ -18836,8 +18927,14 @@
       <c r="F13" s="112">
         <v>9</v>
       </c>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
+      <c r="G13" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F13,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F13,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
       <c r="I13" s="112"/>
       <c r="J13" s="124"/>
       <c r="K13" s="124"/>
@@ -18859,8 +18956,14 @@
       <c r="F14" s="112">
         <v>10</v>
       </c>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
+      <c r="G14" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F14,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F14,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
       <c r="I14" s="112"/>
       <c r="J14" s="124"/>
       <c r="K14" s="124"/>
@@ -18877,8 +18980,14 @@
       <c r="F15" s="112">
         <v>11</v>
       </c>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
+      <c r="G15" s="124">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F15,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F15,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
       <c r="I15" s="112"/>
       <c r="J15" s="124"/>
       <c r="K15" s="124"/>
@@ -18895,8 +19004,14 @@
       <c r="F16" s="127">
         <v>12</v>
       </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
+      <c r="G16" s="132">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F16,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="132">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F16,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
       <c r="I16" s="112"/>
       <c r="J16" s="132"/>
       <c r="K16" s="132"/>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -30,17 +30,11 @@
     <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
-    <definedName name="PCEntradasN1_Nível_1" localSheetId="16">TbPCEntradasN1[Nível 1]</definedName>
     <definedName name="PCEntradasN1_Nível_1">TbPCEntradasN1[Nível 1]</definedName>
-    <definedName name="PCEntradasN2_Nível_1" localSheetId="16">TbPCEntradasN2[Nível 1]</definedName>
     <definedName name="PCEntradasN2_Nível_1">TbPCEntradasN2[Nível 1]</definedName>
-    <definedName name="PCEntradasN2_Nível_2" localSheetId="16">TbPCEntradasN2[Nível 2]</definedName>
     <definedName name="PCEntradasN2_Nível_2">TbPCEntradasN2[Nível 2]</definedName>
-    <definedName name="PCSaídasN1_Nível_1" localSheetId="16">TbPCSaídasN1[Nível 1]</definedName>
     <definedName name="PCSaídasN1_Nível_1">TbPCSaídasN1[Nível 1]</definedName>
-    <definedName name="PCSaídasN2_Nível_1" localSheetId="16">TbPCSaídasN2[Nível 1]</definedName>
     <definedName name="PCSaídasN2_Nível_1">TbPCSaídasN2[Nível 1]</definedName>
-    <definedName name="PCSaídasN2_Nível_2" localSheetId="16">TbPCSaídasN2[Nível 2]</definedName>
     <definedName name="PCSaídasN2_Nível_2">TbPCSaídasN2[Nível 2]</definedName>
     <definedName name="SegmentaçãodeDados_Ano_Competência">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Ano_Competência1">#N/A</definedName>
@@ -79,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="606">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -1912,7 +1906,7 @@
     <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0"/>
     <numFmt numFmtId="170" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2158,6 +2152,14 @@
       <color rgb="FF548235"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2681,7 +2683,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3094,20 +3096,19 @@
     <xf numFmtId="43" fontId="17" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3340,6 +3341,198 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DashBoardFinanceiroAnualD!$L$5:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DashBoardFinanceiroAnualD!$K$5:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="161643136"/>
+        <c:axId val="161648000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="161643136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="161648000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="161648000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="161643136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5715,6 +5908,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -5729,7 +5954,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Retângulo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -14920,7 +15145,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -14930,7 +15155,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33">
   <autoFilter ref="B4:C13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -14941,7 +15166,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -14951,7 +15176,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="B4:C16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -14962,35 +15187,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:O234" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="B3:O234"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:O234" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="B3:O234">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2019" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Livros"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="29"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="28"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="27"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="28"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="27"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="26"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="26"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="25">
+    <tableColumn id="7" name="Valor" dataDxfId="25"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="24">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="24">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="23">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês Competência" dataDxfId="23">
+    <tableColumn id="10" name="Mês Competência" dataDxfId="22">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano Competência" dataDxfId="22">
+    <tableColumn id="11" name="Ano Competência" dataDxfId="21">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês Previsto" dataDxfId="8">
+    <tableColumn id="12" name="Mês Previsto" dataDxfId="7">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="7">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="6">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Conta Vencida" dataDxfId="6">
+    <tableColumn id="14" name="Conta Vencida" dataDxfId="5">
       <calculatedColumnFormula>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não Vencida")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14999,32 +15235,32 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:N232" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:N232" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B3:N232"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="18"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="17"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="16"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="17"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="16"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="15"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="15"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="14">
+    <tableColumn id="7" name="Valor" dataDxfId="14"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="13">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="13">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="12">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês Competência" dataDxfId="12">
+    <tableColumn id="10" name="Mês Competência" dataDxfId="11">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano Competência" dataDxfId="11">
+    <tableColumn id="11" name="Ano Competência" dataDxfId="10">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês Previsto" dataDxfId="10">
+    <tableColumn id="12" name="Mês Previsto" dataDxfId="9">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="9">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="8">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15408,13 +15644,16 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
+    <col min="17" max="16384" width="11.7109375" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15824,16 +16063,15 @@
   <sheetPr codeName="Plan11"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="16" max="16" width="3.5703125" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -17350,7 +17588,7 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17368,7 +17606,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18186,7 +18424,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18199,7 +18437,7 @@
   <dimension ref="B1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18277,7 +18515,9 @@
         <v>552</v>
       </c>
       <c r="J4" s="55"/>
-      <c r="K4" s="109"/>
+      <c r="K4" s="109" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="147">
@@ -18337,8 +18577,9 @@
       <c r="H8" s="59"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
-      <c r="K8" s="66">
-        <v>-123</v>
+      <c r="K8" s="151">
+        <f>SUM(DashBoardFinanceiroAnualD!J5:J16)</f>
+        <v>24678</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18537,18 +18778,20 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexistente!" error="Selecione uma conta da lista." sqref="K14"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexisente!" error="Selecione um item da conta." sqref="K4"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexisente!" error="Selecione um item da conta." sqref="K4">
+      <formula1>PCEntradasN2_Nível_2</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18598,7 +18841,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H16"/>
+      <selection activeCell="J5" sqref="J5:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18613,7 +18856,7 @@
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18665,7 +18908,10 @@
       <c r="K3" s="115" t="s">
         <v>567</v>
       </c>
-      <c r="L3" s="116"/>
+      <c r="L3" s="150">
+        <f>$C$4</f>
+        <v>2019</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="112"/>
@@ -18689,8 +18935,8 @@
       </c>
       <c r="I4" s="112"/>
       <c r="J4" s="120" t="str">
-        <f>[1]DashBoardFinanceiroAnual!K4</f>
-        <v>Som e imagem</v>
+        <f>DashBoardFinanceiroAnual!$K$4</f>
+        <v>Livros</v>
       </c>
       <c r="K4" s="118" t="s">
         <v>572</v>
@@ -18717,8 +18963,14 @@
         <v>1209</v>
       </c>
       <c r="I5" s="112"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
+      <c r="J5" s="122">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="122" t="e">
+        <f>IF(J5=0,NA(),J5)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L5" s="123" t="s">
         <v>573</v>
       </c>
@@ -18741,8 +18993,14 @@
         <v>1992</v>
       </c>
       <c r="I6" s="112"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
+      <c r="J6" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F6)</f>
+        <v>10916</v>
+      </c>
+      <c r="K6" s="124">
+        <f t="shared" ref="K6:K16" si="0">IF(J6=0,NA(),J6)</f>
+        <v>10916</v>
+      </c>
       <c r="L6" s="115" t="s">
         <v>574</v>
       </c>
@@ -18767,8 +19025,14 @@
         <v>0</v>
       </c>
       <c r="I7" s="112"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
+      <c r="J7" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F7)</f>
+        <v>9948</v>
+      </c>
+      <c r="K7" s="124">
+        <f t="shared" si="0"/>
+        <v>9948</v>
+      </c>
       <c r="L7" s="115" t="s">
         <v>576</v>
       </c>
@@ -18796,8 +19060,14 @@
         <v>4797</v>
       </c>
       <c r="I8" s="112"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
+      <c r="J8" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="124" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="L8" s="115" t="s">
         <v>578</v>
       </c>
@@ -18825,8 +19095,14 @@
         <v>6672</v>
       </c>
       <c r="I9" s="112"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
+      <c r="J9" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F9)</f>
+        <v>1620</v>
+      </c>
+      <c r="K9" s="124">
+        <f t="shared" si="0"/>
+        <v>1620</v>
+      </c>
       <c r="L9" s="115" t="s">
         <v>580</v>
       </c>
@@ -18854,8 +19130,14 @@
         <v>1482</v>
       </c>
       <c r="I10" s="112"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
+      <c r="J10" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F10)</f>
+        <v>2194</v>
+      </c>
+      <c r="K10" s="124">
+        <f t="shared" si="0"/>
+        <v>2194</v>
+      </c>
       <c r="L10" s="115" t="s">
         <v>582</v>
       </c>
@@ -18883,8 +19165,14 @@
         <v>4535</v>
       </c>
       <c r="I11" s="112"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
+      <c r="J11" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="124" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="L11" s="115" t="s">
         <v>584</v>
       </c>
@@ -18907,8 +19195,14 @@
         <v>0</v>
       </c>
       <c r="I12" s="112"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
+      <c r="J12" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="124" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="L12" s="115" t="s">
         <v>585</v>
       </c>
@@ -18936,8 +19230,14 @@
         <v>0</v>
       </c>
       <c r="I13" s="112"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
+      <c r="J13" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="124" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="L13" s="115" t="s">
         <v>587</v>
       </c>
@@ -18965,8 +19265,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="112"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
+      <c r="J14" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="124" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="L14" s="115" t="s">
         <v>589</v>
       </c>
@@ -18989,8 +19295,14 @@
         <v>0</v>
       </c>
       <c r="I15" s="112"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
+      <c r="J15" s="124">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="124" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="L15" s="115" t="s">
         <v>590</v>
       </c>
@@ -19013,8 +19325,14 @@
         <v>0</v>
       </c>
       <c r="I16" s="112"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
+      <c r="J16" s="132">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="132" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="L16" s="133" t="s">
         <v>591</v>
       </c>
@@ -19506,7 +19824,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19723,7 +20041,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20242,8 +20560,8 @@
   <dimension ref="B1:O234"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H135" sqref="H135:H234"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H185" activeCellId="1" sqref="H175:H181 H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20330,7 +20648,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>42994</v>
       </c>
@@ -20381,7 +20699,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>42985</v>
       </c>
@@ -20432,7 +20750,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>43007</v>
       </c>
@@ -20483,7 +20801,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>43020</v>
       </c>
@@ -20534,7 +20852,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>43014</v>
       </c>
@@ -20585,7 +20903,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>43054</v>
       </c>
@@ -20636,7 +20954,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>43087</v>
       </c>
@@ -20687,7 +21005,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>43004</v>
       </c>
@@ -20738,7 +21056,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>43015</v>
       </c>
@@ -20789,7 +21107,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>69</v>
       </c>
@@ -20840,7 +21158,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>42997</v>
       </c>
@@ -20891,7 +21209,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>43002</v>
       </c>
@@ -20942,7 +21260,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>43001</v>
       </c>
@@ -20993,7 +21311,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>43056</v>
       </c>
@@ -21044,7 +21362,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>43018</v>
       </c>
@@ -21095,7 +21413,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>43019</v>
       </c>
@@ -21146,7 +21464,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>43076</v>
       </c>
@@ -21197,7 +21515,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>43052</v>
       </c>
@@ -21248,7 +21566,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>43043</v>
       </c>
@@ -21299,7 +21617,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>43060</v>
       </c>
@@ -21350,7 +21668,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>69</v>
       </c>
@@ -21401,7 +21719,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>43113</v>
       </c>
@@ -21452,7 +21770,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>43030</v>
       </c>
@@ -21503,7 +21821,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>43032</v>
       </c>
@@ -21554,7 +21872,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>43122</v>
       </c>
@@ -21605,7 +21923,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43034</v>
       </c>
@@ -21656,7 +21974,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>43052</v>
       </c>
@@ -21707,7 +22025,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>69</v>
       </c>
@@ -21758,7 +22076,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>43117</v>
       </c>
@@ -21809,7 +22127,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>43047</v>
       </c>
@@ -21860,7 +22178,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>43077</v>
       </c>
@@ -21911,7 +22229,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>43101</v>
       </c>
@@ -21962,7 +22280,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>43055</v>
       </c>
@@ -22013,7 +22331,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>69</v>
       </c>
@@ -22064,7 +22382,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>43090</v>
       </c>
@@ -22115,7 +22433,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>43059</v>
       </c>
@@ -22166,7 +22484,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>43122</v>
       </c>
@@ -22217,7 +22535,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>43114</v>
       </c>
@@ -22268,7 +22586,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>43073</v>
       </c>
@@ -22319,7 +22637,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>43073</v>
       </c>
@@ -22370,7 +22688,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>43103</v>
       </c>
@@ -22421,7 +22739,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>43103</v>
       </c>
@@ -22472,7 +22790,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>43086</v>
       </c>
@@ -22523,7 +22841,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>43122</v>
       </c>
@@ -22574,7 +22892,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>43123</v>
       </c>
@@ -22625,7 +22943,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>43125</v>
       </c>
@@ -22676,7 +22994,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>43089</v>
       </c>
@@ -22727,7 +23045,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>43133</v>
       </c>
@@ -22778,7 +23096,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>43182</v>
       </c>
@@ -22829,7 +23147,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>43101</v>
       </c>
@@ -22880,7 +23198,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <v>43144</v>
       </c>
@@ -22931,7 +23249,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>69</v>
       </c>
@@ -22982,7 +23300,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>43155</v>
       </c>
@@ -23033,7 +23351,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13">
         <v>43117</v>
       </c>
@@ -23084,7 +23402,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>43166</v>
       </c>
@@ -23135,7 +23453,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="13">
         <v>43145</v>
       </c>
@@ -23186,7 +23504,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>43142</v>
       </c>
@@ -23237,7 +23555,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <v>43206</v>
       </c>
@@ -23288,7 +23606,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>43137</v>
       </c>
@@ -23339,7 +23657,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <v>43161</v>
       </c>
@@ -23390,7 +23708,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>43178</v>
       </c>
@@ -23441,7 +23759,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>43138</v>
       </c>
@@ -23492,7 +23810,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>69</v>
       </c>
@@ -23543,7 +23861,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <v>43145</v>
       </c>
@@ -23594,7 +23912,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>43146</v>
       </c>
@@ -23645,7 +23963,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <v>43193</v>
       </c>
@@ -23696,7 +24014,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <v>43193</v>
       </c>
@@ -23747,7 +24065,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <v>43154</v>
       </c>
@@ -23798,7 +24116,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>69</v>
       </c>
@@ -23849,7 +24167,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <v>43246</v>
       </c>
@@ -23900,7 +24218,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <v>43169</v>
       </c>
@@ -23951,7 +24269,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>69</v>
       </c>
@@ -24002,7 +24320,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>43287</v>
       </c>
@@ -24053,7 +24371,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <v>43203</v>
       </c>
@@ -24104,7 +24422,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>43169</v>
       </c>
@@ -24155,7 +24473,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>43274</v>
       </c>
@@ -24206,7 +24524,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>43176</v>
       </c>
@@ -24257,7 +24575,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <v>43177</v>
       </c>
@@ -24308,7 +24626,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>43225</v>
       </c>
@@ -24359,7 +24677,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <v>43199</v>
       </c>
@@ -24410,7 +24728,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>43187</v>
       </c>
@@ -24461,7 +24779,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <v>43257</v>
       </c>
@@ -24512,7 +24830,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <v>43214</v>
       </c>
@@ -24563,7 +24881,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <v>43306</v>
       </c>
@@ -24614,7 +24932,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <v>43193</v>
       </c>
@@ -24665,7 +24983,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <v>43196</v>
       </c>
@@ -24716,7 +25034,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="13">
         <v>43251</v>
       </c>
@@ -24767,7 +25085,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
         <v>69</v>
       </c>
@@ -24818,7 +25136,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="13">
         <v>43224</v>
       </c>
@@ -24869,7 +25187,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="13">
         <v>43295</v>
       </c>
@@ -24920,7 +25238,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="13">
         <v>43234</v>
       </c>
@@ -24971,7 +25289,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="13">
         <v>43216</v>
       </c>
@@ -25022,7 +25340,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="13">
         <v>43226</v>
       </c>
@@ -25073,7 +25391,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="13">
         <v>43283</v>
       </c>
@@ -25124,7 +25442,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="13">
         <v>43311</v>
       </c>
@@ -25175,7 +25493,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="13">
         <v>43233</v>
       </c>
@@ -25226,7 +25544,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="13">
         <v>43252</v>
       </c>
@@ -25277,7 +25595,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="13">
         <v>43275</v>
       </c>
@@ -25328,7 +25646,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="13">
         <v>43275</v>
       </c>
@@ -25379,7 +25697,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="13">
         <v>43265</v>
       </c>
@@ -25430,7 +25748,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13">
         <v>43340</v>
       </c>
@@ -25481,7 +25799,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="13">
         <v>43255</v>
       </c>
@@ -25532,7 +25850,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="13">
         <v>43267</v>
       </c>
@@ -25583,7 +25901,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="13">
         <v>43259</v>
       </c>
@@ -25634,7 +25952,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="13">
         <v>43276</v>
       </c>
@@ -25685,7 +26003,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="13">
         <v>43320</v>
       </c>
@@ -25736,7 +26054,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="13">
         <v>43303</v>
       </c>
@@ -25787,7 +26105,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="13">
         <v>43293</v>
       </c>
@@ -25838,7 +26156,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="13">
         <v>43268</v>
       </c>
@@ -25889,7 +26207,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="13">
         <v>43326</v>
       </c>
@@ -25940,7 +26258,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="13">
         <v>43313</v>
       </c>
@@ -25991,7 +26309,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="13">
         <v>43317</v>
       </c>
@@ -26042,7 +26360,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="13">
         <v>43328</v>
       </c>
@@ -26093,7 +26411,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="13">
         <v>43398</v>
       </c>
@@ -26144,7 +26462,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="13">
         <v>43343</v>
       </c>
@@ -26195,7 +26513,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="13">
         <v>43316</v>
       </c>
@@ -26246,7 +26564,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="13">
         <v>43336</v>
       </c>
@@ -26297,7 +26615,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="13">
         <v>43323</v>
       </c>
@@ -26348,7 +26666,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="13">
         <v>43311</v>
       </c>
@@ -26399,7 +26717,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="13">
         <v>43302</v>
       </c>
@@ -26450,7 +26768,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="13" t="s">
         <v>69</v>
       </c>
@@ -26501,7 +26819,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
         <v>69</v>
       </c>
@@ -26552,7 +26870,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="13">
         <v>43350</v>
       </c>
@@ -26603,7 +26921,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="13" t="s">
         <v>69</v>
       </c>
@@ -26654,7 +26972,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="13">
         <v>43409</v>
       </c>
@@ -26705,7 +27023,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="13">
         <v>43368</v>
       </c>
@@ -26756,7 +27074,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="13">
         <v>43341</v>
       </c>
@@ -26807,7 +27125,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="13">
         <v>43323</v>
       </c>
@@ -26858,7 +27176,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="13">
         <v>43360</v>
       </c>
@@ -26909,7 +27227,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="13">
         <v>43329</v>
       </c>
@@ -26960,7 +27278,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="13">
         <v>43336</v>
       </c>
@@ -27011,7 +27329,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="13">
         <v>43475</v>
       </c>
@@ -27062,7 +27380,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="13">
         <v>43393</v>
       </c>
@@ -27113,7 +27431,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="13">
         <v>43405</v>
       </c>
@@ -27164,7 +27482,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="13">
         <v>43370</v>
       </c>
@@ -27215,7 +27533,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="13">
         <v>43350</v>
       </c>
@@ -27266,7 +27584,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="13">
         <v>43365</v>
       </c>
@@ -27317,7 +27635,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="13">
         <v>43383</v>
       </c>
@@ -27368,7 +27686,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="13">
         <v>43412</v>
       </c>
@@ -27419,7 +27737,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="13">
         <v>43374</v>
       </c>
@@ -27470,7 +27788,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="13">
         <v>43422</v>
       </c>
@@ -27521,7 +27839,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="13">
         <v>43405</v>
       </c>
@@ -27572,7 +27890,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="13">
         <v>43369</v>
       </c>
@@ -27623,7 +27941,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="13">
         <v>43392</v>
       </c>
@@ -27674,7 +27992,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="13">
         <v>43399</v>
       </c>
@@ -27725,7 +28043,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="13">
         <v>43432</v>
       </c>
@@ -27776,7 +28094,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="13">
         <v>43382</v>
       </c>
@@ -27827,7 +28145,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="13">
         <v>43400</v>
       </c>
@@ -27878,7 +28196,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="13" t="s">
         <v>69</v>
       </c>
@@ -27929,7 +28247,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="13">
         <v>43435</v>
       </c>
@@ -27980,7 +28298,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="13">
         <v>43424</v>
       </c>
@@ -28031,7 +28349,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="13">
         <v>43398</v>
       </c>
@@ -28082,7 +28400,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="13" t="s">
         <v>69</v>
       </c>
@@ -28133,7 +28451,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="13">
         <v>43442</v>
       </c>
@@ -28184,7 +28502,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="13">
         <v>43431</v>
       </c>
@@ -28235,7 +28553,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="13">
         <v>43421</v>
       </c>
@@ -28286,7 +28604,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="13">
         <v>43418</v>
       </c>
@@ -28337,7 +28655,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="13">
         <v>43537</v>
       </c>
@@ -28388,7 +28706,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="13">
         <v>43425</v>
       </c>
@@ -28439,7 +28757,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="13">
         <v>43465</v>
       </c>
@@ -28490,7 +28808,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="13">
         <v>43457</v>
       </c>
@@ -28541,7 +28859,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="13">
         <v>43431</v>
       </c>
@@ -28592,7 +28910,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="13">
         <v>43434</v>
       </c>
@@ -28643,7 +28961,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="13" t="s">
         <v>69</v>
       </c>
@@ -28694,7 +29012,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="13">
         <v>43560</v>
       </c>
@@ -28745,7 +29063,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="13">
         <v>43503</v>
       </c>
@@ -28796,7 +29114,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="13">
         <v>43459</v>
       </c>
@@ -28847,7 +29165,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="13">
         <v>43497</v>
       </c>
@@ -28898,7 +29216,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="13">
         <v>43457</v>
       </c>
@@ -28949,7 +29267,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13">
         <v>43519</v>
       </c>
@@ -29000,7 +29318,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13">
         <v>43483</v>
       </c>
@@ -29102,7 +29420,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="13">
         <v>43473</v>
       </c>
@@ -29153,7 +29471,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="13">
         <v>43478</v>
       </c>
@@ -29204,7 +29522,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="13">
         <v>43538</v>
       </c>
@@ -29255,7 +29573,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="13">
         <v>43485</v>
       </c>
@@ -29306,7 +29624,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="13" t="s">
         <v>69</v>
       </c>
@@ -29408,7 +29726,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="13" t="s">
         <v>69</v>
       </c>
@@ -29459,7 +29777,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="13">
         <v>43494</v>
       </c>
@@ -29612,7 +29930,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="13">
         <v>43532</v>
       </c>
@@ -29663,7 +29981,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="13">
         <v>43540</v>
       </c>
@@ -29714,7 +30032,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="13">
         <v>43541</v>
       </c>
@@ -29765,7 +30083,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="13">
         <v>43549</v>
       </c>
@@ -29816,7 +30134,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="13">
         <v>43509</v>
       </c>
@@ -29867,7 +30185,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="13">
         <v>43512</v>
       </c>
@@ -29918,7 +30236,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="13">
         <v>43533</v>
       </c>
@@ -29969,7 +30287,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="13">
         <v>43540</v>
       </c>
@@ -30020,7 +30338,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="13">
         <v>43548</v>
       </c>
@@ -30071,7 +30389,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="13">
         <v>43522</v>
       </c>
@@ -30122,7 +30440,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="13">
         <v>43525</v>
       </c>
@@ -30173,7 +30491,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="13">
         <v>43527</v>
       </c>
@@ -30224,7 +30542,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="13">
         <v>43563</v>
       </c>
@@ -30275,7 +30593,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="13">
         <v>43578</v>
       </c>
@@ -30428,7 +30746,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="13" t="s">
         <v>69</v>
       </c>
@@ -30479,7 +30797,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="13">
         <v>43643</v>
       </c>
@@ -30530,7 +30848,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="13">
         <v>43558</v>
       </c>
@@ -30581,7 +30899,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="13">
         <v>43561</v>
       </c>
@@ -30632,7 +30950,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="13">
         <v>43625</v>
       </c>
@@ -30683,7 +31001,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="13">
         <v>43609</v>
       </c>
@@ -30734,7 +31052,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="13">
         <v>43615</v>
       </c>
@@ -30785,7 +31103,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="13">
         <v>43569</v>
       </c>
@@ -30836,7 +31154,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="13" t="s">
         <v>69</v>
       </c>
@@ -30938,7 +31256,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="13">
         <v>43683</v>
       </c>
@@ -30989,7 +31307,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="13">
         <v>43595</v>
       </c>
@@ -31040,7 +31358,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="13">
         <v>43594</v>
       </c>
@@ -31091,7 +31409,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="13">
         <v>43587</v>
       </c>
@@ -31142,7 +31460,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="13">
         <v>43626</v>
       </c>
@@ -31193,7 +31511,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="13">
         <v>43592</v>
       </c>
@@ -31244,7 +31562,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="13">
         <v>43603</v>
       </c>
@@ -31295,7 +31613,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="13">
         <v>43597</v>
       </c>
@@ -31346,7 +31664,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="13">
         <v>43631</v>
       </c>
@@ -31397,7 +31715,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="13">
         <v>43635</v>
       </c>
@@ -31499,7 +31817,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="13" t="s">
         <v>69</v>
       </c>
@@ -31550,7 +31868,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="13">
         <v>43655</v>
       </c>
@@ -31601,7 +31919,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="13" t="s">
         <v>69</v>
       </c>
@@ -31652,7 +31970,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="13">
         <v>43641</v>
       </c>
@@ -31703,7 +32021,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="13">
         <v>43649</v>
       </c>
@@ -31754,7 +32072,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="13">
         <v>43743</v>
       </c>
@@ -31805,7 +32123,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="13" t="s">
         <v>69</v>
       </c>
@@ -31856,7 +32174,7 @@
         <v>Vencida</v>
       </c>
     </row>
-    <row r="230" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="13">
         <v>43647</v>
       </c>
@@ -31907,7 +32225,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="231" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="13">
         <v>43687</v>
       </c>
@@ -31958,7 +32276,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="13">
         <v>43702</v>
       </c>
@@ -32009,7 +32327,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="13">
         <v>43710</v>
       </c>
@@ -32060,7 +32378,7 @@
         <v>Não Vencida</v>
       </c>
     </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="13">
         <v>43647</v>
       </c>
@@ -32133,9 +32451,9 @@
   <sheetPr codeName="Plan8"/>
   <dimension ref="B1:N232"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H232" sqref="H3:H232"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43005,7 +43323,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -2690,7 +2690,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3114,6 +3114,9 @@
     </xf>
     <xf numFmtId="172" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3661,6 +3664,175 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2700116271067987E-2"/>
+          <c:y val="0.11901312814762001"/>
+          <c:w val="0.95459976745786401"/>
+          <c:h val="0.64244832807639951"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DashBoardFinanceiroAnualD!$C$31:$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Entradas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saídas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DashBoardFinanceiroAnualD!$C$32:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>129286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:axId val="90639744"/>
+        <c:axId val="90724224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="90639744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90724224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90724224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90639744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -6173,6 +6345,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18419,8 +18623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18651,7 +18855,8 @@
       </c>
       <c r="H14" s="67"/>
       <c r="I14" s="71">
-        <v>-12</v>
+        <f>DashBoardFinanceiroAnualD!E32</f>
+        <v>-34051</v>
       </c>
       <c r="J14" s="49"/>
       <c r="K14" s="99"/>
@@ -18825,8 +19030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19617,10 +19822,22 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="103"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
+      <c r="B32" s="154">
+        <f>$C$4</f>
+        <v>2019</v>
+      </c>
+      <c r="C32" s="133">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],$B$32)</f>
+        <v>129286</v>
+      </c>
+      <c r="D32" s="133">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$B$32)</f>
+        <v>163337</v>
+      </c>
+      <c r="E32" s="134">
+        <f>C32-D32</f>
+        <v>-34051</v>
+      </c>
       <c r="F32" s="103"/>
       <c r="G32" s="103">
         <v>1</v>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="616">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -1898,6 +1898,30 @@
   </si>
   <si>
     <t>Dias de Atraso</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2714,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3118,6 +3142,9 @@
     <xf numFmtId="1" fontId="28" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -3125,15 +3152,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3166,6 +3184,15 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3823,6 +3850,196 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DashBoardFinanceiroAnualD!$I$32:$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DashBoardFinanceiroAnualD!$H$32:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="15"/>
+        <c:axId val="75681152"/>
+        <c:axId val="90748800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75681152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90748800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90748800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75681152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -6377,6 +6594,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15378,10 +15627,10 @@
     <tableColumn id="14" name="Conta Vencida" dataDxfId="21">
       <calculatedColumnFormula>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não Vencida")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Venda à Vista" dataDxfId="2">
+    <tableColumn id="15" name="Venda à Vista" dataDxfId="7">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Dias de Atraso" dataDxfId="1">
+    <tableColumn id="16" name="Dias de Atraso" dataDxfId="6">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",
  IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],
   TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],
@@ -15401,15 +15650,15 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:O232" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B3:O232">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2019" dateTimeGrouping="year"/>
+        <dateGroupItem year="2019" month="1" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0"/>
-      </customFilters>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Informática"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
@@ -15438,7 +15687,7 @@
     <tableColumn id="13" name="Ano Previsto" dataDxfId="8">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Dias de Atraso" dataDxfId="0">
+    <tableColumn id="14" name="Dias de Atraso" dataDxfId="5">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",
  IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],
   TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],
@@ -17775,7 +18024,7 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18611,7 +18860,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18624,7 +18873,7 @@
   <dimension ref="B1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18859,7 +19108,9 @@
         <v>-34051</v>
       </c>
       <c r="J14" s="49"/>
-      <c r="K14" s="99"/>
+      <c r="K14" s="99" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="68"/>
@@ -18872,7 +19123,8 @@
       <c r="I15" s="74"/>
       <c r="J15" s="49"/>
       <c r="K15" s="97">
-        <v>48</v>
+        <f>DashBoardFinanceiroAnualD!H44</f>
+        <v>22187</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18968,17 +19220,19 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexistente!" error="Selecione uma conta da lista." sqref="K14"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexistente!" error="Selecione uma conta da lista." sqref="K14">
+      <formula1>PCSaídasN2_Nível_2</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexisente!" error="Selecione um item da conta." sqref="K4">
       <formula1>PCEntradasN2_Nível_2</formula1>
     </dataValidation>
@@ -19030,8 +19284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19787,7 +20041,10 @@
       <c r="G30" s="105" t="s">
         <v>601</v>
       </c>
-      <c r="H30" s="129"/>
+      <c r="H30" s="129">
+        <f>$C$4</f>
+        <v>2019</v>
+      </c>
       <c r="I30" s="103"/>
       <c r="J30" s="103"/>
       <c r="K30" s="103"/>
@@ -19811,9 +20068,9 @@
       <c r="G31" s="109" t="s">
         <v>569</v>
       </c>
-      <c r="H31" s="131" t="str">
-        <f>[1]DashBoardFinanceiroAnual!K14</f>
-        <v>Vestuário</v>
+      <c r="H31" s="155" t="str">
+        <f>DashBoardFinanceiroAnual!$K$14</f>
+        <v>Informática</v>
       </c>
       <c r="I31" s="103"/>
       <c r="J31" s="103"/>
@@ -19838,12 +20095,16 @@
         <f>C32-D32</f>
         <v>-34051</v>
       </c>
-      <c r="F32" s="103"/>
       <c r="G32" s="103">
         <v>1</v>
       </c>
-      <c r="H32" s="115"/>
-      <c r="I32" s="103"/>
+      <c r="H32" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G32)</f>
+        <v>1628</v>
+      </c>
+      <c r="I32" s="103" t="s">
+        <v>608</v>
+      </c>
       <c r="J32" s="103"/>
       <c r="K32" s="103"/>
       <c r="L32" s="103"/>
@@ -19854,12 +20115,16 @@
       <c r="C33" s="103"/>
       <c r="D33" s="103"/>
       <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
       <c r="G33" s="103">
         <v>2</v>
       </c>
-      <c r="H33" s="115"/>
-      <c r="I33" s="103"/>
+      <c r="H33" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G33)</f>
+        <v>3519</v>
+      </c>
+      <c r="I33" s="103" t="s">
+        <v>609</v>
+      </c>
       <c r="J33" s="103"/>
       <c r="K33" s="103"/>
       <c r="L33" s="103"/>
@@ -19870,12 +20135,16 @@
       <c r="C34" s="103"/>
       <c r="D34" s="103"/>
       <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
       <c r="G34" s="103">
         <v>3</v>
       </c>
-      <c r="H34" s="115"/>
-      <c r="I34" s="103"/>
+      <c r="H34" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G34)</f>
+        <v>3695</v>
+      </c>
+      <c r="I34" s="103" t="s">
+        <v>610</v>
+      </c>
       <c r="J34" s="103"/>
       <c r="K34" s="103"/>
       <c r="L34" s="103"/>
@@ -19886,12 +20155,16 @@
       <c r="C35" s="103"/>
       <c r="D35" s="103"/>
       <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
       <c r="G35" s="103">
         <v>4</v>
       </c>
-      <c r="H35" s="115"/>
-      <c r="I35" s="103"/>
+      <c r="H35" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G35)</f>
+        <v>802</v>
+      </c>
+      <c r="I35" s="103" t="s">
+        <v>611</v>
+      </c>
       <c r="J35" s="103"/>
       <c r="K35" s="103"/>
       <c r="L35" s="103"/>
@@ -19902,12 +20175,16 @@
       <c r="C36" s="103"/>
       <c r="D36" s="103"/>
       <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
       <c r="G36" s="103">
         <v>5</v>
       </c>
-      <c r="H36" s="115"/>
-      <c r="I36" s="103"/>
+      <c r="H36" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G36)</f>
+        <v>6262</v>
+      </c>
+      <c r="I36" s="103" t="s">
+        <v>610</v>
+      </c>
       <c r="J36" s="103"/>
       <c r="K36" s="103"/>
       <c r="L36" s="103"/>
@@ -19918,12 +20195,16 @@
       <c r="C37" s="103"/>
       <c r="D37" s="103"/>
       <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
       <c r="G37" s="103">
         <v>6</v>
       </c>
-      <c r="H37" s="115"/>
-      <c r="I37" s="103"/>
+      <c r="H37" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G37)</f>
+        <v>6281</v>
+      </c>
+      <c r="I37" s="103" t="s">
+        <v>608</v>
+      </c>
       <c r="J37" s="103"/>
       <c r="K37" s="103"/>
       <c r="L37" s="103"/>
@@ -19934,12 +20215,16 @@
       <c r="C38" s="103"/>
       <c r="D38" s="103"/>
       <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
       <c r="G38" s="103">
         <v>7</v>
       </c>
-      <c r="H38" s="115"/>
-      <c r="I38" s="103"/>
+      <c r="H38" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G38)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="103" t="s">
+        <v>608</v>
+      </c>
       <c r="J38" s="103"/>
       <c r="K38" s="103"/>
       <c r="L38" s="103"/>
@@ -19950,12 +20235,16 @@
       <c r="C39" s="103"/>
       <c r="D39" s="103"/>
       <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
       <c r="G39" s="103">
         <v>8</v>
       </c>
-      <c r="H39" s="115"/>
-      <c r="I39" s="103"/>
+      <c r="H39" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="103" t="s">
+        <v>611</v>
+      </c>
       <c r="J39" s="103"/>
       <c r="K39" s="103"/>
       <c r="L39" s="103"/>
@@ -19966,12 +20255,16 @@
       <c r="C40" s="103"/>
       <c r="D40" s="103"/>
       <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
       <c r="G40" s="103">
         <v>9</v>
       </c>
-      <c r="H40" s="115"/>
-      <c r="I40" s="103"/>
+      <c r="H40" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="103" t="s">
+        <v>612</v>
+      </c>
       <c r="J40" s="103"/>
       <c r="K40" s="103"/>
       <c r="L40" s="103"/>
@@ -19982,12 +20275,16 @@
       <c r="C41" s="103"/>
       <c r="D41" s="103"/>
       <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
       <c r="G41" s="103">
         <v>10</v>
       </c>
-      <c r="H41" s="115"/>
-      <c r="I41" s="103"/>
+      <c r="H41" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="103" t="s">
+        <v>613</v>
+      </c>
       <c r="J41" s="103"/>
       <c r="K41" s="103"/>
       <c r="L41" s="103"/>
@@ -19998,12 +20295,16 @@
       <c r="C42" s="103"/>
       <c r="D42" s="103"/>
       <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
       <c r="G42" s="103">
         <v>11</v>
       </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="103"/>
+      <c r="H42" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G42)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="103" t="s">
+        <v>614</v>
+      </c>
       <c r="J42" s="103"/>
       <c r="K42" s="103"/>
       <c r="L42" s="103"/>
@@ -20014,12 +20315,16 @@
       <c r="C43" s="103"/>
       <c r="D43" s="103"/>
       <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
       <c r="G43" s="118">
         <v>12</v>
       </c>
-      <c r="H43" s="115"/>
-      <c r="I43" s="103"/>
+      <c r="H43" s="115">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="103" t="s">
+        <v>615</v>
+      </c>
       <c r="J43" s="103"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
@@ -20034,7 +20339,10 @@
       <c r="G44" s="109" t="s">
         <v>554</v>
       </c>
-      <c r="H44" s="135"/>
+      <c r="H44" s="135">
+        <f>SUM(H32:H43)</f>
+        <v>22187</v>
+      </c>
       <c r="I44" s="103"/>
       <c r="J44" s="103"/>
       <c r="K44" s="103"/>
@@ -20062,7 +20370,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20595,7 +20903,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36622,9 +36930,9 @@
   <sheetPr codeName="Plan8"/>
   <dimension ref="B1:O232"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O156" sqref="O156:O229"/>
+      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46491,7 +46799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="13" t="s">
         <v>69</v>
       </c>
@@ -47031,7 +47339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="13">
         <v>43569</v>
       </c>
@@ -47331,7 +47639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="13" t="s">
         <v>69</v>
       </c>
@@ -47511,7 +47819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="13" t="s">
         <v>69</v>
       </c>
@@ -47811,7 +48119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="13" t="s">
         <v>69</v>
       </c>
@@ -48111,7 +48419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="13" t="s">
         <v>69</v>
       </c>
@@ -48711,7 +49019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="13" t="s">
         <v>69</v>
       </c>
@@ -48771,7 +49079,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="13">
         <v>43647</v>
       </c>
@@ -48831,7 +49139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="13">
         <v>43578</v>
       </c>
@@ -49011,7 +49319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="13" t="s">
         <v>69</v>
       </c>
@@ -49131,7 +49439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="13">
         <v>43661</v>
       </c>
@@ -49911,7 +50219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="13" t="s">
         <v>69</v>
       </c>
@@ -50211,7 +50519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="13" t="s">
         <v>69</v>
       </c>

--- a/ProjetoFluxoCaixa.xlsx
+++ b/ProjetoFluxoCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,23 @@
     <sheet name="ContasPagar" sheetId="13" r:id="rId12"/>
     <sheet name="ContasReceber" sheetId="14" r:id="rId13"/>
     <sheet name="ContasReceberVencidas" sheetId="15" r:id="rId14"/>
-    <sheet name="DashBoardFinanceiroAtual" sheetId="16" r:id="rId15"/>
+    <sheet name="DashBoardFinanceiroAtual" sheetId="21" r:id="rId15"/>
     <sheet name="DashBoardFinanceiroAtualD" sheetId="20" r:id="rId16"/>
     <sheet name="DashBoardFinanceiroAnual" sheetId="18" r:id="rId17"/>
     <sheet name="DashBoardFinanceiroAnualD" sheetId="19" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId19"/>
-  </externalReferences>
   <definedNames>
+    <definedName name="PCEntradasN1_Nível_1" localSheetId="14">TbPCEntradasN1[Nível 1]</definedName>
     <definedName name="PCEntradasN1_Nível_1">TbPCEntradasN1[Nível 1]</definedName>
+    <definedName name="PCEntradasN2_Nível_1" localSheetId="14">TbPCEntradasN2[Nível 1]</definedName>
     <definedName name="PCEntradasN2_Nível_1">TbPCEntradasN2[Nível 1]</definedName>
+    <definedName name="PCEntradasN2_Nível_2" localSheetId="14">TbPCEntradasN2[Nível 2]</definedName>
     <definedName name="PCEntradasN2_Nível_2">TbPCEntradasN2[Nível 2]</definedName>
+    <definedName name="PCSaídasN1_Nível_1" localSheetId="14">TbPCSaídasN1[Nível 1]</definedName>
     <definedName name="PCSaídasN1_Nível_1">TbPCSaídasN1[Nível 1]</definedName>
+    <definedName name="PCSaídasN2_Nível_1" localSheetId="14">TbPCSaídasN2[Nível 1]</definedName>
     <definedName name="PCSaídasN2_Nível_1">TbPCSaídasN2[Nível 1]</definedName>
+    <definedName name="PCSaídasN2_Nível_2" localSheetId="14">TbPCSaídasN2[Nível 2]</definedName>
     <definedName name="PCSaídasN2_Nível_2">TbPCSaídasN2[Nível 2]</definedName>
     <definedName name="SegmentaçãodeDados_Ano_Competência">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Ano_Competência1">#N/A</definedName>
@@ -48,12 +51,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId20"/>
-    <pivotCache cacheId="1" r:id="rId21"/>
+    <pivotCache cacheId="6" r:id="rId19"/>
+    <pivotCache cacheId="7" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId21"/>
         <x14:slicerCache r:id="rId22"/>
         <x14:slicerCache r:id="rId23"/>
         <x14:slicerCache r:id="rId24"/>
@@ -62,7 +66,6 @@
         <x14:slicerCache r:id="rId27"/>
         <x14:slicerCache r:id="rId28"/>
         <x14:slicerCache r:id="rId29"/>
-        <x14:slicerCache r:id="rId30"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -73,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="616">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -1935,7 +1938,7 @@
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -2714,7 +2717,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2843,9 +2846,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
@@ -2858,17 +2858,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="17" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1"/>
@@ -3091,20 +3082,23 @@
     <xf numFmtId="1" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="32" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3133,17 +3127,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3151,7 +3142,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3177,19 +3180,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3261,6 +3251,12 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3434,7 +3430,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>DashBoardFinanceiroAnualD!$L$5:$L$16</c:f>
+              <c:f>DashBoardFinanceiroAtualD!$L$5:$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3478,7 +3474,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DashBoardFinanceiroAnualD!$K$5:$K$16</c:f>
+              <c:f>DashBoardFinanceiroAtualD!$K$5:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3486,31 +3482,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10916</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9948</c:v>
+                  <c:v>9454</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1620</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2194</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>2356</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -3533,11 +3529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145618816"/>
-        <c:axId val="145620352"/>
+        <c:axId val="127013632"/>
+        <c:axId val="127015168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145618816"/>
+        <c:axId val="127013632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145620352"/>
+        <c:crossAx val="127015168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3554,7 +3550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145620352"/>
+        <c:axId val="127015168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3564,7 +3560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145618816"/>
+        <c:crossAx val="127013632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3631,7 +3627,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>DashBoardFinanceiroAnualD!$C$21:$D$21</c:f>
+              <c:f>DashBoardFinanceiroAtualD!$C$21:$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3645,7 +3641,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DashBoardFinanceiroAnualD!$C$22:$D$22</c:f>
+              <c:f>DashBoardFinanceiroAtualD!$C$22:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3775,7 +3771,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>DashBoardFinanceiroAnualD!$C$31:$D$31</c:f>
+              <c:f>DashBoardFinanceiroAtualD!$C$31:$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3789,7 +3785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DashBoardFinanceiroAnualD!$C$32:$D$32</c:f>
+              <c:f>DashBoardFinanceiroAtualD!$C$32:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3812,11 +3808,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="10"/>
-        <c:axId val="90639744"/>
-        <c:axId val="90724224"/>
+        <c:axId val="127239296"/>
+        <c:axId val="127240832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90639744"/>
+        <c:axId val="127239296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,7 +3821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90724224"/>
+        <c:crossAx val="127240832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3833,7 +3829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90724224"/>
+        <c:axId val="127240832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90639744"/>
+        <c:crossAx val="127239296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3873,6 +3869,673 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DashBoardFinanceiroAtualD!$I$32:$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DashBoardFinanceiroAtualD!$H$32:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="15"/>
+        <c:axId val="127399808"/>
+        <c:axId val="127401344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127399808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127401344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127401344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127399808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DashBoardFinanceiroAnualD!$L$5:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DashBoardFinanceiroAnualD!$K$5:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3742</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="152788992"/>
+        <c:axId val="152790528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="152788992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152790528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152790528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152788992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2898913336767478E-2"/>
+          <c:y val="5.7978652668416446E-2"/>
+          <c:w val="0.61965609439007041"/>
+          <c:h val="0.88404269466316709"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DashBoardFinanceiroAnualD!$C$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>À Vista</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A Prazo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DashBoardFinanceiroAnualD!$C$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>102054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="45"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68414550984865208"/>
+          <c:y val="0.33926299212598426"/>
+          <c:w val="0.29716290136630119"/>
+          <c:h val="0.32147401574803147"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2700116271067987E-2"/>
+          <c:y val="0.11901312814762001"/>
+          <c:w val="0.95459976745786401"/>
+          <c:h val="0.64244832807639951"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DashBoardFinanceiroAnualD!$C$31:$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Entradas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saídas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DashBoardFinanceiroAnualD!$C$32:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>313714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:axId val="154961792"/>
+        <c:axId val="157987200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="154961792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157987200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157987200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154961792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3953,40 +4616,40 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1628</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3519</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3695</c:v>
+                  <c:v>7797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>802</c:v>
+                  <c:v>6298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6281</c:v>
+                  <c:v>5481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10264</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4084</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5214</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,11 +4664,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="15"/>
-        <c:axId val="75681152"/>
-        <c:axId val="90748800"/>
+        <c:axId val="184513664"/>
+        <c:axId val="184515200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75681152"/>
+        <c:axId val="184513664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90748800"/>
+        <c:crossAx val="184515200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4023,7 +4686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90748800"/>
+        <c:axId val="184515200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +4696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75681152"/>
+        <c:crossAx val="184513664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6365,6 +7028,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -6378,8 +7073,8 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6426,6 +7121,102 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7187,76 +7978,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Início"/>
-      <sheetName val="Matriz"/>
-      <sheetName val="PCEntradasN1"/>
-      <sheetName val="PCEntradasN2"/>
-      <sheetName val="PCSaídasN1"/>
-      <sheetName val="PCSaídasN2"/>
-      <sheetName val="RegistroEntradas"/>
-      <sheetName val="RegistroSaídas"/>
-      <sheetName val="FluxoCaixaConsolidado"/>
-      <sheetName val="DetalhaReceita"/>
-      <sheetName val="DetalhaDespesa"/>
-      <sheetName val="ContasPagar"/>
-      <sheetName val="ContasReceber"/>
-      <sheetName val="ContasReceberVencidas"/>
-      <sheetName val="DashBoardFinanceiroAnual"/>
-      <sheetName val="DashBoardFinanceiroAnualD"/>
-      <sheetName val="DashBoardFinanceiroAtual"/>
-      <sheetName val="DashBoardFinanceiroAtualD"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="14">
-          <cell r="K14" t="str">
-            <v>Vestuário</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="4">
-          <cell r="K4" t="str">
-            <v>Livros</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14" t="str">
-            <v>Vestuário</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="22">
-          <cell r="E22">
-            <v>271771</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43944.785856828705" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="231">
   <cacheSource type="worksheet">
@@ -14625,7 +15346,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaReceita" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaReceita" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:O14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -14767,7 +15488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaDespesa" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdDetalhaDespesa" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:O14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -14908,7 +15629,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdContasPagar" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdContasPagar" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:I13" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -15042,7 +15763,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdContasReceber" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdContasReceber" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:I15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -15183,7 +15904,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdContasReceberVencidas" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TdContasReceberVencidas" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:L14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -15543,7 +16264,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="B4:B9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -15553,7 +16274,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37">
   <autoFilter ref="B4:C13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -15564,7 +16285,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -15574,7 +16295,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C16" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="B4:C16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nível 1"/>
@@ -15585,7 +16306,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:Q234" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:Q234" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="B3:Q234">
     <filterColumn colId="2">
       <filters>
@@ -15599,38 +16320,38 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="31"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="30"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="29"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="32"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="31"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="30"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="28"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="27">
+    <tableColumn id="7" name="Valor" dataDxfId="29"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="28">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="26">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="27">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês Competência" dataDxfId="25">
+    <tableColumn id="10" name="Mês Competência" dataDxfId="26">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano Competência" dataDxfId="24">
+    <tableColumn id="11" name="Ano Competência" dataDxfId="25">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês Previsto" dataDxfId="23">
+    <tableColumn id="12" name="Mês Previsto" dataDxfId="24">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="22">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="23">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Conta Vencida" dataDxfId="21">
+    <tableColumn id="14" name="Conta Vencida" dataDxfId="22">
       <calculatedColumnFormula>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não Vencida")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Venda à Vista" dataDxfId="7">
+    <tableColumn id="15" name="Venda à Vista" dataDxfId="21">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Dias de Atraso" dataDxfId="6">
+    <tableColumn id="16" name="Dias de Atraso" dataDxfId="20">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",
  IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],
   TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],
@@ -15648,7 +16369,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:O232" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:O232" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="B3:O232">
     <filterColumn colId="0">
       <filters>
@@ -15662,32 +16383,32 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="17"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="16"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="15"/>
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="16"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="15"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="14"/>
     <tableColumn id="4" name="Conta Nível 1"/>
     <tableColumn id="5" name="Conta Nível 2"/>
     <tableColumn id="6" name="Histórico"/>
-    <tableColumn id="7" name="Valor" dataDxfId="14"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="13">
+    <tableColumn id="7" name="Valor" dataDxfId="13"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="12">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="12">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="11">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês Competência" dataDxfId="11">
+    <tableColumn id="10" name="Mês Competência" dataDxfId="10">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano Competência" dataDxfId="10">
+    <tableColumn id="11" name="Ano Competência" dataDxfId="9">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês Previsto" dataDxfId="9">
+    <tableColumn id="12" name="Mês Previsto" dataDxfId="8">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="8">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="7">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Dias de Atraso" dataDxfId="5">
+    <tableColumn id="14" name="Dias de Atraso" dataDxfId="6">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",
  IF(TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],
   TbRegistroSaídas[[#This Row],[Data do Caixa Realizado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],
@@ -17687,11 +18408,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Plan15"/>
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17737,8 +18457,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="98">
-        <v>43404</v>
+      <c r="K2" s="94">
+        <v>43804</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17754,79 +18474,86 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="84" t="s">
         <v>550</v>
       </c>
       <c r="C4" s="49"/>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="85" t="s">
         <v>551</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="91" t="s">
         <v>552</v>
       </c>
       <c r="J4" s="51"/>
-      <c r="K4" s="100"/>
+      <c r="K4" s="96" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52">
-        <v>1234</v>
+      <c r="B5" s="149">
+        <f>DashBoardFinanceiroAtualD!$C$11</f>
+        <v>21057</v>
       </c>
       <c r="C5" s="49"/>
-      <c r="D5" s="53"/>
+      <c r="D5" s="52" t="s">
+        <v>605</v>
+      </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="58"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="84" t="s">
         <v>553</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="147"/>
+      <c r="D7" s="144"/>
       <c r="E7" s="49"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="94" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="90" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="59">
-        <v>123</v>
+      <c r="B8" s="150">
+        <f>DashBoardFinanceiroAtualD!$D$13</f>
+        <v>27321</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="148"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="49"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="60">
-        <v>-123</v>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="135">
+        <f>SUM(DashBoardFinanceiroAtualD!J5:J16)</f>
+        <v>12318</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17834,187 +18561,194 @@
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="61"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="84" t="s">
         <v>555</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="147"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="61"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="62">
-        <v>1234</v>
+      <c r="B11" s="151">
+        <f>DashBoardFinanceiroAtualD!$D$14</f>
+        <v>20687</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="148"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
     </row>
     <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="146" t="s">
         <v>556</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="49"/>
-      <c r="F13" s="149" t="s">
+      <c r="F13" s="146" t="s">
         <v>557</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="92" t="s">
+      <c r="G13" s="148"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="88" t="s">
         <v>558</v>
       </c>
       <c r="J13" s="49"/>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="89" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="86" t="s">
         <v>560</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="87" t="s">
         <v>561</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="71">
-        <v>-12</v>
+      <c r="H14" s="63"/>
+      <c r="I14" s="67">
+        <f>DashBoardFinanceiroAtualD!E32</f>
+        <v>-34051</v>
       </c>
       <c r="J14" s="49"/>
-      <c r="K14" s="99"/>
+      <c r="K14" s="95" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="49"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="74"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="49"/>
-      <c r="K15" s="97">
-        <v>48</v>
+      <c r="K15" s="93">
+        <f>DashBoardFinanceiroAtualD!H44</f>
+        <v>40920</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="75">
-        <f>[1]DashBoardFinanceiroAtualD!E22</f>
-        <v>271771</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="71">
+        <f>DashBoardFinanceiroAtualD!E22</f>
+        <v>129286</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="49"/>
-      <c r="F16" s="76">
-        <v>12</v>
-      </c>
-      <c r="G16" s="96">
-        <v>5</v>
-      </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="74"/>
+      <c r="F16" s="72">
+        <f ca="1">DashBoardFinanceiroAtualD!E27</f>
+        <v>175.65</v>
+      </c>
+      <c r="G16" s="92">
+        <f ca="1">DashBoardFinanceiroAtualD!J27</f>
+        <v>254.5</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="49"/>
-      <c r="K16" s="77"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="75"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="49"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="49"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="70"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="76" t="s">
         <v>562</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="74"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="49"/>
-      <c r="K18" s="77"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="49"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="86"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="82"/>
       <c r="J19" s="49"/>
-      <c r="K19" s="87"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18024,16 +18758,67 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexisente!" error="Selecione um item da conta." sqref="K4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexistente!" error="Selecione uma conta da lista." sqref="K14"/>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexisente!" error="Selecione um item da conta." sqref="K4">
+      <formula1>PCEntradasN2_Nível_2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conta Inexistente!" error="Selecione uma conta da lista." sqref="K14">
+      <formula1>PCSaídasN2_Nível_2</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>1</formula1>
+      <formula2>219148</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative theme="4"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
+          <x14:colorLast theme="4" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
+          <x14:colorLow theme="4" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>DashBoardFinanceiroAtualD!G5:G16</xm:f>
+              <xm:sqref>D7</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>DashBoardFinanceiroAtualD!H5:H16</xm:f>
+              <xm:sqref>D10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18041,826 +18826,1110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="100" t="s">
         <v>603</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="105" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="101" t="s">
         <v>565</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="105" t="s">
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="101" t="s">
         <v>566</v>
       </c>
-      <c r="K3" s="106" t="s">
+      <c r="K3" s="102" t="s">
         <v>567</v>
       </c>
-      <c r="L3" s="107"/>
+      <c r="L3" s="103">
+        <f>$C$4</f>
+        <v>2019</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="102" t="s">
         <v>568</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="109" t="s">
+      <c r="C4" s="104">
+        <f>YEAR($C$5)</f>
+        <v>2019</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="106" t="s">
         <v>570</v>
       </c>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="111" t="str">
-        <f>[1]DashBoardFinanceiroAtual!K4</f>
-        <v>Livros</v>
-      </c>
-      <c r="K4" s="109" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="107" t="str">
+        <f>DashBoardFinanceiroAtual!K4</f>
+        <v>Eletrodomésticos</v>
+      </c>
+      <c r="K4" s="105" t="s">
         <v>572</v>
       </c>
-      <c r="L4" s="109" t="s">
+      <c r="L4" s="105" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="99"/>
+      <c r="B5" s="102" t="s">
         <v>604</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="112">
+      <c r="C5" s="132">
+        <f>DashBoardFinanceiroAtual!K2</f>
+        <v>43804</v>
+      </c>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="108">
         <v>1</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="114" t="s">
+      <c r="G5" s="109">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F5)</f>
+        <v>3042</v>
+      </c>
+      <c r="H5" s="109">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F5)</f>
+        <v>1209</v>
+      </c>
+      <c r="I5" s="99"/>
+      <c r="J5" s="109">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="109" t="e">
+        <f>IF(J5=0,NA(),J5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="110" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99">
         <v>2</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="106" t="s">
+      <c r="G6" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F6)</f>
+        <v>7524</v>
+      </c>
+      <c r="H6" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F6)</f>
+        <v>1992</v>
+      </c>
+      <c r="I6" s="99"/>
+      <c r="J6" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="111" t="e">
+        <f t="shared" ref="K6:K16" si="0">IF(J6=0,NA(),J6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="102" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="105" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="101" t="s">
         <v>575</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99">
         <v>3</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="106" t="s">
+      <c r="G7" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="99"/>
+      <c r="J7" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F7)</f>
+        <v>9454</v>
+      </c>
+      <c r="K7" s="111">
+        <f t="shared" si="0"/>
+        <v>9454</v>
+      </c>
+      <c r="L7" s="102" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="108" t="s">
         <v>577</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103">
+      <c r="C8" s="112">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"&lt;"&amp;$C$4,TbRegistroEntradas[Ano Caixa],"&lt;&gt;0")-SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],"&lt;"&amp;$C$4,TbRegistroSaídas[Ano Caixa],"&lt;&gt;0")</f>
+        <v>55108</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99">
         <v>4</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="106" t="s">
+      <c r="G8" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F8)</f>
+        <v>3690</v>
+      </c>
+      <c r="H8" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F8)</f>
+        <v>4797</v>
+      </c>
+      <c r="I8" s="99"/>
+      <c r="J8" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="111" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="102" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103">
+      <c r="C9" s="113">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5)</f>
+        <v>129286</v>
+      </c>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99">
         <v>5</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="106" t="s">
+      <c r="G9" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F9)</f>
+        <v>7220</v>
+      </c>
+      <c r="H9" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F9)</f>
+        <v>6672</v>
+      </c>
+      <c r="I9" s="99"/>
+      <c r="J9" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="111" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="102" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103">
+      <c r="C10" s="113">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5)</f>
+        <v>163337</v>
+      </c>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99">
         <v>6</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="106" t="s">
+      <c r="G10" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F10)</f>
+        <v>3086</v>
+      </c>
+      <c r="H10" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F10)</f>
+        <v>1482</v>
+      </c>
+      <c r="I10" s="99"/>
+      <c r="J10" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="111" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="102" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="118" t="s">
+      <c r="A11" s="99"/>
+      <c r="B11" s="114" t="s">
         <v>583</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103">
+      <c r="C11" s="115">
+        <f>C8+(C9-C10)</f>
+        <v>21057</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99">
         <v>7</v>
       </c>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="106" t="s">
+      <c r="G11" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F11)</f>
+        <v>4535</v>
+      </c>
+      <c r="I11" s="99"/>
+      <c r="J11" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="111" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="102" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99">
         <v>8</v>
       </c>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="106" t="s">
+      <c r="G12" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F12)</f>
+        <v>2759</v>
+      </c>
+      <c r="H12" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="99"/>
+      <c r="J12" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F12)</f>
+        <v>2356</v>
+      </c>
+      <c r="K12" s="111">
+        <f t="shared" si="0"/>
+        <v>2356</v>
+      </c>
+      <c r="L12" s="102" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="120" t="s">
+      <c r="A13" s="99"/>
+      <c r="B13" s="116" t="s">
         <v>586</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103">
+      <c r="C13" s="116"/>
+      <c r="D13" s="112">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5)</f>
+        <v>27321</v>
+      </c>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99">
         <v>9</v>
       </c>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="106" t="s">
+      <c r="G13" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="99"/>
+      <c r="J13" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="111" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="102" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
-      <c r="B14" s="121" t="s">
+      <c r="A14" s="99"/>
+      <c r="B14" s="117" t="s">
         <v>588</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103">
+      <c r="C14" s="117"/>
+      <c r="D14" s="118">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5)</f>
+        <v>20687</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99">
         <v>10</v>
       </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="106" t="s">
+      <c r="G14" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="99"/>
+      <c r="J14" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F14)</f>
+        <v>508</v>
+      </c>
+      <c r="K14" s="111">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="L14" s="102" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103">
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99">
         <v>11</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="106" t="s">
+      <c r="G15" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="99"/>
+      <c r="J15" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="111" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="102" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="118">
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="114">
         <v>12</v>
       </c>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124" t="s">
+      <c r="G16" s="119">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Previsto],F16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="119">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Previsto],F16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="99"/>
+      <c r="J16" s="119">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroEntradas[Mês Caixa],F16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="119" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="120" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="105" t="s">
+      <c r="A20" s="99"/>
+      <c r="B20" s="101" t="s">
         <v>592</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="109" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="106" t="s">
         <v>594</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="106" t="s">
         <v>595</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="106" t="s">
         <v>554</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="122">
+        <f>$C$4</f>
+        <v>2019</v>
+      </c>
+      <c r="C22" s="123">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Venda à Vista],"Vista",TbRegistroEntradas[Ano Caixa],$B$22,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5)</f>
+        <v>39755</v>
+      </c>
+      <c r="D22" s="123">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Venda à Vista],"Prazo",TbRegistroEntradas[Ano Caixa],$B$22,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5)</f>
+        <v>89531</v>
+      </c>
+      <c r="E22" s="123">
+        <f>C22+D22</f>
+        <v>129286</v>
+      </c>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
-      <c r="B25" s="105" t="s">
+      <c r="A25" s="99"/>
+      <c r="B25" s="101" t="s">
         <v>596</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="105" t="s">
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="101" t="s">
         <v>597</v>
       </c>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
-      <c r="B26" s="109" t="s">
+      <c r="A26" s="99"/>
+      <c r="B26" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="106" t="s">
         <v>598</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="106" t="s">
         <v>599</v>
       </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="109" t="s">
+      <c r="F26" s="99"/>
+      <c r="G26" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="H26" s="110" t="s">
+      <c r="H26" s="106" t="s">
         <v>598</v>
       </c>
-      <c r="I26" s="110" t="s">
+      <c r="I26" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="J26" s="110" t="s">
+      <c r="J26" s="106" t="s">
         <v>599</v>
       </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="122">
+        <f>$C$4</f>
+        <v>2019</v>
+      </c>
+      <c r="C27" s="124">
+        <f ca="1">COUNTIFS(TbRegistroEntradas[Dias de Atraso],"&gt;0",TbRegistroEntradas[Ano Previsto],$B$27,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5)</f>
+        <v>20</v>
+      </c>
+      <c r="D27" s="124">
+        <f ca="1">SUMIFS(TbRegistroEntradas[Dias de Atraso],TbRegistroEntradas[Dias de Atraso],"&gt;0",TbRegistroEntradas[Ano Previsto],$B$27,TbRegistroEntradas[Data do Caixa Previsto],"&lt;="&amp;$C$5)</f>
+        <v>3513</v>
+      </c>
+      <c r="E27" s="124">
+        <f ca="1">D27/C27</f>
+        <v>175.65</v>
+      </c>
+      <c r="F27" s="99"/>
+      <c r="G27" s="122">
+        <f>$C$4</f>
+        <v>2019</v>
+      </c>
+      <c r="H27" s="124">
+        <f ca="1">COUNTIFS(TbRegistroSaídas[Dias de Atraso],"&gt;0",TbRegistroSaídas[Ano Previsto],$G$27,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5)</f>
+        <v>14</v>
+      </c>
+      <c r="I27" s="124">
+        <f ca="1">SUMIFS(TbRegistroSaídas[Dias de Atraso],TbRegistroSaídas[Dias de Atraso],"&gt;0",TbRegistroSaídas[Ano Previsto],$G$27,TbRegistroSaídas[Data do Caixa Previsto],"&lt;="&amp;$C$5)</f>
+        <v>3563</v>
+      </c>
+      <c r="J27" s="124">
+        <f ca="1">I27/H27</f>
+        <v>254.5</v>
+      </c>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
-      <c r="B30" s="105" t="s">
+      <c r="A30" s="99"/>
+      <c r="B30" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="105" t="s">
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="101" t="s">
         <v>601</v>
       </c>
-      <c r="H30" s="129">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
+      <c r="H30" s="125">
+        <f>$C$4</f>
+        <v>2019</v>
+      </c>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="103"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="99"/>
+      <c r="B31" s="126" t="s">
         <v>593</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="110" t="s">
         <v>579</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="110" t="s">
         <v>581</v>
       </c>
-      <c r="E31" s="114" t="s">
+      <c r="E31" s="110" t="s">
         <v>602</v>
       </c>
-      <c r="F31" s="103"/>
-      <c r="G31" s="109" t="s">
+      <c r="F31" s="99"/>
+      <c r="G31" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="H31" s="131" t="str">
-        <f>[1]DashBoardFinanceiroAtual!K14</f>
-        <v>Vestuário</v>
-      </c>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
+      <c r="H31" s="127" t="str">
+        <f>DashBoardFinanceiroAtual!$K$14</f>
+        <v>Som e imagem</v>
+      </c>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103">
+      <c r="A32" s="99"/>
+      <c r="B32" s="128">
+        <f>$C$4</f>
+        <v>2019</v>
+      </c>
+      <c r="C32" s="129">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],$B$32,TbRegistroEntradas[Data do Caixa Realizado],"&lt;="&amp;$C$5)</f>
+        <v>129286</v>
+      </c>
+      <c r="D32" s="129">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$B$32,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5)</f>
+        <v>163337</v>
+      </c>
+      <c r="E32" s="130">
+        <f>C32-D32</f>
+        <v>-34051</v>
+      </c>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99">
         <v>1</v>
       </c>
-      <c r="H32" s="115"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
+      <c r="H32" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G32)</f>
+        <v>12243</v>
+      </c>
+      <c r="I32" s="99" t="s">
+        <v>608</v>
+      </c>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103">
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99">
         <v>2</v>
       </c>
-      <c r="H33" s="115"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
+      <c r="H33" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G33)</f>
+        <v>6260</v>
+      </c>
+      <c r="I33" s="99" t="s">
+        <v>609</v>
+      </c>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99">
         <v>3</v>
       </c>
-      <c r="H34" s="115"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
+      <c r="H34" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G34)</f>
+        <v>3565</v>
+      </c>
+      <c r="I34" s="99" t="s">
+        <v>610</v>
+      </c>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103">
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99">
         <v>4</v>
       </c>
-      <c r="H35" s="115"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
+      <c r="H35" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G35)</f>
+        <v>5499</v>
+      </c>
+      <c r="I35" s="99" t="s">
+        <v>611</v>
+      </c>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103">
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99">
         <v>5</v>
       </c>
-      <c r="H36" s="115"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
+      <c r="H36" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G36)</f>
+        <v>4597</v>
+      </c>
+      <c r="I36" s="99" t="s">
+        <v>610</v>
+      </c>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103">
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99">
         <v>6</v>
       </c>
-      <c r="H37" s="115"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
+      <c r="H37" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G37)</f>
+        <v>4983</v>
+      </c>
+      <c r="I37" s="99" t="s">
+        <v>608</v>
+      </c>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103">
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99">
         <v>7</v>
       </c>
-      <c r="H38" s="115"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
+      <c r="H38" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G38)</f>
+        <v>3773</v>
+      </c>
+      <c r="I38" s="99" t="s">
+        <v>608</v>
+      </c>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103">
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99">
         <v>8</v>
       </c>
-      <c r="H39" s="115"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
+      <c r="H39" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="99" t="s">
+        <v>611</v>
+      </c>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103">
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99">
         <v>9</v>
       </c>
-      <c r="H40" s="115"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
+      <c r="H40" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="99" t="s">
+        <v>612</v>
+      </c>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103">
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99">
         <v>10</v>
       </c>
-      <c r="H41" s="115"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
+      <c r="H41" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="99" t="s">
+        <v>613</v>
+      </c>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="103"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103">
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99">
         <v>11</v>
       </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
+      <c r="H42" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G42)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="99" t="s">
+        <v>614</v>
+      </c>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="103"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="118">
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="114">
         <v>12</v>
       </c>
-      <c r="H43" s="115"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
+      <c r="H43" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Data do Caixa Realizado],"&lt;="&amp;$C$5,TbRegistroSaídas[Mês Caixa],G43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="99" t="s">
+        <v>615</v>
+      </c>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="103"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="109" t="s">
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="105" t="s">
         <v>554</v>
       </c>
-      <c r="H44" s="135"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
+      <c r="H44" s="131">
+        <f>SUM(H32:H43)</f>
+        <v>40920</v>
+      </c>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="103"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18872,8 +19941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18919,8 +19988,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="102">
-        <v>2019</v>
+      <c r="K2" s="98">
+        <v>2018</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18936,86 +20005,86 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="84" t="s">
         <v>550</v>
       </c>
       <c r="C4" s="49"/>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="85" t="s">
         <v>551</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="91" t="s">
         <v>552</v>
       </c>
       <c r="J4" s="51"/>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="96" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="138">
+      <c r="B5" s="149">
         <f>DashBoardFinanceiroAnualD!$C$11</f>
-        <v>21057</v>
+        <v>55108</v>
       </c>
       <c r="C5" s="49"/>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>605</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="58"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="84" t="s">
         <v>553</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="147"/>
+      <c r="D7" s="144"/>
       <c r="E7" s="49"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="94" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="90" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="139">
+      <c r="B8" s="150">
         <f>DashBoardFinanceiroAnualD!$D$13</f>
-        <v>27321</v>
+        <v>46816</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="148"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="49"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="142">
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="135">
         <f>SUM(DashBoardFinanceiroAnualD!J5:J16)</f>
-        <v>24678</v>
+        <v>33807</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19023,194 +20092,194 @@
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="61"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="84" t="s">
         <v>555</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="147"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="61"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="140">
+      <c r="B11" s="151">
         <f>DashBoardFinanceiroAnualD!$D$14</f>
-        <v>20687</v>
+        <v>31482</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="148"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
     </row>
     <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="146" t="s">
         <v>556</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="49"/>
-      <c r="F13" s="149" t="s">
+      <c r="F13" s="146" t="s">
         <v>557</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="92" t="s">
+      <c r="G13" s="148"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="88" t="s">
         <v>558</v>
       </c>
       <c r="J13" s="49"/>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="89" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="86" t="s">
         <v>560</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="87" t="s">
         <v>561</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="71">
+      <c r="H14" s="63"/>
+      <c r="I14" s="67">
         <f>DashBoardFinanceiroAnualD!E32</f>
-        <v>-34051</v>
+        <v>56149</v>
       </c>
       <c r="J14" s="49"/>
-      <c r="K14" s="99" t="s">
+      <c r="K14" s="95" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="49"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="74"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="49"/>
-      <c r="K15" s="97">
+      <c r="K15" s="93">
         <f>DashBoardFinanceiroAnualD!H44</f>
-        <v>22187</v>
+        <v>50130</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="75">
+      <c r="B16" s="71">
         <f>DashBoardFinanceiroAnualD!E22</f>
-        <v>129286</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="70"/>
+        <v>313714</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="49"/>
-      <c r="F16" s="76">
+      <c r="F16" s="72">
         <f ca="1">DashBoardFinanceiroAnualD!E27</f>
-        <v>175.65</v>
-      </c>
-      <c r="G16" s="96">
+        <v>247.08571428571429</v>
+      </c>
+      <c r="G16" s="92">
         <f ca="1">DashBoardFinanceiroAnualD!J27</f>
-        <v>254.5</v>
-      </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="74"/>
+        <v>465.71428571428572</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="49"/>
-      <c r="K16" s="77"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="75"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="49"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="49"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="70"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="76" t="s">
         <v>562</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="74"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="49"/>
-      <c r="K18" s="77"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="49"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="86"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="82"/>
       <c r="J19" s="49"/>
-      <c r="K19" s="87"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -19220,12 +20289,12 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19243,6 +20312,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>DashBoardFinanceiroAnualD!H5:H16</xm:f>
+              <xm:sqref>D10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative theme="4"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -19258,22 +20343,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>DashBoardFinanceiroAnualD!H5:H16</xm:f>
-              <xm:sqref>D10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -19284,8 +20353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19298,1079 +20367,1079 @@
     <col min="6" max="6" width="4.85546875" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="100" t="s">
         <v>564</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="105" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="101" t="s">
         <v>565</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="105" t="s">
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="101" t="s">
         <v>566</v>
       </c>
-      <c r="K3" s="106" t="s">
+      <c r="K3" s="102" t="s">
         <v>567</v>
       </c>
-      <c r="L3" s="141">
+      <c r="L3" s="134">
         <f>$C$4</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="102" t="s">
         <v>568</v>
       </c>
-      <c r="C4" s="137">
+      <c r="C4" s="133">
         <f>DashBoardFinanceiroAnual!$K$2</f>
-        <v>2019</v>
-      </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="109" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="106" t="s">
         <v>570</v>
       </c>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="111" t="str">
+      <c r="I4" s="99"/>
+      <c r="J4" s="107" t="str">
         <f>DashBoardFinanceiroAnual!$K$4</f>
         <v>Livros</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="105" t="s">
         <v>572</v>
       </c>
-      <c r="L4" s="109" t="s">
+      <c r="L4" s="105" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="112">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="108">
         <v>1</v>
       </c>
-      <c r="G5" s="113">
+      <c r="G5" s="109">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F5,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>3042</v>
-      </c>
-      <c r="H5" s="113">
+        <v>6816</v>
+      </c>
+      <c r="H5" s="109">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F5,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>1209</v>
-      </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="113">
+        <v>4843</v>
+      </c>
+      <c r="I5" s="99"/>
+      <c r="J5" s="109">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="113" t="e">
+        <v>6127</v>
+      </c>
+      <c r="K5" s="109">
         <f>IF(J5=0,NA(),J5)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="114" t="s">
+        <v>6127</v>
+      </c>
+      <c r="L5" s="110" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99">
         <v>2</v>
       </c>
-      <c r="G6" s="115">
+      <c r="G6" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F6,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>7524</v>
-      </c>
-      <c r="H6" s="115">
+        <v>9291</v>
+      </c>
+      <c r="H6" s="111">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F6,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>1992</v>
-      </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="115">
+        <v>1561</v>
+      </c>
+      <c r="I6" s="99"/>
+      <c r="J6" s="111">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F6)</f>
-        <v>10916</v>
-      </c>
-      <c r="K6" s="115">
+        <v>460</v>
+      </c>
+      <c r="K6" s="111">
         <f t="shared" ref="K6:K16" si="0">IF(J6=0,NA(),J6)</f>
-        <v>10916</v>
-      </c>
-      <c r="L6" s="106" t="s">
+        <v>460</v>
+      </c>
+      <c r="L6" s="102" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="105" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="101" t="s">
         <v>575</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99">
         <v>3</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F7,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="H7" s="115">
+      <c r="H7" s="111">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F7,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="103"/>
-      <c r="J7" s="115">
+        <v>964</v>
+      </c>
+      <c r="I7" s="99"/>
+      <c r="J7" s="111">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F7)</f>
-        <v>9948</v>
-      </c>
-      <c r="K7" s="115">
+        <v>3701</v>
+      </c>
+      <c r="K7" s="111">
         <f t="shared" si="0"/>
-        <v>9948</v>
-      </c>
-      <c r="L7" s="106" t="s">
+        <v>3701</v>
+      </c>
+      <c r="L7" s="102" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="108" t="s">
         <v>577</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="112">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"&lt;"&amp;$C$4,TbRegistroEntradas[Ano Caixa],"&lt;&gt;0")-SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],"&lt;"&amp;$C$4,TbRegistroSaídas[Ano Caixa],"&lt;&gt;0")</f>
-        <v>55108</v>
-      </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103">
+        <v>-1041</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99">
         <v>4</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F8,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>3690</v>
-      </c>
-      <c r="H8" s="115">
+        <v>0</v>
+      </c>
+      <c r="H8" s="111">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F8,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>4797</v>
-      </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="115">
+        <v>5975</v>
+      </c>
+      <c r="I8" s="99"/>
+      <c r="J8" s="111">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="115" t="e">
+        <v>8704</v>
+      </c>
+      <c r="K8" s="111">
+        <f t="shared" si="0"/>
+        <v>8704</v>
+      </c>
+      <c r="L8" s="102" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99" t="s">
+        <v>579</v>
+      </c>
+      <c r="C9" s="113">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"="&amp;$C$4)</f>
+        <v>313714</v>
+      </c>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99">
+        <v>5</v>
+      </c>
+      <c r="G9" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F9,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>9778</v>
+      </c>
+      <c r="H9" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F9,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="99"/>
+      <c r="J9" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="111" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L8" s="106" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" s="117">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"="&amp;$C$4)</f>
-        <v>129286</v>
-      </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103">
-        <v>5</v>
-      </c>
-      <c r="G9" s="115">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F9,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>7220</v>
-      </c>
-      <c r="H9" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F9,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>6672</v>
-      </c>
-      <c r="I9" s="103"/>
-      <c r="J9" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F9)</f>
-        <v>1620</v>
-      </c>
-      <c r="K9" s="115">
+      <c r="L9" s="102" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" s="113">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],"="&amp;$C$4)</f>
+        <v>257565</v>
+      </c>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99">
+        <v>6</v>
+      </c>
+      <c r="G10" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F10,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>6321</v>
+      </c>
+      <c r="H10" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F10,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>2593</v>
+      </c>
+      <c r="I10" s="99"/>
+      <c r="J10" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F10)</f>
+        <v>2781</v>
+      </c>
+      <c r="K10" s="111">
         <f t="shared" si="0"/>
-        <v>1620</v>
-      </c>
-      <c r="L9" s="106" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103" t="s">
-        <v>581</v>
-      </c>
-      <c r="C10" s="117">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],"="&amp;$C$4)</f>
-        <v>163337</v>
-      </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103">
-        <v>6</v>
-      </c>
-      <c r="G10" s="115">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F10,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>3086</v>
-      </c>
-      <c r="H10" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F10,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>1482</v>
-      </c>
-      <c r="I10" s="103"/>
-      <c r="J10" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F10)</f>
-        <v>2194</v>
-      </c>
-      <c r="K10" s="115">
+        <v>2781</v>
+      </c>
+      <c r="L10" s="102" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="99"/>
+      <c r="B11" s="114" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="115">
+        <f>C8+(C9-C10)</f>
+        <v>55108</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99">
+        <v>7</v>
+      </c>
+      <c r="G11" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F11,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>6846</v>
+      </c>
+      <c r="H11" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F11,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>5627</v>
+      </c>
+      <c r="I11" s="99"/>
+      <c r="J11" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F11)</f>
+        <v>1828</v>
+      </c>
+      <c r="K11" s="111">
         <f t="shared" si="0"/>
-        <v>2194</v>
-      </c>
-      <c r="L10" s="106" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="118" t="s">
-        <v>583</v>
-      </c>
-      <c r="C11" s="119">
-        <f>C8+(C9-C10)</f>
-        <v>21057</v>
-      </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103">
-        <v>7</v>
-      </c>
-      <c r="G11" s="115">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F11,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F11,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>4535</v>
-      </c>
-      <c r="I11" s="103"/>
-      <c r="J11" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="115" t="e">
+        <v>1828</v>
+      </c>
+      <c r="L11" s="102" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99">
+        <v>8</v>
+      </c>
+      <c r="G12" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F12,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F12,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="99"/>
+      <c r="J12" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F12)</f>
+        <v>1749</v>
+      </c>
+      <c r="K12" s="111">
+        <f t="shared" si="0"/>
+        <v>1749</v>
+      </c>
+      <c r="L12" s="102" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="116" t="s">
+        <v>586</v>
+      </c>
+      <c r="C13" s="116"/>
+      <c r="D13" s="112">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],"="&amp;$C$4)</f>
+        <v>46816</v>
+      </c>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99">
+        <v>9</v>
+      </c>
+      <c r="G13" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F13,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>3092</v>
+      </c>
+      <c r="H13" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F13,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>2071</v>
+      </c>
+      <c r="I13" s="99"/>
+      <c r="J13" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="111" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L11" s="106" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103">
-        <v>8</v>
-      </c>
-      <c r="G12" s="115">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F12,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>2759</v>
-      </c>
-      <c r="H12" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F12,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="115" t="e">
+      <c r="L13" s="102" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="99"/>
+      <c r="B14" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4)</f>
+        <v>31482</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99">
+        <v>10</v>
+      </c>
+      <c r="G14" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F14,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F14,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>3787</v>
+      </c>
+      <c r="I14" s="99"/>
+      <c r="J14" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F14)</f>
+        <v>2895</v>
+      </c>
+      <c r="K14" s="111">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="106" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="120" t="s">
-        <v>586</v>
-      </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="116">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Data do Caixa Realizado],"",TbRegistroSaídas[Ano Previsto],"="&amp;$C$4)</f>
-        <v>27321</v>
-      </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103">
-        <v>9</v>
-      </c>
-      <c r="G13" s="115">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F13,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F13,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="103"/>
-      <c r="J13" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="115" t="e">
+        <v>2895</v>
+      </c>
+      <c r="L14" s="102" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99">
+        <v>11</v>
+      </c>
+      <c r="G15" s="111">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F15,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>4672</v>
+      </c>
+      <c r="H15" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F15,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="99"/>
+      <c r="J15" s="111">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F15)</f>
+        <v>3742</v>
+      </c>
+      <c r="K15" s="111">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="106" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
-      <c r="B14" s="121" t="s">
-        <v>588</v>
-      </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],$C$4)</f>
-        <v>20687</v>
-      </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103">
-        <v>10</v>
-      </c>
-      <c r="G14" s="115">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F14,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F14,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="103"/>
-      <c r="J14" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F14)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="115" t="e">
+        <v>3742</v>
+      </c>
+      <c r="L15" s="102" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="114">
+        <v>12</v>
+      </c>
+      <c r="G16" s="119">
+        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F16,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="119">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F16,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>4061</v>
+      </c>
+      <c r="I16" s="99"/>
+      <c r="J16" s="119">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F16)</f>
+        <v>1820</v>
+      </c>
+      <c r="K16" s="119">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="106" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103">
-        <v>11</v>
-      </c>
-      <c r="G15" s="115">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F15,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F15,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="103"/>
-      <c r="J15" s="115">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F15)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="115" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="106" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="118">
-        <v>12</v>
-      </c>
-      <c r="G16" s="123">
-        <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Mês Previsto],F16,TbRegistroSaídas[Ano Previsto],$C$4,TbRegistroSaídas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="123">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês Previsto],F16,TbRegistroEntradas[Ano Previsto],$C$4,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="103"/>
-      <c r="J16" s="123">
-        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$J$4,TbRegistroEntradas[Ano Caixa],$L$3,TbRegistroEntradas[Mês Caixa],F16)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="123" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="124" t="s">
+        <v>1820</v>
+      </c>
+      <c r="L16" s="120" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="105" t="s">
+      <c r="A20" s="99"/>
+      <c r="B20" s="101" t="s">
         <v>592</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="109" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="106" t="s">
         <v>594</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="106" t="s">
         <v>595</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="106" t="s">
         <v>554</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="152">
+      <c r="A22" s="99"/>
+      <c r="B22" s="136">
         <f>C4</f>
-        <v>2019</v>
-      </c>
-      <c r="C22" s="127">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="123">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Venda à Vista],"Vista",TbRegistroEntradas[Ano Caixa],$B$22)</f>
-        <v>39755</v>
-      </c>
-      <c r="D22" s="127">
+        <v>102054</v>
+      </c>
+      <c r="D22" s="123">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Venda à Vista],"Prazo",TbRegistroEntradas[Ano Caixa],$B$22)</f>
-        <v>89531</v>
-      </c>
-      <c r="E22" s="127">
+        <v>211660</v>
+      </c>
+      <c r="E22" s="123">
         <f>C22+D22</f>
-        <v>129286</v>
-      </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
+        <v>313714</v>
+      </c>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
-      <c r="B25" s="105" t="s">
+      <c r="A25" s="99"/>
+      <c r="B25" s="101" t="s">
         <v>596</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="105" t="s">
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="101" t="s">
         <v>597</v>
       </c>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
-      <c r="B26" s="109" t="s">
+      <c r="A26" s="99"/>
+      <c r="B26" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="106" t="s">
         <v>598</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="106" t="s">
         <v>599</v>
       </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="109" t="s">
+      <c r="F26" s="99"/>
+      <c r="G26" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="H26" s="110" t="s">
+      <c r="H26" s="106" t="s">
         <v>598</v>
       </c>
-      <c r="I26" s="110" t="s">
+      <c r="I26" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="J26" s="110" t="s">
+      <c r="J26" s="106" t="s">
         <v>599</v>
       </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
-      <c r="B27" s="152">
+      <c r="A27" s="99"/>
+      <c r="B27" s="136">
         <f>$C$4</f>
-        <v>2019</v>
-      </c>
-      <c r="C27" s="128">
+        <v>2018</v>
+      </c>
+      <c r="C27" s="124">
         <f ca="1">COUNTIFS(TbRegistroEntradas[Ano Previsto],$B$27,TbRegistroEntradas[Dias de Atraso],"&gt;0")</f>
-        <v>20</v>
-      </c>
-      <c r="D27" s="128">
+        <v>35</v>
+      </c>
+      <c r="D27" s="124">
         <f ca="1">SUMIFS(TbRegistroEntradas[Dias de Atraso],TbRegistroEntradas[Ano Previsto],$B$27,TbRegistroEntradas[Dias de Atraso],"&gt;0")</f>
-        <v>3513</v>
-      </c>
-      <c r="E27" s="128">
+        <v>8648</v>
+      </c>
+      <c r="E27" s="124">
         <f ca="1">D27/C27</f>
-        <v>175.65</v>
-      </c>
-      <c r="F27" s="103"/>
-      <c r="G27" s="152">
+        <v>247.08571428571429</v>
+      </c>
+      <c r="F27" s="99"/>
+      <c r="G27" s="136">
         <f>$C$4</f>
-        <v>2019</v>
-      </c>
-      <c r="H27" s="128">
+        <v>2018</v>
+      </c>
+      <c r="H27" s="124">
         <f ca="1">COUNTIFS(TbRegistroSaídas[Ano Previsto],$G$27,TbRegistroSaídas[Dias de Atraso],"&gt;0")</f>
-        <v>14</v>
-      </c>
-      <c r="I27" s="128">
+        <v>28</v>
+      </c>
+      <c r="I27" s="124">
         <f ca="1">SUMIFS(TbRegistroSaídas[Dias de Atraso],TbRegistroSaídas[Ano Previsto],$G$27,TbRegistroSaídas[Dias de Atraso],"&gt;0")</f>
-        <v>3563</v>
-      </c>
-      <c r="J27" s="128">
+        <v>13040</v>
+      </c>
+      <c r="J27" s="124">
         <f ca="1">I27/H27</f>
-        <v>254.5</v>
-      </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
+        <v>465.71428571428572</v>
+      </c>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
-      <c r="B30" s="105" t="s">
+      <c r="A30" s="99"/>
+      <c r="B30" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="105" t="s">
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="101" t="s">
         <v>601</v>
       </c>
-      <c r="H30" s="129">
+      <c r="H30" s="125">
         <f>$C$4</f>
-        <v>2019</v>
-      </c>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
+        <v>2018</v>
+      </c>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="103"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="99"/>
+      <c r="B31" s="126" t="s">
         <v>593</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="110" t="s">
         <v>579</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="110" t="s">
         <v>581</v>
       </c>
-      <c r="E31" s="114" t="s">
+      <c r="E31" s="110" t="s">
         <v>602</v>
       </c>
-      <c r="F31" s="103"/>
-      <c r="G31" s="109" t="s">
+      <c r="F31" s="99"/>
+      <c r="G31" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="H31" s="155" t="str">
+      <c r="H31" s="139" t="str">
         <f>DashBoardFinanceiroAnual!$K$14</f>
         <v>Informática</v>
       </c>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
-      <c r="B32" s="154">
+      <c r="A32" s="99"/>
+      <c r="B32" s="138">
         <f>$C$4</f>
-        <v>2019</v>
-      </c>
-      <c r="C32" s="133">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="129">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],$B$32)</f>
-        <v>129286</v>
-      </c>
-      <c r="D32" s="133">
+        <v>313714</v>
+      </c>
+      <c r="D32" s="129">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$B$32)</f>
-        <v>163337</v>
-      </c>
-      <c r="E32" s="134">
+        <v>257565</v>
+      </c>
+      <c r="E32" s="130">
         <f>C32-D32</f>
-        <v>-34051</v>
-      </c>
-      <c r="G32" s="103">
+        <v>56149</v>
+      </c>
+      <c r="G32" s="99">
         <v>1</v>
       </c>
-      <c r="H32" s="115">
+      <c r="H32" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G32)</f>
-        <v>1628</v>
-      </c>
-      <c r="I32" s="103" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I32" s="99" t="s">
         <v>608</v>
       </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="G33" s="103">
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="G33" s="99">
         <v>2</v>
       </c>
-      <c r="H33" s="115">
+      <c r="H33" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G33)</f>
-        <v>3519</v>
-      </c>
-      <c r="I33" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="99" t="s">
         <v>609</v>
       </c>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="G34" s="103">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="G34" s="99">
         <v>3</v>
       </c>
-      <c r="H34" s="115">
+      <c r="H34" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G34)</f>
-        <v>3695</v>
-      </c>
-      <c r="I34" s="103" t="s">
+        <v>7797</v>
+      </c>
+      <c r="I34" s="99" t="s">
         <v>610</v>
       </c>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="G35" s="103">
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="G35" s="99">
         <v>4</v>
       </c>
-      <c r="H35" s="115">
+      <c r="H35" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G35)</f>
-        <v>802</v>
-      </c>
-      <c r="I35" s="103" t="s">
+        <v>6298</v>
+      </c>
+      <c r="I35" s="99" t="s">
         <v>611</v>
       </c>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="G36" s="103">
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="G36" s="99">
         <v>5</v>
       </c>
-      <c r="H36" s="115">
+      <c r="H36" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G36)</f>
-        <v>6262</v>
-      </c>
-      <c r="I36" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="99" t="s">
         <v>610</v>
       </c>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="G37" s="103">
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="G37" s="99">
         <v>6</v>
       </c>
-      <c r="H37" s="115">
+      <c r="H37" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G37)</f>
-        <v>6281</v>
-      </c>
-      <c r="I37" s="103" t="s">
+        <v>5481</v>
+      </c>
+      <c r="I37" s="99" t="s">
         <v>608</v>
       </c>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="G38" s="103">
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="G38" s="99">
         <v>7</v>
       </c>
-      <c r="H38" s="115">
+      <c r="H38" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G38)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="103" t="s">
+        <v>10264</v>
+      </c>
+      <c r="I38" s="99" t="s">
         <v>608</v>
       </c>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="G39" s="103">
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="G39" s="99">
         <v>8</v>
       </c>
-      <c r="H39" s="115">
+      <c r="H39" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G39)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="103" t="s">
+        <v>8979</v>
+      </c>
+      <c r="I39" s="99" t="s">
         <v>611</v>
       </c>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="G40" s="103">
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="G40" s="99">
         <v>9</v>
       </c>
-      <c r="H40" s="115">
+      <c r="H40" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G40)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="103" t="s">
+        <v>4084</v>
+      </c>
+      <c r="I40" s="99" t="s">
         <v>612</v>
       </c>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="G41" s="103">
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="G41" s="99">
         <v>10</v>
       </c>
-      <c r="H41" s="115">
+      <c r="H41" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G41)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="103" t="s">
+      <c r="I41" s="99" t="s">
         <v>613</v>
       </c>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="103"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="G42" s="103">
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="G42" s="99">
         <v>11</v>
       </c>
-      <c r="H42" s="115">
+      <c r="H42" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G42)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="103" t="s">
+        <v>5214</v>
+      </c>
+      <c r="I42" s="99" t="s">
         <v>614</v>
       </c>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="103"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="G43" s="118">
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="G43" s="114">
         <v>12</v>
       </c>
-      <c r="H43" s="115">
+      <c r="H43" s="111">
         <f>SUMIFS(TbRegistroSaídas[Valor],TbRegistroSaídas[Ano Caixa],$H$30,TbRegistroSaídas[Conta Nível 2],$H$31,TbRegistroSaídas[Mês Caixa],G43)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="103" t="s">
+        <v>883</v>
+      </c>
+      <c r="I43" s="99" t="s">
         <v>615</v>
       </c>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="103"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="109" t="s">
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="105" t="s">
         <v>554</v>
       </c>
-      <c r="H44" s="135">
+      <c r="H44" s="131">
         <f>SUM(H32:H43)</f>
-        <v>22187</v>
-      </c>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
+        <v>50130</v>
+      </c>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="103"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20635,10 +21704,10 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="144"/>
+      <c r="C3" s="141"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -20951,10 +22020,10 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="145"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -50805,13 +51874,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="146" t="s">
+      <c r="J1" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
